--- a/voca.xlsx
+++ b/voca.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D393"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,1152 +427,1158 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>discretion</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>결심, 결정, 결단력</t>
+          <t>재량(권), 신중함</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>44226.28725668151</v>
+        <v>44226.28725668115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>authority</t>
+          <t>discrepancy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>당국, 권한</t>
+          <t>불일치, 차이</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>44226.28725668169</v>
+        <v>44226.28725668133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>discretion</t>
+          <t>pass out</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>재량</t>
+          <t>건네다</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>44226.27521903547</v>
+        <v>44226.27521903459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>assortment</t>
+          <t>sip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>모음</t>
+          <t>마시다</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44226.27521903592</v>
+        <v>44222.1141908906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>faculty</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>비판적인</t>
+          <t>교수진</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>44226.2872566846</v>
+        <v>44226.27521903722</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>substantial</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>상당한, 실질적인</t>
+          <t>~에 헌신하다, 전념하다</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>44226.27521903696</v>
+        <v>44224.95196826205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tenant</t>
+          <t>take over</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>세입자</t>
+          <t>인수하다, 이어받다</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>44226.28725668345</v>
+        <v>44226.287256684</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>earn</t>
+          <t>designate</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>~에게 …을 받게 할 자격을 주다</t>
+          <t>지정하다</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>44226.27521903714</v>
+        <v>44226.28725668353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>on your own</t>
+          <t>harvest</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>혼자 힘으로</t>
+          <t>수확(량)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>44226.27521903334</v>
+        <v>44226.27521903561</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>discrepancy</t>
+          <t>retention</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>불일치, 차이</t>
+          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>44226.28725668133</v>
+        <v>44226.28725668124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>discretion</t>
+          <t>on your own</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>재량(권), 신중함</t>
+          <t>혼자 힘으로</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44226.28725668115</v>
+        <v>44226.27521903334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>formal</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>공식적인</t>
+          <t>유효한</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>44226.28725668443</v>
+        <v>44222.8469271319</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>criticism</t>
+          <t>look over</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>비판, 비평</t>
+          <t>~을 살펴보다</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>44226.28725668482</v>
+        <v>44226.27521903375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>take over</t>
+          <t>board of trustees</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>인수하다, 이어받다</t>
+          <t>이사회</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>44226.287256684</v>
+        <v>44226.2872566842</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>matter</t>
+          <t>collect payment</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>중요하다</t>
+          <t>대금을 회수하다</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>44226.28725668374</v>
+        <v>44222.11419089455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>be busy -ing</t>
+          <t>outlook</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>~하느라 바쁘다</t>
+          <t>관점, 전망</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>44226.27521903316</v>
+        <v>44226.27521903759</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>alumi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>직업</t>
+          <t>졸업생들</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>44226.27521903744</v>
+        <v>44226.27521903729</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>get to</t>
+          <t>fool</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~에 착수하다</t>
+          <t>속이다</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>44226.27521903298</v>
+        <v>44222.84692713268</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>commune</t>
+          <t>house</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>친하게 사귀다</t>
+          <t>(장기적으로) 장소를 제공하다</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772068</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>44224.95196826055</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>get off</t>
+          <t>scholarship</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>내리다</t>
+          <t>장학금</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>44226.27521903451</v>
+        <v>44226.28725668429</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>변환</t>
+          <t>결근, 부재</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>44226.27521903575</v>
+        <v>44222.84692713073</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>now that</t>
+          <t>premise</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~이기 때문에</t>
+          <t>구내, 토지</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>44226.27521903344</v>
+        <v>44226.28725668188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>estimate</t>
+          <t>be in force</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>견적</t>
+          <t>(법률 등이) 시행되다</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>44226.27521903508</v>
+        <v>44224.15166368782</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>commentary</t>
+          <t>as much as possible</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>가능한 많이</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>44226.28725668451</v>
+        <v>44226.27521903324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>outlook</t>
+          <t>faint</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>관점, 전망</t>
+          <t>희미한</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>44226.27521903759</v>
+        <v>44222.11419089351</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dairy farmer</t>
+          <t>expenditure</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>낙농업자</t>
+          <t>지출</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>44226.2752190368</v>
+        <v>44222.84692713573</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>as much as possible</t>
+          <t>in a single direction</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>가능한 많이</t>
+          <t>한 방향으로</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>44226.27521903324</v>
+        <v>44224.95196826266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>faulty</t>
+          <t>publicize</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>결함이 있는</t>
+          <t>공표하다, 알리다</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>44226.27521903606</v>
+        <v>44224.95196826175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reversal</t>
+          <t>financial position</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>전환, 역전</t>
+          <t>재무 상태</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>44226.28725668282</v>
+        <v>44222.11419089536</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>disclosure</t>
+          <t>resolution</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>공개</t>
+          <t>결심, 결정, 결단력</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>44226.28725668178</v>
+        <v>44226.28725668151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>executive committee</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
+          <t>집행 위원회</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>44226.27521903359</v>
+        <v>44226.27521903584</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>favor</t>
+          <t>be scattered on</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>호의</t>
+          <t>~에 흩어져 있다</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>44226.275219035</v>
+        <v>44224.95196826251</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>acclaimed</t>
+          <t>assigned to</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>칭찬[호평] 받는</t>
+          <t>~로 발령받다</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>44226.28725668411</v>
+        <v>44226.27521903752</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>premise</t>
+          <t>glazed</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>구내, 토지</t>
+          <t>(설탕을 입혀) 윤기가 나는</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>44226.28725668188</v>
+        <v>44222.84692713429</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>quotation</t>
+          <t>on time</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>인용</t>
+          <t>정시에</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>44226.27521903567</v>
+        <v>44226.28725668383</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">in exchange for </t>
+          <t>favor</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~의 대가로</t>
+          <t>호의</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>44226.27521903688</v>
+        <v>44226.275219035</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pay package</t>
+          <t>account</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>연봉</t>
+          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>44226.27521903706</v>
+        <v>44226.27521903359</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>retention</t>
+          <t>as to</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>44226.28725668124</v>
+        <v>44222.11419089403</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>assembly</t>
+          <t>unfavorable</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>의회</t>
+          <t>불리한</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>44226.27521903737</v>
+        <v>44224.15166368725</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>designate</t>
+          <t>synthetic</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>지정하다</t>
+          <t>합성의</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>44226.28725668353</v>
+        <v>44222.84692713212</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pass out</t>
+          <t>pay package</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>건네다</t>
+          <t>연봉</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>44226.27521903459</v>
+        <v>44226.27521903706</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>allowance</t>
+          <t>credential</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>수당</t>
+          <t>자격(증), 보증서, 자격 인증(서)</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>44226.28725668143</v>
+        <v>44222.11419089478</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>scholarship</t>
+          <t>decide against -ing</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>장학금</t>
+          <t>~하지 않기로 결정하다</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>44226.28725668429</v>
+        <v>44224.85289744789</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>valdiation</t>
+          <t>will pay a visit</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>확인</t>
+          <t>방문할 것이다.</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>44226.27521903553</v>
+        <v>44222.11419089448</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>landscape</t>
+          <t>commune</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>조경을 하다</t>
+          <t>친하게 사귀다</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
-      <c r="D45" s="1" t="n">
-        <v>44226.27521903383</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772068</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>in a timely manner</t>
+          <t>water tower</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>시기에 맞게</t>
+          <t>급수탑</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>44226.28725668437</v>
+        <v>44222.11419089501</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>occasion</t>
+          <t>Town council</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>때, 경우</t>
+          <t>시의회</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>44226.275219036</v>
+        <v>44224.95196826015</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>quite a while ago</t>
+          <t>be credited to</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>꽤 오래전에</t>
+          <t>~로 입금되다[금액이 넘어가다]</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>44226.27521903308</v>
+        <v>44224.85289744771</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">critic </t>
+          <t>be busy -ing</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>비평가</t>
+          <t>~하느라 바쁘다</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>44226.28725668466</v>
+        <v>44226.27521903316</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>critically</t>
+          <t>deliberation</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>비판적으로</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>44226.28725668474</v>
+        <v>44222.11419089273</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>booklet</t>
+          <t>stationery store</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>소책자</t>
+          <t>문구점</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>4</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>44226.27521903467</v>
+        <v>44226.27521903351</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>store credit</t>
+          <t>outplay</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>상점 적립금</t>
+          <t>패배시키다</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>4</v>
       </c>
-      <c r="D52" s="1" t="n">
-        <v>44226.27521903476</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771879</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>now that</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~에 헌신하다[전념하다]</t>
+          <t>~이기 때문에</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>44226.28725668327</v>
+        <v>44226.27521903344</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>appreciate</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>산출하다, (이익을) 내다</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
-      <c r="D54" s="1" t="n">
-        <v>44222.84692713288</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771984</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>board of trustees</t>
+          <t>fabricate</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>이사회</t>
+          <t>조립하다, 제작하다</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
-      <c r="D55" s="1" t="n">
-        <v>44226.2872566842</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771804</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>be propped on[against]</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>처리[해결]하다, 다루다</t>
+          <t>~에 기대어 있다</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>44224.95196826212</v>
+        <v>44224.95196826236</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>every other week</t>
+          <t>store credit</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>격주로</t>
+          <t>상점 적립금</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>44222.11419089165</v>
+        <v>44226.27521903476</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>implore</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>애원하다, 간청하다</t>
+          <t>취재하다, 기사를 담당하다</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>44222.11419089589</v>
+        <v>44226.28725668292</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>mow</t>
+          <t>acidic</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>잔디를 깎다</t>
+          <t>매우 신</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>4</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772470</t>
-        </is>
+      <c r="D59" s="1" t="n">
+        <v>44222.84692713419</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sealed</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">마감칠된, 밀폐된 </t>
+          <t>대우, 처치</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>44222.11419089418</v>
+        <v>44226.27521903482</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">halibut </t>
+          <t>awning</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>광어</t>
+          <t>차양</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>4</v>
       </c>
-      <c r="D61" s="1" t="n">
-        <v>44222.84692713412</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772367</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>courtyard</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>뜰, 정원</t>
+          <t>직업</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772213</t>
-        </is>
+      <c r="D62" s="1" t="n">
+        <v>44226.27521903744</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>tuck away</t>
+          <t>liability</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>찾기힘든 안전한 곳에 보관하다</t>
+          <t>책임</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>4</v>
       </c>
-      <c r="D63" s="1" t="n">
-        <v>44222.84692713565</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771945</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>wilderness</t>
+          <t>pier</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>황야</t>
+          <t>부두</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1580,2219 +1586,2217 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772087</t>
+          <t>2021-01-26 02:11:09.772395</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>be appointed + 직위</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>~로 임명되다</t>
+          <t>(봉지에 넣어) 포장하다</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>4</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>44226.28725668301</v>
+        <v>44222.11419089067</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ojection</t>
+          <t>plush</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>안락한, 고급의</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
-      <c r="D66" s="1" t="n">
-        <v>44226.27521903523</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772261</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>roll-out</t>
+          <t>derive</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>(신제품의) 첫 공개</t>
+          <t>끌어내다</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>44224.85289744857</v>
+        <v>44222.11419089582</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>faculty</t>
+          <t>interoffice</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>교수진</t>
+          <t>회사 내의, 각 부서간의</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>44226.27521903722</v>
+        <v>44222.8469271298</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>on time</t>
+          <t>ojection</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>정시에</t>
+          <t>반대</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>44226.28725668383</v>
+        <v>44226.27521903523</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>forestall</t>
+          <t>dairy farmer</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>선수를 치다, 기선을 제압하다</t>
+          <t>낙농업자</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771832</t>
-        </is>
+      <c r="D70" s="1" t="n">
+        <v>44226.2752190368</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>faint</t>
+          <t>be sure to</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>희미한</t>
+          <t>반드시 ~하다</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>4</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>44222.11419089351</v>
+        <v>44226.2752190339</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>help out</t>
+          <t>you get what you pay for</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>도와주다</t>
+          <t>싼게 비지떡</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>4</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>44226.28725668362</v>
+        <v>44222.1141908932</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>harvest</t>
+          <t>as of + 시점</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>수확(량)</t>
+          <t>~부로</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>4</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>44226.27521903561</v>
+        <v>44222.11419089551</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>reconfigure</t>
+          <t>consider A (as [to be]) B</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>(시스템, 기기 등을) 재배열[재설정]</t>
+          <t>A를 B로 여기다, 간주하다</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>4</v>
       </c>
-      <c r="D74" s="1" t="n">
-        <v>44224.85289744933</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771898</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>research into</t>
+          <t>disclosure</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>~을 조사하다</t>
+          <t>공개</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771870</t>
-        </is>
+      <c r="D75" s="1" t="n">
+        <v>44226.28725668178</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>delivery window</t>
+          <t>high court</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>배달 시간대</t>
+          <t>고등 법원</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>4</v>
       </c>
-      <c r="D76" s="1" t="n">
-        <v>44222.84692713558</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771936</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sip</t>
+          <t>assortment</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>마시다</t>
+          <t>모음</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>44222.1141908906</v>
+        <v>44226.27521903592</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>put up</t>
+          <t>autograph</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>~을 붙이다, 세우다</t>
+          <t>사인</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>44222.11419088999</v>
+        <v>44222.11419089082</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>claim</t>
+          <t>reserve the right to + 동사원형</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>~을 주장하다</t>
+          <t>~할 권한을 보유하다</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>4</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771907</t>
-        </is>
+      <c r="D79" s="1" t="n">
+        <v>44224.85289744757</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>anchor</t>
+          <t>delivery window</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>정박하다</t>
+          <t>배달 시간대</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>4</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>44224.15166368819</v>
+        <v>44222.84692713558</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>offshore</t>
+          <t>insulated</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>연안에</t>
+          <t>절연된</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>4</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>44224.15166368827</v>
+        <v>44222.1141908941</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>admit</t>
+          <t>wilted</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>살짝 데친</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>4</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>44224.85289744914</v>
+        <v>44222.84692713471</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>reversal</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>차이, 변형(시킨 것)</t>
+          <t>전환, 역전</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>4</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>44226.2872566816</v>
+        <v>44226.28725668282</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>publicize</t>
+          <t>every other week</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>공표하다, 알리다</t>
+          <t>격주로</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>4</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>44224.95196826175</v>
+        <v>44222.11419089165</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>proximate</t>
+          <t>help out</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>가장 가까운</t>
+          <t>도와주다</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>44222.84692713319</v>
+        <v>44226.28725668362</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>in exchange for</t>
+          <t>lie</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>~을 대신해서</t>
+          <t>놓여 있다</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
-      <c r="D86" s="1" t="n">
-        <v>44222.84692713327</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772423</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>expenditure</t>
+          <t>concerning</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>지출</t>
+          <t>~에 관한</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>44222.84692713573</v>
+        <v>44222.11419089493</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>criticism</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>취재하다, 기사를 담당하다</t>
+          <t>비판, 비평</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>4</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>44226.28725668292</v>
+        <v>44226.28725668482</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>be in force</t>
+          <t>assembly</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>(법률 등이) 시행되다</t>
+          <t>의회</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>44224.15166368782</v>
+        <v>44226.27521903737</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>be sure to</t>
+          <t>frustrating</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>반드시 ~하다</t>
+          <t>실망스러운</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>44226.2752190339</v>
+        <v>44222.84692713296</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>acidic</t>
+          <t>highland</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>매우 신</t>
+          <t>고원</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>4</v>
       </c>
-      <c r="D91" s="1" t="n">
-        <v>44222.84692713419</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772078</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>school term</t>
+          <t>serve as</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>학기</t>
+          <t>~의 역할을 하다</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>4</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>44226.28725668318</v>
+        <v>44222.8469271309</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>unfavorable</t>
+          <t>initiation</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>불리한</t>
+          <t>창시, 입문</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>4</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>44224.15166368725</v>
+        <v>44224.95196826095</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>elevation</t>
+          <t>associate's degree</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>승진</t>
+          <t>준학사 학위</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>4</v>
       </c>
-      <c r="D94" s="1" t="n">
-        <v>44226.27521903538</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772097</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>thoroughly</t>
+          <t>admission</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>철저히</t>
+          <t>입장, 인정</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>44222.84692713282</v>
+        <v>44222.84692713066</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>initiator</t>
+          <t>overdraw</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>창시자</t>
+          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>4</v>
       </c>
-      <c r="D96" s="1" t="n">
-        <v>44224.95196826103</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772059</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>plush</t>
+          <t>bet</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>안락한, 고급의</t>
+          <t>선택한 것[사람], 방책</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>4</v>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772261</t>
-        </is>
+      <c r="D97" s="1" t="n">
+        <v>44222.84692713251</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Town council</t>
+          <t>feature</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>시의회</t>
+          <t>(영화, 전시 등에) 등장시키다</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>44224.95196826015</v>
+        <v>44224.85289744905</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>be to blame</t>
+          <t>anchor</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>(잘못의) 책임이 있다</t>
+          <t>정박하다</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>44224.85289744868</v>
+        <v>44224.15166368819</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>rotunda</t>
+          <t>pavilion</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>원형의 홀, 원형 건축물</t>
+          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>4</v>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772308</t>
-        </is>
+      <c r="D100" s="1" t="n">
+        <v>44222.11419089228</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>serve as</t>
+          <t>landscape</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>~의 역할을 하다</t>
+          <t>조경을 하다</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>4</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>44222.8469271309</v>
+        <v>44226.27521903383</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>fabricate</t>
+          <t>podium</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>조립하다, 제작하다</t>
+          <t>연단</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>4</v>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771804</t>
-        </is>
+      <c r="D102" s="1" t="n">
+        <v>44222.11419089007</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>bistro</t>
+          <t>to this end</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>이를 위해, 이런 목적으로</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>4</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>44224.95196826063</v>
+        <v>44222.11419089136</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>bird-nesting</t>
+          <t>allowance</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>(취미로) 새 둥지를 찾아다니는</t>
+          <t>수당</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>44224.15166368884</v>
+        <v>44226.28725668143</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>lay</t>
+          <t>insist on -ing</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>놓다, 두다</t>
+          <t>~할 것을 주장하다</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>4</v>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772433</t>
-        </is>
+      <c r="D105" s="1" t="n">
+        <v>44224.15166368698</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>verification</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>확인, 조회</t>
+          <t>중역</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>44224.15166368864</v>
+        <v>44226.28725668391</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>(봉지에 넣어) 포장하다</t>
+          <t>견적</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>4</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>44222.11419089067</v>
+        <v>44226.27521903508</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>lie</t>
+          <t>quality assurance</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>놓여 있다</t>
+          <t>품질 보증</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>4</v>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772423</t>
-        </is>
+      <c r="D108" s="1" t="n">
+        <v>44222.11419089433</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>end up -ing</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>간부, 공무원</t>
+          <t>~하게 되다, 결국 ~이 되다</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>4</v>
       </c>
-      <c r="D109" s="1" t="n">
-        <v>44222.11419089281</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772223</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>pier</t>
+          <t>correspondence</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>부두</t>
+          <t>통신, 연락</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>4</v>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772395</t>
-        </is>
+      <c r="D110" s="1" t="n">
+        <v>44222.84692713374</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>feature</t>
+          <t>devotion</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>(영화, 전시 등에) 등장시키다</t>
+          <t>헌신, 전념</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>4</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>44224.85289744905</v>
+        <v>44226.2752190349</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>assistant manager</t>
+          <t>substantial</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>대리</t>
+          <t>상당한, 실질적인</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>4</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>44222.84692713011</v>
+        <v>44226.27521903696</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>scope</t>
+          <t>orchard</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>범위, 영역</t>
+          <t>과수원</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>4</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>44222.11419089205</v>
+        <v>44222.11419089173</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>commentary</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>탄력, 가속도, 여세</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>4</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>44226.27521903367</v>
+        <v>44226.28725668451</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>crate</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>중역</t>
+          <t>상자</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>4</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>44226.28725668391</v>
+        <v>44222.11419088969</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>to this end</t>
+          <t>plow</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>이를 위해, 이런 목적으로</t>
+          <t>쟁기로 갈다; 쟁기</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>4</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>44222.11419089136</v>
+        <v>44222.11419088944</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>be credited to</t>
+          <t>bistro</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>~로 입금되다[금액이 넘어가다]</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>4</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>44224.85289744771</v>
+        <v>44224.95196826063</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>insulated</t>
+          <t>year-round</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>절연된</t>
+          <t>일년 내내</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>4</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>44222.1141908941</v>
+        <v>44222.1141908922</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>tremendous</t>
+          <t>indication</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>엄청난, 대단한</t>
+          <t>암시</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>4</v>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772348</t>
-        </is>
+      <c r="D119" s="1" t="n">
+        <v>44226.2752190353</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>correspondence</t>
+          <t>mural</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>통신, 연락</t>
+          <t>벽화</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>4</v>
       </c>
-      <c r="D120" s="1" t="n">
-        <v>44222.84692713374</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772204</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>get to</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>~에 관한</t>
+          <t>~에 착수하다</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>44222.11419089493</v>
+        <v>44226.27521903298</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>mural</t>
+          <t>somewhat</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>벽화</t>
+          <t>다소, 약간</t>
         </is>
       </c>
       <c r="C122" t="n">
         <v>4</v>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772204</t>
-        </is>
+      <c r="D122" s="1" t="n">
+        <v>44222.84692713027</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>bouquet</t>
+          <t>take inventory</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>꽃다발</t>
+          <t>재고 조사를 하다</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>4</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>44222.11419088952</v>
+        <v>44224.95196826282</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>synthetic</t>
+          <t>authority</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>합성의</t>
+          <t>당국, 권한</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>4</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>44222.84692713212</v>
+        <v>44226.28725668169</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>deliberation</t>
+          <t>have company</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>동행[일행]이 있다</t>
         </is>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>44222.11419089273</v>
+        <v>44226.28725668309</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>verification</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>대우, 처치</t>
+          <t>확인, 조회</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>4</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>44226.27521903482</v>
+        <v>44224.15166368864</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>be about to + 동사원형</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>막 ~하려고 하다</t>
+          <t xml:space="preserve">상당히 </t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>4</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>44222.11419088992</v>
+        <v>44222.84692713397</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>compliment</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>유효한</t>
+          <t>칭찬하다</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>44222.8469271319</v>
+        <v>44224.85289744801</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>look over</t>
+          <t>composition</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>~을 살펴보다</t>
+          <t>구성(요소)</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>4</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>44226.27521903375</v>
+        <v>44226.28725668104</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>credential</t>
+          <t>treat</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>자격(증), 보증서, 자격 인증(서)</t>
+          <t>특별한 기쁨, 만족</t>
         </is>
       </c>
       <c r="C130" t="n">
         <v>4</v>
       </c>
-      <c r="D130" s="1" t="n">
-        <v>44222.11419089478</v>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772166</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>stationery store</t>
+          <t>nevertheless</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>문구점</t>
+          <t>그럼에도 불구하고</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>44226.27521903351</v>
+        <v>44222.11419089097</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>jostle for</t>
+          <t>school term</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>~을 위하여 다투다, 겨루다</t>
+          <t>학기</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>4</v>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772185</t>
-        </is>
+      <c r="D132" s="1" t="n">
+        <v>44226.28725668318</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>interoffice</t>
+          <t>floor</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>회사 내의, 각 부서간의</t>
+          <t>작업장</t>
         </is>
       </c>
       <c r="C133" t="n">
         <v>4</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>44222.8469271298</v>
+        <v>44224.85289744924</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>make landfall</t>
+          <t>paycheck</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>착륙하다</t>
+          <t>급여(수표)</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>44224.15166368837</v>
+        <v>44222.84692713146</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>be propped on[against]</t>
+          <t xml:space="preserve">sizable </t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>~에 기대어 있다</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>4</v>
       </c>
-      <c r="D135" s="1" t="n">
-        <v>44224.95196826236</v>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772232</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>collect payment</t>
+          <t>make landfall</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>대금을 회수하다</t>
+          <t>착륙하다</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>44222.11419089455</v>
+        <v>44224.15166368837</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>reserve the right to + 동사원형</t>
+          <t>roll-out</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>~할 권한을 보유하다</t>
+          <t>(신제품의) 첫 공개</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>4</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>44224.85289744757</v>
+        <v>44224.85289744857</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>outplay</t>
+          <t>feasibility</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>패배시키다</t>
+          <t>실행 가능성, 실현 가능성</t>
         </is>
       </c>
       <c r="C138" t="n">
         <v>4</v>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771879</t>
-        </is>
+      <c r="D138" s="1" t="n">
+        <v>44226.28725668096</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>tuition</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>학자금</t>
+          <t>시의</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>44222.84692713174</v>
+        <v>44222.11419089144</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>frustrating</t>
+          <t>be to blame</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>실망스러운</t>
+          <t>(잘못의) 책임이 있다</t>
         </is>
       </c>
       <c r="C140" t="n">
         <v>4</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>44222.84692713296</v>
+        <v>44224.85289744868</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>vary</t>
+          <t>momentum</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>(서로) 다르다, 다양하다</t>
+          <t>탄력, 가속도, 여세</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>4</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>44222.84692713229</v>
+        <v>44226.27521903367</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>awning</t>
+          <t>bouquet</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>차양</t>
+          <t>꽃다발</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772367</t>
-        </is>
+      <c r="D142" s="1" t="n">
+        <v>44222.11419088952</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>consider A (as [to be]) B</t>
+          <t>theatergoer</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>A를 B로 여기다, 간주하다</t>
+          <t>극장에 (자주) 가는 사람</t>
         </is>
       </c>
       <c r="C143" t="n">
         <v>4</v>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771898</t>
-        </is>
+      <c r="D143" s="1" t="n">
+        <v>44224.95196826072</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>elevation</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>결근, 부재</t>
+          <t>승진</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>4</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>44222.84692713073</v>
+        <v>44226.27521903538</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>end up -ing</t>
+          <t>faulty</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>~하게 되다, 결국 ~이 되다</t>
+          <t>결함이 있는</t>
         </is>
       </c>
       <c r="C145" t="n">
         <v>4</v>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772223</t>
-        </is>
+      <c r="D145" s="1" t="n">
+        <v>44226.27521903606</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>obstruct</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>막다</t>
+          <t>변환</t>
         </is>
       </c>
       <c r="C146" t="n">
         <v>4</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>44222.84692713019</v>
+        <v>44226.27521903575</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>devotion</t>
+          <t>overlook</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>헌신, 전념</t>
+          <t>간과; ~을 간과하다, 내려보다</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>4</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>44226.2752190349</v>
+        <v>44222.84692713336</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>derive</t>
+          <t>initiator</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>끌어내다</t>
+          <t>창시자</t>
         </is>
       </c>
       <c r="C148" t="n">
         <v>4</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>44222.11419089582</v>
+        <v>44224.95196826103</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>be supposed to</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>시의</t>
+          <t>~할 예정이다, ~하도록 되어 있다</t>
         </is>
       </c>
       <c r="C149" t="n">
         <v>4</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>44222.11419089144</v>
+        <v>44222.11419089574</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>occasion</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>~에 헌신하다, 전념하다</t>
+          <t>때, 경우</t>
         </is>
       </c>
       <c r="C150" t="n">
         <v>4</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>44224.95196826205</v>
+        <v>44226.275219036</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>as to</t>
+          <t>tender</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>(고기가) 연한</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>44222.11419089403</v>
+        <v>44222.84692713404</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>orchard</t>
+          <t>move in</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>과수원</t>
+          <t>이사 들어오다</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>4</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>44222.11419089173</v>
+        <v>44226.27521903287</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>overlook</t>
+          <t>ration</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>간과; ~을 간과하다, 내려보다</t>
+          <t>배급하다</t>
         </is>
       </c>
       <c r="C153" t="n">
         <v>4</v>
       </c>
-      <c r="D153" s="1" t="n">
-        <v>44222.84692713336</v>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772012</t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>alumi</t>
+          <t>sole</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>졸업생들</t>
+          <t>밑창</t>
         </is>
       </c>
       <c r="C154" t="n">
         <v>4</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>44226.27521903729</v>
+        <v>44222.8469271326</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>proprietor</t>
+          <t>admit</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>사업주</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>44226.28725668335</v>
+        <v>44224.85289744914</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>glazed</t>
+          <t>bird-nesting</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>(설탕을 입혀) 윤기가 나는</t>
+          <t>(취미로) 새 둥지를 찾아다니는</t>
         </is>
       </c>
       <c r="C156" t="n">
         <v>4</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>44222.84692713429</v>
+        <v>44224.15166368884</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>pavilion</t>
+          <t>acclaimed</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
+          <t>칭찬[호평] 받는</t>
         </is>
       </c>
       <c r="C157" t="n">
         <v>4</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>44222.11419089228</v>
+        <v>44226.28725668411</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>wilted</t>
+          <t>earn</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>살짝 데친</t>
+          <t>~에게 …을 받게 할 자격을 주다</t>
         </is>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>44222.84692713471</v>
+        <v>44226.27521903714</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>tuition</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>~을 고려할 때</t>
+          <t>학자금</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>44224.95196826023</v>
+        <v>44222.84692713174</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>in a single direction</t>
+          <t>get off</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>한 방향으로</t>
+          <t>내리다</t>
         </is>
       </c>
       <c r="C160" t="n">
         <v>4</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>44224.95196826266</v>
+        <v>44226.27521903451</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>you get what you pay for</t>
+          <t>research into</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>싼게 비지떡</t>
+          <t>~을 조사하다</t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
-      <c r="D161" s="1" t="n">
-        <v>44222.1141908932</v>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771870</t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>will pay a visit</t>
+          <t>claim</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>방문할 것이다.</t>
+          <t>~을 주장하다</t>
         </is>
       </c>
       <c r="C162" t="n">
         <v>4</v>
       </c>
-      <c r="D162" s="1" t="n">
-        <v>44222.11419089448</v>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771907</t>
+        </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>treat</t>
+          <t>critically</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>특별한 기쁨, 만족</t>
+          <t>비판적으로</t>
         </is>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772166</t>
-        </is>
+      <c r="D163" s="1" t="n">
+        <v>44226.28725668474</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>autograph</t>
+          <t>in preparation for</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>사인</t>
+          <t>~에 대비하여</t>
         </is>
       </c>
       <c r="C164" t="n">
         <v>4</v>
       </c>
-      <c r="D164" s="1" t="n">
-        <v>44222.11419089082</v>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772320</t>
+        </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>excutive chef</t>
+          <t xml:space="preserve">halibut </t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>총 주방장</t>
+          <t>광어</t>
         </is>
       </c>
       <c r="C165" t="n">
         <v>4</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>44224.9519682608</v>
+        <v>44222.84692713412</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">sizable </t>
+          <t>assistant manager</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>대리</t>
         </is>
       </c>
       <c r="C166" t="n">
         <v>4</v>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772232</t>
-        </is>
+      <c r="D166" s="1" t="n">
+        <v>44222.84692713011</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>fool</t>
+          <t>in exchange for</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>속이다</t>
+          <t>~을 대신해서</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>4</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>44222.84692713268</v>
+        <v>44222.84692713327</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>year-round</t>
+          <t>thoroughly</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>일년 내내</t>
+          <t>철저히</t>
         </is>
       </c>
       <c r="C168" t="n">
         <v>4</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>44222.1141908922</v>
+        <v>44222.84692713282</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>have company</t>
+          <t>mow</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>동행[일행]이 있다</t>
+          <t>잔디를 깎다</t>
         </is>
       </c>
       <c r="C169" t="n">
         <v>4</v>
       </c>
-      <c r="D169" s="1" t="n">
-        <v>44226.28725668309</v>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772470</t>
+        </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>in preparation for</t>
+          <t>tenant</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>~에 대비하여</t>
+          <t>세입자</t>
         </is>
       </c>
       <c r="C170" t="n">
         <v>4</v>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772320</t>
-        </is>
+      <c r="D170" s="1" t="n">
+        <v>44226.28725668345</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>let down</t>
+          <t>in a timely manner</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>~을 실망시키다</t>
+          <t>시기에 맞게</t>
         </is>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771974</t>
-        </is>
+      <c r="D171" s="1" t="n">
+        <v>44226.28725668437</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>enthusiast</t>
+          <t>sealed</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>열성팬 [열렬한 팬]</t>
+          <t xml:space="preserve">마감칠된, 밀폐된 </t>
         </is>
       </c>
       <c r="C172" t="n">
         <v>4</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>44222.84692713221</v>
+        <v>44222.11419089418</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>quality assurance</t>
+          <t>plumbing</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>품질 보증</t>
+          <t>배관[수도 시설], 배관 작업[공사]</t>
         </is>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>44222.11419089433</v>
+        <v>44222.11419089181</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>paycheck</t>
+          <t>cost A B</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>급여(수표)</t>
+          <t>A에게 B의 비용이 들다</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>4</v>
       </c>
-      <c r="D174" s="1" t="n">
-        <v>44222.84692713146</v>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771851</t>
+        </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>be scattered on</t>
+          <t>valdiation</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>~에 흩어져 있다</t>
+          <t>확인</t>
         </is>
       </c>
       <c r="C175" t="n">
         <v>4</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>44224.95196826251</v>
+        <v>44226.27521903553</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>move in</t>
+          <t>reconfigure</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>이사 들어오다</t>
+          <t>(시스템, 기기 등을) 재배열[재설정]</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>44226.27521903287</v>
+        <v>44224.85289744933</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>decide against -ing</t>
+          <t>put up</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>~하지 않기로 결정하다</t>
+          <t>~을 붙이다, 세우다</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>4</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>44224.85289744789</v>
+        <v>44222.11419088999</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>somewhat</t>
+          <t>rotunda</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>다소, 약간</t>
+          <t>원형의 홀, 원형 건축물</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>4</v>
       </c>
-      <c r="D178" s="1" t="n">
-        <v>44222.84692713027</v>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772308</t>
+        </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>tender</t>
+          <t>forestall</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>(고기가) 연한</t>
+          <t>선수를 치다, 기선을 제압하다</t>
         </is>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
-      <c r="D179" s="1" t="n">
-        <v>44222.84692713404</v>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771832</t>
+        </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>composition</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>구성(요소)</t>
+          <t>비판적인</t>
         </is>
       </c>
       <c r="C180" t="n">
         <v>4</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>44226.28725668104</v>
+        <v>44226.2872566846</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>as of + 시점</t>
+          <t>proprietor</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>~부로</t>
+          <t>사업주</t>
         </is>
       </c>
       <c r="C181" t="n">
         <v>4</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>44222.11419089551</v>
+        <v>44226.28725668335</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>assigned to</t>
+          <t>be appointed + 직위</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>~로 발령받다</t>
+          <t>~로 임명되다</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>4</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>44226.27521903752</v>
+        <v>44226.28725668301</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>interfere with</t>
+          <t>proximate</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>~을 방해하다</t>
+          <t>가장 가까운</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>4</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>44224.85289744781</v>
+        <v>44222.84692713319</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>sole</t>
+          <t>relieve A of B</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>밑창</t>
+          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
         </is>
       </c>
       <c r="C184" t="n">
         <v>4</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>44222.8469271326</v>
+        <v>44222.11419089597</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ration</t>
+          <t>bear with</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>배급하다</t>
+          <t>~을 견디다, 참다</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -3800,865 +3804,863 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772012</t>
+          <t>2021-01-26 02:11:09.771955</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>latest</t>
+          <t xml:space="preserve">in exchange for </t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>최신의</t>
+          <t>~의 대가로</t>
         </is>
       </c>
       <c r="C186" t="n">
         <v>4</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>44222.84692713204</v>
+        <v>44226.27521903688</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>indication</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>암시</t>
+          <t>범위, 영역</t>
         </is>
       </c>
       <c r="C187" t="n">
         <v>4</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>44226.2752190353</v>
+        <v>44222.11419089205</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>plow</t>
+          <t>official</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>쟁기로 갈다; 쟁기</t>
+          <t>간부, 공무원</t>
         </is>
       </c>
       <c r="C188" t="n">
         <v>4</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>44222.11419088944</v>
+        <v>44222.11419089281</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>beam</t>
+          <t>interfere with</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>들보, 보</t>
+          <t>~을 방해하다</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>4</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>44224.85289744888</v>
+        <v>44224.85289744781</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>be due to + 동사원형</t>
+          <t>let down</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>~을 실망시키다</t>
         </is>
       </c>
       <c r="C190" t="n">
         <v>4</v>
       </c>
-      <c r="D190" s="1" t="n">
-        <v>44222.11419089388</v>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771974</t>
+        </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>feasibility</t>
+          <t>a load of</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>실행 가능성, 실현 가능성</t>
+          <t>한 짐의, 많은</t>
         </is>
       </c>
       <c r="C191" t="n">
         <v>4</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>44226.28725668096</v>
+        <v>44222.11419088984</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>executive committee</t>
+          <t>lay</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>집행 위원회</t>
+          <t>놓다, 두다</t>
         </is>
       </c>
       <c r="C192" t="n">
         <v>4</v>
       </c>
-      <c r="D192" s="1" t="n">
-        <v>44226.27521903584</v>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772433</t>
+        </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>plumbing</t>
+          <t>jointly</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>배관[수도 시설], 배관 작업[공사]</t>
+          <t>공동으로</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>4</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>44222.11419089181</v>
+        <v>44224.15166368744</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>a load of</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>한 짐의, 많은</t>
+          <t>영업, 사업</t>
         </is>
       </c>
       <c r="C194" t="n">
         <v>4</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>44222.11419088984</v>
+        <v>44226.27521903515</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>extend</t>
+          <t>wilderness</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>정도, 범위</t>
+          <t>황야</t>
         </is>
       </c>
       <c r="C195" t="n">
         <v>4</v>
       </c>
-      <c r="D195" s="1" t="n">
-        <v>44226.28725668084</v>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772087</t>
+        </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>cost A B</t>
+          <t>booklet</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>A에게 B의 비용이 들다</t>
+          <t>소책자</t>
         </is>
       </c>
       <c r="C196" t="n">
         <v>4</v>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771851</t>
-        </is>
+      <c r="D196" s="1" t="n">
+        <v>44226.27521903467</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>be supposed to</t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>~할 예정이다, ~하도록 되어 있다</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C197" t="n">
         <v>4</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>44222.11419089574</v>
+        <v>44222.84692713288</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>color scheme</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>색체 조합</t>
+          <t>~에 헌신하다[전념하다]</t>
         </is>
       </c>
       <c r="C198" t="n">
         <v>4</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>44224.15166368855</v>
+        <v>44226.28725668327</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>relieve A of B</t>
+          <t>allege</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
+          <t>(확실한 증거 없이) 주장하다</t>
         </is>
       </c>
       <c r="C199" t="n">
         <v>4</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>44222.11419089597</v>
+        <v>44222.11419089303</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>water tower</t>
+          <t>quite a while ago</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>급수탑</t>
+          <t>꽤 오래전에</t>
         </is>
       </c>
       <c r="C200" t="n">
         <v>4</v>
       </c>
       <c r="D200" s="1" t="n">
-        <v>44222.11419089501</v>
+        <v>44226.27521903308</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>color scheme</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>(장기적으로) 장소를 제공하다</t>
+          <t>색체 조합</t>
         </is>
       </c>
       <c r="C201" t="n">
         <v>4</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>44224.95196826055</v>
+        <v>44224.15166368855</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>yield</t>
+          <t>surveyor</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>산출하다, (이익을) 내다</t>
+          <t>측량사</t>
         </is>
       </c>
       <c r="C202" t="n">
         <v>4</v>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771984</t>
-        </is>
+      <c r="D202" s="1" t="n">
+        <v>44222.84692712996</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>crate</t>
+          <t>extend</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>상자</t>
+          <t>정도, 범위</t>
         </is>
       </c>
       <c r="C203" t="n">
         <v>4</v>
       </c>
       <c r="D203" s="1" t="n">
-        <v>44222.11419088969</v>
+        <v>44226.28725668084</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>associate's degree</t>
+          <t xml:space="preserve">critic </t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>준학사 학위</t>
+          <t>비평가</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>4</v>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772097</t>
-        </is>
+      <c r="D204" s="1" t="n">
+        <v>44226.28725668466</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>financial position</t>
+          <t>courtyard</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>재무 상태</t>
+          <t>뜰, 정원</t>
         </is>
       </c>
       <c r="C205" t="n">
         <v>4</v>
       </c>
-      <c r="D205" s="1" t="n">
-        <v>44222.11419089536</v>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772213</t>
+        </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>compliment</t>
+          <t>testimonial</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>칭찬하다</t>
+          <t>추천의 글</t>
         </is>
       </c>
       <c r="C206" t="n">
         <v>4</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>44224.85289744801</v>
+        <v>44222.11419089424</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>paystub</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>영업, 사업</t>
+          <t>급여 명세서</t>
         </is>
       </c>
       <c r="C207" t="n">
         <v>4</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>44226.27521903515</v>
+        <v>44222.84692713153</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>look forward to + -ing</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>작업장</t>
+          <t>~을 고대하다</t>
         </is>
       </c>
       <c r="C208" t="n">
         <v>4</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>44224.85289744924</v>
+        <v>44222.1141908915</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>take inventory</t>
+          <t>pride oneself on</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>재고 조사를 하다</t>
+          <t>~에 대해 자랑하다</t>
         </is>
       </c>
       <c r="C209" t="n">
         <v>4</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>44224.95196826282</v>
+        <v>44222.84692713107</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>liability</t>
+          <t>en masse</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>책임</t>
+          <t>집단으로</t>
         </is>
       </c>
       <c r="C210" t="n">
         <v>4</v>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771945</t>
-        </is>
+      <c r="D210" s="1" t="n">
+        <v>44224.85289744838</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>nevertheless</t>
+          <t>be due to + 동사원형</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>그럼에도 불구하고</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C211" t="n">
         <v>4</v>
       </c>
       <c r="D211" s="1" t="n">
-        <v>44222.11419089097</v>
+        <v>44222.11419089388</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>allege</t>
+          <t>jostle for</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>(확실한 증거 없이) 주장하다</t>
+          <t>~을 위하여 다투다, 겨루다</t>
         </is>
       </c>
       <c r="C212" t="n">
         <v>4</v>
       </c>
-      <c r="D212" s="1" t="n">
-        <v>44222.11419089303</v>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772185</t>
+        </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>overdraw</t>
+          <t>vary</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
+          <t>(서로) 다르다, 다양하다</t>
         </is>
       </c>
       <c r="C213" t="n">
         <v>4</v>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772059</t>
-        </is>
+      <c r="D213" s="1" t="n">
+        <v>44222.84692713229</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>bet</t>
+          <t>matter</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>선택한 것[사람], 방책</t>
+          <t>중요하다</t>
         </is>
       </c>
       <c r="C214" t="n">
         <v>4</v>
       </c>
       <c r="D214" s="1" t="n">
-        <v>44222.84692713251</v>
+        <v>44226.28725668374</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>surveyor</t>
+          <t>offshore</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>측량사</t>
+          <t>연안에</t>
         </is>
       </c>
       <c r="C215" t="n">
         <v>4</v>
       </c>
       <c r="D215" s="1" t="n">
-        <v>44222.84692712996</v>
+        <v>44224.15166368827</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>jointly</t>
+          <t>given</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>공동으로</t>
+          <t>~을 고려할 때</t>
         </is>
       </c>
       <c r="C216" t="n">
         <v>4</v>
       </c>
       <c r="D216" s="1" t="n">
-        <v>44224.15166368744</v>
+        <v>44224.95196826023</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>bear with</t>
+          <t>excutive chef</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>~을 견디다, 참다</t>
+          <t>총 주방장</t>
         </is>
       </c>
       <c r="C217" t="n">
         <v>4</v>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771955</t>
-        </is>
+      <c r="D217" s="1" t="n">
+        <v>44224.9519682608</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>initiation</t>
+          <t>address</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>창시, 입문</t>
+          <t>처리[해결]하다, 다루다</t>
         </is>
       </c>
       <c r="C218" t="n">
         <v>4</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>44224.95196826095</v>
+        <v>44224.95196826212</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>testimonial</t>
+          <t>implore</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>추천의 글</t>
+          <t>애원하다, 간청하다</t>
         </is>
       </c>
       <c r="C219" t="n">
         <v>4</v>
       </c>
       <c r="D219" s="1" t="n">
-        <v>44222.11419089424</v>
+        <v>44222.11419089589</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>paystub</t>
+          <t>formal</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>급여 명세서</t>
+          <t>공식적인</t>
         </is>
       </c>
       <c r="C220" t="n">
         <v>4</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>44222.84692713153</v>
+        <v>44226.28725668443</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>look forward to + -ing</t>
+          <t>be about to + 동사원형</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>~을 고대하다</t>
+          <t>막 ~하려고 하다</t>
         </is>
       </c>
       <c r="C221" t="n">
         <v>4</v>
       </c>
       <c r="D221" s="1" t="n">
-        <v>44222.1141908915</v>
+        <v>44222.11419088992</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>pride oneself on</t>
+          <t>beam</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>~에 대해 자랑하다</t>
+          <t>들보, 보</t>
         </is>
       </c>
       <c r="C222" t="n">
         <v>4</v>
       </c>
       <c r="D222" s="1" t="n">
-        <v>44222.84692713107</v>
+        <v>44224.85289744888</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>en masse</t>
+          <t>tuck away</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>집단으로</t>
+          <t>찾기힘든 안전한 곳에 보관하다</t>
         </is>
       </c>
       <c r="C223" t="n">
         <v>4</v>
       </c>
       <c r="D223" s="1" t="n">
-        <v>44224.85289744838</v>
+        <v>44222.84692713565</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>high court</t>
+          <t>enthusiast</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>고등 법원</t>
+          <t>열성팬 [열렬한 팬]</t>
         </is>
       </c>
       <c r="C224" t="n">
         <v>4</v>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771936</t>
-        </is>
+      <c r="D224" s="1" t="n">
+        <v>44222.84692713221</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>highland</t>
+          <t>latest</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>고원</t>
+          <t>최신의</t>
         </is>
       </c>
       <c r="C225" t="n">
         <v>4</v>
       </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772078</t>
-        </is>
+      <c r="D225" s="1" t="n">
+        <v>44222.84692713204</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>quotation</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve">상당히 </t>
+          <t>인용</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D226" s="1" t="n">
-        <v>44222.84692713397</v>
+        <v>44226.27521903567</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>podium</t>
+          <t>tremendous</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>연단</t>
+          <t>엄청난, 대단한</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>4</v>
-      </c>
-      <c r="D227" s="1" t="n">
-        <v>44222.11419089007</v>
+        <v>3</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772348</t>
+        </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>theatergoer</t>
+          <t>persevere</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>극장에 (자주) 가는 사람</t>
+          <t>인내하다</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>4</v>
-      </c>
-      <c r="D228" s="1" t="n">
-        <v>44224.95196826072</v>
+        <v>3</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771823</t>
+        </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>admission</t>
+          <t>outdate</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>입장, 인정</t>
+          <t>시대에 뒤지게 하다</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>4</v>
-      </c>
-      <c r="D229" s="1" t="n">
-        <v>44222.84692713066</v>
+        <v>3</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772049</t>
+        </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>insist on -ing</t>
+          <t>position</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>~할 것을 주장하다</t>
+          <t>배치하다</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D230" s="1" t="n">
-        <v>44224.15166368698</v>
+        <v>44222.11419089052</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>persevere</t>
+          <t>privately held company</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>인내하다</t>
+          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
         </is>
       </c>
       <c r="C231" t="n">
         <v>3</v>
       </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771823</t>
-        </is>
+      <c r="D231" s="1" t="n">
+        <v>44222.11419089373</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>outdate</t>
+          <t>staircase</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>시대에 뒤지게 하다</t>
+          <t>계단</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -4666,551 +4668,551 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772049</t>
+          <t>2021-01-26 02:11:09.772386</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>premiere</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>배치하다</t>
+          <t>초연, 개봉; 최고의</t>
         </is>
       </c>
       <c r="C233" t="n">
         <v>3</v>
       </c>
       <c r="D233" s="1" t="n">
-        <v>44222.11419089052</v>
+        <v>44222.11419089365</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>privately held company</t>
+          <t>compare A with[to] B</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
+          <t>A를 B에 비교[비유]하다</t>
         </is>
       </c>
       <c r="C234" t="n">
         <v>3</v>
       </c>
-      <c r="D234" s="1" t="n">
-        <v>44222.11419089373</v>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771993</t>
+        </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>staircase</t>
+          <t>delegate</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>계단</t>
+          <t>대표(자), 위임하다, 선정하다</t>
         </is>
       </c>
       <c r="C235" t="n">
         <v>3</v>
       </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772386</t>
-        </is>
+      <c r="D235" s="1" t="n">
+        <v>44222.1141908925</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>premiere</t>
+          <t>template</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>초연, 개봉; 최고의</t>
+          <t>견본</t>
         </is>
       </c>
       <c r="C236" t="n">
         <v>3</v>
       </c>
       <c r="D236" s="1" t="n">
-        <v>44222.11419089365</v>
+        <v>44224.15166368846</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>compare A with[to] B</t>
+          <t>take off</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>A를 B에 비교[비유]하다</t>
+          <t>이륙하다</t>
         </is>
       </c>
       <c r="C237" t="n">
         <v>3</v>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771993</t>
-        </is>
+      <c r="D237" s="1" t="n">
+        <v>44222.11419089037</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>delegate</t>
+          <t>attire</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>대표(자), 위임하다, 선정하다</t>
+          <t>복장</t>
         </is>
       </c>
       <c r="C238" t="n">
         <v>3</v>
       </c>
       <c r="D238" s="1" t="n">
-        <v>44222.1141908925</v>
+        <v>44222.84692713121</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>template</t>
+          <t>unconvinced</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>견본</t>
+          <t>납득하지[찬성하지] 않는</t>
         </is>
       </c>
       <c r="C239" t="n">
         <v>3</v>
       </c>
       <c r="D239" s="1" t="n">
-        <v>44224.15166368846</v>
+        <v>44224.95196826149</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>take off</t>
+          <t>stove</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>이륙하다</t>
+          <t>(조리용) 레인지</t>
         </is>
       </c>
       <c r="C240" t="n">
         <v>3</v>
       </c>
       <c r="D240" s="1" t="n">
-        <v>44222.11419089037</v>
+        <v>44222.11419088936</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>attire</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>복장</t>
+          <t>닦다, 광내다</t>
         </is>
       </c>
       <c r="C241" t="n">
         <v>3</v>
       </c>
       <c r="D241" s="1" t="n">
-        <v>44222.84692713121</v>
+        <v>44222.11419088977</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>unconvinced</t>
+          <t>formerly</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>납득하지[찬성하지] 않는</t>
+          <t>예전에</t>
         </is>
       </c>
       <c r="C242" t="n">
         <v>3</v>
       </c>
       <c r="D242" s="1" t="n">
-        <v>44224.95196826149</v>
+        <v>44224.95196826047</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>stove</t>
+          <t>excuse</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>(조리용) 레인지</t>
+          <t>~을 용서하다, ~에 대해 변명하다</t>
         </is>
       </c>
       <c r="C243" t="n">
         <v>3</v>
       </c>
-      <c r="D243" s="1" t="n">
-        <v>44222.11419088936</v>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772040</t>
+        </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>polish</t>
+          <t>input</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>닦다, 광내다</t>
+          <t>조언</t>
         </is>
       </c>
       <c r="C244" t="n">
         <v>3</v>
       </c>
       <c r="D244" s="1" t="n">
-        <v>44222.11419088977</v>
+        <v>44222.8469271358</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>formerly</t>
+          <t>initiative</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>예전에</t>
+          <t>(목표를 위한 새로운) 계획</t>
         </is>
       </c>
       <c r="C245" t="n">
         <v>3</v>
       </c>
       <c r="D245" s="1" t="n">
-        <v>44224.95196826047</v>
+        <v>44222.11419089396</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>input</t>
+          <t>flier</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>조언</t>
+          <t>광고 전단(= flyer)</t>
         </is>
       </c>
       <c r="C246" t="n">
         <v>3</v>
       </c>
       <c r="D246" s="1" t="n">
-        <v>44222.8469271358</v>
+        <v>44224.95196826182</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>excuse</t>
+          <t xml:space="preserve">entrée </t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>~을 용서하다, ~에 대해 변명하다</t>
+          <t>메인 메뉴</t>
         </is>
       </c>
       <c r="C247" t="n">
         <v>3</v>
       </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772040</t>
-        </is>
+      <c r="D247" s="1" t="n">
+        <v>44224.15166368672</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>flier</t>
+          <t>rake</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>광고 전단(= flyer)</t>
+          <t>갈퀴</t>
         </is>
       </c>
       <c r="C248" t="n">
         <v>3</v>
       </c>
       <c r="D248" s="1" t="n">
-        <v>44224.95196826182</v>
+        <v>44222.11419089029</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>at the latest</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>(목표를 위한 새로운) 계획</t>
+          <t>늦어도</t>
         </is>
       </c>
       <c r="C249" t="n">
         <v>3</v>
       </c>
       <c r="D249" s="1" t="n">
-        <v>44222.11419089396</v>
+        <v>44224.15166368772</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>rake</t>
+          <t>call in</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>갈퀴</t>
+          <t>~를 불러들이다</t>
         </is>
       </c>
       <c r="C250" t="n">
         <v>3</v>
       </c>
       <c r="D250" s="1" t="n">
-        <v>44222.11419089029</v>
+        <v>44222.11419089902</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t xml:space="preserve">entrée </t>
+          <t>lean against</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>메인 메뉴</t>
+          <t>~에 기대다</t>
         </is>
       </c>
       <c r="C251" t="n">
         <v>3</v>
       </c>
-      <c r="D251" s="1" t="n">
-        <v>44224.15166368672</v>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772451</t>
+        </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>call in</t>
+          <t>openness</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>~를 불러들이다</t>
+          <t>솔직함, 개방성</t>
         </is>
       </c>
       <c r="C252" t="n">
         <v>3</v>
       </c>
       <c r="D252" s="1" t="n">
-        <v>44222.11419089902</v>
+        <v>44222.1141908947</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>at the latest</t>
+          <t>obstruct</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>늦어도</t>
+          <t>막다</t>
         </is>
       </c>
       <c r="C253" t="n">
         <v>3</v>
       </c>
       <c r="D253" s="1" t="n">
-        <v>44224.15166368772</v>
+        <v>44222.84692713019</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>openness</t>
+          <t>watercraft</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>솔직함, 개방성</t>
+          <t>배, 배 타는 기술</t>
         </is>
       </c>
       <c r="C254" t="n">
         <v>3</v>
       </c>
       <c r="D254" s="1" t="n">
-        <v>44222.1141908947</v>
+        <v>44224.1516636881</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>lean against</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>~에 기대다</t>
+          <t>차이, 변형(시킨 것)</t>
         </is>
       </c>
       <c r="C255" t="n">
         <v>3</v>
       </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772451</t>
-        </is>
+      <c r="D255" s="1" t="n">
+        <v>44226.2872566816</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>watercraft</t>
+          <t>adjacent to</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>배, 배 타는 기술</t>
+          <t>~에 인접한</t>
         </is>
       </c>
       <c r="C256" t="n">
         <v>3</v>
       </c>
       <c r="D256" s="1" t="n">
-        <v>44224.1516636881</v>
+        <v>44224.95196826039</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>adjacent to</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>~에 인접한</t>
+          <t>좌절감, 불만</t>
         </is>
       </c>
       <c r="C257" t="n">
         <v>3</v>
       </c>
       <c r="D257" s="1" t="n">
-        <v>44224.95196826039</v>
+        <v>44224.85289744847</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>frustration</t>
+          <t>honorarium</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>좌절감, 불만</t>
+          <t>사례비</t>
         </is>
       </c>
       <c r="C258" t="n">
         <v>3</v>
       </c>
       <c r="D258" s="1" t="n">
-        <v>44224.85289744847</v>
+        <v>44224.15166368717</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>honorarium</t>
+          <t>dome</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>사례비</t>
+          <t>둥근 지붕을 달다; 둥근 지붕</t>
         </is>
       </c>
       <c r="C259" t="n">
         <v>3</v>
       </c>
-      <c r="D259" s="1" t="n">
-        <v>44224.15166368717</v>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772299</t>
+        </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>dome</t>
+          <t>prop(property)</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>둥근 지붕을 달다; 둥근 지붕</t>
+          <t>소도구</t>
         </is>
       </c>
       <c r="C260" t="n">
         <v>3</v>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772299</t>
-        </is>
+      <c r="D260" s="1" t="n">
+        <v>44222.1141908952</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>prop(property)</t>
+          <t>determine to do</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>소도구</t>
+          <t>~하겠다고 결심하다</t>
         </is>
       </c>
       <c r="C261" t="n">
         <v>3</v>
       </c>
-      <c r="D261" s="1" t="n">
-        <v>44222.1141908952</v>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771889</t>
+        </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>determine to do</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>~하겠다고 결심하다</t>
+          <t>조각조각으로 찢다, 끝내버리다</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -5218,111 +5220,111 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771889</t>
+          <t>2021-01-26 02:11:09.772021</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>plot</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>조각조각으로 찢다, 끝내버리다</t>
+          <t>(소설, 영화 등의) 구성, 줄거리</t>
         </is>
       </c>
       <c r="C263" t="n">
         <v>3</v>
       </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772021</t>
-        </is>
+      <c r="D263" s="1" t="n">
+        <v>44222.11419089288</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>plot</t>
+          <t>hold one's own</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>(소설, 영화 등의) 구성, 줄거리</t>
+          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
         </is>
       </c>
       <c r="C264" t="n">
         <v>3</v>
       </c>
       <c r="D264" s="1" t="n">
-        <v>44222.11419089288</v>
+        <v>44224.15166368688</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>hold one's own</t>
+          <t>fiscal year</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
+          <t>회계 연도</t>
         </is>
       </c>
       <c r="C265" t="n">
         <v>3</v>
       </c>
       <c r="D265" s="1" t="n">
-        <v>44224.15166368688</v>
+        <v>44222.11419089911</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>fiscal year</t>
+          <t>valued at</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>회계 연도</t>
+          <t>가격이 ~에 상당하는</t>
         </is>
       </c>
       <c r="C266" t="n">
         <v>3</v>
       </c>
       <c r="D266" s="1" t="n">
-        <v>44222.11419089911</v>
+        <v>44224.95196826031</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>valued at</t>
+          <t>crepe</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>가격이 ~에 상당하는</t>
+          <t>얇은 팬케이크</t>
         </is>
       </c>
       <c r="C267" t="n">
         <v>3</v>
       </c>
-      <c r="D267" s="1" t="n">
-        <v>44224.95196826031</v>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772147</t>
+        </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>crepe</t>
+          <t>ceiling fan</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>얇은 팬케이크</t>
+          <t>천장 선풍기</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -5330,19 +5332,19 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772147</t>
+          <t>2021-01-26 02:11:09.772461</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ceiling fan</t>
+          <t>one another</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>천장 선풍기</t>
+          <t>서로</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -5350,941 +5352,941 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772461</t>
+          <t>2021-01-26 02:11:09.772329</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>one another</t>
+          <t>be credited with</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>서로</t>
+          <t>~에 공로가 있다</t>
         </is>
       </c>
       <c r="C270" t="n">
         <v>3</v>
       </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772329</t>
-        </is>
+      <c r="D270" s="1" t="n">
+        <v>44224.95196826007</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>be credited with</t>
+          <t>field</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>~에 공로가 있다</t>
+          <t>(질문을) 처리하다</t>
         </is>
       </c>
       <c r="C271" t="n">
         <v>3</v>
       </c>
       <c r="D271" s="1" t="n">
-        <v>44224.95196826007</v>
+        <v>44222.11419089486</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>(질문을) 처리하다</t>
+          <t>구현</t>
         </is>
       </c>
       <c r="C272" t="n">
         <v>3</v>
       </c>
       <c r="D272" s="1" t="n">
-        <v>44222.11419089486</v>
+        <v>44222.84692713084</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>phenomenal</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>구현</t>
+          <t>경의적인, 경탄이 나오는</t>
         </is>
       </c>
       <c r="C273" t="n">
         <v>3</v>
       </c>
-      <c r="D273" s="1" t="n">
-        <v>44222.84692713084</v>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772289</t>
+        </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>phenomenal</t>
+          <t>shelving unit</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>경의적인, 경탄이 나오는</t>
+          <t>선반</t>
         </is>
       </c>
       <c r="C274" t="n">
         <v>3</v>
       </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772289</t>
-        </is>
+      <c r="D274" s="1" t="n">
+        <v>44222.11419089014</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>shelving unit</t>
+          <t>mussels</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>홍합</t>
         </is>
       </c>
       <c r="C275" t="n">
         <v>3</v>
       </c>
       <c r="D275" s="1" t="n">
-        <v>44222.11419089014</v>
+        <v>44222.84692713389</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>mussels</t>
+          <t>qualify for ~</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>홍합</t>
+          <t>~의 자격을 얻다</t>
         </is>
       </c>
       <c r="C276" t="n">
         <v>3</v>
       </c>
       <c r="D276" s="1" t="n">
-        <v>44222.84692713389</v>
+        <v>44222.1141908912</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>qualify for ~</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>~의 자격을 얻다</t>
+          <t>상당히, 꽤</t>
         </is>
       </c>
       <c r="C277" t="n">
         <v>3</v>
       </c>
       <c r="D277" s="1" t="n">
-        <v>44222.1141908912</v>
+        <v>44222.11419089105</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>confer</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>상당히, 꽤</t>
+          <t>수여하다</t>
         </is>
       </c>
       <c r="C278" t="n">
         <v>3</v>
       </c>
-      <c r="D278" s="1" t="n">
-        <v>44222.11419089105</v>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771860</t>
+        </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>confer</t>
+          <t>stiff</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>수여하다</t>
+          <t>뻣뻣한</t>
         </is>
       </c>
       <c r="C279" t="n">
         <v>3</v>
       </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771860</t>
-        </is>
+      <c r="D279" s="1" t="n">
+        <v>44222.84692713274</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>stiff</t>
+          <t>hands-on</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>뻣뻣한</t>
+          <t>실천의, 직접 해보는</t>
         </is>
       </c>
       <c r="C280" t="n">
         <v>3</v>
       </c>
       <c r="D280" s="1" t="n">
-        <v>44222.84692713274</v>
+        <v>44222.11419089559</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>hands-on</t>
+          <t>right candidate</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>실천의, 직접 해보는</t>
+          <t>적임자</t>
         </is>
       </c>
       <c r="C281" t="n">
         <v>3</v>
       </c>
       <c r="D281" s="1" t="n">
-        <v>44222.11419089559</v>
+        <v>44222.11419089267</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>right candidate</t>
+          <t>assumption</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>적임자</t>
+          <t>가정</t>
         </is>
       </c>
       <c r="C282" t="n">
         <v>3</v>
       </c>
       <c r="D282" s="1" t="n">
-        <v>44222.11419089267</v>
+        <v>44222.8469271335</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>assumption</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>가정</t>
+          <t>제공하다</t>
         </is>
       </c>
       <c r="C283" t="n">
         <v>3</v>
       </c>
-      <c r="D283" s="1" t="n">
-        <v>44222.8469271335</v>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772157</t>
+        </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>bio</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>제공하다</t>
+          <t>약력</t>
         </is>
       </c>
       <c r="C284" t="n">
         <v>3</v>
       </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772157</t>
-        </is>
+      <c r="D284" s="1" t="n">
+        <v>44224.15166368753</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>bio</t>
+          <t>help in -ing</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>약력</t>
+          <t>~하는데 있어서 도움</t>
         </is>
       </c>
       <c r="C285" t="n">
         <v>3</v>
       </c>
       <c r="D285" s="1" t="n">
-        <v>44224.15166368753</v>
+        <v>44222.84692713382</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>help in -ing</t>
+          <t>language institute</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>~하는데 있어서 도움</t>
+          <t>어학원</t>
         </is>
       </c>
       <c r="C286" t="n">
         <v>3</v>
       </c>
       <c r="D286" s="1" t="n">
-        <v>44222.84692713382</v>
+        <v>44222.1141908951</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>language institute</t>
+          <t>set foot on</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>어학원</t>
+          <t>~에 발을 들여놓다</t>
         </is>
       </c>
       <c r="C287" t="n">
         <v>3</v>
       </c>
       <c r="D287" s="1" t="n">
-        <v>44222.1141908951</v>
+        <v>44224.15166368801</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>set foot on</t>
+          <t>Candidate Referral Program</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>~에 발을 들여놓다</t>
+          <t>사내 추천제</t>
         </is>
       </c>
       <c r="C288" t="n">
         <v>3</v>
       </c>
       <c r="D288" s="1" t="n">
-        <v>44224.15166368801</v>
+        <v>44222.84692713138</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Candidate Referral Program</t>
+          <t>start off</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>사내 추천제</t>
+          <t>출발하다, 시작하다</t>
         </is>
       </c>
       <c r="C289" t="n">
         <v>3</v>
       </c>
       <c r="D289" s="1" t="n">
-        <v>44222.84692713138</v>
+        <v>44224.95196826196</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>start off</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>출발하다, 시작하다</t>
+          <t>(길, 강 등이) 구불구불하다</t>
         </is>
       </c>
       <c r="C290" t="n">
         <v>3</v>
       </c>
       <c r="D290" s="1" t="n">
-        <v>44224.95196826196</v>
+        <v>44222.11419088961</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>meet with approval</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>(길, 강 등이) 구불구불하다</t>
+          <t>동의[승인]를 얻다</t>
         </is>
       </c>
       <c r="C291" t="n">
         <v>3</v>
       </c>
       <c r="D291" s="1" t="n">
-        <v>44222.11419088961</v>
+        <v>44224.95196826134</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>meet with approval</t>
+          <t>knob</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>동의[승인]를 얻다</t>
+          <t>손잡이, 스위치</t>
         </is>
       </c>
       <c r="C292" t="n">
         <v>3</v>
       </c>
-      <c r="D292" s="1" t="n">
-        <v>44224.95196826134</v>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772031</t>
+        </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>knob</t>
+          <t>beneath</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>손잡이, 스위치</t>
+          <t>~밑에</t>
         </is>
       </c>
       <c r="C293" t="n">
         <v>3</v>
       </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772031</t>
-        </is>
+      <c r="D293" s="1" t="n">
+        <v>44222.11419088913</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>beneath</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>~밑에</t>
+          <t>결정하다</t>
         </is>
       </c>
       <c r="C294" t="n">
         <v>3</v>
       </c>
       <c r="D294" s="1" t="n">
-        <v>44222.11419088913</v>
+        <v>44224.95196826118</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>manner</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>결정하다</t>
+          <t>방법, 방식, 예의 범절</t>
         </is>
       </c>
       <c r="C295" t="n">
         <v>3</v>
       </c>
       <c r="D295" s="1" t="n">
-        <v>44224.95196826118</v>
+        <v>44222.84692713305</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>manner</t>
+          <t>botanist</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>방법, 방식, 예의 범절</t>
+          <t>식물학자</t>
         </is>
       </c>
       <c r="C296" t="n">
         <v>3</v>
       </c>
-      <c r="D296" s="1" t="n">
-        <v>44222.84692713305</v>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772134</t>
+        </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>botanist</t>
+          <t>qualified</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>식물학자</t>
+          <t>적격인</t>
         </is>
       </c>
       <c r="C297" t="n">
         <v>3</v>
       </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772134</t>
-        </is>
+      <c r="D297" s="1" t="n">
+        <v>44222.84692713166</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>qualified</t>
+          <t>gazebo</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>적격인</t>
+          <t>(정원의) 정자</t>
         </is>
       </c>
       <c r="C298" t="n">
         <v>3</v>
       </c>
       <c r="D298" s="1" t="n">
-        <v>44222.84692713166</v>
+        <v>44222.11419089243</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>gazebo</t>
+          <t>centerpiece</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>(정원의) 정자</t>
+          <t>중심부, 중앙 장식물</t>
         </is>
       </c>
       <c r="C299" t="n">
         <v>3</v>
       </c>
       <c r="D299" s="1" t="n">
-        <v>44222.11419089243</v>
+        <v>44222.11419089235</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>centerpiece</t>
+          <t>lodging</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>중심부, 중앙 장식물</t>
+          <t>임시 숙소</t>
         </is>
       </c>
       <c r="C300" t="n">
         <v>3</v>
       </c>
       <c r="D300" s="1" t="n">
-        <v>44222.11419089235</v>
+        <v>44224.15166368707</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>lodging</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>임시 숙소</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C301" t="n">
         <v>3</v>
       </c>
       <c r="D301" s="1" t="n">
-        <v>44224.15166368707</v>
+        <v>44222.84692713367</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>aspiring</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>장차 ~가 되려는</t>
         </is>
       </c>
       <c r="C302" t="n">
         <v>3</v>
       </c>
       <c r="D302" s="1" t="n">
-        <v>44222.84692713367</v>
+        <v>44224.95196826126</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>aspiring</t>
+          <t>high-volume</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>장차 ~가 되려는</t>
+          <t>대량의</t>
         </is>
       </c>
       <c r="C303" t="n">
         <v>3</v>
       </c>
-      <c r="D303" s="1" t="n">
-        <v>44224.95196826126</v>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772339</t>
+        </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>high-volume</t>
+          <t>autehntic</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>대량의</t>
+          <t>진짜의</t>
         </is>
       </c>
       <c r="C304" t="n">
         <v>3</v>
       </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772339</t>
-        </is>
+      <c r="D304" s="1" t="n">
+        <v>44222.11419089112</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>autehntic</t>
+          <t>outline</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>진짜의</t>
+          <t>설명하다</t>
         </is>
       </c>
       <c r="C305" t="n">
         <v>3</v>
       </c>
       <c r="D305" s="1" t="n">
-        <v>44222.11419089112</v>
+        <v>44222.11419089312</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>outline</t>
+          <t>recognize A as B</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>설명하다</t>
+          <t>A를 B로 인식하다</t>
         </is>
       </c>
       <c r="C306" t="n">
         <v>3</v>
       </c>
-      <c r="D306" s="1" t="n">
-        <v>44222.11419089312</v>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771842</t>
+        </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>recognize A as B</t>
+          <t>sports complex</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>A를 B로 인식하다</t>
+          <t>종합 운동장</t>
         </is>
       </c>
       <c r="C307" t="n">
         <v>3</v>
       </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771842</t>
-        </is>
+      <c r="D307" s="1" t="n">
+        <v>44222.11419089258</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>sports complex</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>종합 운동장</t>
+          <t>배치, 직업소개</t>
         </is>
       </c>
       <c r="C308" t="n">
         <v>3</v>
       </c>
       <c r="D308" s="1" t="n">
-        <v>44222.11419089258</v>
+        <v>44224.9519682619</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>fudge</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>배치, 직업소개</t>
+          <t>연한(무른) 캔디</t>
         </is>
       </c>
       <c r="C309" t="n">
         <v>3</v>
       </c>
-      <c r="D309" s="1" t="n">
-        <v>44224.9519682619</v>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772176</t>
+        </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>fudge</t>
+          <t>professional reference</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>연한(무른) 캔디</t>
+          <t>직장 관련 추천인</t>
         </is>
       </c>
       <c r="C310" t="n">
         <v>3</v>
       </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772176</t>
-        </is>
+      <c r="D310" s="1" t="n">
+        <v>44222.84692713101</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>professional reference</t>
+          <t>sail</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>직장 관련 추천인</t>
+          <t>돛; 항해하다</t>
         </is>
       </c>
       <c r="C311" t="n">
         <v>3</v>
       </c>
-      <c r="D311" s="1" t="n">
-        <v>44222.84692713101</v>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772442</t>
+        </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>sail</t>
+          <t>gift certificate</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>돛; 항해하다</t>
+          <t>상품권</t>
         </is>
       </c>
       <c r="C312" t="n">
         <v>3</v>
       </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772442</t>
-        </is>
+      <c r="D312" s="1" t="n">
+        <v>44222.84692713035</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>gift certificate</t>
+          <t>expertise</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>상품권</t>
+          <t>전문성, 전문지식</t>
         </is>
       </c>
       <c r="C313" t="n">
         <v>3</v>
       </c>
       <c r="D313" s="1" t="n">
-        <v>44222.84692713035</v>
+        <v>44222.84692712968</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>expertise</t>
+          <t>technical drawing</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>전문성, 전문지식</t>
+          <t>제도(= drafting)</t>
         </is>
       </c>
       <c r="C314" t="n">
         <v>3</v>
       </c>
       <c r="D314" s="1" t="n">
-        <v>44222.84692712968</v>
+        <v>44222.1141908909</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>technical drawing</t>
+          <t>exquisite</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>제도(= drafting)</t>
+          <t>정교한, 세련된</t>
         </is>
       </c>
       <c r="C315" t="n">
         <v>3</v>
       </c>
-      <c r="D315" s="1" t="n">
-        <v>44222.1141908909</v>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772280</t>
+        </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>exquisite</t>
+          <t>step over</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>정교한, 세련된</t>
+          <t>(장애물을) 넘다</t>
         </is>
       </c>
       <c r="C316" t="n">
         <v>3</v>
       </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772280</t>
-        </is>
+      <c r="D316" s="1" t="n">
+        <v>44222.11419089022</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>step over</t>
+          <t>runway</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>(장애물을) 넘다</t>
+          <t>활주로</t>
         </is>
       </c>
       <c r="C317" t="n">
         <v>3</v>
       </c>
       <c r="D317" s="1" t="n">
-        <v>44222.11419089022</v>
+        <v>44222.11419089044</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>runway</t>
+          <t>terrain</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>활주로</t>
+          <t>지형</t>
         </is>
       </c>
       <c r="C318" t="n">
         <v>3</v>
       </c>
       <c r="D318" s="1" t="n">
-        <v>44222.11419089044</v>
+        <v>44222.84692713244</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>terrain</t>
+          <t>intense</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>지형</t>
+          <t>강렬한, 거센</t>
         </is>
       </c>
       <c r="C319" t="n">
         <v>3</v>
       </c>
-      <c r="D319" s="1" t="n">
-        <v>44222.84692713244</v>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772195</t>
+        </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>intense</t>
+          <t>fasten</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>강렬한, 거센</t>
+          <t>매다, 고정시키다</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -6292,329 +6294,329 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772195</t>
+          <t>2021-01-26 02:11:09.772357</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>fasten</t>
+          <t>pay roll</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>매다, 고정시키다</t>
+          <t>급여 대상자 명단, 급여 총액</t>
         </is>
       </c>
       <c r="C321" t="n">
         <v>3</v>
       </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772357</t>
-        </is>
+      <c r="D321" s="1" t="n">
+        <v>44222.11419089212</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>pay roll</t>
+          <t>oar</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>급여 대상자 명단, 급여 총액</t>
+          <t>(물에서 쓰는) 노</t>
         </is>
       </c>
       <c r="C322" t="n">
         <v>3</v>
       </c>
       <c r="D322" s="1" t="n">
-        <v>44222.11419089212</v>
+        <v>44222.11419089075</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>oar</t>
+          <t>matte</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>(물에서 쓰는) 노</t>
+          <t>무광</t>
         </is>
       </c>
       <c r="C323" t="n">
         <v>3</v>
       </c>
       <c r="D323" s="1" t="n">
-        <v>44222.11419089075</v>
+        <v>44222.84692713501</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>matte</t>
+          <t>lead character</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>무광</t>
+          <t>주인공</t>
         </is>
       </c>
       <c r="C324" t="n">
         <v>3</v>
       </c>
       <c r="D324" s="1" t="n">
-        <v>44222.84692713501</v>
+        <v>44222.11419089189</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>lead character</t>
+          <t>compelling</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>주인공</t>
+          <t>설득력 있는, 눈을 뗄 수 없는</t>
         </is>
       </c>
       <c r="C325" t="n">
         <v>3</v>
       </c>
       <c r="D325" s="1" t="n">
-        <v>44222.11419089189</v>
+        <v>44224.15166368735</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>fill prescriptions</t>
+          <t>once a month</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>처방약을 조제하다</t>
+          <t>매달</t>
         </is>
       </c>
       <c r="C326" t="n">
         <v>3</v>
       </c>
       <c r="D326" s="1" t="n">
-        <v>44222.11419089463</v>
+        <v>44222.11419089159</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>compelling</t>
+          <t>fill prescriptions</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>설득력 있는, 눈을 뗄 수 없는</t>
+          <t>처방약을 조제하다</t>
         </is>
       </c>
       <c r="C327" t="n">
         <v>3</v>
       </c>
       <c r="D327" s="1" t="n">
-        <v>44224.15166368735</v>
+        <v>44222.11419089463</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>once a month</t>
+          <t>prop</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>매달</t>
+          <t>받치다</t>
         </is>
       </c>
       <c r="C328" t="n">
         <v>3</v>
       </c>
       <c r="D328" s="1" t="n">
-        <v>44222.11419089159</v>
+        <v>44222.11419088928</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>prop</t>
+          <t>display bin</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>받치다</t>
+          <t>진열장</t>
         </is>
       </c>
       <c r="C329" t="n">
         <v>3</v>
       </c>
       <c r="D329" s="1" t="n">
-        <v>44222.11419088928</v>
+        <v>44222.11419089544</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>accomplished</t>
+          <t>proximity to</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>완수하다, 성취하다, 해내다 (= achieve)</t>
+          <t>~에서 아주 가까움, 근접함</t>
         </is>
       </c>
       <c r="C330" t="n">
         <v>3</v>
       </c>
       <c r="D330" s="1" t="n">
-        <v>44222.84692712988</v>
+        <v>44222.84692713313</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>display bin</t>
+          <t>accomplished</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>진열장</t>
+          <t>완수하다, 성취하다, 해내다 (= achieve)</t>
         </is>
       </c>
       <c r="C331" t="n">
         <v>3</v>
       </c>
       <c r="D331" s="1" t="n">
-        <v>44222.11419089544</v>
+        <v>44222.84692712988</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>proximity to</t>
+          <t>much-needed</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>~에서 아주 가까움, 근접함</t>
+          <t>꼭 필요한</t>
         </is>
       </c>
       <c r="C332" t="n">
         <v>3</v>
       </c>
       <c r="D332" s="1" t="n">
-        <v>44222.84692713313</v>
+        <v>44222.11419089566</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>much-needed</t>
+          <t>high-rise</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>꼭 필요한</t>
+          <t>고층 빌딩</t>
         </is>
       </c>
       <c r="C333" t="n">
         <v>3</v>
       </c>
       <c r="D333" s="1" t="n">
-        <v>44222.11419089566</v>
+        <v>44222.11419089326</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>glowing</t>
+          <t>disapprove</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>극찬하는</t>
+          <t>못마땅해 하다, 불만을 나타내다</t>
         </is>
       </c>
       <c r="C334" t="n">
         <v>3</v>
       </c>
-      <c r="D334" s="1" t="n">
-        <v>44222.84692713534</v>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771917</t>
+        </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>high-rise</t>
+          <t>glowing</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>고층 빌딩</t>
+          <t>극찬하는</t>
         </is>
       </c>
       <c r="C335" t="n">
         <v>3</v>
       </c>
       <c r="D335" s="1" t="n">
-        <v>44222.11419089326</v>
+        <v>44222.84692713534</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>promotional offers</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>못마땅해 하다, 불만을 나타내다</t>
+          <t>판촉할인</t>
         </is>
       </c>
       <c r="C336" t="n">
         <v>3</v>
       </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771917</t>
-        </is>
+      <c r="D336" s="1" t="n">
+        <v>44222.84692713197</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>promotional offers</t>
+          <t>take A out of B</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>판촉할인</t>
+          <t>B에서 A를 뽑다</t>
         </is>
       </c>
       <c r="C337" t="n">
         <v>3</v>
       </c>
-      <c r="D337" s="1" t="n">
-        <v>44222.84692713197</v>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772480</t>
+        </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>take A out of B</t>
+          <t>reception</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>B에서 A를 뽑다</t>
+          <t>수신상태</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -6622,443 +6624,443 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772480</t>
+          <t>2021-01-26 02:11:09.772106</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>reception</t>
+          <t>upholstery</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>수신상태</t>
+          <t>(가구 덮개 등의) 실내 장식(품)</t>
         </is>
       </c>
       <c r="C339" t="n">
         <v>3</v>
       </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772106</t>
-        </is>
+      <c r="D339" s="1" t="n">
+        <v>44222.11419089334</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>upholstery</t>
+          <t>simply</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>(가구 덮개 등의) 실내 장식(품)</t>
+          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
         </is>
       </c>
       <c r="C340" t="n">
         <v>3</v>
       </c>
       <c r="D340" s="1" t="n">
-        <v>44222.11419089334</v>
+        <v>44222.11419089295</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>simply</t>
+          <t>reenter</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
+          <t>다시 입력하다</t>
         </is>
       </c>
       <c r="C341" t="n">
         <v>3</v>
       </c>
       <c r="D341" s="1" t="n">
-        <v>44222.11419089295</v>
+        <v>44224.95196826167</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>back-to-back</t>
+          <t>identical</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>연속적인, 잇따라</t>
+          <t>똑같은, 동일한</t>
         </is>
       </c>
       <c r="C342" t="n">
         <v>3</v>
       </c>
-      <c r="D342" s="1" t="n">
-        <v>44224.95196826157</v>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772414</t>
+        </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>reenter</t>
+          <t>back-to-back</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>다시 입력하다</t>
+          <t>연속적인, 잇따라</t>
         </is>
       </c>
       <c r="C343" t="n">
         <v>3</v>
       </c>
       <c r="D343" s="1" t="n">
-        <v>44224.95196826167</v>
+        <v>44224.95196826157</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>authenticity</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>똑같은, 동일한</t>
+          <t>진짜임</t>
         </is>
       </c>
       <c r="C344" t="n">
         <v>3</v>
       </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772414</t>
-        </is>
+      <c r="D344" s="1" t="n">
+        <v>44224.15166368874</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>authenticity</t>
+          <t>have been left</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>진짜임</t>
+          <t>~인 채로 있다</t>
         </is>
       </c>
       <c r="C345" t="n">
         <v>3</v>
       </c>
       <c r="D345" s="1" t="n">
-        <v>44224.15166368874</v>
+        <v>44224.95196826243</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>traditionally</t>
+          <t>representative</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>예전부터, 통상적으로</t>
+          <t>대표(자), 대의원, 국회의원</t>
         </is>
       </c>
       <c r="C346" t="n">
         <v>3</v>
       </c>
       <c r="D346" s="1" t="n">
-        <v>44222.84692713359</v>
+        <v>44224.95196826141</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>have been left</t>
+          <t>traditionally</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>~인 채로 있다</t>
+          <t>예전부터, 통상적으로</t>
         </is>
       </c>
       <c r="C347" t="n">
         <v>3</v>
       </c>
       <c r="D347" s="1" t="n">
-        <v>44224.95196826243</v>
+        <v>44222.84692713359</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>representative</t>
+          <t>by contrast</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>대표(자), 대의원, 국회의원</t>
+          <t>그와 대조적으로</t>
         </is>
       </c>
       <c r="C348" t="n">
         <v>3</v>
       </c>
       <c r="D348" s="1" t="n">
-        <v>44224.95196826141</v>
+        <v>44224.8528974481</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>by contrast</t>
+          <t>associate</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>그와 대조적으로</t>
+          <t>연결지어 생각하다</t>
         </is>
       </c>
       <c r="C349" t="n">
         <v>3</v>
       </c>
-      <c r="D349" s="1" t="n">
-        <v>44224.8528974481</v>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772251</t>
+        </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>pension</t>
+          <t>initiative</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>연금</t>
+          <t>주도적임, 계획</t>
         </is>
       </c>
       <c r="C350" t="n">
         <v>3</v>
       </c>
       <c r="D350" s="1" t="n">
-        <v>44222.8469271316</v>
+        <v>44224.95196826087</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>associate</t>
+          <t>pension</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>연결지어 생각하다</t>
+          <t>연금</t>
         </is>
       </c>
       <c r="C351" t="n">
         <v>3</v>
       </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772251</t>
-        </is>
+      <c r="D351" s="1" t="n">
+        <v>44222.8469271316</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>be in line for</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>주도적임, 계획</t>
+          <t>~할 가능성이 있다</t>
         </is>
       </c>
       <c r="C352" t="n">
         <v>3</v>
       </c>
       <c r="D352" s="1" t="n">
-        <v>44224.95196826087</v>
+        <v>44222.11419089894</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>be in line for</t>
+          <t>justify</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>~할 가능성이 있다</t>
+          <t>증명하다, 입증하다</t>
         </is>
       </c>
       <c r="C353" t="n">
         <v>3</v>
       </c>
-      <c r="D353" s="1" t="n">
-        <v>44222.11419089894</v>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772242</t>
+        </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>justify</t>
+          <t>operating efficiency</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>증명하다, 입증하다</t>
+          <t>작업 성능</t>
         </is>
       </c>
       <c r="C354" t="n">
         <v>3</v>
       </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772242</t>
-        </is>
+      <c r="D354" s="1" t="n">
+        <v>44224.95196826111</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>operating efficiency</t>
+          <t>prohibit A from -ing</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>작업 성능</t>
+          <t>A가 ~하는 것을 금하다</t>
         </is>
       </c>
       <c r="C355" t="n">
         <v>3</v>
       </c>
       <c r="D355" s="1" t="n">
-        <v>44224.95196826111</v>
+        <v>44224.1516636879</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>prohibit A from -ing</t>
+          <t>hearty</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>A가 ~하는 것을 금하다</t>
+          <t>(음식이) 푸짐하고 만족스러운</t>
         </is>
       </c>
       <c r="C356" t="n">
         <v>3</v>
       </c>
       <c r="D356" s="1" t="n">
-        <v>44224.1516636879</v>
+        <v>44222.84692713589</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>hearty</t>
+          <t>courteous</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>(음식이) 푸짐하고 만족스러운</t>
+          <t>정중한</t>
         </is>
       </c>
       <c r="C357" t="n">
         <v>3</v>
       </c>
-      <c r="D357" s="1" t="n">
-        <v>44222.84692713589</v>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772125</t>
+        </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>saving</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>생산, 생상량</t>
+          <t>감액</t>
         </is>
       </c>
       <c r="C358" t="n">
         <v>3</v>
       </c>
       <c r="D358" s="1" t="n">
-        <v>44222.84692713002</v>
+        <v>44224.85289744897</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>courteous</t>
+          <t>production</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>정중한</t>
+          <t>생산, 생상량</t>
         </is>
       </c>
       <c r="C359" t="n">
         <v>3</v>
       </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772125</t>
-        </is>
+      <c r="D359" s="1" t="n">
+        <v>44222.84692713002</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>saving</t>
+          <t>put on hold</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>감액</t>
+          <t>보류하다</t>
         </is>
       </c>
       <c r="C360" t="n">
         <v>3</v>
       </c>
       <c r="D360" s="1" t="n">
-        <v>44224.85289744897</v>
+        <v>44224.8528974488</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>put on hold</t>
+          <t>robe</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>보류하다</t>
+          <t>가운</t>
         </is>
       </c>
       <c r="C361" t="n">
         <v>3</v>
       </c>
-      <c r="D361" s="1" t="n">
-        <v>44224.8528974488</v>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772270</t>
+        </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>sweep -&gt; swept -&gt; swept</t>
+          <t>pole</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>(빗자루로)쓸다, 청소하다</t>
+          <t>기둥</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -7066,19 +7068,19 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772376</t>
+          <t>2021-01-26 02:11:09.772404</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>robe</t>
+          <t>sweep -&gt; swept -&gt; swept</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>가운</t>
+          <t>(빗자루로)쓸다, 청소하다</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -7086,559 +7088,539 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772270</t>
+          <t>2021-01-26 02:11:09.772376</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>pole</t>
+          <t>sleek</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>기둥</t>
+          <t>(모양이) 매끈한</t>
         </is>
       </c>
       <c r="C364" t="n">
         <v>3</v>
       </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772404</t>
-        </is>
+      <c r="D364" s="1" t="n">
+        <v>44224.8528974482</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>sleek</t>
+          <t>inform A of B</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>(모양이) 매끈한</t>
+          <t>A에게 B에 대해 알리다</t>
         </is>
       </c>
       <c r="C365" t="n">
         <v>3</v>
       </c>
-      <c r="D365" s="1" t="n">
-        <v>44224.8528974482</v>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772002</t>
+        </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>rugged</t>
+          <t>somehow</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>울퉁불퉁한</t>
+          <t>왜 그런지</t>
         </is>
       </c>
       <c r="C366" t="n">
         <v>3</v>
       </c>
       <c r="D366" s="1" t="n">
-        <v>44222.84692713236</v>
+        <v>44224.15166368764</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>inform A of B</t>
+          <t>rugged</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>A에게 B에 대해 알리다</t>
+          <t>울퉁불퉁한</t>
         </is>
       </c>
       <c r="C367" t="n">
         <v>3</v>
       </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772002</t>
-        </is>
+      <c r="D367" s="1" t="n">
+        <v>44222.84692713236</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>somehow</t>
+          <t>candidacy</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>왜 그런지</t>
+          <t>입후보, 출마</t>
         </is>
       </c>
       <c r="C368" t="n">
         <v>3</v>
       </c>
       <c r="D368" s="1" t="n">
-        <v>44224.15166368764</v>
+        <v>44222.1141908944</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>candidacy</t>
+          <t>go out of business</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>입후보, 출마</t>
+          <t>파산하다, 폐업하다</t>
         </is>
       </c>
       <c r="C369" t="n">
         <v>3</v>
       </c>
       <c r="D369" s="1" t="n">
-        <v>44222.1141908944</v>
+        <v>44224.95196825996</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>go out of business</t>
+          <t>outfitter</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>파산하다, 폐업하다</t>
+          <t>야외 활동 장비점</t>
         </is>
       </c>
       <c r="C370" t="n">
         <v>3</v>
       </c>
       <c r="D370" s="1" t="n">
-        <v>44224.95196825996</v>
+        <v>44222.84692713182</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>outfitter</t>
+          <t>implication</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>야외 활동 장비점</t>
+          <t>함축, 함의</t>
         </is>
       </c>
       <c r="C371" t="n">
         <v>3</v>
       </c>
-      <c r="D371" s="1" t="n">
-        <v>44222.84692713182</v>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771926</t>
+        </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>implication</t>
+          <t>make a name</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>함축, 함의</t>
+          <t>명성을 얻다</t>
         </is>
       </c>
       <c r="C372" t="n">
         <v>3</v>
       </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771926</t>
-        </is>
+      <c r="D372" s="1" t="n">
+        <v>44224.85289744829</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>make a name</t>
+          <t>sew</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>명성을 얻다</t>
+          <t>바느질하다, 꿰매다</t>
         </is>
       </c>
       <c r="C373" t="n">
         <v>3</v>
       </c>
       <c r="D373" s="1" t="n">
-        <v>44224.85289744829</v>
+        <v>44222.11419089357</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>prompt</t>
+          <t>outpace</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>(컴퓨터 시스템 상에서) ~하라고( 메시지로) 지시하다, 촉구하다</t>
+          <t>~을 능가하다</t>
         </is>
       </c>
       <c r="C374" t="n">
         <v>3</v>
       </c>
-      <c r="D374" s="1" t="n">
-        <v>44222.84692713043</v>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771813</t>
+        </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>sew</t>
+          <t>prompt</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>바느질하다, 꿰매다</t>
+          <t>(컴퓨터 시스템 상에서) ~하라고( 메시지로) 지시하다, 촉구하다</t>
         </is>
       </c>
       <c r="C375" t="n">
         <v>3</v>
       </c>
       <c r="D375" s="1" t="n">
-        <v>44222.11419089357</v>
+        <v>44222.84692713043</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>outpace</t>
+          <t>violator</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>~을 능가하다</t>
+          <t>위반자</t>
         </is>
       </c>
       <c r="C376" t="n">
         <v>3</v>
       </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771813</t>
-        </is>
+      <c r="D376" s="1" t="n">
+        <v>44222.11419089128</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>violator</t>
+          <t>where as</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>위반자</t>
+          <t>~이지만</t>
         </is>
       </c>
       <c r="C377" t="n">
         <v>3</v>
       </c>
       <c r="D377" s="1" t="n">
-        <v>44222.11419089128</v>
+        <v>44222.84692713051</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>get in</t>
+          <t>directory</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>~에 들어가다, 도착하다</t>
+          <t>안내판, 명부</t>
         </is>
       </c>
       <c r="C378" t="n">
         <v>3</v>
       </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771965</t>
-        </is>
+      <c r="D378" s="1" t="n">
+        <v>44222.84692713129</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>where as</t>
+          <t>get in</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>~이지만</t>
+          <t>~에 들어가다, 도착하다</t>
         </is>
       </c>
       <c r="C379" t="n">
         <v>3</v>
       </c>
-      <c r="D379" s="1" t="n">
-        <v>44222.84692713051</v>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771965</t>
+        </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>directory</t>
+          <t>troupe</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>안내판, 명부</t>
+          <t>공연단, 극단</t>
         </is>
       </c>
       <c r="C380" t="n">
         <v>3</v>
       </c>
       <c r="D380" s="1" t="n">
-        <v>44222.84692713129</v>
+        <v>44222.11419089528</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>troupe</t>
+          <t>be lined up</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>공연단, 극단</t>
+          <t>정렬되어 있다</t>
         </is>
       </c>
       <c r="C381" t="n">
         <v>3</v>
       </c>
       <c r="D381" s="1" t="n">
-        <v>44222.11419089528</v>
+        <v>44224.95196826228</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>excerpt</t>
+          <t>as a token of</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>발췌, 인용</t>
+          <t>~의 표시로서, ~의 증거로</t>
         </is>
       </c>
       <c r="C382" t="n">
         <v>3</v>
       </c>
       <c r="D382" s="1" t="n">
-        <v>44222.84692713058</v>
+        <v>44224.9519682622</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>be lined up</t>
+          <t>excerpt</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>정렬되어 있다</t>
+          <t>발췌, 인용</t>
         </is>
       </c>
       <c r="C383" t="n">
         <v>3</v>
       </c>
       <c r="D383" s="1" t="n">
-        <v>44224.95196826228</v>
+        <v>44222.84692713058</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>as a token of</t>
+          <t>eatery</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>~의 표시로서, ~의 증거로</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C384" t="n">
         <v>3</v>
       </c>
       <c r="D384" s="1" t="n">
-        <v>44224.9519682622</v>
+        <v>44222.84692713509</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>eatery</t>
+          <t>deliveration</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C385" t="n">
         <v>3</v>
       </c>
       <c r="D385" s="1" t="n">
-        <v>44222.84692713509</v>
+        <v>44222.84692713342</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>deliveration</t>
+          <t>autobiographical</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>자전적인</t>
         </is>
       </c>
       <c r="C386" t="n">
         <v>3</v>
       </c>
       <c r="D386" s="1" t="n">
-        <v>44222.84692713342</v>
+        <v>44222.11419089197</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>autobiographical</t>
+          <t>regardless of</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>자전적인</t>
+          <t>~와 상관없이</t>
         </is>
       </c>
       <c r="C387" t="n">
         <v>3</v>
       </c>
-      <c r="D387" s="1" t="n">
-        <v>44222.11419089197</v>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772116</t>
+        </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>regardless of</t>
+          <t>sloppy</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>~와 상관없이</t>
+          <t>날림의, 엉성한</t>
         </is>
       </c>
       <c r="C388" t="n">
         <v>3</v>
       </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772116</t>
-        </is>
+      <c r="D388" s="1" t="n">
+        <v>44222.11419089342</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>sloppy</t>
+          <t>professionalism</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>날림의, 엉성한</t>
+          <t xml:space="preserve">전문성 </t>
         </is>
       </c>
       <c r="C389" t="n">
         <v>3</v>
       </c>
       <c r="D389" s="1" t="n">
-        <v>44222.11419089342</v>
+        <v>44222.84692713115</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ramp</t>
+          <t>run late</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>경사로</t>
+          <t>늦어지다</t>
         </is>
       </c>
       <c r="C390" t="n">
         <v>3</v>
       </c>
       <c r="D390" s="1" t="n">
-        <v>44224.95196826259</v>
+        <v>44224.95196826274</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>professionalism</t>
+          <t>ramp</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t xml:space="preserve">전문성 </t>
+          <t>경사로</t>
         </is>
       </c>
       <c r="C391" t="n">
         <v>3</v>
       </c>
       <c r="D391" s="1" t="n">
-        <v>44222.84692713115</v>
+        <v>44224.95196826259</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>run late</t>
+          <t>consumer electronics industry</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>늦어지다</t>
+          <t>가전 사업</t>
         </is>
       </c>
       <c r="C392" t="n">
         <v>3</v>
       </c>
       <c r="D392" s="1" t="n">
-        <v>44224.95196826274</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>consumer electronics industry</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>가전 사업</t>
-        </is>
-      </c>
-      <c r="C393" t="n">
-        <v>3</v>
-      </c>
-      <c r="D393" s="1" t="n">
         <v>44222.11419089379</v>
       </c>
     </row>

--- a/voca.xlsx
+++ b/voca.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>44226.28725668115</v>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>44226.28725668133</v>
@@ -463,896 +463,902 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pass out</t>
+          <t>assume</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>건네다</t>
+          <t>(책임 등을) 떠맡다, 담당하다</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>44226.27521903459</v>
+        <v>44232.18014923276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sip</t>
+          <t>on the premise</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>마시다</t>
+          <t>점포 내에서</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44222.1141908906</v>
+        <v>44232.18014923225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>faculty</t>
+          <t>be propped on[against]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>교수진</t>
+          <t>~에 기대어 있다</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>44226.27521903722</v>
+        <v>44224.95196826236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~에 헌신하다, 전념하다</t>
+          <t>관개, 물을 끌어들임</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>44224.95196826205</v>
+        <v>44232.18014923284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>take over</t>
+          <t>in terms of</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>인수하다, 이어받다</t>
+          <t>~의 면에서</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>44226.287256684</v>
+        <v>44232.18014923233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>designate</t>
+          <t>rate</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>지정하다</t>
+          <t>평가하다, 등급을 매기다</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>44226.28725668353</v>
+        <v>44232.1801492325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>harvest</t>
+          <t>proportional</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>수확(량)</t>
+          <t>(~에) 비례하는</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>44226.27521903561</v>
+        <v>44232.18014923308</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>retention</t>
+          <t>opener</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
+          <t>병따개, 첫 행동</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>44226.28725668124</v>
+        <v>44232.18014923323</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>on your own</t>
+          <t>synthetic</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>혼자 힘으로</t>
+          <t>합성의</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44226.27521903334</v>
+        <v>44222.84692713212</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>executive committee</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>유효한</t>
+          <t>집행 위원회</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>44222.8469271319</v>
+        <v>44226.27521903584</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>look over</t>
+          <t>booklet</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~을 살펴보다</t>
+          <t>소책자</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>44226.27521903375</v>
+        <v>44226.27521903467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>board of trustees</t>
+          <t>nevertheless</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>이사회</t>
+          <t>그럼에도 불구하고</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>44226.2872566842</v>
+        <v>44222.11419089097</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>collect payment</t>
+          <t>wilted</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>대금을 회수하다</t>
+          <t>살짝 데친</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>44222.11419089455</v>
+        <v>44222.84692713471</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>outlook</t>
+          <t>momentum</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>관점, 전망</t>
+          <t>탄력, 가속도, 여세</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>44226.27521903759</v>
+        <v>44226.27521903367</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>alumi</t>
+          <t>as much as possible</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>졸업생들</t>
+          <t>가능한 많이</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>44226.27521903729</v>
+        <v>44226.27521903324</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>fool</t>
+          <t>en masse</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>속이다</t>
+          <t>집단으로</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>44222.84692713268</v>
+        <v>44224.85289744838</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>Town council</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>(장기적으로) 장소를 제공하다</t>
+          <t>시의회</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>44224.95196826055</v>
+        <v>44224.95196826015</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>scholarship</t>
+          <t>feature</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>장학금</t>
+          <t>(영화, 전시 등에) 등장시키다, 특집으로 다루다, 특징을 이루다</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>44226.28725668429</v>
+        <v>44224.85289744905</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>wilderness</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>결근, 부재</t>
+          <t>황야</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>44222.84692713073</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772087</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>premise</t>
+          <t>pass out</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>구내, 토지</t>
+          <t>건네다</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>44226.28725668188</v>
+        <v>44226.27521903459</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>be in force</t>
+          <t>resolution</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>(법률 등이) 시행되다</t>
+          <t>결심, 결정, 결단력</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>44224.15166368782</v>
+        <v>44226.28725668151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>as much as possible</t>
+          <t>take inventory</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>가능한 많이</t>
+          <t>재고 조사를 하다</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>44226.27521903324</v>
+        <v>44224.95196826282</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>faint</t>
+          <t>indication</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>희미한</t>
+          <t>암시</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>44222.11419089351</v>
+        <v>44226.2752190353</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>expenditure</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>지출</t>
+          <t>~에 헌신하다, 전념하다</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>44222.84692713573</v>
+        <v>44224.95196826205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>in a single direction</t>
+          <t>allege</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>한 방향으로</t>
+          <t>(확실한 증거 없이) 주장하다</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>44224.95196826266</v>
+        <v>44222.11419089303</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>publicize</t>
+          <t>interoffice</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>공표하다, 알리다</t>
+          <t>회사 내의, 각 부서간의</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>44224.95196826175</v>
+        <v>44222.8469271298</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>financial position</t>
+          <t>set</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>재무 상태</t>
+          <t>부과하다, 맡기다</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>44222.11419089536</v>
+        <v>44232.18014923265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>theatergoer</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>결심, 결정, 결단력</t>
+          <t>극장에 (자주) 가는 사람</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>44226.28725668151</v>
+        <v>44224.95196826072</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>executive committee</t>
+          <t>in a timely manner</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>집행 위원회</t>
+          <t>시기에 맞게</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>44226.27521903584</v>
+        <v>44226.28725668437</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>be scattered on</t>
+          <t>expenditure</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~에 흩어져 있다</t>
+          <t>지출</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>44224.95196826251</v>
+        <v>44222.84692713573</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>assigned to</t>
+          <t>fabricate</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~로 발령받다</t>
+          <t>조립하다, 제작하다</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>4</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <v>44226.27521903752</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771804</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>glazed</t>
+          <t>reversal</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>(설탕을 입혀) 윤기가 나는</t>
+          <t>전환, 역전</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>44222.84692713429</v>
+        <v>44226.28725668282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>on time</t>
+          <t>reserve the right to + 동사원형</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>정시에</t>
+          <t>~할 권한을 보유하다</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>4</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>44226.28725668383</v>
+        <v>44224.85289744757</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>favor</t>
+          <t>forestall</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>호의</t>
+          <t>선수를 치다, 기선을 제압하다</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>4</v>
       </c>
-      <c r="D36" s="1" t="n">
-        <v>44226.275219035</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771832</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>testimonial</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
+          <t>추천의 글</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>44226.27521903359</v>
+        <v>44222.11419089424</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>as to</t>
+          <t>you get what you pay for</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>싼게 비지떡</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>44222.11419089403</v>
+        <v>44222.1141908932</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>unfavorable</t>
+          <t>fool</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>불리한</t>
+          <t>속이다</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>44224.15166368725</v>
+        <v>44222.84692713268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>synthetic</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>합성의</t>
+          <t>취재하다, 기사를 담당하다</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>44222.84692713212</v>
+        <v>44226.28725668292</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pay package</t>
+          <t>liability</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>연봉</t>
+          <t>책임</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>4</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <v>44226.27521903706</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771945</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>credential</t>
+          <t>sole</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>자격(증), 보증서, 자격 인증(서)</t>
+          <t>밑창</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>44222.11419089478</v>
+        <v>44222.8469271326</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>decide against -ing</t>
+          <t>assistant manager</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~하지 않기로 결정하다</t>
+          <t>대리</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>44224.85289744789</v>
+        <v>44222.84692713011</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>will pay a visit</t>
+          <t>board of trustees</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>방문할 것이다.</t>
+          <t>이사회</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>44222.11419089448</v>
+        <v>44226.2872566842</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>commune</t>
+          <t>help out</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>친하게 사귀다</t>
+          <t>도와주다</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772068</t>
-        </is>
+      <c r="D45" s="1" t="n">
+        <v>44226.28725668362</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>water tower</t>
+          <t>to this end</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>급수탑</t>
+          <t>이를 위해, 이런 목적으로</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>44222.11419089501</v>
+        <v>44222.11419089136</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Town council</t>
+          <t>disclosure</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>시의회</t>
+          <t>공개</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>44224.95196826015</v>
+        <v>44226.28725668178</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>be credited to</t>
+          <t>take over</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>~로 입금되다[금액이 넘어가다]</t>
+          <t>인수하다, 이어받다</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>44224.85289744771</v>
+        <v>44226.287256684</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>be busy -ing</t>
+          <t>acidic</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~하느라 바쁘다</t>
+          <t>매우 신</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>44226.27521903316</v>
+        <v>44222.84692713419</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>deliberation</t>
+          <t>authority</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>당국, 권한</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>44222.11419089273</v>
+        <v>44226.28725668169</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>stationery store</t>
+          <t>look over</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>문구점</t>
+          <t>~을 살펴보다</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>4</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>44226.27521903351</v>
+        <v>44226.27521903375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>outplay</t>
+          <t>pier</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>패배시키다</t>
+          <t>부두</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1360,1251 +1366,1243 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771879</t>
+          <t>2021-01-26 02:11:09.772395</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>now that</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~이기 때문에</t>
+          <t>대우, 처치</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>44226.27521903344</v>
+        <v>44226.27521903482</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>yield</t>
+          <t>sip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>산출하다, (이익을) 내다</t>
+          <t>마시다</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771984</t>
-        </is>
+      <c r="D54" s="1" t="n">
+        <v>44222.1141908906</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>fabricate</t>
+          <t>interfere with</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>조립하다, 제작하다</t>
+          <t>~을 방해하다</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771804</t>
-        </is>
+      <c r="D55" s="1" t="n">
+        <v>44224.85289744781</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>be propped on[against]</t>
+          <t>considerable</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>~에 기대어 있다</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>44224.95196826236</v>
+        <v>44232.1801492321</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>store credit</t>
+          <t>overlook</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>상점 적립금</t>
+          <t>간과; ~을 간과하다, 내려보다</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>44226.27521903476</v>
+        <v>44222.84692713336</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>jointly</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>취재하다, 기사를 담당하다</t>
+          <t>공동으로</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>44226.28725668292</v>
+        <v>44224.15166368744</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>acidic</t>
+          <t>bet</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>매우 신</t>
+          <t>선택한 것[사람], 방책</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>4</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>44222.84692713419</v>
+        <v>44222.84692713251</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>official</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>대우, 처치</t>
+          <t>간부, 공무원</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>44226.27521903482</v>
+        <v>44222.11419089281</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>awning</t>
+          <t>in a single direction</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>차양</t>
+          <t>한 방향으로</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>4</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772367</t>
-        </is>
+      <c r="D61" s="1" t="n">
+        <v>44224.95196826266</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>직업</t>
+          <t>비판적인</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>44226.27521903744</v>
+        <v>44226.2872566846</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>liability</t>
+          <t>thoroughly</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>책임</t>
+          <t>철저히</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>4</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771945</t>
-        </is>
+      <c r="D63" s="1" t="n">
+        <v>44222.84692713282</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>pier</t>
+          <t>paycheck</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>부두</t>
+          <t>급여(수표)</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>4</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772395</t>
-        </is>
+      <c r="D64" s="1" t="n">
+        <v>44222.84692713146</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>high court</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>(봉지에 넣어) 포장하다</t>
+          <t>고등 법원</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>4</v>
       </c>
-      <c r="D65" s="1" t="n">
-        <v>44222.11419089067</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771936</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>plush</t>
+          <t>outlook</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>안락한, 고급의</t>
+          <t>관점, 전망</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772261</t>
-        </is>
+      <c r="D66" s="1" t="n">
+        <v>44226.27521903759</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>derive</t>
+          <t>quite a while ago</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>끌어내다</t>
+          <t>꽤 오래전에</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>44222.11419089582</v>
+        <v>44226.27521903308</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>interoffice</t>
+          <t>store credit</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>회사 내의, 각 부서간의</t>
+          <t>상점 적립금</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>44222.8469271298</v>
+        <v>44226.27521903476</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ojection</t>
+          <t>color scheme</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>색체 조합</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>44226.27521903523</v>
+        <v>44224.15166368855</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>dairy farmer</t>
+          <t>be to blame</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>낙농업자</t>
+          <t>(잘못의) 책임이 있다</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>44226.2752190368</v>
+        <v>44224.85289744868</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>be sure to</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>반드시 ~하다</t>
+          <t>유효한</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>4</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>44226.2752190339</v>
+        <v>44222.8469271319</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>you get what you pay for</t>
+          <t>pay package</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>싼게 비지떡</t>
+          <t>연봉</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>4</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>44222.1141908932</v>
+        <v>44226.27521903706</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>as of + 시점</t>
+          <t>stationery store</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>~부로</t>
+          <t>문구점</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>4</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>44222.11419089551</v>
+        <v>44226.27521903351</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>consider A (as [to be]) B</t>
+          <t>assortment</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A를 B로 여기다, 간주하다</t>
+          <t>모음</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>4</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771898</t>
-        </is>
+      <c r="D74" s="1" t="n">
+        <v>44226.27521903592</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>disclosure</t>
+          <t>faculty</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>공개</t>
+          <t>교수진</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>44226.28725668178</v>
+        <v>44226.27521903722</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>high court</t>
+          <t>autograph</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>고등 법원</t>
+          <t>사인</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>4</v>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771936</t>
-        </is>
+      <c r="D76" s="1" t="n">
+        <v>44222.11419089082</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>assortment</t>
+          <t>move in</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>모음</t>
+          <t>이사 들어오다</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>44226.27521903592</v>
+        <v>44226.27521903287</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>autograph</t>
+          <t>credential</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>사인</t>
+          <t>자격(증), 보증서, 자격 인증(서)</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>44222.11419089082</v>
+        <v>44222.11419089478</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>reserve the right to + 동사원형</t>
+          <t>tender</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>~할 권한을 보유하다</t>
+          <t>(고기가) 연한</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>4</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>44224.85289744757</v>
+        <v>44222.84692713404</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>delivery window</t>
+          <t>sealed</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>배달 시간대</t>
+          <t xml:space="preserve">마감칠된, 밀폐된 </t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>4</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>44222.84692713558</v>
+        <v>44222.11419089418</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>insulated</t>
+          <t>decide against -ing</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>절연된</t>
+          <t>~하지 않기로 결정하다</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>4</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>44222.1141908941</v>
+        <v>44224.85289744789</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>wilted</t>
+          <t>commune</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>살짝 데친</t>
+          <t>친하게 사귀다</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>4</v>
       </c>
-      <c r="D82" s="1" t="n">
-        <v>44222.84692713471</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772068</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>reversal</t>
+          <t>put up</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>전환, 역전</t>
+          <t>~을 붙이다, 세우다</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>4</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>44226.28725668282</v>
+        <v>44222.11419088999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>every other week</t>
+          <t>initiation</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>격주로</t>
+          <t>창시, 입문</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>4</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>44222.11419089165</v>
+        <v>44224.95196826095</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>help out</t>
+          <t>criticism</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>도와주다</t>
+          <t>비판, 비평</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>44226.28725668362</v>
+        <v>44226.28725668482</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>lie</t>
+          <t>scholarship</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>놓여 있다</t>
+          <t>장학금</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772423</t>
-        </is>
+      <c r="D86" s="1" t="n">
+        <v>44226.28725668429</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>make landfall</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>~에 관한</t>
+          <t>착륙하다</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>44222.11419089493</v>
+        <v>44224.15166368837</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>criticism</t>
+          <t>outplay</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>비판, 비평</t>
+          <t>패배시키다</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>4</v>
       </c>
-      <c r="D88" s="1" t="n">
-        <v>44226.28725668482</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771879</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>assembly</t>
+          <t>tenant</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>의회</t>
+          <t>세입자</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>44226.27521903737</v>
+        <v>44226.28725668345</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>frustrating</t>
+          <t>research into</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>실망스러운</t>
+          <t>~을 조사하다</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
-      <c r="D90" s="1" t="n">
-        <v>44222.84692713296</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771870</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>highland</t>
+          <t>be appointed + 직위</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>고원</t>
+          <t>~로 임명되다</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>4</v>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772078</t>
-        </is>
+      <c r="D91" s="1" t="n">
+        <v>44226.28725668301</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>serve as</t>
+          <t>podium</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>~의 역할을 하다</t>
+          <t>연단</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>4</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>44222.8469271309</v>
+        <v>44222.11419089007</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>initiation</t>
+          <t>surveyor</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>창시, 입문</t>
+          <t>측량사</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>4</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>44224.95196826095</v>
+        <v>44222.84692712996</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>associate's degree</t>
+          <t>somewhat</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>준학사 학위</t>
+          <t>다소, 약간</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>4</v>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772097</t>
-        </is>
+      <c r="D94" s="1" t="n">
+        <v>44222.84692713027</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>admission</t>
+          <t>consider A (as [to be]) B</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>입장, 인정</t>
+          <t>A를 B로 여기다, 간주하다</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
-      <c r="D95" s="1" t="n">
-        <v>44222.84692713066</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771898</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>overdraw</t>
+          <t>reconfigure</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
+          <t>(시스템, 기기 등을) 재배열[재설정]</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>4</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772059</t>
-        </is>
+      <c r="D96" s="1" t="n">
+        <v>44224.85289744933</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>bet</t>
+          <t>devotion</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>선택한 것[사람], 방책</t>
+          <t>헌신, 전념</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>4</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>44222.84692713251</v>
+        <v>44226.2752190349</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>feature</t>
+          <t>acclaimed</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>(영화, 전시 등에) 등장시키다</t>
+          <t>칭찬[호평] 받는</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>44224.85289744905</v>
+        <v>44226.28725668411</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>anchor</t>
+          <t>offshore</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>정박하다</t>
+          <t>연안에</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>44224.15166368819</v>
+        <v>44224.15166368827</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>pavilion</t>
+          <t>substantial</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
+          <t>상당한, 실질적인</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>4</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>44222.11419089228</v>
+        <v>44226.27521903696</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>landscape</t>
+          <t>publicize</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>조경을 하다</t>
+          <t>공표하다, 알리다</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>4</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>44226.27521903383</v>
+        <v>44224.95196826175</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>podium</t>
+          <t>beam</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>연단</t>
+          <t>들보, 보</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>4</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>44222.11419089007</v>
+        <v>44224.85289744888</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>to this end</t>
+          <t>compliment</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>이를 위해, 이런 목적으로</t>
+          <t>칭찬하다</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>4</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>44222.11419089136</v>
+        <v>44224.85289744801</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>allowance</t>
+          <t>orchard</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>수당</t>
+          <t>과수원</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>44226.28725668143</v>
+        <v>44222.11419089173</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>insist on -ing</t>
+          <t>get off</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>~할 것을 주장하다</t>
+          <t>내리다</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>4</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>44224.15166368698</v>
+        <v>44226.27521903451</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>bistro</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>중역</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>44226.28725668391</v>
+        <v>44224.95196826063</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>estimate</t>
+          <t>associate's degree</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>견적</t>
+          <t>준학사 학위</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>4</v>
       </c>
-      <c r="D107" s="1" t="n">
-        <v>44226.27521903508</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772097</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>quality assurance</t>
+          <t>awning</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>품질 보증</t>
+          <t>차양</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>4</v>
       </c>
-      <c r="D108" s="1" t="n">
-        <v>44222.11419089433</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772367</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>end up -ing</t>
+          <t>house</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>~하게 되다, 결국 ~이 되다</t>
+          <t>(장기적으로) 장소를 제공하다</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>4</v>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772223</t>
-        </is>
+      <c r="D109" s="1" t="n">
+        <v>44224.95196826055</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>correspondence</t>
+          <t>be scattered on</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>통신, 연락</t>
+          <t>~에 흩어져 있다</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>4</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>44222.84692713374</v>
+        <v>44224.95196826251</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>devotion</t>
+          <t xml:space="preserve">halibut </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>헌신, 전념</t>
+          <t>광어</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>4</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>44226.2752190349</v>
+        <v>44222.84692713412</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>substantial</t>
+          <t>plush</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>상당한, 실질적인</t>
+          <t>안락한, 고급의</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>4</v>
       </c>
-      <c r="D112" s="1" t="n">
-        <v>44226.27521903696</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772261</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>orchard</t>
+          <t>be supposed to</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>과수원</t>
+          <t>~할 예정이다, ~하도록 되어 있다</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>4</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>44222.11419089173</v>
+        <v>44222.11419089574</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>commentary</t>
+          <t>plow</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>쟁기로 갈다; 쟁기</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>4</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>44226.28725668451</v>
+        <v>44222.11419088944</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>crate</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>상자</t>
+          <t>산출하다, (이익을) 내다</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>4</v>
       </c>
-      <c r="D115" s="1" t="n">
-        <v>44222.11419088969</v>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771984</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>plow</t>
+          <t>be in force</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>쟁기로 갈다; 쟁기</t>
+          <t>(법률 등이) 시행되다</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>4</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>44222.11419088944</v>
+        <v>44224.15166368782</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>bistro</t>
+          <t>admit</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>4</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>44224.95196826063</v>
+        <v>44224.85289744914</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>year-round</t>
+          <t>favor</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>일년 내내</t>
+          <t>호의</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>4</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>44222.1141908922</v>
+        <v>44226.275219035</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>indication</t>
+          <t>gain</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>암시</t>
+          <t>증가, 이익</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>4</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>44226.2752190353</v>
+        <v>44232.18014923292</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>mural</t>
+          <t>treat</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>벽화</t>
+          <t>특별한 기쁨, 만족</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2612,181 +2610,183 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772204</t>
+          <t>2021-01-26 02:11:09.772166</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>get to</t>
+          <t>deliberation</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>~에 착수하다</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>44226.27521903298</v>
+        <v>44222.11419089273</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>somewhat</t>
+          <t>admission</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>다소, 약간</t>
+          <t>입장, 인정</t>
         </is>
       </c>
       <c r="C122" t="n">
         <v>4</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>44222.84692713027</v>
+        <v>44222.84692713066</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>take inventory</t>
+          <t>on time</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>재고 조사를 하다</t>
+          <t>정시에</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>4</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>44224.95196826282</v>
+        <v>44226.28725668383</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>authority</t>
+          <t>allowance</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>당국, 권한</t>
+          <t>수당</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>4</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>44226.28725668169</v>
+        <v>44226.28725668143</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>have company</t>
+          <t>paystub</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>동행[일행]이 있다</t>
+          <t>급여 명세서</t>
         </is>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>44226.28725668309</v>
+        <v>44222.84692713153</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>verification</t>
+          <t>pride oneself on</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>확인, 조회</t>
+          <t>~에 대해 자랑하다</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>4</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>44224.15166368864</v>
+        <v>44222.84692713107</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>jostle for</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve">상당히 </t>
+          <t>~을 위하여 다투다, 겨루다</t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>4</v>
       </c>
-      <c r="D127" s="1" t="n">
-        <v>44222.84692713397</v>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772185</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>compliment</t>
+          <t>plumbing</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>칭찬하다</t>
+          <t>배관[수도 시설], 배관 작업[공사]</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>44224.85289744801</v>
+        <v>44222.11419089181</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>composition</t>
+          <t>matter</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>구성(요소)</t>
+          <t>중요하다</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>4</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>44226.28725668104</v>
+        <v>44226.28725668374</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>treat</t>
+          <t>courtyard</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>특별한 기쁨, 만족</t>
+          <t>뜰, 정원</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -2794,1009 +2794,1007 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772166</t>
+          <t>2021-01-26 02:11:09.772213</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>nevertheless</t>
+          <t>look forward to + -ing</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>그럼에도 불구하고</t>
+          <t>~을 고대하다</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>44222.11419089097</v>
+        <v>44222.1141908915</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>school term</t>
+          <t>correspondence</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>학기</t>
+          <t>통신, 연락</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>4</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>44226.28725668318</v>
+        <v>44222.84692713374</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>year-round</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>작업장</t>
+          <t>일년 내내</t>
         </is>
       </c>
       <c r="C133" t="n">
         <v>4</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>44224.85289744924</v>
+        <v>44222.1141908922</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>paycheck</t>
+          <t>in exchange for</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>급여(수표)</t>
+          <t>~을 대신해서</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>44222.84692713146</v>
+        <v>44222.84692713327</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">sizable </t>
+          <t>extend</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>정도, 범위</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>4</v>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772232</t>
-        </is>
+      <c r="D135" s="1" t="n">
+        <v>44226.28725668084</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>make landfall</t>
+          <t>verification</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>착륙하다</t>
+          <t>확인, 조회</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>44224.15166368837</v>
+        <v>44224.15166368864</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>roll-out</t>
+          <t>alumi</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>(신제품의) 첫 공개</t>
+          <t>졸업생들</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>4</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>44224.85289744857</v>
+        <v>44226.27521903729</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>feasibility</t>
+          <t>be credited to</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>실행 가능성, 실현 가능성</t>
+          <t>~로 입금되다[금액이 넘어가다]</t>
         </is>
       </c>
       <c r="C138" t="n">
         <v>4</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>44226.28725668096</v>
+        <v>44224.85289744771</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>harvest</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>시의</t>
+          <t>수확(량)</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>44222.11419089144</v>
+        <v>44226.27521903561</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>be to blame</t>
+          <t>cost A B</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>(잘못의) 책임이 있다</t>
+          <t>A에게 B의 비용이 들다</t>
         </is>
       </c>
       <c r="C140" t="n">
         <v>4</v>
       </c>
-      <c r="D140" s="1" t="n">
-        <v>44224.85289744868</v>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771851</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>be sure to</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>탄력, 가속도, 여세</t>
+          <t>반드시 ~하다</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>4</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>44226.27521903367</v>
+        <v>44226.2752190339</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>bouquet</t>
+          <t>floor</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>꽃다발</t>
+          <t>작업장</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>44222.11419088952</v>
+        <v>44224.85289744924</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>theatergoer</t>
+          <t>end up -ing</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>극장에 (자주) 가는 사람</t>
+          <t>~하게 되다, 결국 ~이 되다</t>
         </is>
       </c>
       <c r="C143" t="n">
         <v>4</v>
       </c>
-      <c r="D143" s="1" t="n">
-        <v>44224.95196826072</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772223</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>elevation</t>
+          <t>tuition</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>승진</t>
+          <t>학자금</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>4</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>44226.27521903538</v>
+        <v>44222.84692713174</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>faulty</t>
+          <t>retention</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>결함이 있는</t>
+          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
         </is>
       </c>
       <c r="C145" t="n">
         <v>4</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>44226.27521903606</v>
+        <v>44226.28725668124</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>bird-nesting</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>변환</t>
+          <t>(취미로) 새 둥지를 찾아다니는</t>
         </is>
       </c>
       <c r="C146" t="n">
         <v>4</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>44226.27521903575</v>
+        <v>44224.15166368884</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>overlook</t>
+          <t>roll-out</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>간과; ~을 간과하다, 내려보다</t>
+          <t>(신제품의) 첫 공개</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>4</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>44222.84692713336</v>
+        <v>44224.85289744857</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>initiator</t>
+          <t>in preparation for</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>창시자</t>
+          <t>~에 대비하여</t>
         </is>
       </c>
       <c r="C148" t="n">
         <v>4</v>
       </c>
-      <c r="D148" s="1" t="n">
-        <v>44224.95196826103</v>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772320</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>be supposed to</t>
+          <t>assigned to</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>~할 예정이다, ~하도록 되어 있다</t>
+          <t>~로 발령받다</t>
         </is>
       </c>
       <c r="C149" t="n">
         <v>4</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>44222.11419089574</v>
+        <v>44226.27521903752</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>occasion</t>
+          <t>let down</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>때, 경우</t>
+          <t>~을 실망시키다</t>
         </is>
       </c>
       <c r="C150" t="n">
         <v>4</v>
       </c>
-      <c r="D150" s="1" t="n">
-        <v>44226.275219036</v>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771974</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>tender</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>(고기가) 연한</t>
+          <t>중역</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>44222.84692713404</v>
+        <v>44226.28725668391</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>move in</t>
+          <t>earn</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>이사 들어오다</t>
+          <t>~에게 …을 받게 할 자격을 주다</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>4</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>44226.27521903287</v>
+        <v>44226.27521903714</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ration</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>배급하다</t>
+          <t>견적</t>
         </is>
       </c>
       <c r="C153" t="n">
         <v>4</v>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772012</t>
-        </is>
+      <c r="D153" s="1" t="n">
+        <v>44226.27521903508</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>sole</t>
+          <t>water tower</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>밑창</t>
+          <t>급수탑</t>
         </is>
       </c>
       <c r="C154" t="n">
         <v>4</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>44222.8469271326</v>
+        <v>44222.11419089501</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>admit</t>
+          <t>faulty</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>결함이 있는</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>44224.85289744914</v>
+        <v>44226.27521903606</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>bird-nesting</t>
+          <t>on your own</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>(취미로) 새 둥지를 찾아다니는</t>
+          <t>혼자 힘으로</t>
         </is>
       </c>
       <c r="C156" t="n">
         <v>4</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>44224.15166368884</v>
+        <v>44226.27521903334</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>acclaimed</t>
+          <t>ration</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>칭찬[호평] 받는</t>
+          <t>배급하다</t>
         </is>
       </c>
       <c r="C157" t="n">
         <v>4</v>
       </c>
-      <c r="D157" s="1" t="n">
-        <v>44226.28725668411</v>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772012</t>
+        </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>earn</t>
+          <t>present</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>~에게 …을 받게 할 자격을 주다</t>
+          <t>제시[제출]하다</t>
         </is>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>44226.27521903714</v>
+        <v>44232.18014923333</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>tuition</t>
+          <t>crate</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>학자금</t>
+          <t>상자</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>44222.84692713174</v>
+        <v>44222.11419088969</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>get off</t>
+          <t>will pay a visit</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>내리다</t>
+          <t>방문할 것이다.</t>
         </is>
       </c>
       <c r="C160" t="n">
         <v>4</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>44226.27521903451</v>
+        <v>44222.11419089448</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>research into</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>~을 조사하다</t>
+          <t xml:space="preserve">상당히 </t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771870</t>
-        </is>
+      <c r="D161" s="1" t="n">
+        <v>44222.84692713397</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>claim</t>
+          <t>assembly</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>~을 주장하다</t>
+          <t>의회</t>
         </is>
       </c>
       <c r="C162" t="n">
         <v>4</v>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771907</t>
-        </is>
+      <c r="D162" s="1" t="n">
+        <v>44226.27521903737</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>critically</t>
+          <t>relieve A of B</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>비판적으로</t>
+          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
         </is>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>44226.28725668474</v>
+        <v>44222.11419089597</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>in preparation for</t>
+          <t>elevation</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>~에 대비하여</t>
+          <t>승진</t>
         </is>
       </c>
       <c r="C164" t="n">
         <v>4</v>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772320</t>
-        </is>
+      <c r="D164" s="1" t="n">
+        <v>44226.27521903538</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">halibut </t>
+          <t>mural</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>광어</t>
+          <t>벽화</t>
         </is>
       </c>
       <c r="C165" t="n">
         <v>4</v>
       </c>
-      <c r="D165" s="1" t="n">
-        <v>44222.84692713412</v>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772204</t>
+        </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>assistant manager</t>
+          <t>occasion</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>대리</t>
+          <t>때, 경우</t>
         </is>
       </c>
       <c r="C166" t="n">
         <v>4</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>44222.84692713011</v>
+        <v>44226.275219036</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>in exchange for</t>
+          <t>serve as</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>~을 대신해서</t>
+          <t>~의 역할을 하다</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>4</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>44222.84692713327</v>
+        <v>44222.8469271309</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>thoroughly</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>철저히</t>
+          <t>(봉지에 넣어) 포장하다</t>
         </is>
       </c>
       <c r="C168" t="n">
         <v>4</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>44222.84692713282</v>
+        <v>44222.11419089067</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>mow</t>
+          <t>insulated</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>잔디를 깎다</t>
+          <t>절연된</t>
         </is>
       </c>
       <c r="C169" t="n">
         <v>4</v>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772470</t>
-        </is>
+      <c r="D169" s="1" t="n">
+        <v>44222.1141908941</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>tenant</t>
+          <t>ojection</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>세입자</t>
+          <t>반대</t>
         </is>
       </c>
       <c r="C170" t="n">
         <v>4</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>44226.28725668345</v>
+        <v>44226.27521903523</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>in a timely manner</t>
+          <t>derive</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>시기에 맞게</t>
+          <t>끌어내다</t>
         </is>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>44226.28725668437</v>
+        <v>44222.11419089582</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>sealed</t>
+          <t>faint</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve">마감칠된, 밀폐된 </t>
+          <t>희미한</t>
         </is>
       </c>
       <c r="C172" t="n">
         <v>4</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>44222.11419089418</v>
+        <v>44222.11419089351</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>plumbing</t>
+          <t>lay</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>배관[수도 시설], 배관 작업[공사]</t>
+          <t>놓다, 두다</t>
         </is>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
-      <c r="D173" s="1" t="n">
-        <v>44222.11419089181</v>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772433</t>
+        </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>cost A B</t>
+          <t>informal</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>A에게 B의 비용이 들다</t>
+          <t>비공식의</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>4</v>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771851</t>
-        </is>
+      <c r="D174" s="1" t="n">
+        <v>44232.18014923258</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>valdiation</t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>확인</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C175" t="n">
         <v>4</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>44226.27521903553</v>
+        <v>44222.84692713288</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>reconfigure</t>
+          <t>concerning</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>(시스템, 기기 등을) 재배열[재설정]</t>
+          <t>~에 관한</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>44224.85289744933</v>
+        <v>44222.11419089493</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>put up</t>
+          <t>landscape</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>~을 붙이다, 세우다</t>
+          <t>조경을 하다</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>4</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>44222.11419088999</v>
+        <v>44226.27521903383</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>rotunda</t>
+          <t>unfavorable</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>원형의 홀, 원형 건축물</t>
+          <t>불리한</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>4</v>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772308</t>
-        </is>
+      <c r="D178" s="1" t="n">
+        <v>44224.15166368725</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>forestall</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>선수를 치다, 기선을 제압하다</t>
+          <t>변환</t>
         </is>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771832</t>
-        </is>
+      <c r="D179" s="1" t="n">
+        <v>44226.27521903575</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>비판적인</t>
+          <t>시의</t>
         </is>
       </c>
       <c r="C180" t="n">
         <v>4</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>44226.2872566846</v>
+        <v>44222.11419089144</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>proprietor</t>
+          <t xml:space="preserve">sizable </t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>사업주</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C181" t="n">
         <v>4</v>
       </c>
-      <c r="D181" s="1" t="n">
-        <v>44226.28725668335</v>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772232</t>
+        </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>be appointed + 직위</t>
+          <t>collect payment</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>~로 임명되다</t>
+          <t>대금을 회수하다</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>4</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>44226.28725668301</v>
+        <v>44222.11419089455</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>proximate</t>
+          <t>school term</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>가장 가까운</t>
+          <t>학기</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>4</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>44222.84692713319</v>
+        <v>44226.28725668318</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>relieve A of B</t>
+          <t>account</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
+          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
         </is>
       </c>
       <c r="C184" t="n">
         <v>4</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>44222.11419089597</v>
+        <v>44226.27521903359</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>bear with</t>
+          <t>highland</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>~을 견디다, 참다</t>
+          <t>고원</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -3804,1357 +3802,1357 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771955</t>
+          <t>2021-01-26 02:11:09.772078</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">in exchange for </t>
+          <t>anchor</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>~의 대가로</t>
+          <t>정박하다</t>
         </is>
       </c>
       <c r="C186" t="n">
         <v>4</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>44226.27521903688</v>
+        <v>44224.15166368819</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>scope</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>범위, 영역</t>
+          <t>~에 헌신하다[전념하다]</t>
         </is>
       </c>
       <c r="C187" t="n">
         <v>4</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>44222.11419089205</v>
+        <v>44226.28725668327</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>compete</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>간부, 공무원</t>
+          <t>경쟁하다</t>
         </is>
       </c>
       <c r="C188" t="n">
         <v>4</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>44222.11419089281</v>
+        <v>44232.18014923241</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>interfere with</t>
+          <t>quality assurance</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>~을 방해하다</t>
+          <t>품질 보증</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>4</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>44224.85289744781</v>
+        <v>44222.11419089433</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>let down</t>
+          <t>corn</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>~을 실망시키다</t>
+          <t>옥수수</t>
         </is>
       </c>
       <c r="C190" t="n">
         <v>4</v>
       </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771974</t>
-        </is>
+      <c r="D190" s="1" t="n">
+        <v>44232.180149233</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>a load of</t>
+          <t>insist on -ing</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>한 짐의, 많은</t>
+          <t>~할 것을 주장하다</t>
         </is>
       </c>
       <c r="C191" t="n">
         <v>4</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>44222.11419088984</v>
+        <v>44224.15166368698</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>lay</t>
+          <t>every other week</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>놓다, 두다</t>
+          <t>격주로</t>
         </is>
       </c>
       <c r="C192" t="n">
         <v>4</v>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772433</t>
-        </is>
+      <c r="D192" s="1" t="n">
+        <v>44222.11419089165</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>jointly</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>공동으로</t>
+          <t>직업</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>4</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>44224.15166368744</v>
+        <v>44226.27521903744</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>영업, 사업</t>
+          <t>결근, 부재</t>
         </is>
       </c>
       <c r="C194" t="n">
         <v>4</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>44226.27521903515</v>
+        <v>44222.84692713073</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>wilderness</t>
+          <t>feasibility</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>황야</t>
+          <t>실행 가능성, 실현 가능성</t>
         </is>
       </c>
       <c r="C195" t="n">
         <v>4</v>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772087</t>
-        </is>
+      <c r="D195" s="1" t="n">
+        <v>44226.28725668096</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>booklet</t>
+          <t>bouquet</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>소책자</t>
+          <t>꽃다발</t>
         </is>
       </c>
       <c r="C196" t="n">
         <v>4</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>44226.27521903467</v>
+        <v>44222.11419088952</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>appreciate</t>
+          <t>mow</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>잔디를 깎다</t>
         </is>
       </c>
       <c r="C197" t="n">
         <v>4</v>
       </c>
-      <c r="D197" s="1" t="n">
-        <v>44222.84692713288</v>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772470</t>
+        </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>be busy -ing</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>~에 헌신하다[전념하다]</t>
+          <t>~하느라 바쁘다</t>
         </is>
       </c>
       <c r="C198" t="n">
         <v>4</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>44226.28725668327</v>
+        <v>44226.27521903316</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>allege</t>
+          <t>proprietor</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>(확실한 증거 없이) 주장하다</t>
+          <t>사업주</t>
         </is>
       </c>
       <c r="C199" t="n">
         <v>4</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>44222.11419089303</v>
+        <v>44226.28725668335</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>quite a while ago</t>
+          <t>lie</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>꽤 오래전에</t>
+          <t>놓여 있다</t>
         </is>
       </c>
       <c r="C200" t="n">
         <v>4</v>
       </c>
-      <c r="D200" s="1" t="n">
-        <v>44226.27521903308</v>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772423</t>
+        </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>color scheme</t>
+          <t>vary</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>색체 조합</t>
+          <t>(서로) 다르다, 다양하다</t>
         </is>
       </c>
       <c r="C201" t="n">
         <v>4</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>44224.15166368855</v>
+        <v>44222.84692713229</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>surveyor</t>
+          <t xml:space="preserve">in exchange for </t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>측량사</t>
+          <t>~의 대가로</t>
         </is>
       </c>
       <c r="C202" t="n">
         <v>4</v>
       </c>
       <c r="D202" s="1" t="n">
-        <v>44222.84692712996</v>
+        <v>44226.27521903688</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>extend</t>
+          <t>as to</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>정도, 범위</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C203" t="n">
         <v>4</v>
       </c>
       <c r="D203" s="1" t="n">
-        <v>44226.28725668084</v>
+        <v>44222.11419089403</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">critic </t>
+          <t>given</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>비평가</t>
+          <t>~을 고려할 때</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>4</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>44226.28725668466</v>
+        <v>44224.95196826023</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>courtyard</t>
+          <t>excutive chef</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>뜰, 정원</t>
+          <t>총 주방장</t>
         </is>
       </c>
       <c r="C205" t="n">
         <v>4</v>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772213</t>
-        </is>
+      <c r="D205" s="1" t="n">
+        <v>44224.9519682608</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>testimonial</t>
+          <t>address</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>추천의 글</t>
+          <t>처리[해결]하다, 다루다</t>
         </is>
       </c>
       <c r="C206" t="n">
         <v>4</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>44222.11419089424</v>
+        <v>44224.95196826212</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>paystub</t>
+          <t>implore</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>급여 명세서</t>
+          <t>애원하다, 간청하다</t>
         </is>
       </c>
       <c r="C207" t="n">
         <v>4</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>44222.84692713153</v>
+        <v>44222.11419089589</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>look forward to + -ing</t>
+          <t>formal</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>~을 고대하다</t>
+          <t>공식적인</t>
         </is>
       </c>
       <c r="C208" t="n">
         <v>4</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>44222.1141908915</v>
+        <v>44226.28725668443</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>pride oneself on</t>
+          <t>be about to + 동사원형</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>~에 대해 자랑하다</t>
+          <t>막 ~하려고 하다</t>
         </is>
       </c>
       <c r="C209" t="n">
         <v>4</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>44222.84692713107</v>
+        <v>44222.11419088992</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>en masse</t>
+          <t>rotunda</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>집단으로</t>
+          <t>원형의 홀, 원형 건축물</t>
         </is>
       </c>
       <c r="C210" t="n">
         <v>4</v>
       </c>
-      <c r="D210" s="1" t="n">
-        <v>44224.85289744838</v>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772308</t>
+        </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>be due to + 동사원형</t>
+          <t>tuck away</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>찾기힘든 안전한 곳에 보관하다</t>
         </is>
       </c>
       <c r="C211" t="n">
         <v>4</v>
       </c>
       <c r="D211" s="1" t="n">
-        <v>44222.11419089388</v>
+        <v>44222.84692713565</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>jostle for</t>
+          <t>enthusiast</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>~을 위하여 다투다, 겨루다</t>
+          <t>열성팬 [열렬한 팬]</t>
         </is>
       </c>
       <c r="C212" t="n">
         <v>4</v>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772185</t>
-        </is>
+      <c r="D212" s="1" t="n">
+        <v>44222.84692713221</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>vary</t>
+          <t>latest</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>(서로) 다르다, 다양하다</t>
+          <t>최신의</t>
         </is>
       </c>
       <c r="C213" t="n">
         <v>4</v>
       </c>
       <c r="D213" s="1" t="n">
-        <v>44222.84692713229</v>
+        <v>44222.84692713204</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>matter</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>중요하다</t>
+          <t>범위, 영역</t>
         </is>
       </c>
       <c r="C214" t="n">
         <v>4</v>
       </c>
       <c r="D214" s="1" t="n">
-        <v>44226.28725668374</v>
+        <v>44222.11419089205</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>offshore</t>
+          <t>financial position</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>연안에</t>
+          <t>재무 상태</t>
         </is>
       </c>
       <c r="C215" t="n">
         <v>4</v>
       </c>
       <c r="D215" s="1" t="n">
-        <v>44224.15166368827</v>
+        <v>44222.11419089536</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>have company</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>~을 고려할 때</t>
+          <t>동행[일행]이 있다</t>
         </is>
       </c>
       <c r="C216" t="n">
         <v>4</v>
       </c>
       <c r="D216" s="1" t="n">
-        <v>44224.95196826023</v>
+        <v>44226.28725668309</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>excutive chef</t>
+          <t>designate</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>총 주방장</t>
+          <t>지정하다</t>
         </is>
       </c>
       <c r="C217" t="n">
         <v>4</v>
       </c>
       <c r="D217" s="1" t="n">
-        <v>44224.9519682608</v>
+        <v>44226.28725668353</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>delivery window</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>처리[해결]하다, 다루다</t>
+          <t>배달 시간대</t>
         </is>
       </c>
       <c r="C218" t="n">
         <v>4</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>44224.95196826212</v>
+        <v>44222.84692713558</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>implore</t>
+          <t>initiator</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>애원하다, 간청하다</t>
+          <t>창시자</t>
         </is>
       </c>
       <c r="C219" t="n">
         <v>4</v>
       </c>
       <c r="D219" s="1" t="n">
-        <v>44222.11419089589</v>
+        <v>44224.95196826103</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>formal</t>
+          <t xml:space="preserve">critic </t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>공식적인</t>
+          <t>비평가</t>
         </is>
       </c>
       <c r="C220" t="n">
         <v>4</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>44226.28725668443</v>
+        <v>44226.28725668466</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>be about to + 동사원형</t>
+          <t>be due to + 동사원형</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>막 ~하려고 하다</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C221" t="n">
         <v>4</v>
       </c>
       <c r="D221" s="1" t="n">
-        <v>44222.11419088992</v>
+        <v>44222.11419089388</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>beam</t>
+          <t>frustrating</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>들보, 보</t>
+          <t>실망스러운</t>
         </is>
       </c>
       <c r="C222" t="n">
         <v>4</v>
       </c>
       <c r="D222" s="1" t="n">
-        <v>44224.85289744888</v>
+        <v>44222.84692713296</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>tuck away</t>
+          <t>glazed</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>찾기힘든 안전한 곳에 보관하다</t>
+          <t>(설탕을 입혀) 윤기가 나는</t>
         </is>
       </c>
       <c r="C223" t="n">
         <v>4</v>
       </c>
       <c r="D223" s="1" t="n">
-        <v>44222.84692713565</v>
+        <v>44222.84692713429</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>enthusiast</t>
+          <t>get to</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>열성팬 [열렬한 팬]</t>
+          <t>~에 착수하다</t>
         </is>
       </c>
       <c r="C224" t="n">
         <v>4</v>
       </c>
       <c r="D224" s="1" t="n">
-        <v>44222.84692713221</v>
+        <v>44226.27521903298</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>latest</t>
+          <t>proximate</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>최신의</t>
+          <t>가장 가까운</t>
         </is>
       </c>
       <c r="C225" t="n">
         <v>4</v>
       </c>
       <c r="D225" s="1" t="n">
-        <v>44222.84692713204</v>
+        <v>44222.84692713319</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>quotation</t>
+          <t>overdraw</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>인용</t>
+          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3</v>
-      </c>
-      <c r="D226" s="1" t="n">
-        <v>44226.27521903567</v>
+        <v>4</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772059</t>
+        </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>tremendous</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>엄청난, 대단한</t>
+          <t>영업, 사업</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772348</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D227" s="1" t="n">
+        <v>44226.27521903515</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>persevere</t>
+          <t>critically</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>인내하다</t>
+          <t>비판적으로</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771823</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D228" s="1" t="n">
+        <v>44226.28725668474</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>outdate</t>
+          <t>pavilion</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>시대에 뒤지게 하다</t>
+          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3</v>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772049</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D229" s="1" t="n">
+        <v>44222.11419089228</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>premise</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>배치하다</t>
+          <t>구내, 토지</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D230" s="1" t="n">
-        <v>44222.11419089052</v>
+        <v>44226.28725668188</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>privately held company</t>
+          <t>a load of</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
+          <t>한 짐의, 많은</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D231" s="1" t="n">
-        <v>44222.11419089373</v>
+        <v>44222.11419088984</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>staircase</t>
+          <t>valdiation</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>계단</t>
+          <t>확인</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772386</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D232" s="1" t="n">
+        <v>44226.27521903553</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>premiere</t>
+          <t>now that</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>초연, 개봉; 최고의</t>
+          <t>~이기 때문에</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D233" s="1" t="n">
-        <v>44222.11419089365</v>
+        <v>44226.27521903344</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>compare A with[to] B</t>
+          <t>such</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>A를 B에 비교[비유]하다</t>
+          <t>그러한</t>
         </is>
       </c>
       <c r="C234" t="n">
         <v>3</v>
       </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771993</t>
-        </is>
+      <c r="D234" s="1" t="n">
+        <v>44232.18014923315</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>delegate</t>
+          <t>bear with</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>대표(자), 위임하다, 선정하다</t>
+          <t>~을 견디다, 참다</t>
         </is>
       </c>
       <c r="C235" t="n">
         <v>3</v>
       </c>
-      <c r="D235" s="1" t="n">
-        <v>44222.1141908925</v>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771955</t>
+        </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>template</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>견본</t>
+          <t>차이, 변형(시킨 것)</t>
         </is>
       </c>
       <c r="C236" t="n">
         <v>3</v>
       </c>
       <c r="D236" s="1" t="n">
-        <v>44224.15166368846</v>
+        <v>44226.2872566816</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>take off</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>이륙하다</t>
+          <t>닦다, 광내다</t>
         </is>
       </c>
       <c r="C237" t="n">
         <v>3</v>
       </c>
       <c r="D237" s="1" t="n">
-        <v>44222.11419089037</v>
+        <v>44222.11419088977</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>attire</t>
+          <t>stove</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>복장</t>
+          <t>(조리용) 레인지</t>
         </is>
       </c>
       <c r="C238" t="n">
         <v>3</v>
       </c>
       <c r="D238" s="1" t="n">
-        <v>44222.84692713121</v>
+        <v>44222.11419088936</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>unconvinced</t>
+          <t>lean against</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>납득하지[찬성하지] 않는</t>
+          <t>~에 기대다</t>
         </is>
       </c>
       <c r="C239" t="n">
         <v>3</v>
       </c>
-      <c r="D239" s="1" t="n">
-        <v>44224.95196826149</v>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772451</t>
+        </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>stove</t>
+          <t>attire</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>(조리용) 레인지</t>
+          <t>복장</t>
         </is>
       </c>
       <c r="C240" t="n">
         <v>3</v>
       </c>
       <c r="D240" s="1" t="n">
-        <v>44222.11419088936</v>
+        <v>44222.84692713121</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>polish</t>
+          <t>take off</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>닦다, 광내다</t>
+          <t>이륙하다</t>
         </is>
       </c>
       <c r="C241" t="n">
         <v>3</v>
       </c>
       <c r="D241" s="1" t="n">
-        <v>44222.11419088977</v>
+        <v>44222.11419089037</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>formerly</t>
+          <t>template</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>예전에</t>
+          <t>견본</t>
         </is>
       </c>
       <c r="C242" t="n">
         <v>3</v>
       </c>
       <c r="D242" s="1" t="n">
-        <v>44224.95196826047</v>
+        <v>44224.15166368846</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>excuse</t>
+          <t>delegate</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>~을 용서하다, ~에 대해 변명하다</t>
+          <t>대표(자), 위임하다, 선정하다</t>
         </is>
       </c>
       <c r="C243" t="n">
         <v>3</v>
       </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772040</t>
-        </is>
+      <c r="D243" s="1" t="n">
+        <v>44222.1141908925</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>input</t>
+          <t>compare A with[to] B</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>조언</t>
+          <t>A를 B에 비교[비유]하다</t>
         </is>
       </c>
       <c r="C244" t="n">
         <v>3</v>
       </c>
-      <c r="D244" s="1" t="n">
-        <v>44222.8469271358</v>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771993</t>
+        </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>premiere</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>(목표를 위한 새로운) 계획</t>
+          <t>초연, 개봉; 최고의</t>
         </is>
       </c>
       <c r="C245" t="n">
         <v>3</v>
       </c>
       <c r="D245" s="1" t="n">
-        <v>44222.11419089396</v>
+        <v>44222.11419089365</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>flier</t>
+          <t xml:space="preserve">entrée </t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>광고 전단(= flyer)</t>
+          <t>메인 메뉴</t>
         </is>
       </c>
       <c r="C246" t="n">
         <v>3</v>
       </c>
       <c r="D246" s="1" t="n">
-        <v>44224.95196826182</v>
+        <v>44224.15166368672</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t xml:space="preserve">entrée </t>
+          <t>staircase</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>메인 메뉴</t>
+          <t>계단</t>
         </is>
       </c>
       <c r="C247" t="n">
         <v>3</v>
       </c>
-      <c r="D247" s="1" t="n">
-        <v>44224.15166368672</v>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772386</t>
+        </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>rake</t>
+          <t>privately held company</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>갈퀴</t>
+          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
         </is>
       </c>
       <c r="C248" t="n">
         <v>3</v>
       </c>
       <c r="D248" s="1" t="n">
-        <v>44222.11419089029</v>
+        <v>44222.11419089373</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>at the latest</t>
+          <t>position</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>늦어도</t>
+          <t>배치하다</t>
         </is>
       </c>
       <c r="C249" t="n">
         <v>3</v>
       </c>
       <c r="D249" s="1" t="n">
-        <v>44224.15166368772</v>
+        <v>44222.11419089052</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>call in</t>
+          <t>outdate</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>~를 불러들이다</t>
+          <t>시대에 뒤지게 하다</t>
         </is>
       </c>
       <c r="C250" t="n">
         <v>3</v>
       </c>
-      <c r="D250" s="1" t="n">
-        <v>44222.11419089902</v>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772049</t>
+        </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>lean against</t>
+          <t>unconvinced</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>~에 기대다</t>
+          <t>납득하지[찬성하지] 않는</t>
         </is>
       </c>
       <c r="C251" t="n">
         <v>3</v>
       </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772451</t>
-        </is>
+      <c r="D251" s="1" t="n">
+        <v>44224.95196826149</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>openness</t>
+          <t>persevere</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>솔직함, 개방성</t>
+          <t>인내하다</t>
         </is>
       </c>
       <c r="C252" t="n">
         <v>3</v>
       </c>
-      <c r="D252" s="1" t="n">
-        <v>44222.1141908947</v>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771823</t>
+        </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>obstruct</t>
+          <t>tremendous</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>막다</t>
+          <t>엄청난, 대단한</t>
         </is>
       </c>
       <c r="C253" t="n">
         <v>3</v>
       </c>
-      <c r="D253" s="1" t="n">
-        <v>44222.84692713019</v>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772348</t>
+        </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>watercraft</t>
+          <t>quotation</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>배, 배 타는 기술</t>
+          <t>인용</t>
         </is>
       </c>
       <c r="C254" t="n">
         <v>3</v>
       </c>
       <c r="D254" s="1" t="n">
-        <v>44224.1516636881</v>
+        <v>44226.27521903567</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>formerly</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>차이, 변형(시킨 것)</t>
+          <t>예전에</t>
         </is>
       </c>
       <c r="C255" t="n">
         <v>3</v>
       </c>
       <c r="D255" s="1" t="n">
-        <v>44226.2872566816</v>
+        <v>44224.95196826047</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>adjacent to</t>
+          <t>excuse</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>~에 인접한</t>
+          <t>~을 용서하다, ~에 대해 변명하다</t>
         </is>
       </c>
       <c r="C256" t="n">
         <v>3</v>
       </c>
-      <c r="D256" s="1" t="n">
-        <v>44224.95196826039</v>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772040</t>
+        </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>frustration</t>
+          <t>professionalism</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>좌절감, 불만</t>
+          <t xml:space="preserve">전문성 </t>
         </is>
       </c>
       <c r="C257" t="n">
         <v>3</v>
       </c>
       <c r="D257" s="1" t="n">
-        <v>44224.85289744847</v>
+        <v>44222.84692713115</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>honorarium</t>
+          <t>sloppy</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>사례비</t>
+          <t>날림의, 엉성한</t>
         </is>
       </c>
       <c r="C258" t="n">
         <v>3</v>
       </c>
       <c r="D258" s="1" t="n">
-        <v>44224.15166368717</v>
+        <v>44222.11419089342</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>dome</t>
+          <t>regardless of</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>둥근 지붕을 달다; 둥근 지붕</t>
+          <t>~와 상관없이</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -5162,149 +5160,145 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772299</t>
+          <t>2021-01-26 02:11:09.772116</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>prop(property)</t>
+          <t>autobiographical</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>소도구</t>
+          <t>자전적인</t>
         </is>
       </c>
       <c r="C260" t="n">
         <v>3</v>
       </c>
       <c r="D260" s="1" t="n">
-        <v>44222.1141908952</v>
+        <v>44222.11419089197</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>determine to do</t>
+          <t>deliveration</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>~하겠다고 결심하다</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C261" t="n">
         <v>3</v>
       </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771889</t>
-        </is>
+      <c r="D261" s="1" t="n">
+        <v>44222.84692713342</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>eatery</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>조각조각으로 찢다, 끝내버리다</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C262" t="n">
         <v>3</v>
       </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772021</t>
-        </is>
+      <c r="D262" s="1" t="n">
+        <v>44222.84692713509</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>plot</t>
+          <t>openness</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>(소설, 영화 등의) 구성, 줄거리</t>
+          <t>솔직함, 개방성</t>
         </is>
       </c>
       <c r="C263" t="n">
         <v>3</v>
       </c>
       <c r="D263" s="1" t="n">
-        <v>44222.11419089288</v>
+        <v>44222.1141908947</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>hold one's own</t>
+          <t>troupe</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
+          <t>공연단, 극단</t>
         </is>
       </c>
       <c r="C264" t="n">
         <v>3</v>
       </c>
       <c r="D264" s="1" t="n">
-        <v>44224.15166368688</v>
+        <v>44222.11419089528</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>fiscal year</t>
+          <t>directory</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>회계 연도</t>
+          <t>안내판, 명부</t>
         </is>
       </c>
       <c r="C265" t="n">
         <v>3</v>
       </c>
       <c r="D265" s="1" t="n">
-        <v>44222.11419089911</v>
+        <v>44222.84692713129</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>valued at</t>
+          <t>dairy farmer</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>가격이 ~에 상당하는</t>
+          <t>낙농업자</t>
         </is>
       </c>
       <c r="C266" t="n">
         <v>3</v>
       </c>
       <c r="D266" s="1" t="n">
-        <v>44224.95196826031</v>
+        <v>44226.2752190368</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>crepe</t>
+          <t>outpace</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>얇은 팬케이크</t>
+          <t>~을 능가하다</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -5312,205 +5306,207 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772147</t>
+          <t>2021-01-26 02:11:09.771813</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ceiling fan</t>
+          <t>sew</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>천장 선풍기</t>
+          <t>바느질하다, 꿰매다</t>
         </is>
       </c>
       <c r="C268" t="n">
         <v>3</v>
       </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772461</t>
-        </is>
+      <c r="D268" s="1" t="n">
+        <v>44222.11419089357</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>one another</t>
+          <t>commentary</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>서로</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C269" t="n">
         <v>3</v>
       </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772329</t>
-        </is>
+      <c r="D269" s="1" t="n">
+        <v>44226.28725668451</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>be credited with</t>
+          <t>implication</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>~에 공로가 있다</t>
+          <t>함축, 함의</t>
         </is>
       </c>
       <c r="C270" t="n">
         <v>3</v>
       </c>
-      <c r="D270" s="1" t="n">
-        <v>44224.95196826007</v>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771926</t>
+        </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>outfitter</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>(질문을) 처리하다</t>
+          <t>야외 활동 장비점</t>
         </is>
       </c>
       <c r="C271" t="n">
         <v>3</v>
       </c>
       <c r="D271" s="1" t="n">
-        <v>44222.11419089486</v>
+        <v>44222.84692713182</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>go out of business</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>구현</t>
+          <t>파산하다, 폐업하다</t>
         </is>
       </c>
       <c r="C272" t="n">
         <v>3</v>
       </c>
       <c r="D272" s="1" t="n">
-        <v>44222.84692713084</v>
+        <v>44224.95196825996</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>phenomenal</t>
+          <t>candidacy</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>경의적인, 경탄이 나오는</t>
+          <t>입후보, 출마</t>
         </is>
       </c>
       <c r="C273" t="n">
         <v>3</v>
       </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772289</t>
-        </is>
+      <c r="D273" s="1" t="n">
+        <v>44222.1141908944</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>shelving unit</t>
+          <t>somehow</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>왜 그런지</t>
         </is>
       </c>
       <c r="C274" t="n">
         <v>3</v>
       </c>
       <c r="D274" s="1" t="n">
-        <v>44222.11419089014</v>
+        <v>44224.15166368764</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>mussels</t>
+          <t>inform A of B</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>홍합</t>
+          <t>A에게 B에 대해 알리다</t>
         </is>
       </c>
       <c r="C275" t="n">
         <v>3</v>
       </c>
-      <c r="D275" s="1" t="n">
-        <v>44222.84692713389</v>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772002</t>
+        </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>qualify for ~</t>
+          <t>determine to do</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>~의 자격을 얻다</t>
+          <t>~하겠다고 결심하다</t>
         </is>
       </c>
       <c r="C276" t="n">
         <v>3</v>
       </c>
-      <c r="D276" s="1" t="n">
-        <v>44222.1141908912</v>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771889</t>
+        </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>pole</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>상당히, 꽤</t>
+          <t>기둥</t>
         </is>
       </c>
       <c r="C277" t="n">
         <v>3</v>
       </c>
-      <c r="D277" s="1" t="n">
-        <v>44222.11419089105</v>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772404</t>
+        </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>confer</t>
+          <t>robe</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>수여하다</t>
+          <t>가운</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -5518,690 +5514,696 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771860</t>
+          <t>2021-01-26 02:11:09.772270</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>stiff</t>
+          <t>excerpt</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>뻣뻣한</t>
+          <t>발췌, 인용</t>
         </is>
       </c>
       <c r="C279" t="n">
         <v>3</v>
       </c>
       <c r="D279" s="1" t="n">
-        <v>44222.84692713274</v>
+        <v>44222.84692713058</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>hands-on</t>
+          <t>saving</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>실천의, 직접 해보는</t>
+          <t>감액</t>
         </is>
       </c>
       <c r="C280" t="n">
         <v>3</v>
       </c>
       <c r="D280" s="1" t="n">
-        <v>44222.11419089559</v>
+        <v>44224.85289744897</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>right candidate</t>
+          <t>courteous</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>적임자</t>
+          <t>정중한</t>
         </is>
       </c>
       <c r="C281" t="n">
         <v>3</v>
       </c>
-      <c r="D281" s="1" t="n">
-        <v>44222.11419089267</v>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772125</t>
+        </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>assumption</t>
+          <t>get in</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>가정</t>
+          <t>~에 들어가다, 도착하다</t>
         </is>
       </c>
       <c r="C282" t="n">
         <v>3</v>
       </c>
-      <c r="D282" s="1" t="n">
-        <v>44222.8469271335</v>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771965</t>
+        </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>prohibit A from -ing</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>제공하다</t>
+          <t>A가 ~하는 것을 금하다</t>
         </is>
       </c>
       <c r="C283" t="n">
         <v>3</v>
       </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772157</t>
-        </is>
+      <c r="D283" s="1" t="n">
+        <v>44224.1516636879</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>bio</t>
+          <t>operating efficiency</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>약력</t>
+          <t>작업 성능</t>
         </is>
       </c>
       <c r="C284" t="n">
         <v>3</v>
       </c>
       <c r="D284" s="1" t="n">
-        <v>44224.15166368753</v>
+        <v>44224.95196826111</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>help in -ing</t>
+          <t>justify</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>~하는데 있어서 도움</t>
+          <t>증명하다, 입증하다</t>
         </is>
       </c>
       <c r="C285" t="n">
         <v>3</v>
       </c>
-      <c r="D285" s="1" t="n">
-        <v>44222.84692713382</v>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772242</t>
+        </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>language institute</t>
+          <t>be in line for</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>어학원</t>
+          <t>~할 가능성이 있다</t>
         </is>
       </c>
       <c r="C286" t="n">
         <v>3</v>
       </c>
       <c r="D286" s="1" t="n">
-        <v>44222.1141908951</v>
+        <v>44222.11419089894</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>set foot on</t>
+          <t>initiative</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>~에 발을 들여놓다</t>
+          <t>주도적임, 계획</t>
         </is>
       </c>
       <c r="C287" t="n">
         <v>3</v>
       </c>
       <c r="D287" s="1" t="n">
-        <v>44224.15166368801</v>
+        <v>44224.95196826087</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Candidate Referral Program</t>
+          <t>associate</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>사내 추천제</t>
+          <t>연결지어 생각하다</t>
         </is>
       </c>
       <c r="C288" t="n">
         <v>3</v>
       </c>
-      <c r="D288" s="1" t="n">
-        <v>44222.84692713138</v>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772251</t>
+        </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>start off</t>
+          <t>shelving unit</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>출발하다, 시작하다</t>
+          <t>선반</t>
         </is>
       </c>
       <c r="C289" t="n">
         <v>3</v>
       </c>
       <c r="D289" s="1" t="n">
-        <v>44224.95196826196</v>
+        <v>44222.11419089014</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>representative</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>(길, 강 등이) 구불구불하다</t>
+          <t>대표(자), 대의원, 국회의원</t>
         </is>
       </c>
       <c r="C290" t="n">
         <v>3</v>
       </c>
       <c r="D290" s="1" t="n">
-        <v>44222.11419088961</v>
+        <v>44224.95196826141</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>meet with approval</t>
+          <t>have been left</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>동의[승인]를 얻다</t>
+          <t>~인 채로 있다</t>
         </is>
       </c>
       <c r="C291" t="n">
         <v>3</v>
       </c>
       <c r="D291" s="1" t="n">
-        <v>44224.95196826134</v>
+        <v>44224.95196826243</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>knob</t>
+          <t>rugged</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>손잡이, 스위치</t>
+          <t>울퉁불퉁한</t>
         </is>
       </c>
       <c r="C292" t="n">
         <v>3</v>
       </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772031</t>
-        </is>
+      <c r="D292" s="1" t="n">
+        <v>44222.84692713236</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>beneath</t>
+          <t>identical</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>~밑에</t>
+          <t>똑같은, 동일한</t>
         </is>
       </c>
       <c r="C293" t="n">
         <v>3</v>
       </c>
-      <c r="D293" s="1" t="n">
-        <v>44222.11419088913</v>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772414</t>
+        </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>reenter</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>결정하다</t>
+          <t>다시 입력하다</t>
         </is>
       </c>
       <c r="C294" t="n">
         <v>3</v>
       </c>
       <c r="D294" s="1" t="n">
-        <v>44224.95196826118</v>
+        <v>44224.95196826167</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>manner</t>
+          <t>sweep -&gt; swept -&gt; swept</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>방법, 방식, 예의 범절</t>
+          <t>(빗자루로)쓸다, 청소하다</t>
         </is>
       </c>
       <c r="C295" t="n">
         <v>3</v>
       </c>
-      <c r="D295" s="1" t="n">
-        <v>44222.84692713305</v>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772376</t>
+        </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>botanist</t>
+          <t>upholstery</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>식물학자</t>
+          <t>(가구 덮개 등의) 실내 장식(품)</t>
         </is>
       </c>
       <c r="C296" t="n">
         <v>3</v>
       </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772134</t>
-        </is>
+      <c r="D296" s="1" t="n">
+        <v>44222.11419089334</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>qualified</t>
+          <t>reception</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>적격인</t>
+          <t>수신상태</t>
         </is>
       </c>
       <c r="C297" t="n">
         <v>3</v>
       </c>
-      <c r="D297" s="1" t="n">
-        <v>44222.84692713166</v>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772106</t>
+        </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>gazebo</t>
+          <t>take A out of B</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>(정원의) 정자</t>
+          <t>B에서 A를 뽑다</t>
         </is>
       </c>
       <c r="C298" t="n">
         <v>3</v>
       </c>
-      <c r="D298" s="1" t="n">
-        <v>44222.11419089243</v>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772480</t>
+        </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>centerpiece</t>
+          <t>promotional offers</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>중심부, 중앙 장식물</t>
+          <t>판촉할인</t>
         </is>
       </c>
       <c r="C299" t="n">
         <v>3</v>
       </c>
       <c r="D299" s="1" t="n">
-        <v>44222.11419089235</v>
+        <v>44222.84692713197</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>lodging</t>
+          <t>disapprove</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>임시 숙소</t>
+          <t>못마땅해 하다, 불만을 나타내다</t>
         </is>
       </c>
       <c r="C300" t="n">
         <v>3</v>
       </c>
-      <c r="D300" s="1" t="n">
-        <v>44224.15166368707</v>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771917</t>
+        </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>high-rise</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>고층 빌딩</t>
         </is>
       </c>
       <c r="C301" t="n">
         <v>3</v>
       </c>
       <c r="D301" s="1" t="n">
-        <v>44222.84692713367</v>
+        <v>44222.11419089326</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>aspiring</t>
+          <t>set foot on</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>장차 ~가 되려는</t>
+          <t>~에 발을 들여놓다</t>
         </is>
       </c>
       <c r="C302" t="n">
         <v>3</v>
       </c>
       <c r="D302" s="1" t="n">
-        <v>44224.95196826126</v>
+        <v>44224.15166368801</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>high-volume</t>
+          <t>proximity to</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>대량의</t>
+          <t>~에서 아주 가까움, 근접함</t>
         </is>
       </c>
       <c r="C303" t="n">
         <v>3</v>
       </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772339</t>
-        </is>
+      <c r="D303" s="1" t="n">
+        <v>44222.84692713313</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>autehntic</t>
+          <t>display bin</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>진짜의</t>
+          <t>진열장</t>
         </is>
       </c>
       <c r="C304" t="n">
         <v>3</v>
       </c>
       <c r="D304" s="1" t="n">
-        <v>44222.11419089112</v>
+        <v>44222.11419089544</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>outline</t>
+          <t>pension</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>설명하다</t>
+          <t>연금</t>
         </is>
       </c>
       <c r="C305" t="n">
         <v>3</v>
       </c>
       <c r="D305" s="1" t="n">
-        <v>44222.11419089312</v>
+        <v>44222.8469271316</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>recognize A as B</t>
+          <t>once a month</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>A를 B로 인식하다</t>
+          <t>매달</t>
         </is>
       </c>
       <c r="C306" t="n">
         <v>3</v>
       </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771842</t>
-        </is>
+      <c r="D306" s="1" t="n">
+        <v>44222.11419089159</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>sports complex</t>
+          <t>compelling</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>종합 운동장</t>
+          <t>설득력 있는, 눈을 뗄 수 없는</t>
         </is>
       </c>
       <c r="C307" t="n">
         <v>3</v>
       </c>
       <c r="D307" s="1" t="n">
-        <v>44222.11419089258</v>
+        <v>44224.15166368735</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>traditionally</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>배치, 직업소개</t>
+          <t>예전부터, 통상적으로</t>
         </is>
       </c>
       <c r="C308" t="n">
         <v>3</v>
       </c>
       <c r="D308" s="1" t="n">
-        <v>44224.9519682619</v>
+        <v>44222.84692713359</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>fudge</t>
+          <t>matte</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>연한(무른) 캔디</t>
+          <t>무광</t>
         </is>
       </c>
       <c r="C309" t="n">
         <v>3</v>
       </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772176</t>
-        </is>
+      <c r="D309" s="1" t="n">
+        <v>44222.84692713501</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>professional reference</t>
+          <t>oar</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>직장 관련 추천인</t>
+          <t>(물에서 쓰는) 노</t>
         </is>
       </c>
       <c r="C310" t="n">
         <v>3</v>
       </c>
       <c r="D310" s="1" t="n">
-        <v>44222.84692713101</v>
+        <v>44222.11419089075</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>sail</t>
+          <t>pay roll</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>돛; 항해하다</t>
+          <t>급여 대상자 명단, 급여 총액</t>
         </is>
       </c>
       <c r="C311" t="n">
         <v>3</v>
       </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772442</t>
-        </is>
+      <c r="D311" s="1" t="n">
+        <v>44222.11419089212</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>gift certificate</t>
+          <t>fasten</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>상품권</t>
+          <t>매다, 고정시키다</t>
         </is>
       </c>
       <c r="C312" t="n">
         <v>3</v>
       </c>
-      <c r="D312" s="1" t="n">
-        <v>44222.84692713035</v>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772357</t>
+        </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>expertise</t>
+          <t>intense</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>전문성, 전문지식</t>
+          <t>강렬한, 거센</t>
         </is>
       </c>
       <c r="C313" t="n">
         <v>3</v>
       </c>
-      <c r="D313" s="1" t="n">
-        <v>44222.84692712968</v>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772195</t>
+        </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>technical drawing</t>
+          <t>terrain</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>제도(= drafting)</t>
+          <t>지형</t>
         </is>
       </c>
       <c r="C314" t="n">
         <v>3</v>
       </c>
       <c r="D314" s="1" t="n">
-        <v>44222.1141908909</v>
+        <v>44222.84692713244</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>exquisite</t>
+          <t>lodging</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>정교한, 세련된</t>
+          <t>임시 숙소</t>
         </is>
       </c>
       <c r="C315" t="n">
         <v>3</v>
       </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772280</t>
-        </is>
+      <c r="D315" s="1" t="n">
+        <v>44224.15166368707</v>
       </c>
     </row>
     <row r="316">
@@ -6225,322 +6227,326 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>runway</t>
+          <t>exquisite</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>활주로</t>
+          <t>정교한, 세련된</t>
         </is>
       </c>
       <c r="C317" t="n">
         <v>3</v>
       </c>
-      <c r="D317" s="1" t="n">
-        <v>44222.11419089044</v>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772280</t>
+        </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>terrain</t>
+          <t>glowing</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>지형</t>
+          <t>극찬하는</t>
         </is>
       </c>
       <c r="C318" t="n">
         <v>3</v>
       </c>
       <c r="D318" s="1" t="n">
-        <v>44222.84692713244</v>
+        <v>44222.84692713534</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>intense</t>
+          <t>expertise</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>강렬한, 거센</t>
+          <t>전문성, 전문지식</t>
         </is>
       </c>
       <c r="C319" t="n">
         <v>3</v>
       </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772195</t>
-        </is>
+      <c r="D319" s="1" t="n">
+        <v>44222.84692712968</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>fasten</t>
+          <t>gift certificate</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>매다, 고정시키다</t>
+          <t>상품권</t>
         </is>
       </c>
       <c r="C320" t="n">
         <v>3</v>
       </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772357</t>
-        </is>
+      <c r="D320" s="1" t="n">
+        <v>44222.84692713035</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>pay roll</t>
+          <t>sail</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>급여 대상자 명단, 급여 총액</t>
+          <t>돛; 항해하다</t>
         </is>
       </c>
       <c r="C321" t="n">
         <v>3</v>
       </c>
-      <c r="D321" s="1" t="n">
-        <v>44222.11419089212</v>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772442</t>
+        </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>oar</t>
+          <t>professional reference</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>(물에서 쓰는) 노</t>
+          <t>직장 관련 추천인</t>
         </is>
       </c>
       <c r="C322" t="n">
         <v>3</v>
       </c>
       <c r="D322" s="1" t="n">
-        <v>44222.11419089075</v>
+        <v>44222.84692713101</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>matte</t>
+          <t>fill prescriptions</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>무광</t>
+          <t>처방약을 조제하다</t>
         </is>
       </c>
       <c r="C323" t="n">
         <v>3</v>
       </c>
       <c r="D323" s="1" t="n">
-        <v>44222.84692713501</v>
+        <v>44222.11419089463</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>lead character</t>
+          <t>fudge</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>주인공</t>
+          <t>연한(무른) 캔디</t>
         </is>
       </c>
       <c r="C324" t="n">
         <v>3</v>
       </c>
-      <c r="D324" s="1" t="n">
-        <v>44222.11419089189</v>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772176</t>
+        </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>compelling</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>설득력 있는, 눈을 뗄 수 없는</t>
+          <t>배치, 직업소개</t>
         </is>
       </c>
       <c r="C325" t="n">
         <v>3</v>
       </c>
       <c r="D325" s="1" t="n">
-        <v>44224.15166368735</v>
+        <v>44224.9519682619</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>once a month</t>
+          <t>sports complex</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>매달</t>
+          <t>종합 운동장</t>
         </is>
       </c>
       <c r="C326" t="n">
         <v>3</v>
       </c>
       <c r="D326" s="1" t="n">
-        <v>44222.11419089159</v>
+        <v>44222.11419089258</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>fill prescriptions</t>
+          <t>accomplished</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>처방약을 조제하다</t>
+          <t>완수하다, 성취하다, 해내다 (= achieve)</t>
         </is>
       </c>
       <c r="C327" t="n">
         <v>3</v>
       </c>
       <c r="D327" s="1" t="n">
-        <v>44222.11419089463</v>
+        <v>44222.84692712988</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>prop</t>
+          <t>outline</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>받치다</t>
+          <t>설명하다</t>
         </is>
       </c>
       <c r="C328" t="n">
         <v>3</v>
       </c>
       <c r="D328" s="1" t="n">
-        <v>44222.11419088928</v>
+        <v>44222.11419089312</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>display bin</t>
+          <t>autehntic</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>진열장</t>
+          <t>진짜의</t>
         </is>
       </c>
       <c r="C329" t="n">
         <v>3</v>
       </c>
       <c r="D329" s="1" t="n">
-        <v>44222.11419089544</v>
+        <v>44222.11419089112</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>proximity to</t>
+          <t>recognize A as B</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>~에서 아주 가까움, 근접함</t>
+          <t>A를 B로 인식하다</t>
         </is>
       </c>
       <c r="C330" t="n">
         <v>3</v>
       </c>
-      <c r="D330" s="1" t="n">
-        <v>44222.84692713313</v>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771842</t>
+        </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>accomplished</t>
+          <t>technical drawing</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>완수하다, 성취하다, 해내다 (= achieve)</t>
+          <t>제도(= drafting)</t>
         </is>
       </c>
       <c r="C331" t="n">
         <v>3</v>
       </c>
       <c r="D331" s="1" t="n">
-        <v>44222.84692712988</v>
+        <v>44222.1141908909</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>much-needed</t>
+          <t>aspiring</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>꼭 필요한</t>
+          <t>장차 ~가 되려는</t>
         </is>
       </c>
       <c r="C332" t="n">
         <v>3</v>
       </c>
       <c r="D332" s="1" t="n">
-        <v>44222.11419089566</v>
+        <v>44224.95196826126</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>high-rise</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>고층 빌딩</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C333" t="n">
         <v>3</v>
       </c>
       <c r="D333" s="1" t="n">
-        <v>44222.11419089326</v>
+        <v>44222.84692713367</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>high-volume</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>못마땅해 하다, 불만을 나타내다</t>
+          <t>대량의</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -6548,149 +6554,145 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771917</t>
+          <t>2021-01-26 02:11:09.772339</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>glowing</t>
+          <t>runway</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>극찬하는</t>
+          <t>활주로</t>
         </is>
       </c>
       <c r="C335" t="n">
         <v>3</v>
       </c>
       <c r="D335" s="1" t="n">
-        <v>44222.84692713534</v>
+        <v>44222.11419089044</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>promotional offers</t>
+          <t>centerpiece</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>판촉할인</t>
+          <t>중심부, 중앙 장식물</t>
         </is>
       </c>
       <c r="C336" t="n">
         <v>3</v>
       </c>
       <c r="D336" s="1" t="n">
-        <v>44222.84692713197</v>
+        <v>44222.11419089235</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>take A out of B</t>
+          <t>gazebo</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>B에서 A를 뽑다</t>
+          <t>(정원의) 정자</t>
         </is>
       </c>
       <c r="C337" t="n">
         <v>3</v>
       </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772480</t>
-        </is>
+      <c r="D337" s="1" t="n">
+        <v>44222.11419089243</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>reception</t>
+          <t>qualified</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>수신상태</t>
+          <t>적격인</t>
         </is>
       </c>
       <c r="C338" t="n">
         <v>3</v>
       </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772106</t>
-        </is>
+      <c r="D338" s="1" t="n">
+        <v>44222.84692713166</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>upholstery</t>
+          <t>back-to-back</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>(가구 덮개 등의) 실내 장식(품)</t>
+          <t>연속적인, 잇따라</t>
         </is>
       </c>
       <c r="C339" t="n">
         <v>3</v>
       </c>
       <c r="D339" s="1" t="n">
-        <v>44222.11419089334</v>
+        <v>44224.95196826157</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>simply</t>
+          <t>manner</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
+          <t>방법, 방식, 예의 범절</t>
         </is>
       </c>
       <c r="C340" t="n">
         <v>3</v>
       </c>
       <c r="D340" s="1" t="n">
-        <v>44222.11419089295</v>
+        <v>44222.84692713305</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>reenter</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>다시 입력하다</t>
+          <t>결정하다</t>
         </is>
       </c>
       <c r="C341" t="n">
         <v>3</v>
       </c>
       <c r="D341" s="1" t="n">
-        <v>44224.95196826167</v>
+        <v>44224.95196826118</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>botanist</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>똑같은, 동일한</t>
+          <t>식물학자</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -6698,349 +6700,347 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772414</t>
+          <t>2021-01-26 02:11:09.772134</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>back-to-back</t>
+          <t>lead character</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>연속적인, 잇따라</t>
+          <t>주인공</t>
         </is>
       </c>
       <c r="C343" t="n">
         <v>3</v>
       </c>
       <c r="D343" s="1" t="n">
-        <v>44224.95196826157</v>
+        <v>44222.11419089189</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>authenticity</t>
+          <t>knob</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>진짜임</t>
+          <t>손잡이, 스위치</t>
         </is>
       </c>
       <c r="C344" t="n">
         <v>3</v>
       </c>
-      <c r="D344" s="1" t="n">
-        <v>44224.15166368874</v>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772031</t>
+        </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>have been left</t>
+          <t>meet with approval</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>~인 채로 있다</t>
+          <t>동의[승인]를 얻다</t>
         </is>
       </c>
       <c r="C345" t="n">
         <v>3</v>
       </c>
       <c r="D345" s="1" t="n">
-        <v>44224.95196826243</v>
+        <v>44224.95196826134</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>representative</t>
+          <t>beneath</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>대표(자), 대의원, 국회의원</t>
+          <t>~밑에</t>
         </is>
       </c>
       <c r="C346" t="n">
         <v>3</v>
       </c>
       <c r="D346" s="1" t="n">
-        <v>44224.95196826141</v>
+        <v>44222.11419088913</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>traditionally</t>
+          <t>prop</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>예전부터, 통상적으로</t>
+          <t>받치다</t>
         </is>
       </c>
       <c r="C347" t="n">
         <v>3</v>
       </c>
       <c r="D347" s="1" t="n">
-        <v>44222.84692713359</v>
+        <v>44222.11419088928</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>by contrast</t>
+          <t>start off</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>그와 대조적으로</t>
+          <t>출발하다, 시작하다</t>
         </is>
       </c>
       <c r="C348" t="n">
         <v>3</v>
       </c>
       <c r="D348" s="1" t="n">
-        <v>44224.8528974481</v>
+        <v>44224.95196826196</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>associate</t>
+          <t>Candidate Referral Program</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>연결지어 생각하다</t>
+          <t>사내 추천제</t>
         </is>
       </c>
       <c r="C349" t="n">
         <v>3</v>
       </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772251</t>
-        </is>
+      <c r="D349" s="1" t="n">
+        <v>44222.84692713138</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>주도적임, 계획</t>
+          <t>(길, 강 등이) 구불구불하다</t>
         </is>
       </c>
       <c r="C350" t="n">
         <v>3</v>
       </c>
       <c r="D350" s="1" t="n">
-        <v>44224.95196826087</v>
+        <v>44222.11419088961</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>pension</t>
+          <t>much-needed</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>연금</t>
+          <t>꼭 필요한</t>
         </is>
       </c>
       <c r="C351" t="n">
         <v>3</v>
       </c>
       <c r="D351" s="1" t="n">
-        <v>44222.8469271316</v>
+        <v>44222.11419089566</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>be in line for</t>
+          <t>language institute</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>~할 가능성이 있다</t>
+          <t>어학원</t>
         </is>
       </c>
       <c r="C352" t="n">
         <v>3</v>
       </c>
       <c r="D352" s="1" t="n">
-        <v>44222.11419089894</v>
+        <v>44222.1141908951</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>justify</t>
+          <t>help in -ing</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>증명하다, 입증하다</t>
+          <t>~하는데 있어서 도움</t>
         </is>
       </c>
       <c r="C353" t="n">
         <v>3</v>
       </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772242</t>
-        </is>
+      <c r="D353" s="1" t="n">
+        <v>44222.84692713382</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>operating efficiency</t>
+          <t>bio</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>작업 성능</t>
+          <t>약력</t>
         </is>
       </c>
       <c r="C354" t="n">
         <v>3</v>
       </c>
       <c r="D354" s="1" t="n">
-        <v>44224.95196826111</v>
+        <v>44224.15166368753</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>prohibit A from -ing</t>
+          <t>production</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>A가 ~하는 것을 금하다</t>
+          <t>생산, 생상량</t>
         </is>
       </c>
       <c r="C355" t="n">
         <v>3</v>
       </c>
       <c r="D355" s="1" t="n">
-        <v>44224.1516636879</v>
+        <v>44222.84692713002</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>hearty</t>
+          <t>assumption</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>(음식이) 푸짐하고 만족스러운</t>
+          <t>가정</t>
         </is>
       </c>
       <c r="C356" t="n">
         <v>3</v>
       </c>
       <c r="D356" s="1" t="n">
-        <v>44222.84692713589</v>
+        <v>44222.8469271335</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>courteous</t>
+          <t>right candidate</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>정중한</t>
+          <t>적임자</t>
         </is>
       </c>
       <c r="C357" t="n">
         <v>3</v>
       </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772125</t>
-        </is>
+      <c r="D357" s="1" t="n">
+        <v>44222.11419089267</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>saving</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>감액</t>
+          <t>제공하다</t>
         </is>
       </c>
       <c r="C358" t="n">
         <v>3</v>
       </c>
-      <c r="D358" s="1" t="n">
-        <v>44224.85289744897</v>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772157</t>
+        </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>simply</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>생산, 생상량</t>
+          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
         </is>
       </c>
       <c r="C359" t="n">
         <v>3</v>
       </c>
       <c r="D359" s="1" t="n">
-        <v>44222.84692713002</v>
+        <v>44222.11419089295</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>put on hold</t>
+          <t>stiff</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>보류하다</t>
+          <t>뻣뻣한</t>
         </is>
       </c>
       <c r="C360" t="n">
         <v>3</v>
       </c>
       <c r="D360" s="1" t="n">
-        <v>44224.8528974488</v>
+        <v>44222.84692713274</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>robe</t>
+          <t>confer</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>가운</t>
+          <t>수여하다</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -7048,579 +7048,849 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772270</t>
+          <t>2021-01-26 02:11:09.771860</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>pole</t>
+          <t>hands-on</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>기둥</t>
+          <t>실천의, 직접 해보는</t>
         </is>
       </c>
       <c r="C362" t="n">
         <v>3</v>
       </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772404</t>
-        </is>
+      <c r="D362" s="1" t="n">
+        <v>44222.11419089559</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>sweep -&gt; swept -&gt; swept</t>
+          <t>authenticity</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>(빗자루로)쓸다, 청소하다</t>
+          <t>진짜임</t>
         </is>
       </c>
       <c r="C363" t="n">
         <v>3</v>
       </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772376</t>
-        </is>
+      <c r="D363" s="1" t="n">
+        <v>44224.15166368874</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>sleek</t>
+          <t>qualify for ~</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>(모양이) 매끈한</t>
+          <t>~의 자격을 얻다</t>
         </is>
       </c>
       <c r="C364" t="n">
         <v>3</v>
       </c>
       <c r="D364" s="1" t="n">
-        <v>44224.8528974482</v>
+        <v>44222.1141908912</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>inform A of B</t>
+          <t>mussels</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>A에게 B에 대해 알리다</t>
+          <t>홍합</t>
         </is>
       </c>
       <c r="C365" t="n">
         <v>3</v>
       </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772002</t>
-        </is>
+      <c r="D365" s="1" t="n">
+        <v>44222.84692713389</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>somehow</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>왜 그런지</t>
+          <t>상당히, 꽤</t>
         </is>
       </c>
       <c r="C366" t="n">
         <v>3</v>
       </c>
       <c r="D366" s="1" t="n">
-        <v>44224.15166368764</v>
+        <v>44222.11419089105</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>rugged</t>
+          <t>by contrast</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>울퉁불퉁한</t>
+          <t>그와 대조적으로</t>
         </is>
       </c>
       <c r="C367" t="n">
         <v>3</v>
       </c>
       <c r="D367" s="1" t="n">
-        <v>44222.84692713236</v>
+        <v>44224.8528974481</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>candidacy</t>
+          <t>phenomenal</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>입후보, 출마</t>
+          <t>경의적인, 경탄이 나오는</t>
         </is>
       </c>
       <c r="C368" t="n">
         <v>3</v>
       </c>
-      <c r="D368" s="1" t="n">
-        <v>44222.1141908944</v>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772289</t>
+        </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>go out of business</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>파산하다, 폐업하다</t>
+          <t>구현</t>
         </is>
       </c>
       <c r="C369" t="n">
         <v>3</v>
       </c>
       <c r="D369" s="1" t="n">
-        <v>44224.95196825996</v>
+        <v>44222.84692713084</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>outfitter</t>
+          <t>field</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>야외 활동 장비점</t>
+          <t>(질문을) 처리하다</t>
         </is>
       </c>
       <c r="C370" t="n">
         <v>3</v>
       </c>
       <c r="D370" s="1" t="n">
-        <v>44222.84692713182</v>
+        <v>44222.11419089486</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>implication</t>
+          <t>prompt</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>함축, 함의</t>
+          <t>(컴퓨터 시스템 상에서) ~하라고( 메시지로) 지시하다, 촉구하다</t>
         </is>
       </c>
       <c r="C371" t="n">
         <v>3</v>
       </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771926</t>
-        </is>
+      <c r="D371" s="1" t="n">
+        <v>44222.84692713043</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>make a name</t>
+          <t>one another</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>명성을 얻다</t>
+          <t>서로</t>
         </is>
       </c>
       <c r="C372" t="n">
         <v>3</v>
       </c>
-      <c r="D372" s="1" t="n">
-        <v>44224.85289744829</v>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772329</t>
+        </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>sew</t>
+          <t>ceiling fan</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>바느질하다, 꿰매다</t>
+          <t>천장 선풍기</t>
         </is>
       </c>
       <c r="C373" t="n">
         <v>3</v>
       </c>
-      <c r="D373" s="1" t="n">
-        <v>44222.11419089357</v>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772461</t>
+        </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>outpace</t>
+          <t>be credited with</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>~을 능가하다</t>
+          <t>~에 공로가 있다</t>
         </is>
       </c>
       <c r="C374" t="n">
         <v>3</v>
       </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771813</t>
-        </is>
+      <c r="D374" s="1" t="n">
+        <v>44224.95196826007</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>prompt</t>
+          <t>hearty</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>(컴퓨터 시스템 상에서) ~하라고( 메시지로) 지시하다, 촉구하다</t>
+          <t>(음식이) 푸짐하고 만족스러운</t>
         </is>
       </c>
       <c r="C375" t="n">
         <v>3</v>
       </c>
       <c r="D375" s="1" t="n">
-        <v>44222.84692713043</v>
+        <v>44222.84692713589</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>violator</t>
+          <t>valued at</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>위반자</t>
+          <t>가격이 ~에 상당하는</t>
         </is>
       </c>
       <c r="C376" t="n">
         <v>3</v>
       </c>
       <c r="D376" s="1" t="n">
-        <v>44222.11419089128</v>
+        <v>44224.95196826031</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>where as</t>
+          <t>fiscal year</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>~이지만</t>
+          <t>회계 연도</t>
         </is>
       </c>
       <c r="C377" t="n">
         <v>3</v>
       </c>
       <c r="D377" s="1" t="n">
-        <v>44222.84692713051</v>
+        <v>44222.11419089911</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>directory</t>
+          <t>crepe</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>안내판, 명부</t>
+          <t>얇은 팬케이크</t>
         </is>
       </c>
       <c r="C378" t="n">
         <v>3</v>
       </c>
-      <c r="D378" s="1" t="n">
-        <v>44222.84692713129</v>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772147</t>
+        </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>get in</t>
+          <t>put on hold</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>~에 들어가다, 도착하다</t>
+          <t>보류하다</t>
         </is>
       </c>
       <c r="C379" t="n">
         <v>3</v>
       </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771965</t>
-        </is>
+      <c r="D379" s="1" t="n">
+        <v>44224.8528974488</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>troupe</t>
+          <t>plot</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>공연단, 극단</t>
+          <t>(소설, 영화 등의) 구성, 줄거리</t>
         </is>
       </c>
       <c r="C380" t="n">
         <v>3</v>
       </c>
       <c r="D380" s="1" t="n">
-        <v>44222.11419089528</v>
+        <v>44222.11419089288</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>be lined up</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>정렬되어 있다</t>
+          <t>조각조각으로 찢다, 끝내버리다</t>
         </is>
       </c>
       <c r="C381" t="n">
         <v>3</v>
       </c>
-      <c r="D381" s="1" t="n">
-        <v>44224.95196826228</v>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772021</t>
+        </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>as a token of</t>
+          <t>hold one's own</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>~의 표시로서, ~의 증거로</t>
+          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
         </is>
       </c>
       <c r="C382" t="n">
         <v>3</v>
       </c>
       <c r="D382" s="1" t="n">
-        <v>44224.9519682622</v>
+        <v>44224.15166368688</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>excerpt</t>
+          <t>sleek</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>발췌, 인용</t>
+          <t>(모양이) 매끈한</t>
         </is>
       </c>
       <c r="C383" t="n">
         <v>3</v>
       </c>
       <c r="D383" s="1" t="n">
-        <v>44222.84692713058</v>
+        <v>44224.8528974482</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>eatery</t>
+          <t>prop(property)</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>소도구</t>
         </is>
       </c>
       <c r="C384" t="n">
         <v>3</v>
       </c>
       <c r="D384" s="1" t="n">
-        <v>44222.84692713509</v>
+        <v>44222.1141908952</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>deliveration</t>
+          <t>dome</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>둥근 지붕을 달다; 둥근 지붕</t>
         </is>
       </c>
       <c r="C385" t="n">
         <v>3</v>
       </c>
-      <c r="D385" s="1" t="n">
-        <v>44222.84692713342</v>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772299</t>
+        </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>autobiographical</t>
+          <t>honorarium</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>자전적인</t>
+          <t>사례비</t>
         </is>
       </c>
       <c r="C386" t="n">
         <v>3</v>
       </c>
       <c r="D386" s="1" t="n">
-        <v>44222.11419089197</v>
+        <v>44224.15166368717</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>regardless of</t>
+          <t>ramp</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>~와 상관없이</t>
+          <t>경사로</t>
         </is>
       </c>
       <c r="C387" t="n">
         <v>3</v>
       </c>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772116</t>
-        </is>
+      <c r="D387" s="1" t="n">
+        <v>44224.95196826259</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>sloppy</t>
+          <t>adjacent to</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>날림의, 엉성한</t>
+          <t>~에 인접한</t>
         </is>
       </c>
       <c r="C388" t="n">
         <v>3</v>
       </c>
       <c r="D388" s="1" t="n">
-        <v>44222.11419089342</v>
+        <v>44224.95196826039</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>professionalism</t>
+          <t>composition</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t xml:space="preserve">전문성 </t>
+          <t>구성(요소)</t>
         </is>
       </c>
       <c r="C389" t="n">
         <v>3</v>
       </c>
       <c r="D389" s="1" t="n">
-        <v>44222.84692713115</v>
+        <v>44226.28725668104</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>run late</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>늦어지다</t>
+          <t>좌절감, 불만</t>
         </is>
       </c>
       <c r="C390" t="n">
         <v>3</v>
       </c>
       <c r="D390" s="1" t="n">
-        <v>44224.95196826274</v>
+        <v>44224.85289744847</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ramp</t>
+          <t>make a name</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>경사로</t>
+          <t>명성을 얻다</t>
         </is>
       </c>
       <c r="C391" t="n">
         <v>3</v>
       </c>
       <c r="D391" s="1" t="n">
-        <v>44224.95196826259</v>
+        <v>44224.85289744829</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
+          <t>claim</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>~을 주장하다</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>3</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771907</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>as of + 시점</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>~부로</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>3</v>
+      </c>
+      <c r="D393" s="1" t="n">
+        <v>44222.11419089551</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>violator</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>위반자</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>3</v>
+      </c>
+      <c r="D394" s="1" t="n">
+        <v>44222.11419089128</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>where as</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>~이지만</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>3</v>
+      </c>
+      <c r="D395" s="1" t="n">
+        <v>44222.84692713051</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>watercraft</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>배, 배 타는 기술</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>3</v>
+      </c>
+      <c r="D396" s="1" t="n">
+        <v>44224.1516636881</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>obstruct</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>막다</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>3</v>
+      </c>
+      <c r="D397" s="1" t="n">
+        <v>44222.84692713019</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>be lined up</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>정렬되어 있다</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>3</v>
+      </c>
+      <c r="D398" s="1" t="n">
+        <v>44224.95196826228</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>as a token of</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>~의 표시로서, ~의 증거로</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>3</v>
+      </c>
+      <c r="D399" s="1" t="n">
+        <v>44224.9519682622</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>call in</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>~를 불러들이다</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>3</v>
+      </c>
+      <c r="D400" s="1" t="n">
+        <v>44222.11419089902</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>at the latest</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>늦어도</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>3</v>
+      </c>
+      <c r="D401" s="1" t="n">
+        <v>44224.15166368772</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>rake</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>갈퀴</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>3</v>
+      </c>
+      <c r="D402" s="1" t="n">
+        <v>44222.11419089029</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>flier</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>광고 전단(= flyer)</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>3</v>
+      </c>
+      <c r="D403" s="1" t="n">
+        <v>44224.95196826182</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>initiative</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>(목표를 위한 새로운) 계획</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>3</v>
+      </c>
+      <c r="D404" s="1" t="n">
+        <v>44222.11419089396</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>조언</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>3</v>
+      </c>
+      <c r="D405" s="1" t="n">
+        <v>44222.8469271358</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>run late</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>늦어지다</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>3</v>
+      </c>
+      <c r="D406" s="1" t="n">
+        <v>44224.95196826274</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
           <t>consumer electronics industry</t>
         </is>
       </c>
-      <c r="B392" t="inlineStr">
+      <c r="B407" t="inlineStr">
         <is>
           <t>가전 사업</t>
         </is>
       </c>
-      <c r="C392" t="n">
-        <v>3</v>
-      </c>
-      <c r="D392" s="1" t="n">
+      <c r="C407" t="n">
+        <v>3</v>
+      </c>
+      <c r="D407" s="1" t="n">
         <v>44222.11419089379</v>
       </c>
     </row>

--- a/voca.xlsx
+++ b/voca.xlsx
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>44226.28725668115</v>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>44226.28725668133</v>
@@ -463,37 +463,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>assume</t>
+          <t>on the premise</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(책임 등을) 떠맡다, 담당하다</t>
+          <t>점포 내에서</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>44232.18014923276</v>
+        <v>44232.18014923225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>on the premise</t>
+          <t>assume</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>점포 내에서</t>
+          <t>(책임 등을) 떠맡다, 담당하다</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44232.18014923225</v>
+        <v>44232.18014923276</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>44224.95196826236</v>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>44232.18014923284</v>
@@ -535,1066 +535,1070 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>in terms of</t>
+          <t>momentum</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>~의 면에서</t>
+          <t>탄력, 가속도, 여세</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>44232.18014923233</v>
+        <v>44226.27521903367</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>booklet</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>평가하다, 등급을 매기다</t>
+          <t>소책자</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>44232.1801492325</v>
+        <v>44226.27521903467</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>proportional</t>
+          <t>pride oneself on</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(~에) 비례하는</t>
+          <t>~에 대해 자랑하다</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>44232.18014923308</v>
+        <v>44222.84692713107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>opener</t>
+          <t>bet</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>병따개, 첫 행동</t>
+          <t>선택한 것[사람], 방책</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>44232.18014923323</v>
+        <v>44222.84692713251</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>synthetic</t>
+          <t>autograph</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>합성의</t>
+          <t>사인</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44222.84692713212</v>
+        <v>44222.11419089082</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>executive committee</t>
+          <t>harvest</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>집행 위원회</t>
+          <t>수확(량)</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>44226.27521903584</v>
+        <v>44226.27521903561</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>booklet</t>
+          <t>serve as</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>소책자</t>
+          <t>~의 역할을 하다</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>44226.27521903467</v>
+        <v>44222.8469271309</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nevertheless</t>
+          <t>landscape</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>그럼에도 불구하고</t>
+          <t>조경을 하다</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>44222.11419089097</v>
+        <v>44226.27521903383</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>wilted</t>
+          <t>wilderness</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>살짝 데친</t>
+          <t>황야</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>44222.84692713471</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772087</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>탄력, 가속도, 여세</t>
+          <t>견적</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>44226.27521903367</v>
+        <v>44226.27521903508</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>as much as possible</t>
+          <t>let down</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>가능한 많이</t>
+          <t>~을 실망시키다</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>44226.27521903324</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771974</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>en masse</t>
+          <t>cost A B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>집단으로</t>
+          <t>A에게 B의 비용이 들다</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <v>44224.85289744838</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771851</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Town council</t>
+          <t>indication</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>시의회</t>
+          <t>암시</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>44224.95196826015</v>
+        <v>44226.2752190353</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>feature</t>
+          <t>high court</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(영화, 전시 등에) 등장시키다, 특집으로 다루다, 특징을 이루다</t>
+          <t>고등 법원</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>44224.85289744905</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771936</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>wilderness</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>황야</t>
+          <t>~에 헌신하다, 전념하다</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772087</t>
-        </is>
+      <c r="D21" s="1" t="n">
+        <v>44224.95196826205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pass out</t>
+          <t>allege</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>건네다</t>
+          <t>(확실한 증거 없이) 주장하다</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>44226.27521903459</v>
+        <v>44222.11419089303</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>interoffice</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>결심, 결정, 결단력</t>
+          <t>회사 내의, 각 부서간의</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>44226.28725668151</v>
+        <v>44222.8469271298</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>take inventory</t>
+          <t>thoroughly</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>재고 조사를 하다</t>
+          <t>철저히</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>44224.95196826282</v>
+        <v>44222.84692713282</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>indication</t>
+          <t>admission</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>암시</t>
+          <t>입장, 인정</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>44226.2752190353</v>
+        <v>44222.84692713066</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>deliberation</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~에 헌신하다, 전념하다</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>44224.95196826205</v>
+        <v>44222.11419089273</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>allege</t>
+          <t>put up</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(확실한 증거 없이) 주장하다</t>
+          <t>~을 붙이다, 세우다</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>44222.11419089303</v>
+        <v>44222.11419088999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>interoffice</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>회사 내의, 각 부서간의</t>
+          <t>~에 헌신하다[전념하다]</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>44222.8469271298</v>
+        <v>44226.28725668327</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>reconfigure</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>부과하다, 맡기다</t>
+          <t>(시스템, 기기 등을) 재배열[재설정]</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>44232.18014923265</v>
+        <v>44224.85289744933</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>theatergoer</t>
+          <t>surveyor</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>극장에 (자주) 가는 사람</t>
+          <t>측량사</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>44224.95196826072</v>
+        <v>44222.84692712996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>in a timely manner</t>
+          <t>be appointed + 직위</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>시기에 맞게</t>
+          <t>~로 임명되다</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>44226.28725668437</v>
+        <v>44226.28725668301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>expenditure</t>
+          <t>pass out</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>지출</t>
+          <t>건네다</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>44222.84692713573</v>
+        <v>44226.27521903459</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>fabricate</t>
+          <t>scholarship</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>조립하다, 제작하다</t>
+          <t>장학금</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>4</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771804</t>
-        </is>
+      <c r="D33" s="1" t="n">
+        <v>44226.28725668429</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>reversal</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>전환, 역전</t>
+          <t>(봉지에 넣어) 포장하다</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>44226.28725668282</v>
+        <v>44222.11419089067</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>reserve the right to + 동사원형</t>
+          <t>relieve A of B</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~할 권한을 보유하다</t>
+          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>4</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>44224.85289744757</v>
+        <v>44222.11419089597</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>forestall</t>
+          <t>assembly</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>선수를 치다, 기선을 제압하다</t>
+          <t>의회</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>4</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771832</t>
-        </is>
+      <c r="D36" s="1" t="n">
+        <v>44226.27521903737</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>testimonial</t>
+          <t>credential</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>추천의 글</t>
+          <t>자격(증), 보증서, 자격 인증(서)</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>44222.11419089424</v>
+        <v>44222.11419089478</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>you get what you pay for</t>
+          <t>Town council</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>싼게 비지떡</t>
+          <t>시의회</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>44222.1141908932</v>
+        <v>44224.95196826015</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>fool</t>
+          <t>earn</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>속이다</t>
+          <t>~에게 …을 받게 할 자격을 주다</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>44222.84692713268</v>
+        <v>44226.27521903714</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>roll-out</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>취재하다, 기사를 담당하다</t>
+          <t>(신제품의) 첫 공개</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>44226.28725668292</v>
+        <v>44224.85289744857</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>liability</t>
+          <t>quality assurance</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>책임</t>
+          <t>품질 보증</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>4</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771945</t>
-        </is>
+      <c r="D41" s="1" t="n">
+        <v>44222.11419089433</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sole</t>
+          <t>be to blame</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>밑창</t>
+          <t>(잘못의) 책임이 있다</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>44222.8469271326</v>
+        <v>44224.85289744868</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>assistant manager</t>
+          <t>alumi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>대리</t>
+          <t>졸업생들</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>44222.84692713011</v>
+        <v>44226.27521903729</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>board of trustees</t>
+          <t>in exchange for</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>이사회</t>
+          <t>~을 대신해서</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>44226.2872566842</v>
+        <v>44222.84692713327</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>help out</t>
+          <t>outlook</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>도와주다</t>
+          <t>관점, 전망</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>44226.28725668362</v>
+        <v>44226.27521903759</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>to this end</t>
+          <t>look over</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>이를 위해, 이런 목적으로</t>
+          <t>~을 살펴보다</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>44222.11419089136</v>
+        <v>44226.27521903375</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>disclosure</t>
+          <t>pier</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>공개</t>
+          <t>부두</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>4</v>
       </c>
-      <c r="D47" s="1" t="n">
-        <v>44226.28725668178</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772395</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>take over</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>인수하다, 이어받다</t>
+          <t>대우, 처치</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>44226.287256684</v>
+        <v>44226.27521903482</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>acidic</t>
+          <t>sip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>매우 신</t>
+          <t>마시다</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>44222.84692713419</v>
+        <v>44222.1141908906</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>authority</t>
+          <t>interfere with</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>당국, 권한</t>
+          <t>~을 방해하다</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>44226.28725668169</v>
+        <v>44224.85289744781</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>look over</t>
+          <t>considerable</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~을 살펴보다</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>4</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>44226.27521903375</v>
+        <v>44232.1801492321</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>pier</t>
+          <t>overlook</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>부두</t>
+          <t>간과; ~을 간과하다, 내려보다</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>4</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772395</t>
-        </is>
+      <c r="D52" s="1" t="n">
+        <v>44222.84692713336</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>nevertheless</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>대우, 처치</t>
+          <t>그럼에도 불구하고</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>44226.27521903482</v>
+        <v>44222.11419089097</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sip</t>
+          <t>jostle for</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>마시다</t>
+          <t>~을 위하여 다투다, 겨루다</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
-      <c r="D54" s="1" t="n">
-        <v>44222.1141908906</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772185</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>interfere with</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>~을 방해하다</t>
+          <t>비판적인</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>44224.85289744781</v>
+        <v>44226.2872566846</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>considerable</t>
+          <t>in a single direction</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>한 방향으로</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>44232.1801492321</v>
+        <v>44224.95196826266</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>overlook</t>
+          <t>in a timely manner</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>간과; ~을 간과하다, 내려보다</t>
+          <t>시기에 맞게</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>44222.84692713336</v>
+        <v>44226.28725668437</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>jointly</t>
+          <t>paycheck</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>공동으로</t>
+          <t>급여(수표)</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>44224.15166368744</v>
+        <v>44222.84692713146</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bet</t>
+          <t>be busy -ing</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>선택한 것[사람], 방책</t>
+          <t>~하느라 바쁘다</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>4</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>44222.84692713251</v>
+        <v>44226.27521903316</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>substantial</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>간부, 공무원</t>
+          <t>상당한, 실질적인</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>44222.11419089281</v>
+        <v>44226.27521903696</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>in a single direction</t>
+          <t>mow</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>한 방향으로</t>
+          <t>잔디를 깎다</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>4</v>
       </c>
-      <c r="D61" s="1" t="n">
-        <v>44224.95196826266</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772470</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>as to</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>비판적인</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>44226.2872566846</v>
+        <v>44222.11419089403</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>thoroughly</t>
+          <t>feasibility</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>철저히</t>
+          <t>실행 가능성, 실현 가능성</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>4</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>44222.84692713282</v>
+        <v>44226.28725668096</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>paycheck</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>급여(수표)</t>
+          <t>직업</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>4</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>44222.84692713146</v>
+        <v>44226.27521903744</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>high court</t>
+          <t>consider A (as [to be]) B</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>고등 법원</t>
+          <t>A를 B로 여기다, 간주하다</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1602,242 +1606,250 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771936</t>
+          <t>2021-01-26 02:11:09.771898</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>outlook</t>
+          <t>compete</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>관점, 전망</t>
+          <t>경쟁하다</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>44226.27521903759</v>
+        <v>44232.18014923241</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>quite a while ago</t>
+          <t>resolution</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>꽤 오래전에</t>
+          <t>결심, 결정, 결단력</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>44226.27521903308</v>
+        <v>44226.28725668151</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>store credit</t>
+          <t>school term</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>상점 적립금</t>
+          <t>학기</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>44226.27521903476</v>
+        <v>44226.28725668318</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>color scheme</t>
+          <t>research into</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>색체 조합</t>
+          <t>~을 조사하다</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
-      <c r="D69" s="1" t="n">
-        <v>44224.15166368855</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771870</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>be to blame</t>
+          <t>unfavorable</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>(잘못의) 책임이 있다</t>
+          <t>불리한</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>44224.85289744868</v>
+        <v>44224.15166368725</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>concerning</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>유효한</t>
+          <t>~에 관한</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>4</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>44222.8469271319</v>
+        <v>44222.11419089493</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>pay package</t>
+          <t>lay</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>연봉</t>
+          <t>놓다, 두다</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>4</v>
       </c>
-      <c r="D72" s="1" t="n">
-        <v>44226.27521903706</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772433</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>stationery store</t>
+          <t>criticism</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>문구점</t>
+          <t>비판, 비평</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>4</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>44226.27521903351</v>
+        <v>44226.28725668482</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>assortment</t>
+          <t>initiation</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>모음</t>
+          <t>창시, 입문</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>4</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>44226.27521903592</v>
+        <v>44224.95196826095</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>faculty</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>교수진</t>
+          <t>취재하다, 기사를 담당하다</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>44226.27521903722</v>
+        <v>44226.28725668292</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>autograph</t>
+          <t>commune</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>사인</t>
+          <t>친하게 사귀다</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>4</v>
       </c>
-      <c r="D76" s="1" t="n">
-        <v>44222.11419089082</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772068</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>move in</t>
+          <t>liability</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>이사 들어오다</t>
+          <t>책임</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
-      <c r="D77" s="1" t="n">
-        <v>44226.27521903287</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771945</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>credential</t>
+          <t>sealed</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>자격(증), 보증서, 자격 인증(서)</t>
+          <t xml:space="preserve">마감칠된, 밀폐된 </t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>44222.11419089478</v>
+        <v>44222.11419089418</v>
       </c>
     </row>
     <row r="79">
@@ -1861,506 +1873,504 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sealed</t>
+          <t>ration</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">마감칠된, 밀폐된 </t>
+          <t>배급하다</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>4</v>
       </c>
-      <c r="D80" s="1" t="n">
-        <v>44222.11419089418</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772012</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>decide against -ing</t>
+          <t>make landfall</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>~하지 않기로 결정하다</t>
+          <t>착륙하다</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>4</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>44224.85289744789</v>
+        <v>44224.15166368837</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>commune</t>
+          <t>water tower</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>친하게 사귀다</t>
+          <t>급수탑</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>4</v>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772068</t>
-        </is>
+      <c r="D82" s="1" t="n">
+        <v>44222.11419089501</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>put up</t>
+          <t>board of trustees</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>~을 붙이다, 세우다</t>
+          <t>이사회</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>4</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>44222.11419088999</v>
+        <v>44226.2872566842</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>initiation</t>
+          <t>faculty</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>창시, 입문</t>
+          <t>교수진</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>4</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>44224.95196826095</v>
+        <v>44226.27521903722</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>criticism</t>
+          <t>assigned to</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>비판, 비평</t>
+          <t>~로 발령받다</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>44226.28725668482</v>
+        <v>44226.27521903752</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>scholarship</t>
+          <t>podium</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>장학금</t>
+          <t>연단</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>44226.28725668429</v>
+        <v>44222.11419089007</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>make landfall</t>
+          <t>en masse</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>착륙하다</t>
+          <t>집단으로</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>44224.15166368837</v>
+        <v>44224.85289744838</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>outplay</t>
+          <t>tuition</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>패배시키다</t>
+          <t>학자금</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>4</v>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771879</t>
-        </is>
+      <c r="D88" s="1" t="n">
+        <v>44222.84692713174</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tenant</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>세입자</t>
+          <t>유효한</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>44226.28725668345</v>
+        <v>44222.8469271319</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>research into</t>
+          <t>be sure to</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>~을 조사하다</t>
+          <t>반드시 ~하다</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771870</t>
-        </is>
+      <c r="D90" s="1" t="n">
+        <v>44226.2752190339</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>be appointed + 직위</t>
+          <t>take over</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>~로 임명되다</t>
+          <t>인수하다, 이어받다</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>4</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>44226.28725668301</v>
+        <v>44226.287256684</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>podium</t>
+          <t>as much as possible</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>연단</t>
+          <t>가능한 많이</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>4</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>44222.11419089007</v>
+        <v>44226.27521903324</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>surveyor</t>
+          <t>verification</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>측량사</t>
+          <t>확인, 조회</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>4</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>44222.84692712996</v>
+        <v>44224.15166368864</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>somewhat</t>
+          <t>quite a while ago</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>다소, 약간</t>
+          <t>꽤 오래전에</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>4</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>44222.84692713027</v>
+        <v>44226.27521903308</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>consider A (as [to be]) B</t>
+          <t>authority</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>A를 B로 여기다, 간주하다</t>
+          <t>당국, 권한</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771898</t>
-        </is>
+      <c r="D95" s="1" t="n">
+        <v>44226.28725668169</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>reconfigure</t>
+          <t>look forward to + -ing</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>(시스템, 기기 등을) 재배열[재설정]</t>
+          <t>~을 고대하다</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>4</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>44224.85289744933</v>
+        <v>44222.1141908915</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>devotion</t>
+          <t>beam</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>헌신, 전념</t>
+          <t>들보, 보</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>4</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>44226.2752190349</v>
+        <v>44224.85289744888</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>acclaimed</t>
+          <t>compliment</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>칭찬[호평] 받는</t>
+          <t>칭찬하다</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>44226.28725668411</v>
+        <v>44224.85289744801</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>offshore</t>
+          <t>orchard</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>연안에</t>
+          <t>과수원</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>44224.15166368827</v>
+        <v>44222.11419089173</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>substantial</t>
+          <t>get off</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>상당한, 실질적인</t>
+          <t>내리다</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>4</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>44226.27521903696</v>
+        <v>44226.27521903451</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>publicize</t>
+          <t>bistro</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>공표하다, 알리다</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>4</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>44224.95196826175</v>
+        <v>44224.95196826063</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>beam</t>
+          <t>associate's degree</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>들보, 보</t>
+          <t>준학사 학위</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>4</v>
       </c>
-      <c r="D102" s="1" t="n">
-        <v>44224.85289744888</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772097</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>compliment</t>
+          <t>awning</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>칭찬하다</t>
+          <t>차양</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>4</v>
       </c>
-      <c r="D103" s="1" t="n">
-        <v>44224.85289744801</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772367</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>orchard</t>
+          <t>house</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>과수원</t>
+          <t>(장기적으로) 장소를 제공하다</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>44222.11419089173</v>
+        <v>44224.95196826055</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>get off</t>
+          <t>be scattered on</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>내리다</t>
+          <t>~에 흩어져 있다</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>4</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>44226.27521903451</v>
+        <v>44224.95196826251</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>bistro</t>
+          <t xml:space="preserve">halibut </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>광어</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>44224.95196826063</v>
+        <v>44222.84692713412</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>associate's degree</t>
+          <t>plush</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>준학사 학위</t>
+          <t>안락한, 고급의</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2368,369 +2378,367 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772097</t>
+          <t>2021-01-26 02:11:09.772261</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>awning</t>
+          <t>be supposed to</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>차양</t>
+          <t>~할 예정이다, ~하도록 되어 있다</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>4</v>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772367</t>
-        </is>
+      <c r="D108" s="1" t="n">
+        <v>44222.11419089574</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>plow</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>(장기적으로) 장소를 제공하다</t>
+          <t>쟁기로 갈다; 쟁기</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>4</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>44224.95196826055</v>
+        <v>44222.11419088944</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>be scattered on</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>~에 흩어져 있다</t>
+          <t>산출하다, (이익을) 내다</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>4</v>
       </c>
-      <c r="D110" s="1" t="n">
-        <v>44224.95196826251</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771984</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">halibut </t>
+          <t>be in force</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>광어</t>
+          <t>(법률 등이) 시행되다</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>4</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>44222.84692713412</v>
+        <v>44224.15166368782</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>plush</t>
+          <t>set</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>안락한, 고급의</t>
+          <t>부과하다, 맡기다</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>4</v>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772261</t>
-        </is>
+      <c r="D112" s="1" t="n">
+        <v>44232.18014923265</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>be supposed to</t>
+          <t>in terms of</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>~할 예정이다, ~하도록 되어 있다</t>
+          <t>~의 면에서</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>4</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>44222.11419089574</v>
+        <v>44232.18014923233</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>plow</t>
+          <t>gain</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>쟁기로 갈다; 쟁기</t>
+          <t>증가, 이익</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>4</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>44222.11419088944</v>
+        <v>44232.18014923292</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>yield</t>
+          <t>theatergoer</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>산출하다, (이익을) 내다</t>
+          <t>극장에 (자주) 가는 사람</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>4</v>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771984</t>
-        </is>
+      <c r="D115" s="1" t="n">
+        <v>44224.95196826072</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>be in force</t>
+          <t>paystub</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>(법률 등이) 시행되다</t>
+          <t>급여 명세서</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>4</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>44224.15166368782</v>
+        <v>44222.84692713153</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>admit</t>
+          <t>allowance</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>수당</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>4</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>44224.85289744914</v>
+        <v>44226.28725668143</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>favor</t>
+          <t>on time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>호의</t>
+          <t>정시에</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>4</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>44226.275219035</v>
+        <v>44226.28725668383</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>gain</t>
+          <t>courtyard</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>증가, 이익</t>
+          <t>뜰, 정원</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>4</v>
       </c>
-      <c r="D119" s="1" t="n">
-        <v>44232.18014923292</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772213</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>treat</t>
+          <t>wilted</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>특별한 기쁨, 만족</t>
+          <t>살짝 데친</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>4</v>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772166</t>
-        </is>
+      <c r="D120" s="1" t="n">
+        <v>44222.84692713471</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>deliberation</t>
+          <t>official</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>간부, 공무원</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>44222.11419089273</v>
+        <v>44222.11419089281</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>admission</t>
+          <t>treat</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>입장, 인정</t>
+          <t>특별한 기쁨, 만족</t>
         </is>
       </c>
       <c r="C122" t="n">
         <v>4</v>
       </c>
-      <c r="D122" s="1" t="n">
-        <v>44222.84692713066</v>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772166</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>on time</t>
+          <t>publicize</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>정시에</t>
+          <t>공표하다, 알리다</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>4</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>44226.28725668383</v>
+        <v>44224.95196826175</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>allowance</t>
+          <t>rate</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>수당</t>
+          <t>평가하다, 등급을 매기다</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>4</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>44226.28725668143</v>
+        <v>44232.1801492325</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>paystub</t>
+          <t>plumbing</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>급여 명세서</t>
+          <t>배관[수도 시설], 배관 작업[공사]</t>
         </is>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>44222.84692713153</v>
+        <v>44222.11419089181</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>pride oneself on</t>
+          <t>expenditure</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>~에 대해 자랑하다</t>
+          <t>지출</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>4</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>44222.84692713107</v>
+        <v>44222.84692713573</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>jostle for</t>
+          <t>fabricate</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>~을 위하여 다투다, 겨루다</t>
+          <t>조립하다, 제작하다</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2738,385 +2746,387 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772185</t>
+          <t>2021-01-26 02:11:09.771804</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>plumbing</t>
+          <t>vary</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>배관[수도 시설], 배관 작업[공사]</t>
+          <t>(서로) 다르다, 다양하다</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>44222.11419089181</v>
+        <v>44222.84692713229</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>matter</t>
+          <t>lie</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>중요하다</t>
+          <t>놓여 있다</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>4</v>
       </c>
-      <c r="D129" s="1" t="n">
-        <v>44226.28725668374</v>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772423</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>courtyard</t>
+          <t>offshore</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>뜰, 정원</t>
+          <t>연안에</t>
         </is>
       </c>
       <c r="C130" t="n">
         <v>4</v>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772213</t>
-        </is>
+      <c r="D130" s="1" t="n">
+        <v>44224.15166368827</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>look forward to + -ing</t>
+          <t>reversal</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>~을 고대하다</t>
+          <t>전환, 역전</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>44222.1141908915</v>
+        <v>44226.28725668282</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>correspondence</t>
+          <t>bouquet</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>통신, 연락</t>
+          <t>꽃다발</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>4</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>44222.84692713374</v>
+        <v>44222.11419088952</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>year-round</t>
+          <t>devotion</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>일년 내내</t>
+          <t>헌신, 전념</t>
         </is>
       </c>
       <c r="C133" t="n">
         <v>4</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>44222.1141908922</v>
+        <v>44226.2752190349</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>in exchange for</t>
+          <t>take inventory</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>~을 대신해서</t>
+          <t>재고 조사를 하다</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>44222.84692713327</v>
+        <v>44224.95196826282</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>extend</t>
+          <t>reserve the right to + 동사원형</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>정도, 범위</t>
+          <t>~할 권한을 보유하다</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>4</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>44226.28725668084</v>
+        <v>44224.85289744757</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>verification</t>
+          <t>insist on -ing</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>확인, 조회</t>
+          <t>~할 것을 주장하다</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>44224.15166368864</v>
+        <v>44224.15166368698</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>alumi</t>
+          <t>corn</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>졸업생들</t>
+          <t>옥수수</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>4</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>44226.27521903729</v>
+        <v>44232.180149233</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>be credited to</t>
+          <t>somewhat</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>~로 입금되다[금액이 넘어가다]</t>
+          <t>다소, 약간</t>
         </is>
       </c>
       <c r="C138" t="n">
         <v>4</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>44224.85289744771</v>
+        <v>44222.84692713027</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>harvest</t>
+          <t>forestall</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>수확(량)</t>
+          <t>선수를 치다, 기선을 제압하다</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
-      <c r="D139" s="1" t="n">
-        <v>44226.27521903561</v>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771832</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>cost A B</t>
+          <t>proportional</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>A에게 B의 비용이 들다</t>
+          <t>(~에) 비례하는</t>
         </is>
       </c>
       <c r="C140" t="n">
         <v>4</v>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771851</t>
-        </is>
+      <c r="D140" s="1" t="n">
+        <v>44232.18014923308</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>be sure to</t>
+          <t>highland</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>반드시 ~하다</t>
+          <t>고원</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>4</v>
       </c>
-      <c r="D141" s="1" t="n">
-        <v>44226.2752190339</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772078</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>account</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>작업장</t>
+          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>44224.85289744924</v>
+        <v>44226.27521903359</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>end up -ing</t>
+          <t>testimonial</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>~하게 되다, 결국 ~이 되다</t>
+          <t>추천의 글</t>
         </is>
       </c>
       <c r="C143" t="n">
         <v>4</v>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772223</t>
-        </is>
+      <c r="D143" s="1" t="n">
+        <v>44222.11419089424</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>tuition</t>
+          <t xml:space="preserve">sizable </t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>학자금</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>4</v>
       </c>
-      <c r="D144" s="1" t="n">
-        <v>44222.84692713174</v>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772232</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>retention</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
+          <t>시의</t>
         </is>
       </c>
       <c r="C145" t="n">
         <v>4</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>44226.28725668124</v>
+        <v>44222.11419089144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>bird-nesting</t>
+          <t>tenant</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>(취미로) 새 둥지를 찾아다니는</t>
+          <t>세입자</t>
         </is>
       </c>
       <c r="C146" t="n">
         <v>4</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>44224.15166368884</v>
+        <v>44226.28725668345</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>roll-out</t>
+          <t>you get what you pay for</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>(신제품의) 첫 공개</t>
+          <t>싼게 비지떡</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>4</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>44224.85289744857</v>
+        <v>44222.1141908932</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>in preparation for</t>
+          <t>outplay</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>~에 대비하여</t>
+          <t>패배시키다</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -3124,165 +3134,163 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772320</t>
+          <t>2021-01-26 02:11:09.771879</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>assigned to</t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>~로 발령받다</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C149" t="n">
         <v>4</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>44226.27521903752</v>
+        <v>44222.84692713288</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>let down</t>
+          <t>informal</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>~을 실망시키다</t>
+          <t>비공식의</t>
         </is>
       </c>
       <c r="C150" t="n">
         <v>4</v>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771974</t>
-        </is>
+      <c r="D150" s="1" t="n">
+        <v>44232.18014923258</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>fool</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>중역</t>
+          <t>속이다</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>44226.28725668391</v>
+        <v>44222.84692713268</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>earn</t>
+          <t>derive</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>~에게 …을 받게 할 자격을 주다</t>
+          <t>끌어내다</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>4</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>44226.27521903714</v>
+        <v>44222.11419089582</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>estimate</t>
+          <t>ojection</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>견적</t>
+          <t>반대</t>
         </is>
       </c>
       <c r="C153" t="n">
         <v>4</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>44226.27521903508</v>
+        <v>44226.27521903523</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>water tower</t>
+          <t>insulated</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>급수탑</t>
+          <t>절연된</t>
         </is>
       </c>
       <c r="C154" t="n">
         <v>4</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>44222.11419089501</v>
+        <v>44222.1141908941</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>faulty</t>
+          <t>will pay a visit</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>결함이 있는</t>
+          <t>방문할 것이다.</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>44226.27521903606</v>
+        <v>44222.11419089448</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>on your own</t>
+          <t>opener</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>혼자 힘으로</t>
+          <t>병따개, 첫 행동</t>
         </is>
       </c>
       <c r="C156" t="n">
         <v>4</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>44226.27521903334</v>
+        <v>44232.18014923323</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ration</t>
+          <t>mural</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>배급하다</t>
+          <t>벽화</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3290,520 +3298,516 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772012</t>
+          <t>2021-01-26 02:11:09.772204</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>elevation</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>제시[제출]하다</t>
+          <t>승진</t>
         </is>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>44232.18014923333</v>
+        <v>44226.27521903538</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>crate</t>
+          <t xml:space="preserve">in exchange for </t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>상자</t>
+          <t>~의 대가로</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>44222.11419088969</v>
+        <v>44226.27521903688</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>will pay a visit</t>
+          <t>decide against -ing</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>방문할 것이다.</t>
+          <t>~하지 않기로 결정하다</t>
         </is>
       </c>
       <c r="C160" t="n">
         <v>4</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>44222.11419089448</v>
+        <v>44224.85289744789</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>feature</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve">상당히 </t>
+          <t>(영화, 전시 등에) 등장시키다, 특집으로 다루다, 특징을 이루다</t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>44222.84692713397</v>
+        <v>44224.85289744905</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>assembly</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>의회</t>
+          <t xml:space="preserve">상당히 </t>
         </is>
       </c>
       <c r="C162" t="n">
         <v>4</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>44226.27521903737</v>
+        <v>44222.84692713397</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>relieve A of B</t>
+          <t>sole</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
+          <t>밑창</t>
         </is>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>44222.11419089597</v>
+        <v>44222.8469271326</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>elevation</t>
+          <t>crate</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>승진</t>
+          <t>상자</t>
         </is>
       </c>
       <c r="C164" t="n">
         <v>4</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>44226.27521903538</v>
+        <v>44222.11419088969</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>mural</t>
+          <t>present</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>벽화</t>
+          <t>제시[제출]하다</t>
         </is>
       </c>
       <c r="C165" t="n">
         <v>4</v>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772204</t>
-        </is>
+      <c r="D165" s="1" t="n">
+        <v>44232.18014923333</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>occasion</t>
+          <t>faint</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>때, 경우</t>
+          <t>희미한</t>
         </is>
       </c>
       <c r="C166" t="n">
         <v>4</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>44226.275219036</v>
+        <v>44222.11419089351</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>serve as</t>
+          <t>assistant manager</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>~의 역할을 하다</t>
+          <t>대리</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>4</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>44222.8469271309</v>
+        <v>44222.84692713011</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>on your own</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>(봉지에 넣어) 포장하다</t>
+          <t>혼자 힘으로</t>
         </is>
       </c>
       <c r="C168" t="n">
         <v>4</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>44222.11419089067</v>
+        <v>44226.27521903334</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>insulated</t>
+          <t>faulty</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>절연된</t>
+          <t>결함이 있는</t>
         </is>
       </c>
       <c r="C169" t="n">
         <v>4</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>44222.1141908941</v>
+        <v>44226.27521903606</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ojection</t>
+          <t>move in</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>이사 들어오다</t>
         </is>
       </c>
       <c r="C170" t="n">
         <v>4</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>44226.27521903523</v>
+        <v>44226.27521903287</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>derive</t>
+          <t>acclaimed</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>끌어내다</t>
+          <t>칭찬[호평] 받는</t>
         </is>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>44222.11419089582</v>
+        <v>44226.28725668411</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>faint</t>
+          <t>synthetic</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>희미한</t>
+          <t>합성의</t>
         </is>
       </c>
       <c r="C172" t="n">
         <v>4</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>44222.11419089351</v>
+        <v>44222.84692713212</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>lay</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>놓다, 두다</t>
+          <t>변환</t>
         </is>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772433</t>
-        </is>
+      <c r="D173" s="1" t="n">
+        <v>44226.27521903575</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>informal</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>비공식의</t>
+          <t>중역</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>4</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>44232.18014923258</v>
+        <v>44226.28725668391</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>appreciate</t>
+          <t>help out</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>도와주다</t>
         </is>
       </c>
       <c r="C175" t="n">
         <v>4</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>44222.84692713288</v>
+        <v>44226.28725668362</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>collect payment</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>~에 관한</t>
+          <t>대금을 회수하다</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>44222.11419089493</v>
+        <v>44222.11419089455</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>landscape</t>
+          <t>assortment</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>조경을 하다</t>
+          <t>모음</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>4</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>44226.27521903383</v>
+        <v>44226.27521903592</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>unfavorable</t>
+          <t>in preparation for</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>불리한</t>
+          <t>~에 대비하여</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>4</v>
       </c>
-      <c r="D178" s="1" t="n">
-        <v>44224.15166368725</v>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772320</t>
+        </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>to this end</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>변환</t>
+          <t>이를 위해, 이런 목적으로</t>
         </is>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>44226.27521903575</v>
+        <v>44222.11419089136</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>bird-nesting</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>시의</t>
+          <t>(취미로) 새 둥지를 찾아다니는</t>
         </is>
       </c>
       <c r="C180" t="n">
         <v>4</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>44222.11419089144</v>
+        <v>44224.15166368884</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">sizable </t>
+          <t>retention</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
         </is>
       </c>
       <c r="C181" t="n">
         <v>4</v>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772232</t>
-        </is>
+      <c r="D181" s="1" t="n">
+        <v>44226.28725668124</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>collect payment</t>
+          <t>pay package</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>대금을 회수하다</t>
+          <t>연봉</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>4</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>44222.11419089455</v>
+        <v>44226.27521903706</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>school term</t>
+          <t>disclosure</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>학기</t>
+          <t>공개</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>4</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>44226.28725668318</v>
+        <v>44226.28725668178</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>end up -ing</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
+          <t>~하게 되다, 결국 ~이 되다</t>
         </is>
       </c>
       <c r="C184" t="n">
         <v>4</v>
       </c>
-      <c r="D184" s="1" t="n">
-        <v>44226.27521903359</v>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772223</t>
+        </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>highland</t>
+          <t>floor</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>고원</t>
+          <t>작업장</t>
         </is>
       </c>
       <c r="C185" t="n">
         <v>4</v>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772078</t>
-        </is>
+      <c r="D185" s="1" t="n">
+        <v>44224.85289744924</v>
       </c>
     </row>
     <row r="186">
@@ -3827,884 +3831,880 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>every other week</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>~에 헌신하다[전념하다]</t>
+          <t>격주로</t>
         </is>
       </c>
       <c r="C187" t="n">
         <v>4</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>44226.28725668327</v>
+        <v>44222.11419089165</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>compete</t>
+          <t>executive committee</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>경쟁하다</t>
+          <t>집행 위원회</t>
         </is>
       </c>
       <c r="C188" t="n">
         <v>4</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>44232.18014923241</v>
+        <v>44226.27521903584</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>quality assurance</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>품질 보증</t>
+          <t>결근, 부재</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>4</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>44222.11419089433</v>
+        <v>44222.84692713073</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>corn</t>
+          <t>be credited to</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>옥수수</t>
+          <t>~로 입금되다[금액이 넘어가다]</t>
         </is>
       </c>
       <c r="C190" t="n">
         <v>4</v>
       </c>
       <c r="D190" s="1" t="n">
-        <v>44232.180149233</v>
+        <v>44224.85289744771</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>insist on -ing</t>
+          <t>acidic</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>~할 것을 주장하다</t>
+          <t>매우 신</t>
         </is>
       </c>
       <c r="C191" t="n">
         <v>4</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>44224.15166368698</v>
+        <v>44222.84692713419</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>every other week</t>
+          <t>store credit</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>격주로</t>
+          <t>상점 적립금</t>
         </is>
       </c>
       <c r="C192" t="n">
         <v>4</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>44222.11419089165</v>
+        <v>44226.27521903476</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>proprietor</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>직업</t>
+          <t>사업주</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>4</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>44226.27521903744</v>
+        <v>44226.28725668335</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>extend</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>결근, 부재</t>
+          <t>정도, 범위</t>
         </is>
       </c>
       <c r="C194" t="n">
         <v>4</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>44222.84692713073</v>
+        <v>44226.28725668084</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>feasibility</t>
+          <t>occasion</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>실행 가능성, 실현 가능성</t>
+          <t>때, 경우</t>
         </is>
       </c>
       <c r="C195" t="n">
         <v>4</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>44226.28725668096</v>
+        <v>44226.275219036</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>bouquet</t>
+          <t>year-round</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>꽃다발</t>
+          <t>일년 내내</t>
         </is>
       </c>
       <c r="C196" t="n">
         <v>4</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>44222.11419088952</v>
+        <v>44222.1141908922</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>mow</t>
+          <t>correspondence</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>잔디를 깎다</t>
+          <t>통신, 연락</t>
         </is>
       </c>
       <c r="C197" t="n">
         <v>4</v>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772470</t>
-        </is>
+      <c r="D197" s="1" t="n">
+        <v>44222.84692713374</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>be busy -ing</t>
+          <t>color scheme</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>~하느라 바쁘다</t>
+          <t>색체 조합</t>
         </is>
       </c>
       <c r="C198" t="n">
         <v>4</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>44226.27521903316</v>
+        <v>44224.15166368855</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>proprietor</t>
+          <t>given</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>사업주</t>
+          <t>~을 고려할 때</t>
         </is>
       </c>
       <c r="C199" t="n">
         <v>4</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>44226.28725668335</v>
+        <v>44224.95196826023</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>lie</t>
+          <t>excutive chef</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>놓여 있다</t>
+          <t>총 주방장</t>
         </is>
       </c>
       <c r="C200" t="n">
         <v>4</v>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772423</t>
-        </is>
+      <c r="D200" s="1" t="n">
+        <v>44224.9519682608</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>vary</t>
+          <t>address</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>(서로) 다르다, 다양하다</t>
+          <t>처리[해결]하다, 다루다</t>
         </is>
       </c>
       <c r="C201" t="n">
         <v>4</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>44222.84692713229</v>
+        <v>44224.95196826212</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">in exchange for </t>
+          <t>implore</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>~의 대가로</t>
+          <t>애원하다, 간청하다</t>
         </is>
       </c>
       <c r="C202" t="n">
         <v>4</v>
       </c>
       <c r="D202" s="1" t="n">
-        <v>44226.27521903688</v>
+        <v>44222.11419089589</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>as to</t>
+          <t>formal</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>공식적인</t>
         </is>
       </c>
       <c r="C203" t="n">
         <v>4</v>
       </c>
       <c r="D203" s="1" t="n">
-        <v>44222.11419089403</v>
+        <v>44226.28725668443</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>be about to + 동사원형</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>~을 고려할 때</t>
+          <t>막 ~하려고 하다</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>4</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>44224.95196826023</v>
+        <v>44222.11419088992</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>excutive chef</t>
+          <t>rotunda</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>총 주방장</t>
+          <t>원형의 홀, 원형 건축물</t>
         </is>
       </c>
       <c r="C205" t="n">
         <v>4</v>
       </c>
-      <c r="D205" s="1" t="n">
-        <v>44224.9519682608</v>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772308</t>
+        </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>tuck away</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>처리[해결]하다, 다루다</t>
+          <t>찾기힘든 안전한 곳에 보관하다</t>
         </is>
       </c>
       <c r="C206" t="n">
         <v>4</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>44224.95196826212</v>
+        <v>44222.84692713565</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>implore</t>
+          <t>enthusiast</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>애원하다, 간청하다</t>
+          <t>열성팬 [열렬한 팬]</t>
         </is>
       </c>
       <c r="C207" t="n">
         <v>4</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>44222.11419089589</v>
+        <v>44222.84692713221</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>formal</t>
+          <t>latest</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>공식적인</t>
+          <t>최신의</t>
         </is>
       </c>
       <c r="C208" t="n">
         <v>4</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>44226.28725668443</v>
+        <v>44222.84692713204</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>be about to + 동사원형</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>막 ~하려고 하다</t>
+          <t>범위, 영역</t>
         </is>
       </c>
       <c r="C209" t="n">
         <v>4</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>44222.11419088992</v>
+        <v>44222.11419089205</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>rotunda</t>
+          <t>financial position</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>원형의 홀, 원형 건축물</t>
+          <t>재무 상태</t>
         </is>
       </c>
       <c r="C210" t="n">
         <v>4</v>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772308</t>
-        </is>
+      <c r="D210" s="1" t="n">
+        <v>44222.11419089536</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>tuck away</t>
+          <t>have company</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>찾기힘든 안전한 곳에 보관하다</t>
+          <t>동행[일행]이 있다</t>
         </is>
       </c>
       <c r="C211" t="n">
         <v>4</v>
       </c>
       <c r="D211" s="1" t="n">
-        <v>44222.84692713565</v>
+        <v>44226.28725668309</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>enthusiast</t>
+          <t>designate</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>열성팬 [열렬한 팬]</t>
+          <t>지정하다</t>
         </is>
       </c>
       <c r="C212" t="n">
         <v>4</v>
       </c>
       <c r="D212" s="1" t="n">
-        <v>44222.84692713221</v>
+        <v>44226.28725668353</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>latest</t>
+          <t>delivery window</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>최신의</t>
+          <t>배달 시간대</t>
         </is>
       </c>
       <c r="C213" t="n">
         <v>4</v>
       </c>
       <c r="D213" s="1" t="n">
-        <v>44222.84692713204</v>
+        <v>44222.84692713558</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>scope</t>
+          <t>initiator</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>범위, 영역</t>
+          <t>창시자</t>
         </is>
       </c>
       <c r="C214" t="n">
         <v>4</v>
       </c>
       <c r="D214" s="1" t="n">
-        <v>44222.11419089205</v>
+        <v>44224.95196826103</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>financial position</t>
+          <t xml:space="preserve">critic </t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>재무 상태</t>
+          <t>비평가</t>
         </is>
       </c>
       <c r="C215" t="n">
         <v>4</v>
       </c>
       <c r="D215" s="1" t="n">
-        <v>44222.11419089536</v>
+        <v>44226.28725668466</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>have company</t>
+          <t>be due to + 동사원형</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>동행[일행]이 있다</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C216" t="n">
         <v>4</v>
       </c>
       <c r="D216" s="1" t="n">
-        <v>44226.28725668309</v>
+        <v>44222.11419089388</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>designate</t>
+          <t>frustrating</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>지정하다</t>
+          <t>실망스러운</t>
         </is>
       </c>
       <c r="C217" t="n">
         <v>4</v>
       </c>
       <c r="D217" s="1" t="n">
-        <v>44226.28725668353</v>
+        <v>44222.84692713296</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>delivery window</t>
+          <t>glazed</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>배달 시간대</t>
+          <t>(설탕을 입혀) 윤기가 나는</t>
         </is>
       </c>
       <c r="C218" t="n">
         <v>4</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>44222.84692713558</v>
+        <v>44222.84692713429</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>initiator</t>
+          <t>get to</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>창시자</t>
+          <t>~에 착수하다</t>
         </is>
       </c>
       <c r="C219" t="n">
         <v>4</v>
       </c>
       <c r="D219" s="1" t="n">
-        <v>44224.95196826103</v>
+        <v>44226.27521903298</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">critic </t>
+          <t>proximate</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>비평가</t>
+          <t>가장 가까운</t>
         </is>
       </c>
       <c r="C220" t="n">
         <v>4</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>44226.28725668466</v>
+        <v>44222.84692713319</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>be due to + 동사원형</t>
+          <t>overdraw</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
         </is>
       </c>
       <c r="C221" t="n">
         <v>4</v>
       </c>
-      <c r="D221" s="1" t="n">
-        <v>44222.11419089388</v>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772059</t>
+        </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>frustrating</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>실망스러운</t>
+          <t>영업, 사업</t>
         </is>
       </c>
       <c r="C222" t="n">
         <v>4</v>
       </c>
       <c r="D222" s="1" t="n">
-        <v>44222.84692713296</v>
+        <v>44226.27521903515</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>glazed</t>
+          <t>critically</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>(설탕을 입혀) 윤기가 나는</t>
+          <t>비판적으로</t>
         </is>
       </c>
       <c r="C223" t="n">
         <v>4</v>
       </c>
       <c r="D223" s="1" t="n">
-        <v>44222.84692713429</v>
+        <v>44226.28725668474</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>get to</t>
+          <t>pavilion</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>~에 착수하다</t>
+          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
         </is>
       </c>
       <c r="C224" t="n">
         <v>4</v>
       </c>
       <c r="D224" s="1" t="n">
-        <v>44226.27521903298</v>
+        <v>44222.11419089228</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>proximate</t>
+          <t>premise</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>가장 가까운</t>
+          <t>구내, 토지</t>
         </is>
       </c>
       <c r="C225" t="n">
         <v>4</v>
       </c>
       <c r="D225" s="1" t="n">
-        <v>44222.84692713319</v>
+        <v>44226.28725668188</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>overdraw</t>
+          <t>a load of</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
+          <t>한 짐의, 많은</t>
         </is>
       </c>
       <c r="C226" t="n">
         <v>4</v>
       </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772059</t>
-        </is>
+      <c r="D226" s="1" t="n">
+        <v>44222.11419088984</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>valdiation</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>영업, 사업</t>
+          <t>확인</t>
         </is>
       </c>
       <c r="C227" t="n">
         <v>4</v>
       </c>
       <c r="D227" s="1" t="n">
-        <v>44226.27521903515</v>
+        <v>44226.27521903553</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>critically</t>
+          <t>now that</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>비판적으로</t>
+          <t>~이기 때문에</t>
         </is>
       </c>
       <c r="C228" t="n">
         <v>4</v>
       </c>
       <c r="D228" s="1" t="n">
-        <v>44226.28725668474</v>
+        <v>44226.27521903344</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>pavilion</t>
+          <t>admit</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C229" t="n">
         <v>4</v>
       </c>
       <c r="D229" s="1" t="n">
-        <v>44222.11419089228</v>
+        <v>44224.85289744914</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>premise</t>
+          <t>favor</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>구내, 토지</t>
+          <t>호의</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D230" s="1" t="n">
-        <v>44226.28725668188</v>
+        <v>44226.275219035</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>a load of</t>
+          <t>matter</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>한 짐의, 많은</t>
+          <t>중요하다</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D231" s="1" t="n">
-        <v>44222.11419088984</v>
+        <v>44226.28725668374</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>valdiation</t>
+          <t>jointly</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>확인</t>
+          <t>공동으로</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D232" s="1" t="n">
-        <v>44226.27521903553</v>
+        <v>44224.15166368744</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>now that</t>
+          <t>stationery store</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>~이기 때문에</t>
+          <t>문구점</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D233" s="1" t="n">
-        <v>44226.27521903344</v>
+        <v>44226.27521903351</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>such</t>
+          <t>quotation</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>그러한</t>
+          <t>인용</t>
         </is>
       </c>
       <c r="C234" t="n">
         <v>3</v>
       </c>
       <c r="D234" s="1" t="n">
-        <v>44232.18014923315</v>
+        <v>44226.27521903567</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>bear with</t>
+          <t>tremendous</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>~을 견디다, 참다</t>
+          <t>엄청난, 대단한</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -4712,136 +4712,140 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771955</t>
+          <t>2021-01-26 02:11:09.772348</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>persevere</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>차이, 변형(시킨 것)</t>
+          <t>인내하다</t>
         </is>
       </c>
       <c r="C236" t="n">
         <v>3</v>
       </c>
-      <c r="D236" s="1" t="n">
-        <v>44226.2872566816</v>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771823</t>
+        </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>polish</t>
+          <t>outdate</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>닦다, 광내다</t>
+          <t>시대에 뒤지게 하다</t>
         </is>
       </c>
       <c r="C237" t="n">
         <v>3</v>
       </c>
-      <c r="D237" s="1" t="n">
-        <v>44222.11419088977</v>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772049</t>
+        </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>stove</t>
+          <t>position</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>(조리용) 레인지</t>
+          <t>배치하다</t>
         </is>
       </c>
       <c r="C238" t="n">
         <v>3</v>
       </c>
       <c r="D238" s="1" t="n">
-        <v>44222.11419088936</v>
+        <v>44222.11419089052</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>lean against</t>
+          <t>privately held company</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>~에 기대다</t>
+          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
         </is>
       </c>
       <c r="C239" t="n">
         <v>3</v>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772451</t>
-        </is>
+      <c r="D239" s="1" t="n">
+        <v>44222.11419089373</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>attire</t>
+          <t xml:space="preserve">entrée </t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>복장</t>
+          <t>메인 메뉴</t>
         </is>
       </c>
       <c r="C240" t="n">
         <v>3</v>
       </c>
       <c r="D240" s="1" t="n">
-        <v>44222.84692713121</v>
+        <v>44224.15166368672</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>take off</t>
+          <t>premiere</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>이륙하다</t>
+          <t>초연, 개봉; 최고의</t>
         </is>
       </c>
       <c r="C241" t="n">
         <v>3</v>
       </c>
       <c r="D241" s="1" t="n">
-        <v>44222.11419089037</v>
+        <v>44222.11419089365</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>template</t>
+          <t>compare A with[to] B</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>견본</t>
+          <t>A를 B에 비교[비유]하다</t>
         </is>
       </c>
       <c r="C242" t="n">
         <v>3</v>
       </c>
-      <c r="D242" s="1" t="n">
-        <v>44224.15166368846</v>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771993</t>
+        </is>
       </c>
     </row>
     <row r="243">
@@ -4865,182 +4869,178 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>compare A with[to] B</t>
+          <t>template</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>A를 B에 비교[비유]하다</t>
+          <t>견본</t>
         </is>
       </c>
       <c r="C244" t="n">
         <v>3</v>
       </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771993</t>
-        </is>
+      <c r="D244" s="1" t="n">
+        <v>44224.15166368846</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>premiere</t>
+          <t>take off</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>초연, 개봉; 최고의</t>
+          <t>이륙하다</t>
         </is>
       </c>
       <c r="C245" t="n">
         <v>3</v>
       </c>
       <c r="D245" s="1" t="n">
-        <v>44222.11419089365</v>
+        <v>44222.11419089037</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t xml:space="preserve">entrée </t>
+          <t>staircase</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>메인 메뉴</t>
+          <t>계단</t>
         </is>
       </c>
       <c r="C246" t="n">
         <v>3</v>
       </c>
-      <c r="D246" s="1" t="n">
-        <v>44224.15166368672</v>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772386</t>
+        </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>staircase</t>
+          <t>attire</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>계단</t>
+          <t>복장</t>
         </is>
       </c>
       <c r="C247" t="n">
         <v>3</v>
       </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772386</t>
-        </is>
+      <c r="D247" s="1" t="n">
+        <v>44222.84692713121</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>privately held company</t>
+          <t>lean against</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
+          <t>~에 기대다</t>
         </is>
       </c>
       <c r="C248" t="n">
         <v>3</v>
       </c>
-      <c r="D248" s="1" t="n">
-        <v>44222.11419089373</v>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772451</t>
+        </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>stove</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>배치하다</t>
+          <t>(조리용) 레인지</t>
         </is>
       </c>
       <c r="C249" t="n">
         <v>3</v>
       </c>
       <c r="D249" s="1" t="n">
-        <v>44222.11419089052</v>
+        <v>44222.11419088936</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>outdate</t>
+          <t>unconvinced</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>시대에 뒤지게 하다</t>
+          <t>납득하지[찬성하지] 않는</t>
         </is>
       </c>
       <c r="C250" t="n">
         <v>3</v>
       </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772049</t>
-        </is>
+      <c r="D250" s="1" t="n">
+        <v>44224.95196826149</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>unconvinced</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>납득하지[찬성하지] 않는</t>
+          <t>닦다, 광내다</t>
         </is>
       </c>
       <c r="C251" t="n">
         <v>3</v>
       </c>
       <c r="D251" s="1" t="n">
-        <v>44224.95196826149</v>
+        <v>44222.11419088977</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>persevere</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>인내하다</t>
+          <t>차이, 변형(시킨 것)</t>
         </is>
       </c>
       <c r="C252" t="n">
         <v>3</v>
       </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771823</t>
-        </is>
+      <c r="D252" s="1" t="n">
+        <v>44226.2872566816</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>tremendous</t>
+          <t>bear with</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>엄청난, 대단한</t>
+          <t>~을 견디다, 참다</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -5048,445 +5048,437 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772348</t>
+          <t>2021-01-26 02:11:09.771955</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>quotation</t>
+          <t>formerly</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>인용</t>
+          <t>예전에</t>
         </is>
       </c>
       <c r="C254" t="n">
         <v>3</v>
       </c>
       <c r="D254" s="1" t="n">
-        <v>44226.27521903567</v>
+        <v>44224.95196826047</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>formerly</t>
+          <t>such</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>예전에</t>
+          <t>그러한</t>
         </is>
       </c>
       <c r="C255" t="n">
         <v>3</v>
       </c>
       <c r="D255" s="1" t="n">
-        <v>44224.95196826047</v>
+        <v>44232.18014923315</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>excuse</t>
+          <t>run late</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>~을 용서하다, ~에 대해 변명하다</t>
+          <t>늦어지다</t>
         </is>
       </c>
       <c r="C256" t="n">
         <v>3</v>
       </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772040</t>
-        </is>
+      <c r="D256" s="1" t="n">
+        <v>44224.95196826274</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>professionalism</t>
+          <t>input</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve">전문성 </t>
+          <t>조언</t>
         </is>
       </c>
       <c r="C257" t="n">
         <v>3</v>
       </c>
       <c r="D257" s="1" t="n">
-        <v>44222.84692713115</v>
+        <v>44222.8469271358</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>sloppy</t>
+          <t>initiative</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>날림의, 엉성한</t>
+          <t>(목표를 위한 새로운) 계획</t>
         </is>
       </c>
       <c r="C258" t="n">
         <v>3</v>
       </c>
       <c r="D258" s="1" t="n">
-        <v>44222.11419089342</v>
+        <v>44222.11419089396</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>regardless of</t>
+          <t>flier</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>~와 상관없이</t>
+          <t>광고 전단(= flyer)</t>
         </is>
       </c>
       <c r="C259" t="n">
         <v>3</v>
       </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772116</t>
-        </is>
+      <c r="D259" s="1" t="n">
+        <v>44224.95196826182</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>autobiographical</t>
+          <t>rake</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>자전적인</t>
+          <t>갈퀴</t>
         </is>
       </c>
       <c r="C260" t="n">
         <v>3</v>
       </c>
       <c r="D260" s="1" t="n">
-        <v>44222.11419089197</v>
+        <v>44222.11419089029</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>deliveration</t>
+          <t>at the latest</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>늦어도</t>
         </is>
       </c>
       <c r="C261" t="n">
         <v>3</v>
       </c>
       <c r="D261" s="1" t="n">
-        <v>44222.84692713342</v>
+        <v>44224.15166368772</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>eatery</t>
+          <t>call in</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>~를 불러들이다</t>
         </is>
       </c>
       <c r="C262" t="n">
         <v>3</v>
       </c>
       <c r="D262" s="1" t="n">
-        <v>44222.84692713509</v>
+        <v>44222.11419089902</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>openness</t>
+          <t>be lined up</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>솔직함, 개방성</t>
+          <t>정렬되어 있다</t>
         </is>
       </c>
       <c r="C263" t="n">
         <v>3</v>
       </c>
       <c r="D263" s="1" t="n">
-        <v>44222.1141908947</v>
+        <v>44224.95196826228</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>troupe</t>
+          <t>obstruct</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>공연단, 극단</t>
+          <t>막다</t>
         </is>
       </c>
       <c r="C264" t="n">
         <v>3</v>
       </c>
       <c r="D264" s="1" t="n">
-        <v>44222.11419089528</v>
+        <v>44222.84692713019</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>directory</t>
+          <t>watercraft</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>안내판, 명부</t>
+          <t>배, 배 타는 기술</t>
         </is>
       </c>
       <c r="C265" t="n">
         <v>3</v>
       </c>
       <c r="D265" s="1" t="n">
-        <v>44222.84692713129</v>
+        <v>44224.1516636881</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>dairy farmer</t>
+          <t>violator</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>낙농업자</t>
+          <t>위반자</t>
         </is>
       </c>
       <c r="C266" t="n">
         <v>3</v>
       </c>
       <c r="D266" s="1" t="n">
-        <v>44226.2752190368</v>
+        <v>44222.11419089128</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>outpace</t>
+          <t>as of + 시점</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>~을 능가하다</t>
+          <t>~부로</t>
         </is>
       </c>
       <c r="C267" t="n">
         <v>3</v>
       </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771813</t>
-        </is>
+      <c r="D267" s="1" t="n">
+        <v>44222.11419089551</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>sew</t>
+          <t>claim</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>바느질하다, 꿰매다</t>
+          <t>~을 주장하다</t>
         </is>
       </c>
       <c r="C268" t="n">
         <v>3</v>
       </c>
-      <c r="D268" s="1" t="n">
-        <v>44222.11419089357</v>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771907</t>
+        </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>commentary</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>좌절감, 불만</t>
         </is>
       </c>
       <c r="C269" t="n">
         <v>3</v>
       </c>
       <c r="D269" s="1" t="n">
-        <v>44226.28725668451</v>
+        <v>44224.85289744847</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>implication</t>
+          <t>composition</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>함축, 함의</t>
+          <t>구성(요소)</t>
         </is>
       </c>
       <c r="C270" t="n">
         <v>3</v>
       </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771926</t>
-        </is>
+      <c r="D270" s="1" t="n">
+        <v>44226.28725668104</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>outfitter</t>
+          <t>adjacent to</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>야외 활동 장비점</t>
+          <t>~에 인접한</t>
         </is>
       </c>
       <c r="C271" t="n">
         <v>3</v>
       </c>
       <c r="D271" s="1" t="n">
-        <v>44222.84692713182</v>
+        <v>44224.95196826039</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>go out of business</t>
+          <t>ramp</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>파산하다, 폐업하다</t>
+          <t>경사로</t>
         </is>
       </c>
       <c r="C272" t="n">
         <v>3</v>
       </c>
       <c r="D272" s="1" t="n">
-        <v>44224.95196825996</v>
+        <v>44224.95196826259</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>candidacy</t>
+          <t>honorarium</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>입후보, 출마</t>
+          <t>사례비</t>
         </is>
       </c>
       <c r="C273" t="n">
         <v>3</v>
       </c>
       <c r="D273" s="1" t="n">
-        <v>44222.1141908944</v>
+        <v>44224.15166368717</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>somehow</t>
+          <t>dome</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>왜 그런지</t>
+          <t>둥근 지붕을 달다; 둥근 지붕</t>
         </is>
       </c>
       <c r="C274" t="n">
         <v>3</v>
       </c>
-      <c r="D274" s="1" t="n">
-        <v>44224.15166368764</v>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772299</t>
+        </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>inform A of B</t>
+          <t>prop(property)</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>A에게 B에 대해 알리다</t>
+          <t>소도구</t>
         </is>
       </c>
       <c r="C275" t="n">
         <v>3</v>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772002</t>
-        </is>
+      <c r="D275" s="1" t="n">
+        <v>44222.1141908952</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>determine to do</t>
+          <t>hold one's own</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>~하겠다고 결심하다</t>
+          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
         </is>
       </c>
       <c r="C276" t="n">
         <v>3</v>
       </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771889</t>
-        </is>
+      <c r="D276" s="1" t="n">
+        <v>44224.15166368688</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>pole</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>기둥</t>
+          <t>조각조각으로 찢다, 끝내버리다</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -5494,207 +5486,205 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772404</t>
+          <t>2021-01-26 02:11:09.772021</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>robe</t>
+          <t>plot</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>가운</t>
+          <t>(소설, 영화 등의) 구성, 줄거리</t>
         </is>
       </c>
       <c r="C278" t="n">
         <v>3</v>
       </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772270</t>
-        </is>
+      <c r="D278" s="1" t="n">
+        <v>44222.11419089288</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>excerpt</t>
+          <t>crepe</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>발췌, 인용</t>
+          <t>얇은 팬케이크</t>
         </is>
       </c>
       <c r="C279" t="n">
         <v>3</v>
       </c>
-      <c r="D279" s="1" t="n">
-        <v>44222.84692713058</v>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772147</t>
+        </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>saving</t>
+          <t>fiscal year</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>감액</t>
+          <t>회계 연도</t>
         </is>
       </c>
       <c r="C280" t="n">
         <v>3</v>
       </c>
       <c r="D280" s="1" t="n">
-        <v>44224.85289744897</v>
+        <v>44222.11419089911</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>courteous</t>
+          <t>valued at</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>정중한</t>
+          <t>가격이 ~에 상당하는</t>
         </is>
       </c>
       <c r="C281" t="n">
         <v>3</v>
       </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772125</t>
-        </is>
+      <c r="D281" s="1" t="n">
+        <v>44224.95196826031</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>get in</t>
+          <t>be credited with</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>~에 들어가다, 도착하다</t>
+          <t>~에 공로가 있다</t>
         </is>
       </c>
       <c r="C282" t="n">
         <v>3</v>
       </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771965</t>
-        </is>
+      <c r="D282" s="1" t="n">
+        <v>44224.95196826007</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>prohibit A from -ing</t>
+          <t>ceiling fan</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>A가 ~하는 것을 금하다</t>
+          <t>천장 선풍기</t>
         </is>
       </c>
       <c r="C283" t="n">
         <v>3</v>
       </c>
-      <c r="D283" s="1" t="n">
-        <v>44224.1516636879</v>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772461</t>
+        </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>operating efficiency</t>
+          <t>one another</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>작업 성능</t>
+          <t>서로</t>
         </is>
       </c>
       <c r="C284" t="n">
         <v>3</v>
       </c>
-      <c r="D284" s="1" t="n">
-        <v>44224.95196826111</v>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772329</t>
+        </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>justify</t>
+          <t>prompt</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>증명하다, 입증하다</t>
+          <t>(컴퓨터 시스템 상에서) ~하라고( 메시지로) 지시하다, 촉구하다</t>
         </is>
       </c>
       <c r="C285" t="n">
         <v>3</v>
       </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772242</t>
-        </is>
+      <c r="D285" s="1" t="n">
+        <v>44222.84692713043</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>be in line for</t>
+          <t>field</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>~할 가능성이 있다</t>
+          <t>(질문을) 처리하다</t>
         </is>
       </c>
       <c r="C286" t="n">
         <v>3</v>
       </c>
       <c r="D286" s="1" t="n">
-        <v>44222.11419089894</v>
+        <v>44222.11419089486</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>주도적임, 계획</t>
+          <t>구현</t>
         </is>
       </c>
       <c r="C287" t="n">
         <v>3</v>
       </c>
       <c r="D287" s="1" t="n">
-        <v>44224.95196826087</v>
+        <v>44222.84692713084</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>associate</t>
+          <t>phenomenal</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>연결지어 생각하다</t>
+          <t>경의적인, 경탄이 나오는</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -5702,91 +5692,91 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772251</t>
+          <t>2021-01-26 02:11:09.772289</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>shelving unit</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>상당히, 꽤</t>
         </is>
       </c>
       <c r="C289" t="n">
         <v>3</v>
       </c>
       <c r="D289" s="1" t="n">
-        <v>44222.11419089014</v>
+        <v>44222.11419089105</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>representative</t>
+          <t>mussels</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>대표(자), 대의원, 국회의원</t>
+          <t>홍합</t>
         </is>
       </c>
       <c r="C290" t="n">
         <v>3</v>
       </c>
       <c r="D290" s="1" t="n">
-        <v>44224.95196826141</v>
+        <v>44222.84692713389</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>have been left</t>
+          <t>qualify for ~</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>~인 채로 있다</t>
+          <t>~의 자격을 얻다</t>
         </is>
       </c>
       <c r="C291" t="n">
         <v>3</v>
       </c>
       <c r="D291" s="1" t="n">
-        <v>44224.95196826243</v>
+        <v>44222.1141908912</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>rugged</t>
+          <t>hands-on</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>울퉁불퉁한</t>
+          <t>실천의, 직접 해보는</t>
         </is>
       </c>
       <c r="C292" t="n">
         <v>3</v>
       </c>
       <c r="D292" s="1" t="n">
-        <v>44222.84692713236</v>
+        <v>44222.11419089559</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>confer</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>똑같은, 동일한</t>
+          <t>수여하다</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -5794,37 +5784,37 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772414</t>
+          <t>2021-01-26 02:11:09.771860</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>reenter</t>
+          <t>stiff</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>다시 입력하다</t>
+          <t>뻣뻣한</t>
         </is>
       </c>
       <c r="C294" t="n">
         <v>3</v>
       </c>
       <c r="D294" s="1" t="n">
-        <v>44224.95196826167</v>
+        <v>44222.84692713274</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>sweep -&gt; swept -&gt; swept</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>(빗자루로)쓸다, 청소하다</t>
+          <t>제공하다</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -5832,526 +5822,520 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772376</t>
+          <t>2021-01-26 02:11:09.772157</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>upholstery</t>
+          <t>right candidate</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>(가구 덮개 등의) 실내 장식(품)</t>
+          <t>적임자</t>
         </is>
       </c>
       <c r="C296" t="n">
         <v>3</v>
       </c>
       <c r="D296" s="1" t="n">
-        <v>44222.11419089334</v>
+        <v>44222.11419089267</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>reception</t>
+          <t>assumption</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>수신상태</t>
+          <t>가정</t>
         </is>
       </c>
       <c r="C297" t="n">
         <v>3</v>
       </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772106</t>
-        </is>
+      <c r="D297" s="1" t="n">
+        <v>44222.8469271335</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>take A out of B</t>
+          <t>production</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>B에서 A를 뽑다</t>
+          <t>생산, 생상량</t>
         </is>
       </c>
       <c r="C298" t="n">
         <v>3</v>
       </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772480</t>
-        </is>
+      <c r="D298" s="1" t="n">
+        <v>44222.84692713002</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>promotional offers</t>
+          <t>bio</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>판촉할인</t>
+          <t>약력</t>
         </is>
       </c>
       <c r="C299" t="n">
         <v>3</v>
       </c>
       <c r="D299" s="1" t="n">
-        <v>44222.84692713197</v>
+        <v>44224.15166368753</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>help in -ing</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>못마땅해 하다, 불만을 나타내다</t>
+          <t>~하는데 있어서 도움</t>
         </is>
       </c>
       <c r="C300" t="n">
         <v>3</v>
       </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771917</t>
-        </is>
+      <c r="D300" s="1" t="n">
+        <v>44222.84692713382</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>high-rise</t>
+          <t>language institute</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>고층 빌딩</t>
+          <t>어학원</t>
         </is>
       </c>
       <c r="C301" t="n">
         <v>3</v>
       </c>
       <c r="D301" s="1" t="n">
-        <v>44222.11419089326</v>
+        <v>44222.1141908951</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>set foot on</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>~에 발을 들여놓다</t>
+          <t>(길, 강 등이) 구불구불하다</t>
         </is>
       </c>
       <c r="C302" t="n">
         <v>3</v>
       </c>
       <c r="D302" s="1" t="n">
-        <v>44224.15166368801</v>
+        <v>44222.11419088961</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>proximity to</t>
+          <t>Candidate Referral Program</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>~에서 아주 가까움, 근접함</t>
+          <t>사내 추천제</t>
         </is>
       </c>
       <c r="C303" t="n">
         <v>3</v>
       </c>
       <c r="D303" s="1" t="n">
-        <v>44222.84692713313</v>
+        <v>44222.84692713138</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>display bin</t>
+          <t>start off</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>진열장</t>
+          <t>출발하다, 시작하다</t>
         </is>
       </c>
       <c r="C304" t="n">
         <v>3</v>
       </c>
       <c r="D304" s="1" t="n">
-        <v>44222.11419089544</v>
+        <v>44224.95196826196</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>pension</t>
+          <t>beneath</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>연금</t>
+          <t>~밑에</t>
         </is>
       </c>
       <c r="C305" t="n">
         <v>3</v>
       </c>
       <c r="D305" s="1" t="n">
-        <v>44222.8469271316</v>
+        <v>44222.11419088913</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>once a month</t>
+          <t>meet with approval</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>매달</t>
+          <t>동의[승인]를 얻다</t>
         </is>
       </c>
       <c r="C306" t="n">
         <v>3</v>
       </c>
       <c r="D306" s="1" t="n">
-        <v>44222.11419089159</v>
+        <v>44224.95196826134</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>compelling</t>
+          <t>knob</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>설득력 있는, 눈을 뗄 수 없는</t>
+          <t>손잡이, 스위치</t>
         </is>
       </c>
       <c r="C307" t="n">
         <v>3</v>
       </c>
-      <c r="D307" s="1" t="n">
-        <v>44224.15166368735</v>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772031</t>
+        </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>traditionally</t>
+          <t>botanist</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>예전부터, 통상적으로</t>
+          <t>식물학자</t>
         </is>
       </c>
       <c r="C308" t="n">
         <v>3</v>
       </c>
-      <c r="D308" s="1" t="n">
-        <v>44222.84692713359</v>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772134</t>
+        </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>matte</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>무광</t>
+          <t>결정하다</t>
         </is>
       </c>
       <c r="C309" t="n">
         <v>3</v>
       </c>
       <c r="D309" s="1" t="n">
-        <v>44222.84692713501</v>
+        <v>44224.95196826118</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>oar</t>
+          <t>manner</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>(물에서 쓰는) 노</t>
+          <t>방법, 방식, 예의 범절</t>
         </is>
       </c>
       <c r="C310" t="n">
         <v>3</v>
       </c>
       <c r="D310" s="1" t="n">
-        <v>44222.11419089075</v>
+        <v>44222.84692713305</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>pay roll</t>
+          <t>back-to-back</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>급여 대상자 명단, 급여 총액</t>
+          <t>연속적인, 잇따라</t>
         </is>
       </c>
       <c r="C311" t="n">
         <v>3</v>
       </c>
       <c r="D311" s="1" t="n">
-        <v>44222.11419089212</v>
+        <v>44224.95196826157</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>fasten</t>
+          <t>qualified</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>매다, 고정시키다</t>
+          <t>적격인</t>
         </is>
       </c>
       <c r="C312" t="n">
         <v>3</v>
       </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772357</t>
-        </is>
+      <c r="D312" s="1" t="n">
+        <v>44222.84692713166</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>intense</t>
+          <t>gazebo</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>강렬한, 거센</t>
+          <t>(정원의) 정자</t>
         </is>
       </c>
       <c r="C313" t="n">
         <v>3</v>
       </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772195</t>
-        </is>
+      <c r="D313" s="1" t="n">
+        <v>44222.11419089243</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>terrain</t>
+          <t>centerpiece</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>지형</t>
+          <t>중심부, 중앙 장식물</t>
         </is>
       </c>
       <c r="C314" t="n">
         <v>3</v>
       </c>
       <c r="D314" s="1" t="n">
-        <v>44222.84692713244</v>
+        <v>44222.11419089235</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>lodging</t>
+          <t>high-volume</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>임시 숙소</t>
+          <t>대량의</t>
         </is>
       </c>
       <c r="C315" t="n">
         <v>3</v>
       </c>
-      <c r="D315" s="1" t="n">
-        <v>44224.15166368707</v>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772339</t>
+        </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>step over</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>(장애물을) 넘다</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C316" t="n">
         <v>3</v>
       </c>
       <c r="D316" s="1" t="n">
-        <v>44222.11419089022</v>
+        <v>44222.84692713367</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>exquisite</t>
+          <t>aspiring</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>정교한, 세련된</t>
+          <t>장차 ~가 되려는</t>
         </is>
       </c>
       <c r="C317" t="n">
         <v>3</v>
       </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772280</t>
-        </is>
+      <c r="D317" s="1" t="n">
+        <v>44224.95196826126</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>glowing</t>
+          <t>recognize A as B</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>극찬하는</t>
+          <t>A를 B로 인식하다</t>
         </is>
       </c>
       <c r="C318" t="n">
         <v>3</v>
       </c>
-      <c r="D318" s="1" t="n">
-        <v>44222.84692713534</v>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771842</t>
+        </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>expertise</t>
+          <t>autehntic</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>전문성, 전문지식</t>
+          <t>진짜의</t>
         </is>
       </c>
       <c r="C319" t="n">
         <v>3</v>
       </c>
       <c r="D319" s="1" t="n">
-        <v>44222.84692712968</v>
+        <v>44222.11419089112</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>gift certificate</t>
+          <t>outline</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>상품권</t>
+          <t>설명하다</t>
         </is>
       </c>
       <c r="C320" t="n">
         <v>3</v>
       </c>
       <c r="D320" s="1" t="n">
-        <v>44222.84692713035</v>
+        <v>44222.11419089312</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>sail</t>
+          <t>accomplished</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>돛; 항해하다</t>
+          <t>완수하다, 성취하다, 해내다 (= achieve)</t>
         </is>
       </c>
       <c r="C321" t="n">
         <v>3</v>
       </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772442</t>
-        </is>
+      <c r="D321" s="1" t="n">
+        <v>44222.84692712988</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>professional reference</t>
+          <t>sports complex</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>직장 관련 추천인</t>
+          <t>종합 운동장</t>
         </is>
       </c>
       <c r="C322" t="n">
         <v>3</v>
       </c>
       <c r="D322" s="1" t="n">
-        <v>44222.84692713101</v>
+        <v>44222.11419089258</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>fill prescriptions</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>처방약을 조제하다</t>
+          <t>배치, 직업소개</t>
         </is>
       </c>
       <c r="C323" t="n">
         <v>3</v>
       </c>
       <c r="D323" s="1" t="n">
-        <v>44222.11419089463</v>
+        <v>44224.9519682619</v>
       </c>
     </row>
     <row r="324">
@@ -6377,670 +6361,676 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>fill prescriptions</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>배치, 직업소개</t>
+          <t>처방약을 조제하다</t>
         </is>
       </c>
       <c r="C325" t="n">
         <v>3</v>
       </c>
       <c r="D325" s="1" t="n">
-        <v>44224.9519682619</v>
+        <v>44222.11419089463</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>sports complex</t>
+          <t>professional reference</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>종합 운동장</t>
+          <t>직장 관련 추천인</t>
         </is>
       </c>
       <c r="C326" t="n">
         <v>3</v>
       </c>
       <c r="D326" s="1" t="n">
-        <v>44222.11419089258</v>
+        <v>44222.84692713101</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>accomplished</t>
+          <t>sail</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>완수하다, 성취하다, 해내다 (= achieve)</t>
+          <t>돛; 항해하다</t>
         </is>
       </c>
       <c r="C327" t="n">
         <v>3</v>
       </c>
-      <c r="D327" s="1" t="n">
-        <v>44222.84692712988</v>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772442</t>
+        </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>outline</t>
+          <t>gift certificate</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>설명하다</t>
+          <t>상품권</t>
         </is>
       </c>
       <c r="C328" t="n">
         <v>3</v>
       </c>
       <c r="D328" s="1" t="n">
-        <v>44222.11419089312</v>
+        <v>44222.84692713035</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>autehntic</t>
+          <t>expertise</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>진짜의</t>
+          <t>전문성, 전문지식</t>
         </is>
       </c>
       <c r="C329" t="n">
         <v>3</v>
       </c>
       <c r="D329" s="1" t="n">
-        <v>44222.11419089112</v>
+        <v>44222.84692712968</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>recognize A as B</t>
+          <t>technical drawing</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>A를 B로 인식하다</t>
+          <t>제도(= drafting)</t>
         </is>
       </c>
       <c r="C330" t="n">
         <v>3</v>
       </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771842</t>
-        </is>
+      <c r="D330" s="1" t="n">
+        <v>44222.1141908909</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>technical drawing</t>
+          <t>glowing</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>제도(= drafting)</t>
+          <t>극찬하는</t>
         </is>
       </c>
       <c r="C331" t="n">
         <v>3</v>
       </c>
       <c r="D331" s="1" t="n">
-        <v>44222.1141908909</v>
+        <v>44222.84692713534</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>aspiring</t>
+          <t>exquisite</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>장차 ~가 되려는</t>
+          <t>정교한, 세련된</t>
         </is>
       </c>
       <c r="C332" t="n">
         <v>3</v>
       </c>
-      <c r="D332" s="1" t="n">
-        <v>44224.95196826126</v>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772280</t>
+        </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>step over</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>(장애물을) 넘다</t>
         </is>
       </c>
       <c r="C333" t="n">
         <v>3</v>
       </c>
       <c r="D333" s="1" t="n">
-        <v>44222.84692713367</v>
+        <v>44222.11419089022</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>high-volume</t>
+          <t>runway</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>대량의</t>
+          <t>활주로</t>
         </is>
       </c>
       <c r="C334" t="n">
         <v>3</v>
       </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772339</t>
-        </is>
+      <c r="D334" s="1" t="n">
+        <v>44222.11419089044</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>runway</t>
+          <t>lodging</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>활주로</t>
+          <t>임시 숙소</t>
         </is>
       </c>
       <c r="C335" t="n">
         <v>3</v>
       </c>
       <c r="D335" s="1" t="n">
-        <v>44222.11419089044</v>
+        <v>44224.15166368707</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>centerpiece</t>
+          <t>terrain</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>중심부, 중앙 장식물</t>
+          <t>지형</t>
         </is>
       </c>
       <c r="C336" t="n">
         <v>3</v>
       </c>
       <c r="D336" s="1" t="n">
-        <v>44222.11419089235</v>
+        <v>44222.84692713244</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>gazebo</t>
+          <t>intense</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>(정원의) 정자</t>
+          <t>강렬한, 거센</t>
         </is>
       </c>
       <c r="C337" t="n">
         <v>3</v>
       </c>
-      <c r="D337" s="1" t="n">
-        <v>44222.11419089243</v>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772195</t>
+        </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>qualified</t>
+          <t>fasten</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>적격인</t>
+          <t>매다, 고정시키다</t>
         </is>
       </c>
       <c r="C338" t="n">
         <v>3</v>
       </c>
-      <c r="D338" s="1" t="n">
-        <v>44222.84692713166</v>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772357</t>
+        </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>back-to-back</t>
+          <t>pay roll</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>연속적인, 잇따라</t>
+          <t>급여 대상자 명단, 급여 총액</t>
         </is>
       </c>
       <c r="C339" t="n">
         <v>3</v>
       </c>
       <c r="D339" s="1" t="n">
-        <v>44224.95196826157</v>
+        <v>44222.11419089212</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>manner</t>
+          <t>oar</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>방법, 방식, 예의 범절</t>
+          <t>(물에서 쓰는) 노</t>
         </is>
       </c>
       <c r="C340" t="n">
         <v>3</v>
       </c>
       <c r="D340" s="1" t="n">
-        <v>44222.84692713305</v>
+        <v>44222.11419089075</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>matte</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>결정하다</t>
+          <t>무광</t>
         </is>
       </c>
       <c r="C341" t="n">
         <v>3</v>
       </c>
       <c r="D341" s="1" t="n">
-        <v>44224.95196826118</v>
+        <v>44222.84692713501</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>botanist</t>
+          <t>lead character</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>식물학자</t>
+          <t>주인공</t>
         </is>
       </c>
       <c r="C342" t="n">
         <v>3</v>
       </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772134</t>
-        </is>
+      <c r="D342" s="1" t="n">
+        <v>44222.11419089189</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>lead character</t>
+          <t>traditionally</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>주인공</t>
+          <t>예전부터, 통상적으로</t>
         </is>
       </c>
       <c r="C343" t="n">
         <v>3</v>
       </c>
       <c r="D343" s="1" t="n">
-        <v>44222.11419089189</v>
+        <v>44222.84692713359</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>knob</t>
+          <t>compelling</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>손잡이, 스위치</t>
+          <t>설득력 있는, 눈을 뗄 수 없는</t>
         </is>
       </c>
       <c r="C344" t="n">
         <v>3</v>
       </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772031</t>
-        </is>
+      <c r="D344" s="1" t="n">
+        <v>44224.15166368735</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>meet with approval</t>
+          <t>once a month</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>동의[승인]를 얻다</t>
+          <t>매달</t>
         </is>
       </c>
       <c r="C345" t="n">
         <v>3</v>
       </c>
       <c r="D345" s="1" t="n">
-        <v>44224.95196826134</v>
+        <v>44222.11419089159</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>beneath</t>
+          <t>prop</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>~밑에</t>
+          <t>받치다</t>
         </is>
       </c>
       <c r="C346" t="n">
         <v>3</v>
       </c>
       <c r="D346" s="1" t="n">
-        <v>44222.11419088913</v>
+        <v>44222.11419088928</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>prop</t>
+          <t>pension</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>받치다</t>
+          <t>연금</t>
         </is>
       </c>
       <c r="C347" t="n">
         <v>3</v>
       </c>
       <c r="D347" s="1" t="n">
-        <v>44222.11419088928</v>
+        <v>44222.8469271316</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>start off</t>
+          <t>display bin</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>출발하다, 시작하다</t>
+          <t>진열장</t>
         </is>
       </c>
       <c r="C348" t="n">
         <v>3</v>
       </c>
       <c r="D348" s="1" t="n">
-        <v>44224.95196826196</v>
+        <v>44222.11419089544</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Candidate Referral Program</t>
+          <t>proximity to</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>사내 추천제</t>
+          <t>~에서 아주 가까움, 근접함</t>
         </is>
       </c>
       <c r="C349" t="n">
         <v>3</v>
       </c>
       <c r="D349" s="1" t="n">
-        <v>44222.84692713138</v>
+        <v>44222.84692713313</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>much-needed</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>(길, 강 등이) 구불구불하다</t>
+          <t>꼭 필요한</t>
         </is>
       </c>
       <c r="C350" t="n">
         <v>3</v>
       </c>
       <c r="D350" s="1" t="n">
-        <v>44222.11419088961</v>
+        <v>44222.11419089566</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>much-needed</t>
+          <t>set foot on</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>꼭 필요한</t>
+          <t>~에 발을 들여놓다</t>
         </is>
       </c>
       <c r="C351" t="n">
         <v>3</v>
       </c>
       <c r="D351" s="1" t="n">
-        <v>44222.11419089566</v>
+        <v>44224.15166368801</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>language institute</t>
+          <t>high-rise</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>어학원</t>
+          <t>고층 빌딩</t>
         </is>
       </c>
       <c r="C352" t="n">
         <v>3</v>
       </c>
       <c r="D352" s="1" t="n">
-        <v>44222.1141908951</v>
+        <v>44222.11419089326</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>help in -ing</t>
+          <t>disapprove</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>~하는데 있어서 도움</t>
+          <t>못마땅해 하다, 불만을 나타내다</t>
         </is>
       </c>
       <c r="C353" t="n">
         <v>3</v>
       </c>
-      <c r="D353" s="1" t="n">
-        <v>44222.84692713382</v>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771917</t>
+        </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>bio</t>
+          <t>promotional offers</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>약력</t>
+          <t>판촉할인</t>
         </is>
       </c>
       <c r="C354" t="n">
         <v>3</v>
       </c>
       <c r="D354" s="1" t="n">
-        <v>44224.15166368753</v>
+        <v>44222.84692713197</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>take A out of B</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>생산, 생상량</t>
+          <t>B에서 A를 뽑다</t>
         </is>
       </c>
       <c r="C355" t="n">
         <v>3</v>
       </c>
-      <c r="D355" s="1" t="n">
-        <v>44222.84692713002</v>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772480</t>
+        </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>assumption</t>
+          <t>reception</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>가정</t>
+          <t>수신상태</t>
         </is>
       </c>
       <c r="C356" t="n">
         <v>3</v>
       </c>
-      <c r="D356" s="1" t="n">
-        <v>44222.8469271335</v>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772106</t>
+        </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>right candidate</t>
+          <t>upholstery</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>적임자</t>
+          <t>(가구 덮개 등의) 실내 장식(품)</t>
         </is>
       </c>
       <c r="C357" t="n">
         <v>3</v>
       </c>
       <c r="D357" s="1" t="n">
-        <v>44222.11419089267</v>
+        <v>44222.11419089334</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>simply</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>제공하다</t>
+          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
         </is>
       </c>
       <c r="C358" t="n">
         <v>3</v>
       </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772157</t>
-        </is>
+      <c r="D358" s="1" t="n">
+        <v>44222.11419089295</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>simply</t>
+          <t>sweep -&gt; swept -&gt; swept</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
+          <t>(빗자루로)쓸다, 청소하다</t>
         </is>
       </c>
       <c r="C359" t="n">
         <v>3</v>
       </c>
-      <c r="D359" s="1" t="n">
-        <v>44222.11419089295</v>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772376</t>
+        </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>stiff</t>
+          <t>reenter</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>뻣뻣한</t>
+          <t>다시 입력하다</t>
         </is>
       </c>
       <c r="C360" t="n">
         <v>3</v>
       </c>
       <c r="D360" s="1" t="n">
-        <v>44222.84692713274</v>
+        <v>44224.95196826167</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>confer</t>
+          <t>identical</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>수여하다</t>
+          <t>똑같은, 동일한</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -7048,127 +7038,127 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771860</t>
+          <t>2021-01-26 02:11:09.772414</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>hands-on</t>
+          <t>authenticity</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>실천의, 직접 해보는</t>
+          <t>진짜임</t>
         </is>
       </c>
       <c r="C362" t="n">
         <v>3</v>
       </c>
       <c r="D362" s="1" t="n">
-        <v>44222.11419089559</v>
+        <v>44224.15166368874</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>authenticity</t>
+          <t>rugged</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>진짜임</t>
+          <t>울퉁불퉁한</t>
         </is>
       </c>
       <c r="C363" t="n">
         <v>3</v>
       </c>
       <c r="D363" s="1" t="n">
-        <v>44224.15166368874</v>
+        <v>44222.84692713236</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>qualify for ~</t>
+          <t>have been left</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>~의 자격을 얻다</t>
+          <t>~인 채로 있다</t>
         </is>
       </c>
       <c r="C364" t="n">
         <v>3</v>
       </c>
       <c r="D364" s="1" t="n">
-        <v>44222.1141908912</v>
+        <v>44224.95196826243</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>mussels</t>
+          <t>representative</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>홍합</t>
+          <t>대표(자), 대의원, 국회의원</t>
         </is>
       </c>
       <c r="C365" t="n">
         <v>3</v>
       </c>
       <c r="D365" s="1" t="n">
-        <v>44222.84692713389</v>
+        <v>44224.95196826141</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>by contrast</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>상당히, 꽤</t>
+          <t>그와 대조적으로</t>
         </is>
       </c>
       <c r="C366" t="n">
         <v>3</v>
       </c>
       <c r="D366" s="1" t="n">
-        <v>44222.11419089105</v>
+        <v>44224.8528974481</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>by contrast</t>
+          <t>shelving unit</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>그와 대조적으로</t>
+          <t>선반</t>
         </is>
       </c>
       <c r="C367" t="n">
         <v>3</v>
       </c>
       <c r="D367" s="1" t="n">
-        <v>44224.8528974481</v>
+        <v>44222.11419089014</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>phenomenal</t>
+          <t>associate</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>경의적인, 경탄이 나오는</t>
+          <t>연결지어 생각하다</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -7176,241 +7166,243 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772289</t>
+          <t>2021-01-26 02:11:09.772251</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>initiative</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>구현</t>
+          <t>주도적임, 계획</t>
         </is>
       </c>
       <c r="C369" t="n">
         <v>3</v>
       </c>
       <c r="D369" s="1" t="n">
-        <v>44222.84692713084</v>
+        <v>44224.95196826087</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>be in line for</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>(질문을) 처리하다</t>
+          <t>~할 가능성이 있다</t>
         </is>
       </c>
       <c r="C370" t="n">
         <v>3</v>
       </c>
       <c r="D370" s="1" t="n">
-        <v>44222.11419089486</v>
+        <v>44222.11419089894</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>prompt</t>
+          <t>justify</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>(컴퓨터 시스템 상에서) ~하라고( 메시지로) 지시하다, 촉구하다</t>
+          <t>증명하다, 입증하다</t>
         </is>
       </c>
       <c r="C371" t="n">
         <v>3</v>
       </c>
-      <c r="D371" s="1" t="n">
-        <v>44222.84692713043</v>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772242</t>
+        </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>one another</t>
+          <t>operating efficiency</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>서로</t>
+          <t>작업 성능</t>
         </is>
       </c>
       <c r="C372" t="n">
         <v>3</v>
       </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772329</t>
-        </is>
+      <c r="D372" s="1" t="n">
+        <v>44224.95196826111</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ceiling fan</t>
+          <t>prohibit A from -ing</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>천장 선풍기</t>
+          <t>A가 ~하는 것을 금하다</t>
         </is>
       </c>
       <c r="C373" t="n">
         <v>3</v>
       </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772461</t>
-        </is>
+      <c r="D373" s="1" t="n">
+        <v>44224.1516636879</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>be credited with</t>
+          <t>hearty</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>~에 공로가 있다</t>
+          <t>(음식이) 푸짐하고 만족스러운</t>
         </is>
       </c>
       <c r="C374" t="n">
         <v>3</v>
       </c>
       <c r="D374" s="1" t="n">
-        <v>44224.95196826007</v>
+        <v>44222.84692713589</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>hearty</t>
+          <t>get in</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>(음식이) 푸짐하고 만족스러운</t>
+          <t>~에 들어가다, 도착하다</t>
         </is>
       </c>
       <c r="C375" t="n">
         <v>3</v>
       </c>
-      <c r="D375" s="1" t="n">
-        <v>44222.84692713589</v>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771965</t>
+        </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>valued at</t>
+          <t>courteous</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>가격이 ~에 상당하는</t>
+          <t>정중한</t>
         </is>
       </c>
       <c r="C376" t="n">
         <v>3</v>
       </c>
-      <c r="D376" s="1" t="n">
-        <v>44224.95196826031</v>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772125</t>
+        </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>fiscal year</t>
+          <t>saving</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>회계 연도</t>
+          <t>감액</t>
         </is>
       </c>
       <c r="C377" t="n">
         <v>3</v>
       </c>
       <c r="D377" s="1" t="n">
-        <v>44222.11419089911</v>
+        <v>44224.85289744897</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>crepe</t>
+          <t>put on hold</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>얇은 팬케이크</t>
+          <t>보류하다</t>
         </is>
       </c>
       <c r="C378" t="n">
         <v>3</v>
       </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772147</t>
-        </is>
+      <c r="D378" s="1" t="n">
+        <v>44224.8528974488</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>put on hold</t>
+          <t>excerpt</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>보류하다</t>
+          <t>발췌, 인용</t>
         </is>
       </c>
       <c r="C379" t="n">
         <v>3</v>
       </c>
       <c r="D379" s="1" t="n">
-        <v>44224.8528974488</v>
+        <v>44222.84692713058</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>plot</t>
+          <t>robe</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>(소설, 영화 등의) 구성, 줄거리</t>
+          <t>가운</t>
         </is>
       </c>
       <c r="C380" t="n">
         <v>3</v>
       </c>
-      <c r="D380" s="1" t="n">
-        <v>44222.11419089288</v>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772270</t>
+        </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>pole</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>조각조각으로 찢다, 끝내버리다</t>
+          <t>기둥</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -7418,480 +7410,488 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772021</t>
+          <t>2021-01-26 02:11:09.772404</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>hold one's own</t>
+          <t>sleek</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
+          <t>(모양이) 매끈한</t>
         </is>
       </c>
       <c r="C382" t="n">
         <v>3</v>
       </c>
       <c r="D382" s="1" t="n">
-        <v>44224.15166368688</v>
+        <v>44224.8528974482</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>sleek</t>
+          <t>determine to do</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>(모양이) 매끈한</t>
+          <t>~하겠다고 결심하다</t>
         </is>
       </c>
       <c r="C383" t="n">
         <v>3</v>
       </c>
-      <c r="D383" s="1" t="n">
-        <v>44224.8528974482</v>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771889</t>
+        </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>prop(property)</t>
+          <t>inform A of B</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>소도구</t>
+          <t>A에게 B에 대해 알리다</t>
         </is>
       </c>
       <c r="C384" t="n">
         <v>3</v>
       </c>
-      <c r="D384" s="1" t="n">
-        <v>44222.1141908952</v>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772002</t>
+        </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>dome</t>
+          <t>somehow</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>둥근 지붕을 달다; 둥근 지붕</t>
+          <t>왜 그런지</t>
         </is>
       </c>
       <c r="C385" t="n">
         <v>3</v>
       </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772299</t>
-        </is>
+      <c r="D385" s="1" t="n">
+        <v>44224.15166368764</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>honorarium</t>
+          <t>candidacy</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>사례비</t>
+          <t>입후보, 출마</t>
         </is>
       </c>
       <c r="C386" t="n">
         <v>3</v>
       </c>
       <c r="D386" s="1" t="n">
-        <v>44224.15166368717</v>
+        <v>44222.1141908944</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ramp</t>
+          <t>go out of business</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>경사로</t>
+          <t>파산하다, 폐업하다</t>
         </is>
       </c>
       <c r="C387" t="n">
         <v>3</v>
       </c>
       <c r="D387" s="1" t="n">
-        <v>44224.95196826259</v>
+        <v>44224.95196825996</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>adjacent to</t>
+          <t>outfitter</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>~에 인접한</t>
+          <t>야외 활동 장비점</t>
         </is>
       </c>
       <c r="C388" t="n">
         <v>3</v>
       </c>
       <c r="D388" s="1" t="n">
-        <v>44224.95196826039</v>
+        <v>44222.84692713182</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>composition</t>
+          <t>implication</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>구성(요소)</t>
+          <t>함축, 함의</t>
         </is>
       </c>
       <c r="C389" t="n">
         <v>3</v>
       </c>
-      <c r="D389" s="1" t="n">
-        <v>44226.28725668104</v>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771926</t>
+        </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>frustration</t>
+          <t>make a name</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>좌절감, 불만</t>
+          <t>명성을 얻다</t>
         </is>
       </c>
       <c r="C390" t="n">
         <v>3</v>
       </c>
       <c r="D390" s="1" t="n">
-        <v>44224.85289744847</v>
+        <v>44224.85289744829</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>make a name</t>
+          <t>commentary</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>명성을 얻다</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C391" t="n">
         <v>3</v>
       </c>
       <c r="D391" s="1" t="n">
-        <v>44224.85289744829</v>
+        <v>44226.28725668451</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>claim</t>
+          <t>sew</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>~을 주장하다</t>
+          <t>바느질하다, 꿰매다</t>
         </is>
       </c>
       <c r="C392" t="n">
         <v>3</v>
       </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771907</t>
-        </is>
+      <c r="D392" s="1" t="n">
+        <v>44222.11419089357</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>as of + 시점</t>
+          <t>outpace</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>~부로</t>
+          <t>~을 능가하다</t>
         </is>
       </c>
       <c r="C393" t="n">
         <v>3</v>
       </c>
-      <c r="D393" s="1" t="n">
-        <v>44222.11419089551</v>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771813</t>
+        </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>violator</t>
+          <t>where as</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>위반자</t>
+          <t>~이지만</t>
         </is>
       </c>
       <c r="C394" t="n">
         <v>3</v>
       </c>
       <c r="D394" s="1" t="n">
-        <v>44222.11419089128</v>
+        <v>44222.84692713051</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>where as</t>
+          <t>dairy farmer</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>~이지만</t>
+          <t>낙농업자</t>
         </is>
       </c>
       <c r="C395" t="n">
         <v>3</v>
       </c>
       <c r="D395" s="1" t="n">
-        <v>44222.84692713051</v>
+        <v>44226.2752190368</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>watercraft</t>
+          <t>directory</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>배, 배 타는 기술</t>
+          <t>안내판, 명부</t>
         </is>
       </c>
       <c r="C396" t="n">
         <v>3</v>
       </c>
       <c r="D396" s="1" t="n">
-        <v>44224.1516636881</v>
+        <v>44222.84692713129</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>obstruct</t>
+          <t>troupe</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>막다</t>
+          <t>공연단, 극단</t>
         </is>
       </c>
       <c r="C397" t="n">
         <v>3</v>
       </c>
       <c r="D397" s="1" t="n">
-        <v>44222.84692713019</v>
+        <v>44222.11419089528</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>be lined up</t>
+          <t>as a token of</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>정렬되어 있다</t>
+          <t>~의 표시로서, ~의 증거로</t>
         </is>
       </c>
       <c r="C398" t="n">
         <v>3</v>
       </c>
       <c r="D398" s="1" t="n">
-        <v>44224.95196826228</v>
+        <v>44224.9519682622</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>as a token of</t>
+          <t>openness</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>~의 표시로서, ~의 증거로</t>
+          <t>솔직함, 개방성</t>
         </is>
       </c>
       <c r="C399" t="n">
         <v>3</v>
       </c>
       <c r="D399" s="1" t="n">
-        <v>44224.9519682622</v>
+        <v>44222.1141908947</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>call in</t>
+          <t>eatery</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>~를 불러들이다</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C400" t="n">
         <v>3</v>
       </c>
       <c r="D400" s="1" t="n">
-        <v>44222.11419089902</v>
+        <v>44222.84692713509</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>at the latest</t>
+          <t>deliveration</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>늦어도</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C401" t="n">
         <v>3</v>
       </c>
       <c r="D401" s="1" t="n">
-        <v>44224.15166368772</v>
+        <v>44222.84692713342</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>rake</t>
+          <t>autobiographical</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>갈퀴</t>
+          <t>자전적인</t>
         </is>
       </c>
       <c r="C402" t="n">
         <v>3</v>
       </c>
       <c r="D402" s="1" t="n">
-        <v>44222.11419089029</v>
+        <v>44222.11419089197</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>flier</t>
+          <t>regardless of</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>광고 전단(= flyer)</t>
+          <t>~와 상관없이</t>
         </is>
       </c>
       <c r="C403" t="n">
         <v>3</v>
       </c>
-      <c r="D403" s="1" t="n">
-        <v>44224.95196826182</v>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772116</t>
+        </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>sloppy</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>(목표를 위한 새로운) 계획</t>
+          <t>날림의, 엉성한</t>
         </is>
       </c>
       <c r="C404" t="n">
         <v>3</v>
       </c>
       <c r="D404" s="1" t="n">
-        <v>44222.11419089396</v>
+        <v>44222.11419089342</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>input</t>
+          <t>professionalism</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>조언</t>
+          <t xml:space="preserve">전문성 </t>
         </is>
       </c>
       <c r="C405" t="n">
         <v>3</v>
       </c>
       <c r="D405" s="1" t="n">
-        <v>44222.8469271358</v>
+        <v>44222.84692713115</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>run late</t>
+          <t>consumer electronics industry</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>늦어지다</t>
+          <t>가전 사업</t>
         </is>
       </c>
       <c r="C406" t="n">
         <v>3</v>
       </c>
       <c r="D406" s="1" t="n">
-        <v>44224.95196826274</v>
+        <v>44222.11419089379</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>consumer electronics industry</t>
+          <t>excuse</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>가전 사업</t>
+          <t>~을 용서하다, ~에 대해 변명하다</t>
         </is>
       </c>
       <c r="C407" t="n">
         <v>3</v>
       </c>
-      <c r="D407" s="1" t="n">
-        <v>44222.11419089379</v>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772040</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/voca.xlsx
+++ b/voca.xlsx
@@ -427,55 +427,55 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>discretion</t>
+          <t>on the premise</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>재량(권), 신중함</t>
+          <t>점포 내에서</t>
         </is>
       </c>
       <c r="C1" t="n">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>44226.28725668115</v>
+        <v>44232.18014923225</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>discrepancy</t>
+          <t>discretion</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>불일치, 차이</t>
+          <t>재량(권), 신중함</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>44226.28725668133</v>
+        <v>44226.28725668115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>on the premise</t>
+          <t>discrepancy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>점포 내에서</t>
+          <t>불일치, 차이</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>44232.18014923225</v>
+        <v>44226.28725668133</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>44232.18014923276</v>
@@ -499,219 +499,219 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>be propped on[against]</t>
+          <t>offshore</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~에 기대어 있다</t>
+          <t>연안에</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>44224.95196826236</v>
+        <v>44224.15166368827</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>irrigation</t>
+          <t>allowance</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>관개, 물을 끌어들임</t>
+          <t>수당</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>44232.18014923284</v>
+        <v>44226.28725668143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>fabricate</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>탄력, 가속도, 여세</t>
+          <t>조립하다, 제작하다</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>44226.27521903367</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771804</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>booklet</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>소책자</t>
+          <t>변환</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>44226.27521903467</v>
+        <v>44226.27521903575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pride oneself on</t>
+          <t>relieve A of B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~에 대해 자랑하다</t>
+          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>44222.84692713107</v>
+        <v>44222.11419089597</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bet</t>
+          <t>be sure to</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>선택한 것[사람], 방책</t>
+          <t>반드시 ~하다</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>44222.84692713251</v>
+        <v>44226.2752190339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>autograph</t>
+          <t>board of trustees</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>사인</t>
+          <t>이사회</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44222.11419089082</v>
+        <v>44226.2872566842</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>harvest</t>
+          <t>publicize</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>수확(량)</t>
+          <t>공표하다, 알리다</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>44226.27521903561</v>
+        <v>44224.95196826175</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>serve as</t>
+          <t>pass out</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~의 역할을 하다</t>
+          <t>건네다</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>44222.8469271309</v>
+        <v>44226.27521903459</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>landscape</t>
+          <t>as to</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>조경을 하다</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>44226.27521903383</v>
+        <v>44222.11419089403</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>wilderness</t>
+          <t>to this end</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>황야</t>
+          <t>이를 위해, 이런 목적으로</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772087</t>
-        </is>
+      <c r="D15" s="1" t="n">
+        <v>44222.11419089136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>estimate</t>
+          <t>tender</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>견적</t>
+          <t>(고기가) 연한</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>44226.27521903508</v>
+        <v>44222.84692713404</v>
       </c>
     </row>
     <row r="17">
@@ -737,221 +737,219 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>cost A B</t>
+          <t>be to blame</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A에게 B의 비용이 들다</t>
+          <t>(잘못의) 책임이 있다</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771851</t>
-        </is>
+      <c r="D18" s="1" t="n">
+        <v>44224.85289744868</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>indication</t>
+          <t>informal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>암시</t>
+          <t>비공식의</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>44226.2752190353</v>
+        <v>44232.18014923258</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>high court</t>
+          <t>help out</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>고등 법원</t>
+          <t>도와주다</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771936</t>
-        </is>
+      <c r="D20" s="1" t="n">
+        <v>44226.28725668362</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~에 헌신하다, 전념하다</t>
+          <t>유효한</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>44224.95196826205</v>
+        <v>44222.8469271319</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>allege</t>
+          <t>acidic</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(확실한 증거 없이) 주장하다</t>
+          <t>매우 신</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>44222.11419089303</v>
+        <v>44222.84692713419</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>interoffice</t>
+          <t>deliberation</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>회사 내의, 각 부서간의</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>44222.8469271298</v>
+        <v>44222.11419089273</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>thoroughly</t>
+          <t>vary</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>철저히</t>
+          <t>(서로) 다르다, 다양하다</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>44222.84692713282</v>
+        <v>44222.84692713229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>admission</t>
+          <t>put up</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>입장, 인정</t>
+          <t>~을 붙이다, 세우다</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>44222.84692713066</v>
+        <v>44222.11419088999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>deliberation</t>
+          <t>momentum</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>탄력, 가속도, 여세</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>44222.11419089273</v>
+        <v>44226.27521903367</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>put up</t>
+          <t>in a timely manner</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>~을 붙이다, 세우다</t>
+          <t>시기에 맞게</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>44222.11419088999</v>
+        <v>44226.28725668437</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>expenditure</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~에 헌신하다[전념하다]</t>
+          <t>지출</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>44226.28725668327</v>
+        <v>44222.84692713573</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>reconfigure</t>
+          <t>mow</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(시스템, 기기 등을) 재배열[재설정]</t>
+          <t>잔디를 깎다</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>4</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <v>44224.85289744933</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772470</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -975,527 +973,529 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>be appointed + 직위</t>
+          <t>concerning</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~로 임명되다</t>
+          <t>~에 관한</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>44226.28725668301</v>
+        <v>44222.11419089493</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>pass out</t>
+          <t>reversal</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>건네다</t>
+          <t>전환, 역전</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>44226.27521903459</v>
+        <v>44226.28725668282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>scholarship</t>
+          <t>given</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>장학금</t>
+          <t>~을 고려할 때</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>44226.28725668429</v>
+        <v>44224.95196826023</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>pier</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>(봉지에 넣어) 포장하다</t>
+          <t>부두</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
-      <c r="D34" s="1" t="n">
-        <v>44222.11419089067</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772395</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>relieve A of B</t>
+          <t>cost A B</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
+          <t>A에게 B의 비용이 들다</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>4</v>
       </c>
-      <c r="D35" s="1" t="n">
-        <v>44222.11419089597</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771851</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>assembly</t>
+          <t>proportional</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>의회</t>
+          <t>(~에) 비례하는</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>44226.27521903737</v>
+        <v>44232.18014923308</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>credential</t>
+          <t>insulated</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>자격(증), 보증서, 자격 인증(서)</t>
+          <t>절연된</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>44222.11419089478</v>
+        <v>44222.1141908941</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Town council</t>
+          <t xml:space="preserve">in exchange for </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>시의회</t>
+          <t>~의 대가로</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>44224.95196826015</v>
+        <v>44226.27521903688</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>earn</t>
+          <t>quality assurance</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~에게 …을 받게 할 자격을 주다</t>
+          <t>품질 보증</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>44226.27521903714</v>
+        <v>44222.11419089433</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>roll-out</t>
+          <t>bet</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>(신제품의) 첫 공개</t>
+          <t>선택한 것[사람], 방책</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>44224.85289744857</v>
+        <v>44222.84692713251</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>quality assurance</t>
+          <t>faculty</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>품질 보증</t>
+          <t>교수진</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>44222.11419089433</v>
+        <v>44226.27521903722</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>be to blame</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>(잘못의) 책임이 있다</t>
+          <t>~에 헌신하다, 전념하다</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>44224.85289744868</v>
+        <v>44224.95196826205</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>alumi</t>
+          <t>tuition</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>졸업생들</t>
+          <t>학자금</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>44226.27521903729</v>
+        <v>44222.84692713174</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>in exchange for</t>
+          <t>credential</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~을 대신해서</t>
+          <t>자격(증), 보증서, 자격 인증(서)</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>44222.84692713327</v>
+        <v>44222.11419089478</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>outlook</t>
+          <t>account</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>관점, 전망</t>
+          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>44226.27521903759</v>
+        <v>44226.27521903359</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>look over</t>
+          <t>executive committee</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>~을 살펴보다</t>
+          <t>집행 위원회</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>44226.27521903375</v>
+        <v>44226.27521903584</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>pier</t>
+          <t>beam</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>부두</t>
+          <t>들보, 보</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>4</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772395</t>
-        </is>
+      <c r="D47" s="1" t="n">
+        <v>44224.85289744888</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>orchard</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>대우, 처치</t>
+          <t>과수원</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>44226.27521903482</v>
+        <v>44222.11419089173</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sip</t>
+          <t>color scheme</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>마시다</t>
+          <t>색체 조합</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>44222.1141908906</v>
+        <v>44224.15166368855</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>interfere with</t>
+          <t>overlook</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>~을 방해하다</t>
+          <t>간과; ~을 간과하다, 내려보다</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>44224.85289744781</v>
+        <v>44222.84692713336</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>considerable</t>
+          <t>nevertheless</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>그럼에도 불구하고</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>4</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>44232.1801492321</v>
+        <v>44222.11419089097</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>overlook</t>
+          <t>jostle for</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>간과; ~을 간과하다, 내려보다</t>
+          <t>~을 위하여 다투다, 겨루다</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>4</v>
       </c>
-      <c r="D52" s="1" t="n">
-        <v>44222.84692713336</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772185</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>nevertheless</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>그럼에도 불구하고</t>
+          <t>비판적인</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>44222.11419089097</v>
+        <v>44226.2872566846</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>jostle for</t>
+          <t>in a single direction</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>~을 위하여 다투다, 겨루다</t>
+          <t>한 방향으로</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772185</t>
-        </is>
+      <c r="D54" s="1" t="n">
+        <v>44224.95196826266</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>landscape</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>비판적인</t>
+          <t>조경을 하다</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>44226.2872566846</v>
+        <v>44226.27521903383</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>in a single direction</t>
+          <t>paycheck</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>한 방향으로</t>
+          <t>급여(수표)</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>44224.95196826266</v>
+        <v>44222.84692713146</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>in a timely manner</t>
+          <t>implore</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>시기에 맞게</t>
+          <t>애원하다, 간청하다</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>44226.28725668437</v>
+        <v>44222.11419089589</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>paycheck</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>급여(수표)</t>
+          <t>직업</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>44222.84692713146</v>
+        <v>44226.27521903744</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>be busy -ing</t>
+          <t>official</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>~하느라 바쁘다</t>
+          <t>간부, 공무원</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>4</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>44226.27521903316</v>
+        <v>44222.11419089281</v>
       </c>
     </row>
     <row r="60">
@@ -1519,355 +1519,351 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mow</t>
+          <t>verification</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>잔디를 깎다</t>
+          <t>확인, 조회</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>4</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772470</t>
-        </is>
+      <c r="D61" s="1" t="n">
+        <v>44224.15166368864</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>as to</t>
+          <t>booklet</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>소책자</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>44222.11419089403</v>
+        <v>44226.27521903467</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>feasibility</t>
+          <t>associate's degree</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>실행 가능성, 실현 가능성</t>
+          <t>준학사 학위</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>4</v>
       </c>
-      <c r="D63" s="1" t="n">
-        <v>44226.28725668096</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772097</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>commune</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>직업</t>
+          <t>친하게 사귀다</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>4</v>
       </c>
-      <c r="D64" s="1" t="n">
-        <v>44226.27521903744</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772068</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>consider A (as [to be]) B</t>
+          <t>compliment</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A를 B로 여기다, 간주하다</t>
+          <t>칭찬하다</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>4</v>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771898</t>
-        </is>
+      <c r="D65" s="1" t="n">
+        <v>44224.85289744801</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>compete</t>
+          <t>reserve the right to + 동사원형</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>경쟁하다</t>
+          <t>~할 권한을 보유하다</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>44232.18014923241</v>
+        <v>44224.85289744757</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>sip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>결심, 결정, 결단력</t>
+          <t>마시다</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>44226.28725668151</v>
+        <v>44222.1141908906</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>school term</t>
+          <t>extend</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>학기</t>
+          <t>정도, 범위</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>44226.28725668318</v>
+        <v>44226.28725668084</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>research into</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>~을 조사하다</t>
+          <t>관개, 물을 끌어들임</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771870</t>
-        </is>
+      <c r="D69" s="1" t="n">
+        <v>44232.18014923284</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>unfavorable</t>
+          <t>testimonial</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>불리한</t>
+          <t>추천의 글</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>44224.15166368725</v>
+        <v>44222.11419089424</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>admission</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~에 관한</t>
+          <t>입장, 인정</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>4</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>44222.11419089493</v>
+        <v>44222.84692713066</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>lay</t>
+          <t>look over</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>놓다, 두다</t>
+          <t>~을 살펴보다</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>4</v>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772433</t>
-        </is>
+      <c r="D72" s="1" t="n">
+        <v>44226.27521903375</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>criticism</t>
+          <t>as much as possible</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>비판, 비평</t>
+          <t>가능한 많이</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>4</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>44226.28725668482</v>
+        <v>44226.27521903324</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>initiation</t>
+          <t>fool</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>창시, 입문</t>
+          <t>속이다</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>4</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>44224.95196826095</v>
+        <v>44222.84692713268</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>autograph</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>취재하다, 기사를 담당하다</t>
+          <t>사인</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>44226.28725668292</v>
+        <v>44222.11419089082</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>commune</t>
+          <t>will pay a visit</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>친하게 사귀다</t>
+          <t>방문할 것이다.</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>4</v>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772068</t>
-        </is>
+      <c r="D76" s="1" t="n">
+        <v>44222.11419089448</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>liability</t>
+          <t>en masse</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>책임</t>
+          <t>집단으로</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771945</t>
-        </is>
+      <c r="D77" s="1" t="n">
+        <v>44224.85289744838</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sealed</t>
+          <t>mural</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">마감칠된, 밀폐된 </t>
+          <t>벽화</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
-      <c r="D78" s="1" t="n">
-        <v>44222.11419089418</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772204</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>tender</t>
+          <t>lie</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>(고기가) 연한</t>
+          <t>놓여 있다</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>4</v>
       </c>
-      <c r="D79" s="1" t="n">
-        <v>44222.84692713404</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772423</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -1893,19 +1889,19 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>make landfall</t>
+          <t>crate</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>착륙하다</t>
+          <t>상자</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>4</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>44224.15166368837</v>
+        <v>44222.11419088969</v>
       </c>
     </row>
     <row r="82">
@@ -1929,235 +1925,237 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>board of trustees</t>
+          <t>be propped on[against]</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>이사회</t>
+          <t>~에 기대어 있다</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>4</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>44226.2872566842</v>
+        <v>44224.95196826236</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>faculty</t>
+          <t>move in</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>교수진</t>
+          <t>이사 들어오다</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>4</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>44226.27521903722</v>
+        <v>44226.27521903287</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>assigned to</t>
+          <t>in exchange for</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>~로 발령받다</t>
+          <t>~을 대신해서</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>44226.27521903752</v>
+        <v>44222.84692713327</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>podium</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>연단</t>
+          <t>중역</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>44222.11419089007</v>
+        <v>44226.28725668391</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>en masse</t>
+          <t>you get what you pay for</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>집단으로</t>
+          <t>싼게 비지떡</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>44224.85289744838</v>
+        <v>44222.1141908932</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tuition</t>
+          <t>collect payment</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>학자금</t>
+          <t>대금을 회수하다</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>4</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>44222.84692713174</v>
+        <v>44222.11419089455</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>bird-nesting</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>유효한</t>
+          <t>(취미로) 새 둥지를 찾아다니는</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>44222.8469271319</v>
+        <v>44224.15166368884</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>be sure to</t>
+          <t xml:space="preserve">sizable </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>반드시 ~하다</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
-      <c r="D90" s="1" t="n">
-        <v>44226.2752190339</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772232</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>take over</t>
+          <t>assistant manager</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>인수하다, 이어받다</t>
+          <t>대리</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>4</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>44226.287256684</v>
+        <v>44222.84692713011</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>as much as possible</t>
+          <t>pride oneself on</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>가능한 많이</t>
+          <t>~에 대해 자랑하다</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>4</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>44226.27521903324</v>
+        <v>44222.84692713107</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>verification</t>
+          <t>interoffice</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>확인, 조회</t>
+          <t>회사 내의, 각 부서간의</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>4</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>44224.15166368864</v>
+        <v>44222.8469271298</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>quite a while ago</t>
+          <t>be credited to</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>꽤 오래전에</t>
+          <t>~로 입금되다[금액이 넘어가다]</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>4</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>44226.27521903308</v>
+        <v>44224.85289744771</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>authority</t>
+          <t>paystub</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>당국, 권한</t>
+          <t>급여 명세서</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>44226.28725668169</v>
+        <v>44222.84692713153</v>
       </c>
     </row>
     <row r="96">
@@ -2181,405 +2179,403 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>beam</t>
+          <t>year-round</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>들보, 보</t>
+          <t>일년 내내</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>4</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>44224.85289744888</v>
+        <v>44222.1141908922</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>compliment</t>
+          <t>occasion</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>칭찬하다</t>
+          <t>때, 경우</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>44224.85289744801</v>
+        <v>44226.275219036</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>orchard</t>
+          <t>considerable</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>과수원</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>44222.11419089173</v>
+        <v>44232.1801492321</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>get off</t>
+          <t>scholarship</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>내리다</t>
+          <t>장학금</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>4</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>44226.27521903451</v>
+        <v>44226.28725668429</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>bistro</t>
+          <t>awning</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>차양</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>4</v>
       </c>
-      <c r="D101" s="1" t="n">
-        <v>44224.95196826063</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772367</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>associate's degree</t>
+          <t>house</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>준학사 학위</t>
+          <t>(장기적으로) 장소를 제공하다</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>4</v>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772097</t>
-        </is>
+      <c r="D102" s="1" t="n">
+        <v>44224.95196826055</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>awning</t>
+          <t>be scattered on</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>차양</t>
+          <t>~에 흩어져 있다</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>4</v>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772367</t>
-        </is>
+      <c r="D103" s="1" t="n">
+        <v>44224.95196826251</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>house</t>
+          <t xml:space="preserve">halibut </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>(장기적으로) 장소를 제공하다</t>
+          <t>광어</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>44224.95196826055</v>
+        <v>44222.84692713412</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>be scattered on</t>
+          <t>plush</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>~에 흩어져 있다</t>
+          <t>안락한, 고급의</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>4</v>
       </c>
-      <c r="D105" s="1" t="n">
-        <v>44224.95196826251</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772261</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">halibut </t>
+          <t>be supposed to</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>광어</t>
+          <t>~할 예정이다, ~하도록 되어 있다</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>44222.84692713412</v>
+        <v>44222.11419089574</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>plush</t>
+          <t>plow</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>안락한, 고급의</t>
+          <t>쟁기로 갈다; 쟁기</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>4</v>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772261</t>
-        </is>
+      <c r="D107" s="1" t="n">
+        <v>44222.11419088944</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>be supposed to</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>~할 예정이다, ~하도록 되어 있다</t>
+          <t>산출하다, (이익을) 내다</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>4</v>
       </c>
-      <c r="D108" s="1" t="n">
-        <v>44222.11419089574</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771984</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>plow</t>
+          <t>be in force</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>쟁기로 갈다; 쟁기</t>
+          <t>(법률 등이) 시행되다</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>4</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>44222.11419088944</v>
+        <v>44224.15166368782</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>yield</t>
+          <t>set</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>산출하다, (이익을) 내다</t>
+          <t>부과하다, 맡기다</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>4</v>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771984</t>
-        </is>
+      <c r="D110" s="1" t="n">
+        <v>44232.18014923265</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>be in force</t>
+          <t>in terms of</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>(법률 등이) 시행되다</t>
+          <t>~의 면에서</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>4</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>44224.15166368782</v>
+        <v>44232.18014923233</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>gain</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>부과하다, 맡기다</t>
+          <t>증가, 이익</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>4</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>44232.18014923265</v>
+        <v>44232.18014923292</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>in terms of</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>~의 면에서</t>
+          <t>~에 헌신하다[전념하다]</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>4</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>44232.18014923233</v>
+        <v>44226.28725668327</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>gain</t>
+          <t>rate</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>증가, 이익</t>
+          <t>평가하다, 등급을 매기다</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>4</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>44232.18014923292</v>
+        <v>44232.1801492325</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>theatergoer</t>
+          <t>wilted</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>극장에 (자주) 가는 사람</t>
+          <t>살짝 데친</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>4</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>44224.95196826072</v>
+        <v>44222.84692713471</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>paystub</t>
+          <t>feasibility</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>급여 명세서</t>
+          <t>실행 가능성, 실현 가능성</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>4</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>44222.84692713153</v>
+        <v>44226.28725668096</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>allowance</t>
+          <t>bistro</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>수당</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>4</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>44226.28725668143</v>
+        <v>44224.95196826063</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>on time</t>
+          <t>be busy -ing</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>정시에</t>
+          <t>~하느라 바쁘다</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>4</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>44226.28725668383</v>
+        <v>44226.27521903316</v>
       </c>
     </row>
     <row r="119">
@@ -2605,48 +2601,48 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>wilted</t>
+          <t>be appointed + 직위</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>살짝 데친</t>
+          <t>~로 임명되다</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>4</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>44222.84692713471</v>
+        <v>44226.28725668301</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>assortment</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>간부, 공무원</t>
+          <t>모음</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>44222.11419089281</v>
+        <v>44226.27521903592</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>treat</t>
+          <t>wilderness</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>특별한 기쁨, 만족</t>
+          <t>황야</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2654,91 +2650,93 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772166</t>
+          <t>2021-01-26 02:11:09.772087</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>publicize</t>
+          <t>get off</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>공표하다, 알리다</t>
+          <t>내리다</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>4</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>44224.95196826175</v>
+        <v>44226.27521903451</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>on time</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>평가하다, 등급을 매기다</t>
+          <t>정시에</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>4</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>44232.1801492325</v>
+        <v>44226.28725668383</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>plumbing</t>
+          <t>treat</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>배관[수도 시설], 배관 작업[공사]</t>
+          <t>특별한 기쁨, 만족</t>
         </is>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
-      <c r="D125" s="1" t="n">
-        <v>44222.11419089181</v>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772166</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>expenditure</t>
+          <t>plumbing</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>지출</t>
+          <t>배관[수도 시설], 배관 작업[공사]</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>4</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>44222.84692713573</v>
+        <v>44222.11419089181</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>fabricate</t>
+          <t>research into</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>조립하다, 제작하다</t>
+          <t>~을 조사하다</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -2746,82 +2744,80 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771804</t>
+          <t>2021-01-26 02:11:09.771870</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>vary</t>
+          <t>resolution</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>(서로) 다르다, 다양하다</t>
+          <t>결심, 결정, 결단력</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>44222.84692713229</v>
+        <v>44226.28725668151</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>lie</t>
+          <t>formal</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>놓여 있다</t>
+          <t>공식적인</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>4</v>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772423</t>
-        </is>
+      <c r="D129" s="1" t="n">
+        <v>44226.28725668443</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>offshore</t>
+          <t>be about to + 동사원형</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>연안에</t>
+          <t>막 ~하려고 하다</t>
         </is>
       </c>
       <c r="C130" t="n">
         <v>4</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>44224.15166368827</v>
+        <v>44222.11419088992</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>reversal</t>
+          <t>correspondence</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>전환, 역전</t>
+          <t>통신, 연락</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>44226.28725668282</v>
+        <v>44222.84692713374</v>
       </c>
     </row>
     <row r="132">
@@ -2863,196 +2859,196 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>take inventory</t>
+          <t>interfere with</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>재고 조사를 하다</t>
+          <t>~을 방해하다</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>44224.95196826282</v>
+        <v>44224.85289744781</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>reserve the right to + 동사원형</t>
+          <t>every other week</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>~할 권한을 보유하다</t>
+          <t>격주로</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>4</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>44224.85289744757</v>
+        <v>44222.11419089165</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>insist on -ing</t>
+          <t>school term</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>~할 것을 주장하다</t>
+          <t>학기</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>44224.15166368698</v>
+        <v>44226.28725668318</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>corn</t>
+          <t>insist on -ing</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>옥수수</t>
+          <t>~할 것을 주장하다</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>4</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>44232.180149233</v>
+        <v>44224.15166368698</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>somewhat</t>
+          <t>consider A (as [to be]) B</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>다소, 약간</t>
+          <t>A를 B로 여기다, 간주하다</t>
         </is>
       </c>
       <c r="C138" t="n">
         <v>4</v>
       </c>
-      <c r="D138" s="1" t="n">
-        <v>44222.84692713027</v>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771898</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>forestall</t>
+          <t>take over</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>선수를 치다, 기선을 제압하다</t>
+          <t>인수하다, 이어받다</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771832</t>
-        </is>
+      <c r="D139" s="1" t="n">
+        <v>44226.287256684</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>proportional</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>(~에) 비례하는</t>
+          <t>대우, 처치</t>
         </is>
       </c>
       <c r="C140" t="n">
         <v>4</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>44232.18014923308</v>
+        <v>44226.27521903482</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>highland</t>
+          <t>store credit</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>고원</t>
+          <t>상점 적립금</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>4</v>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772078</t>
-        </is>
+      <c r="D141" s="1" t="n">
+        <v>44226.27521903476</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>highland</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
+          <t>고원</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
-      <c r="D142" s="1" t="n">
-        <v>44226.27521903359</v>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772078</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>testimonial</t>
+          <t>allege</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>추천의 글</t>
+          <t>(확실한 증거 없이) 주장하다</t>
         </is>
       </c>
       <c r="C143" t="n">
         <v>4</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>44222.11419089424</v>
+        <v>44222.11419089303</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">sizable </t>
+          <t>forestall</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>선수를 치다, 기선을 제압하다</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -3060,7 +3056,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772232</t>
+          <t>2021-01-26 02:11:09.771832</t>
         </is>
       </c>
     </row>
@@ -3103,203 +3099,201 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>you get what you pay for</t>
+          <t>podium</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>싼게 비지떡</t>
+          <t>연단</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>4</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>44222.1141908932</v>
+        <v>44222.11419089007</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>outplay</t>
+          <t>initiation</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>패배시키다</t>
+          <t>창시, 입문</t>
         </is>
       </c>
       <c r="C148" t="n">
         <v>4</v>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771879</t>
-        </is>
+      <c r="D148" s="1" t="n">
+        <v>44224.95196826095</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>appreciate</t>
+          <t>pay package</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>연봉</t>
         </is>
       </c>
       <c r="C149" t="n">
         <v>4</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>44222.84692713288</v>
+        <v>44226.27521903706</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>informal</t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>비공식의</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C150" t="n">
         <v>4</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>44232.18014923258</v>
+        <v>44222.84692713288</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>fool</t>
+          <t>on your own</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>속이다</t>
+          <t>혼자 힘으로</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>44222.84692713268</v>
+        <v>44226.27521903334</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>derive</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>끌어내다</t>
+          <t>취재하다, 기사를 담당하다</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>4</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>44222.11419089582</v>
+        <v>44226.28725668292</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ojection</t>
+          <t>anchor</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>정박하다</t>
         </is>
       </c>
       <c r="C153" t="n">
         <v>4</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>44226.27521903523</v>
+        <v>44224.15166368819</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>insulated</t>
+          <t>liability</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>절연된</t>
+          <t>책임</t>
         </is>
       </c>
       <c r="C154" t="n">
         <v>4</v>
       </c>
-      <c r="D154" s="1" t="n">
-        <v>44222.1141908941</v>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771945</t>
+        </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>will pay a visit</t>
+          <t>sole</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>방문할 것이다.</t>
+          <t>밑창</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>44222.11419089448</v>
+        <v>44222.8469271326</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>opener</t>
+          <t>alumi</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>병따개, 첫 행동</t>
+          <t>졸업생들</t>
         </is>
       </c>
       <c r="C156" t="n">
         <v>4</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>44232.18014923323</v>
+        <v>44226.27521903729</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>mural</t>
+          <t>synthetic</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>벽화</t>
+          <t>합성의</t>
         </is>
       </c>
       <c r="C157" t="n">
         <v>4</v>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772204</t>
-        </is>
+      <c r="D157" s="1" t="n">
+        <v>44222.84692713212</v>
       </c>
     </row>
     <row r="158">
@@ -3323,181 +3317,183 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">in exchange for </t>
+          <t>decide against -ing</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>~의 대가로</t>
+          <t>~하지 않기로 결정하다</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>44226.27521903688</v>
+        <v>44224.85289744789</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>decide against -ing</t>
+          <t>criticism</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>~하지 않기로 결정하다</t>
+          <t>비판, 비평</t>
         </is>
       </c>
       <c r="C160" t="n">
         <v>4</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>44224.85289744789</v>
+        <v>44226.28725668482</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>feature</t>
+          <t>high court</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>(영화, 전시 등에) 등장시키다, 특집으로 다루다, 특징을 이루다</t>
+          <t>고등 법원</t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
-      <c r="D161" s="1" t="n">
-        <v>44224.85289744905</v>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771936</t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>make landfall</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve">상당히 </t>
+          <t>착륙하다</t>
         </is>
       </c>
       <c r="C162" t="n">
         <v>4</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>44222.84692713397</v>
+        <v>44224.15166368837</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>sole</t>
+          <t>sealed</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>밑창</t>
+          <t xml:space="preserve">마감칠된, 밀폐된 </t>
         </is>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>44222.8469271326</v>
+        <v>44222.11419089418</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>crate</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>상자</t>
+          <t xml:space="preserve">상당히 </t>
         </is>
       </c>
       <c r="C164" t="n">
         <v>4</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>44222.11419088969</v>
+        <v>44222.84692713397</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>ojection</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>제시[제출]하다</t>
+          <t>반대</t>
         </is>
       </c>
       <c r="C165" t="n">
         <v>4</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>44232.18014923333</v>
+        <v>44226.27521903523</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>faint</t>
+          <t>present</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>희미한</t>
+          <t>제시[제출]하다</t>
         </is>
       </c>
       <c r="C166" t="n">
         <v>4</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>44222.11419089351</v>
+        <v>44232.18014923333</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>assistant manager</t>
+          <t>indication</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>대리</t>
+          <t>암시</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>4</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>44222.84692713011</v>
+        <v>44226.2752190353</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>on your own</t>
+          <t>roll-out</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>혼자 힘으로</t>
+          <t>(신제품의) 첫 공개</t>
         </is>
       </c>
       <c r="C168" t="n">
         <v>4</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>44226.27521903334</v>
+        <v>44224.85289744857</v>
       </c>
     </row>
     <row r="169">
@@ -3521,255 +3517,259 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>move in</t>
+          <t>opener</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>이사 들어오다</t>
+          <t>병따개, 첫 행동</t>
         </is>
       </c>
       <c r="C170" t="n">
         <v>4</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>44226.27521903287</v>
+        <v>44232.18014923323</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>acclaimed</t>
+          <t>derive</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>칭찬[호평] 받는</t>
+          <t>끌어내다</t>
         </is>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>44226.28725668411</v>
+        <v>44222.11419089582</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>synthetic</t>
+          <t>acclaimed</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>합성의</t>
+          <t>칭찬[호평] 받는</t>
         </is>
       </c>
       <c r="C172" t="n">
         <v>4</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>44222.84692713212</v>
+        <v>44226.28725668411</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>earn</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>변환</t>
+          <t>~에게 …을 받게 할 자격을 주다</t>
         </is>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>44226.27521903575</v>
+        <v>44226.27521903714</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>assigned to</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>중역</t>
+          <t>~로 발령받다</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>4</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>44226.28725668391</v>
+        <v>44226.27521903752</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>help out</t>
+          <t>lay</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>도와주다</t>
+          <t>놓다, 두다</t>
         </is>
       </c>
       <c r="C175" t="n">
         <v>4</v>
       </c>
-      <c r="D175" s="1" t="n">
-        <v>44226.28725668362</v>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772433</t>
+        </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>collect payment</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>대금을 회수하다</t>
+          <t>견적</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>44222.11419089455</v>
+        <v>44226.27521903508</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>assortment</t>
+          <t>outlook</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>모음</t>
+          <t>관점, 전망</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>4</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>44226.27521903592</v>
+        <v>44226.27521903759</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>in preparation for</t>
+          <t>Town council</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>~에 대비하여</t>
+          <t>시의회</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>4</v>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772320</t>
-        </is>
+      <c r="D178" s="1" t="n">
+        <v>44224.95196826015</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>to this end</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>이를 위해, 이런 목적으로</t>
+          <t>결근, 부재</t>
         </is>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>44222.11419089136</v>
+        <v>44222.84692713073</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>bird-nesting</t>
+          <t>outplay</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>(취미로) 새 둥지를 찾아다니는</t>
+          <t>패배시키다</t>
         </is>
       </c>
       <c r="C180" t="n">
         <v>4</v>
       </c>
-      <c r="D180" s="1" t="n">
-        <v>44224.15166368884</v>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771879</t>
+        </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>retention</t>
+          <t>in preparation for</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
+          <t>~에 대비하여</t>
         </is>
       </c>
       <c r="C181" t="n">
         <v>4</v>
       </c>
-      <c r="D181" s="1" t="n">
-        <v>44226.28725668124</v>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772320</t>
+        </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>pay package</t>
+          <t>retention</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>연봉</t>
+          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>4</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>44226.27521903706</v>
+        <v>44226.28725668124</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>disclosure</t>
+          <t>unfavorable</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>공개</t>
+          <t>불리한</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>4</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>44226.28725668178</v>
+        <v>44224.15166368725</v>
       </c>
     </row>
     <row r="184">
@@ -3813,253 +3813,253 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>anchor</t>
+          <t>disclosure</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>정박하다</t>
+          <t>공개</t>
         </is>
       </c>
       <c r="C186" t="n">
         <v>4</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>44224.15166368819</v>
+        <v>44226.28725668178</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>every other week</t>
+          <t>corn</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>격주로</t>
+          <t>옥수수</t>
         </is>
       </c>
       <c r="C187" t="n">
         <v>4</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>44222.11419089165</v>
+        <v>44232.180149233</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>executive committee</t>
+          <t>assembly</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>집행 위원회</t>
+          <t>의회</t>
         </is>
       </c>
       <c r="C188" t="n">
         <v>4</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>44226.27521903584</v>
+        <v>44226.27521903737</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>quite a while ago</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>결근, 부재</t>
+          <t>꽤 오래전에</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>4</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>44222.84692713073</v>
+        <v>44226.27521903308</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>be credited to</t>
+          <t>harvest</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>~로 입금되다[금액이 넘어가다]</t>
+          <t>수확(량)</t>
         </is>
       </c>
       <c r="C190" t="n">
         <v>4</v>
       </c>
       <c r="D190" s="1" t="n">
-        <v>44224.85289744771</v>
+        <v>44226.27521903561</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>acidic</t>
+          <t>take inventory</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>매우 신</t>
+          <t>재고 조사를 하다</t>
         </is>
       </c>
       <c r="C191" t="n">
         <v>4</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>44222.84692713419</v>
+        <v>44224.95196826282</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>store credit</t>
+          <t>serve as</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>상점 적립금</t>
+          <t>~의 역할을 하다</t>
         </is>
       </c>
       <c r="C192" t="n">
         <v>4</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>44226.27521903476</v>
+        <v>44222.8469271309</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>proprietor</t>
+          <t>somewhat</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>사업주</t>
+          <t>다소, 약간</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>4</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>44226.28725668335</v>
+        <v>44222.84692713027</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>extend</t>
+          <t>thoroughly</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>정도, 범위</t>
+          <t>철저히</t>
         </is>
       </c>
       <c r="C194" t="n">
         <v>4</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>44226.28725668084</v>
+        <v>44222.84692713282</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>occasion</t>
+          <t>compete</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>때, 경우</t>
+          <t>경쟁하다</t>
         </is>
       </c>
       <c r="C195" t="n">
         <v>4</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>44226.275219036</v>
+        <v>44232.18014923241</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>year-round</t>
+          <t>proprietor</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>일년 내내</t>
+          <t>사업주</t>
         </is>
       </c>
       <c r="C196" t="n">
         <v>4</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>44222.1141908922</v>
+        <v>44226.28725668335</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>correspondence</t>
+          <t>faint</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>통신, 연락</t>
+          <t>희미한</t>
         </is>
       </c>
       <c r="C197" t="n">
         <v>4</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>44222.84692713374</v>
+        <v>44222.11419089351</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>color scheme</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>색체 조합</t>
+          <t>(봉지에 넣어) 포장하다</t>
         </is>
       </c>
       <c r="C198" t="n">
         <v>4</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>44224.15166368855</v>
+        <v>44222.11419089067</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>feature</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>~을 고려할 때</t>
+          <t>(영화, 전시 등에) 등장시키다, 특집으로 다루다, 특징을 이루다</t>
         </is>
       </c>
       <c r="C199" t="n">
         <v>4</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>44224.95196826023</v>
+        <v>44224.85289744905</v>
       </c>
     </row>
     <row r="200">
@@ -4101,527 +4101,527 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>implore</t>
+          <t>authority</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>애원하다, 간청하다</t>
+          <t>당국, 권한</t>
         </is>
       </c>
       <c r="C202" t="n">
         <v>4</v>
       </c>
       <c r="D202" s="1" t="n">
-        <v>44222.11419089589</v>
+        <v>44226.28725668169</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>formal</t>
+          <t>rotunda</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>공식적인</t>
+          <t>원형의 홀, 원형 건축물</t>
         </is>
       </c>
       <c r="C203" t="n">
         <v>4</v>
       </c>
-      <c r="D203" s="1" t="n">
-        <v>44226.28725668443</v>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772308</t>
+        </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>be about to + 동사원형</t>
+          <t>tuck away</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>막 ~하려고 하다</t>
+          <t>찾기힘든 안전한 곳에 보관하다</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>4</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>44222.11419088992</v>
+        <v>44222.84692713565</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>rotunda</t>
+          <t>enthusiast</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>원형의 홀, 원형 건축물</t>
+          <t>열성팬 [열렬한 팬]</t>
         </is>
       </c>
       <c r="C205" t="n">
         <v>4</v>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772308</t>
-        </is>
+      <c r="D205" s="1" t="n">
+        <v>44222.84692713221</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>tuck away</t>
+          <t>latest</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>찾기힘든 안전한 곳에 보관하다</t>
+          <t>최신의</t>
         </is>
       </c>
       <c r="C206" t="n">
         <v>4</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>44222.84692713565</v>
+        <v>44222.84692713204</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>enthusiast</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>열성팬 [열렬한 팬]</t>
+          <t>범위, 영역</t>
         </is>
       </c>
       <c r="C207" t="n">
         <v>4</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>44222.84692713221</v>
+        <v>44222.11419089205</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>latest</t>
+          <t>financial position</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>최신의</t>
+          <t>재무 상태</t>
         </is>
       </c>
       <c r="C208" t="n">
         <v>4</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>44222.84692713204</v>
+        <v>44222.11419089536</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>scope</t>
+          <t>have company</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>범위, 영역</t>
+          <t>동행[일행]이 있다</t>
         </is>
       </c>
       <c r="C209" t="n">
         <v>4</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>44222.11419089205</v>
+        <v>44226.28725668309</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>financial position</t>
+          <t>designate</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>재무 상태</t>
+          <t>지정하다</t>
         </is>
       </c>
       <c r="C210" t="n">
         <v>4</v>
       </c>
       <c r="D210" s="1" t="n">
-        <v>44222.11419089536</v>
+        <v>44226.28725668353</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>have company</t>
+          <t>delivery window</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>동행[일행]이 있다</t>
+          <t>배달 시간대</t>
         </is>
       </c>
       <c r="C211" t="n">
         <v>4</v>
       </c>
       <c r="D211" s="1" t="n">
-        <v>44226.28725668309</v>
+        <v>44222.84692713558</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>designate</t>
+          <t>initiator</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>지정하다</t>
+          <t>창시자</t>
         </is>
       </c>
       <c r="C212" t="n">
         <v>4</v>
       </c>
       <c r="D212" s="1" t="n">
-        <v>44226.28725668353</v>
+        <v>44224.95196826103</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>delivery window</t>
+          <t xml:space="preserve">critic </t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>배달 시간대</t>
+          <t>비평가</t>
         </is>
       </c>
       <c r="C213" t="n">
         <v>4</v>
       </c>
       <c r="D213" s="1" t="n">
-        <v>44222.84692713558</v>
+        <v>44226.28725668466</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>initiator</t>
+          <t>be due to + 동사원형</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>창시자</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C214" t="n">
         <v>4</v>
       </c>
       <c r="D214" s="1" t="n">
-        <v>44224.95196826103</v>
+        <v>44222.11419089388</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">critic </t>
+          <t>frustrating</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>비평가</t>
+          <t>실망스러운</t>
         </is>
       </c>
       <c r="C215" t="n">
         <v>4</v>
       </c>
       <c r="D215" s="1" t="n">
-        <v>44226.28725668466</v>
+        <v>44222.84692713296</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>be due to + 동사원형</t>
+          <t>glazed</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>(설탕을 입혀) 윤기가 나는</t>
         </is>
       </c>
       <c r="C216" t="n">
         <v>4</v>
       </c>
       <c r="D216" s="1" t="n">
-        <v>44222.11419089388</v>
+        <v>44222.84692713429</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>frustrating</t>
+          <t>get to</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>실망스러운</t>
+          <t>~에 착수하다</t>
         </is>
       </c>
       <c r="C217" t="n">
         <v>4</v>
       </c>
       <c r="D217" s="1" t="n">
-        <v>44222.84692713296</v>
+        <v>44226.27521903298</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>glazed</t>
+          <t>proximate</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>(설탕을 입혀) 윤기가 나는</t>
+          <t>가장 가까운</t>
         </is>
       </c>
       <c r="C218" t="n">
         <v>4</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>44222.84692713429</v>
+        <v>44222.84692713319</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>get to</t>
+          <t>overdraw</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>~에 착수하다</t>
+          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
         </is>
       </c>
       <c r="C219" t="n">
         <v>4</v>
       </c>
-      <c r="D219" s="1" t="n">
-        <v>44226.27521903298</v>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772059</t>
+        </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>proximate</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>가장 가까운</t>
+          <t>영업, 사업</t>
         </is>
       </c>
       <c r="C220" t="n">
         <v>4</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>44222.84692713319</v>
+        <v>44226.27521903515</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>overdraw</t>
+          <t>critically</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
+          <t>비판적으로</t>
         </is>
       </c>
       <c r="C221" t="n">
         <v>4</v>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772059</t>
-        </is>
+      <c r="D221" s="1" t="n">
+        <v>44226.28725668474</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>pavilion</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>영업, 사업</t>
+          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
         </is>
       </c>
       <c r="C222" t="n">
         <v>4</v>
       </c>
       <c r="D222" s="1" t="n">
-        <v>44226.27521903515</v>
+        <v>44222.11419089228</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>critically</t>
+          <t>premise</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>비판적으로</t>
+          <t>구내, 토지</t>
         </is>
       </c>
       <c r="C223" t="n">
         <v>4</v>
       </c>
       <c r="D223" s="1" t="n">
-        <v>44226.28725668474</v>
+        <v>44226.28725668188</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>pavilion</t>
+          <t>a load of</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
+          <t>한 짐의, 많은</t>
         </is>
       </c>
       <c r="C224" t="n">
         <v>4</v>
       </c>
       <c r="D224" s="1" t="n">
-        <v>44222.11419089228</v>
+        <v>44222.11419088984</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>premise</t>
+          <t>valdiation</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>구내, 토지</t>
+          <t>확인</t>
         </is>
       </c>
       <c r="C225" t="n">
         <v>4</v>
       </c>
       <c r="D225" s="1" t="n">
-        <v>44226.28725668188</v>
+        <v>44226.27521903553</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>a load of</t>
+          <t>now that</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>한 짐의, 많은</t>
+          <t>~이기 때문에</t>
         </is>
       </c>
       <c r="C226" t="n">
         <v>4</v>
       </c>
       <c r="D226" s="1" t="n">
-        <v>44222.11419088984</v>
+        <v>44226.27521903344</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>valdiation</t>
+          <t>admit</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>확인</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C227" t="n">
         <v>4</v>
       </c>
       <c r="D227" s="1" t="n">
-        <v>44226.27521903553</v>
+        <v>44224.85289744914</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>now that</t>
+          <t>theatergoer</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>~이기 때문에</t>
+          <t>극장에 (자주) 가는 사람</t>
         </is>
       </c>
       <c r="C228" t="n">
         <v>4</v>
       </c>
       <c r="D228" s="1" t="n">
-        <v>44226.27521903344</v>
+        <v>44224.95196826072</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>admit</t>
+          <t>reconfigure</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>(시스템, 기기 등을) 재배열[재설정]</t>
         </is>
       </c>
       <c r="C229" t="n">
         <v>4</v>
       </c>
       <c r="D229" s="1" t="n">
-        <v>44224.85289744914</v>
+        <v>44224.85289744933</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>favor</t>
+          <t>such</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>호의</t>
+          <t>그러한</t>
         </is>
       </c>
       <c r="C230" t="n">
         <v>3</v>
       </c>
       <c r="D230" s="1" t="n">
-        <v>44226.275219035</v>
+        <v>44232.18014923315</v>
       </c>
     </row>
     <row r="231">
@@ -4663,19 +4663,19 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>stationery store</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>문구점</t>
+          <t>닦다, 광내다</t>
         </is>
       </c>
       <c r="C233" t="n">
         <v>3</v>
       </c>
       <c r="D233" s="1" t="n">
-        <v>44226.27521903351</v>
+        <v>44222.11419088977</v>
       </c>
     </row>
     <row r="234">
@@ -4719,21 +4719,19 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>persevere</t>
+          <t>attire</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>인내하다</t>
+          <t>복장</t>
         </is>
       </c>
       <c r="C236" t="n">
         <v>3</v>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771823</t>
-        </is>
+      <c r="D236" s="1" t="n">
+        <v>44222.84692713121</v>
       </c>
     </row>
     <row r="237">
@@ -4905,12 +4903,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>staircase</t>
+          <t>persevere</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>계단</t>
+          <t>인내하다</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -4918,26 +4916,28 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772386</t>
+          <t>2021-01-26 02:11:09.771823</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>attire</t>
+          <t>staircase</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>복장</t>
+          <t>계단</t>
         </is>
       </c>
       <c r="C247" t="n">
         <v>3</v>
       </c>
-      <c r="D247" s="1" t="n">
-        <v>44222.84692713121</v>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772386</t>
+        </is>
       </c>
     </row>
     <row r="248">
@@ -4981,37 +4981,37 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>unconvinced</t>
+          <t>stationery store</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>납득하지[찬성하지] 않는</t>
+          <t>문구점</t>
         </is>
       </c>
       <c r="C250" t="n">
         <v>3</v>
       </c>
       <c r="D250" s="1" t="n">
-        <v>44224.95196826149</v>
+        <v>44226.27521903351</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>polish</t>
+          <t>unconvinced</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>닦다, 광내다</t>
+          <t>납득하지[찬성하지] 않는</t>
         </is>
       </c>
       <c r="C251" t="n">
         <v>3</v>
       </c>
       <c r="D251" s="1" t="n">
-        <v>44222.11419088977</v>
+        <v>44224.95196826149</v>
       </c>
     </row>
     <row r="252">
@@ -5055,55 +5055,57 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>formerly</t>
+          <t>favor</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>예전에</t>
+          <t>호의</t>
         </is>
       </c>
       <c r="C254" t="n">
         <v>3</v>
       </c>
       <c r="D254" s="1" t="n">
-        <v>44224.95196826047</v>
+        <v>44226.275219035</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>such</t>
+          <t>formerly</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>그러한</t>
+          <t>예전에</t>
         </is>
       </c>
       <c r="C255" t="n">
         <v>3</v>
       </c>
       <c r="D255" s="1" t="n">
-        <v>44232.18014923315</v>
+        <v>44224.95196826047</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>run late</t>
+          <t>excuse</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>늦어지다</t>
+          <t>~을 용서하다, ~에 대해 변명하다</t>
         </is>
       </c>
       <c r="C256" t="n">
         <v>3</v>
       </c>
-      <c r="D256" s="1" t="n">
-        <v>44224.95196826274</v>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772040</t>
+        </is>
       </c>
     </row>
     <row r="257">
@@ -5217,19 +5219,19 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>be lined up</t>
+          <t>openness</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>정렬되어 있다</t>
+          <t>솔직함, 개방성</t>
         </is>
       </c>
       <c r="C263" t="n">
         <v>3</v>
       </c>
       <c r="D263" s="1" t="n">
-        <v>44224.95196826228</v>
+        <v>44222.1141908947</v>
       </c>
     </row>
     <row r="264">
@@ -5271,19 +5273,19 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>violator</t>
+          <t>dairy farmer</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>위반자</t>
+          <t>낙농업자</t>
         </is>
       </c>
       <c r="C266" t="n">
         <v>3</v>
       </c>
       <c r="D266" s="1" t="n">
-        <v>44222.11419089128</v>
+        <v>44226.2752190368</v>
       </c>
     </row>
     <row r="267">
@@ -5327,19 +5329,19 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>frustration</t>
+          <t>commentary</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>좌절감, 불만</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C269" t="n">
         <v>3</v>
       </c>
       <c r="D269" s="1" t="n">
-        <v>44224.85289744847</v>
+        <v>44226.28725668451</v>
       </c>
     </row>
     <row r="270">
@@ -5455,19 +5457,21 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>hold one's own</t>
+          <t>determine to do</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
+          <t>~하겠다고 결심하다</t>
         </is>
       </c>
       <c r="C276" t="n">
         <v>3</v>
       </c>
-      <c r="D276" s="1" t="n">
-        <v>44224.15166368688</v>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771889</t>
+        </is>
       </c>
     </row>
     <row r="277">
@@ -5511,21 +5515,19 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>crepe</t>
+          <t>excerpt</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>얇은 팬케이크</t>
+          <t>발췌, 인용</t>
         </is>
       </c>
       <c r="C279" t="n">
         <v>3</v>
       </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772147</t>
-        </is>
+      <c r="D279" s="1" t="n">
+        <v>44222.84692713058</v>
       </c>
     </row>
     <row r="280">
@@ -5567,19 +5569,21 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>be credited with</t>
+          <t>get in</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>~에 공로가 있다</t>
+          <t>~에 들어가다, 도착하다</t>
         </is>
       </c>
       <c r="C282" t="n">
         <v>3</v>
       </c>
-      <c r="D282" s="1" t="n">
-        <v>44224.95196826007</v>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771965</t>
+        </is>
       </c>
     </row>
     <row r="283">
@@ -5699,19 +5703,19 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>shelving unit</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>상당히, 꽤</t>
+          <t>선반</t>
         </is>
       </c>
       <c r="C289" t="n">
         <v>3</v>
       </c>
       <c r="D289" s="1" t="n">
-        <v>44222.11419089105</v>
+        <v>44222.11419089014</v>
       </c>
     </row>
     <row r="290">
@@ -5753,19 +5757,19 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>hands-on</t>
+          <t>rugged</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>실천의, 직접 해보는</t>
+          <t>울퉁불퉁한</t>
         </is>
       </c>
       <c r="C292" t="n">
         <v>3</v>
       </c>
       <c r="D292" s="1" t="n">
-        <v>44222.11419089559</v>
+        <v>44222.84692713236</v>
       </c>
     </row>
     <row r="293">
@@ -5809,12 +5813,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>sweep -&gt; swept -&gt; swept</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>제공하다</t>
+          <t>(빗자루로)쓸다, 청소하다</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -5822,7 +5826,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772157</t>
+          <t>2021-01-26 02:11:09.772376</t>
         </is>
       </c>
     </row>
@@ -5937,19 +5941,19 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>set foot on</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>(길, 강 등이) 구불구불하다</t>
+          <t>~에 발을 들여놓다</t>
         </is>
       </c>
       <c r="C302" t="n">
         <v>3</v>
       </c>
       <c r="D302" s="1" t="n">
-        <v>44222.11419088961</v>
+        <v>44224.15166368801</v>
       </c>
     </row>
     <row r="303">
@@ -5991,19 +5995,19 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>beneath</t>
+          <t>pension</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>~밑에</t>
+          <t>연금</t>
         </is>
       </c>
       <c r="C305" t="n">
         <v>3</v>
       </c>
       <c r="D305" s="1" t="n">
-        <v>44222.11419088913</v>
+        <v>44222.8469271316</v>
       </c>
     </row>
     <row r="306">
@@ -6047,21 +6051,19 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>botanist</t>
+          <t>traditionally</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>식물학자</t>
+          <t>예전부터, 통상적으로</t>
         </is>
       </c>
       <c r="C308" t="n">
         <v>3</v>
       </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772134</t>
-        </is>
+      <c r="D308" s="1" t="n">
+        <v>44222.84692713359</v>
       </c>
     </row>
     <row r="309">
@@ -6175,21 +6177,19 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>high-volume</t>
+          <t>lodging</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>대량의</t>
+          <t>임시 숙소</t>
         </is>
       </c>
       <c r="C315" t="n">
         <v>3</v>
       </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772339</t>
-        </is>
+      <c r="D315" s="1" t="n">
+        <v>44224.15166368707</v>
       </c>
     </row>
     <row r="316">
@@ -6231,21 +6231,19 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>recognize A as B</t>
+          <t>glowing</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>A를 B로 인식하다</t>
+          <t>극찬하는</t>
         </is>
       </c>
       <c r="C318" t="n">
         <v>3</v>
       </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771842</t>
-        </is>
+      <c r="D318" s="1" t="n">
+        <v>44222.84692713534</v>
       </c>
     </row>
     <row r="319">
@@ -6453,37 +6451,39 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>technical drawing</t>
+          <t>recognize A as B</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>제도(= drafting)</t>
+          <t>A를 B로 인식하다</t>
         </is>
       </c>
       <c r="C330" t="n">
         <v>3</v>
       </c>
-      <c r="D330" s="1" t="n">
-        <v>44222.1141908909</v>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771842</t>
+        </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>glowing</t>
+          <t>technical drawing</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>극찬하는</t>
+          <t>제도(= drafting)</t>
         </is>
       </c>
       <c r="C331" t="n">
         <v>3</v>
       </c>
       <c r="D331" s="1" t="n">
-        <v>44222.84692713534</v>
+        <v>44222.1141908909</v>
       </c>
     </row>
     <row r="332">
@@ -6527,37 +6527,39 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>runway</t>
+          <t>high-volume</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>활주로</t>
+          <t>대량의</t>
         </is>
       </c>
       <c r="C334" t="n">
         <v>3</v>
       </c>
-      <c r="D334" s="1" t="n">
-        <v>44222.11419089044</v>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772339</t>
+        </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>lodging</t>
+          <t>runway</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>임시 숙소</t>
+          <t>활주로</t>
         </is>
       </c>
       <c r="C335" t="n">
         <v>3</v>
       </c>
       <c r="D335" s="1" t="n">
-        <v>44224.15166368707</v>
+        <v>44222.11419089044</v>
       </c>
     </row>
     <row r="336">
@@ -6675,37 +6677,39 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>lead character</t>
+          <t>botanist</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>주인공</t>
+          <t>식물학자</t>
         </is>
       </c>
       <c r="C342" t="n">
         <v>3</v>
       </c>
-      <c r="D342" s="1" t="n">
-        <v>44222.11419089189</v>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772134</t>
+        </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>traditionally</t>
+          <t>lead character</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>예전부터, 통상적으로</t>
+          <t>주인공</t>
         </is>
       </c>
       <c r="C343" t="n">
         <v>3</v>
       </c>
       <c r="D343" s="1" t="n">
-        <v>44222.84692713359</v>
+        <v>44222.11419089189</v>
       </c>
     </row>
     <row r="344">
@@ -6747,37 +6751,37 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>prop</t>
+          <t>beneath</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>받치다</t>
+          <t>~밑에</t>
         </is>
       </c>
       <c r="C346" t="n">
         <v>3</v>
       </c>
       <c r="D346" s="1" t="n">
-        <v>44222.11419088928</v>
+        <v>44222.11419088913</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>pension</t>
+          <t>prop</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>연금</t>
+          <t>받치다</t>
         </is>
       </c>
       <c r="C347" t="n">
         <v>3</v>
       </c>
       <c r="D347" s="1" t="n">
-        <v>44222.8469271316</v>
+        <v>44222.11419088928</v>
       </c>
     </row>
     <row r="348">
@@ -6819,37 +6823,37 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>much-needed</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>꼭 필요한</t>
+          <t>(길, 강 등이) 구불구불하다</t>
         </is>
       </c>
       <c r="C350" t="n">
         <v>3</v>
       </c>
       <c r="D350" s="1" t="n">
-        <v>44222.11419089566</v>
+        <v>44222.11419088961</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>set foot on</t>
+          <t>much-needed</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>~에 발을 들여놓다</t>
+          <t>꼭 필요한</t>
         </is>
       </c>
       <c r="C351" t="n">
         <v>3</v>
       </c>
       <c r="D351" s="1" t="n">
-        <v>44224.15166368801</v>
+        <v>44222.11419089566</v>
       </c>
     </row>
     <row r="352">
@@ -6969,39 +6973,39 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>simply</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
+          <t>제공하다</t>
         </is>
       </c>
       <c r="C358" t="n">
         <v>3</v>
       </c>
-      <c r="D358" s="1" t="n">
-        <v>44222.11419089295</v>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772157</t>
+        </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>sweep -&gt; swept -&gt; swept</t>
+          <t>simply</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>(빗자루로)쓸다, 청소하다</t>
+          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
         </is>
       </c>
       <c r="C359" t="n">
         <v>3</v>
       </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772376</t>
-        </is>
+      <c r="D359" s="1" t="n">
+        <v>44222.11419089295</v>
       </c>
     </row>
     <row r="360">
@@ -7045,37 +7049,37 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>authenticity</t>
+          <t>hands-on</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>진짜임</t>
+          <t>실천의, 직접 해보는</t>
         </is>
       </c>
       <c r="C362" t="n">
         <v>3</v>
       </c>
       <c r="D362" s="1" t="n">
-        <v>44224.15166368874</v>
+        <v>44222.11419089559</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>rugged</t>
+          <t>authenticity</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>울퉁불퉁한</t>
+          <t>진짜임</t>
         </is>
       </c>
       <c r="C363" t="n">
         <v>3</v>
       </c>
       <c r="D363" s="1" t="n">
-        <v>44222.84692713236</v>
+        <v>44224.15166368874</v>
       </c>
     </row>
     <row r="364">
@@ -7117,37 +7121,37 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>by contrast</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>그와 대조적으로</t>
+          <t>상당히, 꽤</t>
         </is>
       </c>
       <c r="C366" t="n">
         <v>3</v>
       </c>
       <c r="D366" s="1" t="n">
-        <v>44224.8528974481</v>
+        <v>44222.11419089105</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>shelving unit</t>
+          <t>by contrast</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>그와 대조적으로</t>
         </is>
       </c>
       <c r="C367" t="n">
         <v>3</v>
       </c>
       <c r="D367" s="1" t="n">
-        <v>44222.11419089014</v>
+        <v>44224.8528974481</v>
       </c>
     </row>
     <row r="368">
@@ -7265,39 +7269,37 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>hearty</t>
+          <t>be credited with</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>(음식이) 푸짐하고 만족스러운</t>
+          <t>~에 공로가 있다</t>
         </is>
       </c>
       <c r="C374" t="n">
         <v>3</v>
       </c>
       <c r="D374" s="1" t="n">
-        <v>44222.84692713589</v>
+        <v>44224.95196826007</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>get in</t>
+          <t>hearty</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>~에 들어가다, 도착하다</t>
+          <t>(음식이) 푸짐하고 만족스러운</t>
         </is>
       </c>
       <c r="C375" t="n">
         <v>3</v>
       </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771965</t>
-        </is>
+      <c r="D375" s="1" t="n">
+        <v>44222.84692713589</v>
       </c>
     </row>
     <row r="376">
@@ -7341,37 +7343,39 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>put on hold</t>
+          <t>crepe</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>보류하다</t>
+          <t>얇은 팬케이크</t>
         </is>
       </c>
       <c r="C378" t="n">
         <v>3</v>
       </c>
-      <c r="D378" s="1" t="n">
-        <v>44224.8528974488</v>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772147</t>
+        </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>excerpt</t>
+          <t>put on hold</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>발췌, 인용</t>
+          <t>보류하다</t>
         </is>
       </c>
       <c r="C379" t="n">
         <v>3</v>
       </c>
       <c r="D379" s="1" t="n">
-        <v>44222.84692713058</v>
+        <v>44224.8528974488</v>
       </c>
     </row>
     <row r="380">
@@ -7417,39 +7421,37 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>sleek</t>
+          <t>hold one's own</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>(모양이) 매끈한</t>
+          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
         </is>
       </c>
       <c r="C382" t="n">
         <v>3</v>
       </c>
       <c r="D382" s="1" t="n">
-        <v>44224.8528974482</v>
+        <v>44224.15166368688</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>determine to do</t>
+          <t>sleek</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>~하겠다고 결심하다</t>
+          <t>(모양이) 매끈한</t>
         </is>
       </c>
       <c r="C383" t="n">
         <v>3</v>
       </c>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771889</t>
-        </is>
+      <c r="D383" s="1" t="n">
+        <v>44224.8528974482</v>
       </c>
     </row>
     <row r="384">
@@ -7567,37 +7569,37 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>make a name</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>명성을 얻다</t>
+          <t>좌절감, 불만</t>
         </is>
       </c>
       <c r="C390" t="n">
         <v>3</v>
       </c>
       <c r="D390" s="1" t="n">
-        <v>44224.85289744829</v>
+        <v>44224.85289744847</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>commentary</t>
+          <t>make a name</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>명성을 얻다</t>
         </is>
       </c>
       <c r="C391" t="n">
         <v>3</v>
       </c>
       <c r="D391" s="1" t="n">
-        <v>44226.28725668451</v>
+        <v>44224.85289744829</v>
       </c>
     </row>
     <row r="392">
@@ -7641,37 +7643,37 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>where as</t>
+          <t>violator</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>~이지만</t>
+          <t>위반자</t>
         </is>
       </c>
       <c r="C394" t="n">
         <v>3</v>
       </c>
       <c r="D394" s="1" t="n">
-        <v>44222.84692713051</v>
+        <v>44222.11419089128</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>dairy farmer</t>
+          <t>where as</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>낙농업자</t>
+          <t>~이지만</t>
         </is>
       </c>
       <c r="C395" t="n">
         <v>3</v>
       </c>
       <c r="D395" s="1" t="n">
-        <v>44226.2752190368</v>
+        <v>44222.84692713051</v>
       </c>
     </row>
     <row r="396">
@@ -7713,37 +7715,37 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>as a token of</t>
+          <t>be lined up</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>~의 표시로서, ~의 증거로</t>
+          <t>정렬되어 있다</t>
         </is>
       </c>
       <c r="C398" t="n">
         <v>3</v>
       </c>
       <c r="D398" s="1" t="n">
-        <v>44224.9519682622</v>
+        <v>44224.95196826228</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>openness</t>
+          <t>as a token of</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>솔직함, 개방성</t>
+          <t>~의 표시로서, ~의 증거로</t>
         </is>
       </c>
       <c r="C399" t="n">
         <v>3</v>
       </c>
       <c r="D399" s="1" t="n">
-        <v>44222.1141908947</v>
+        <v>44224.9519682622</v>
       </c>
     </row>
     <row r="400">
@@ -7859,39 +7861,37 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>consumer electronics industry</t>
+          <t>run late</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>가전 사업</t>
+          <t>늦어지다</t>
         </is>
       </c>
       <c r="C406" t="n">
         <v>3</v>
       </c>
       <c r="D406" s="1" t="n">
-        <v>44222.11419089379</v>
+        <v>44224.95196826274</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>excuse</t>
+          <t>consumer electronics industry</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>~을 용서하다, ~에 대해 변명하다</t>
+          <t>가전 사업</t>
         </is>
       </c>
       <c r="C407" t="n">
         <v>3</v>
       </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772040</t>
-        </is>
+      <c r="D407" s="1" t="n">
+        <v>44222.11419089379</v>
       </c>
     </row>
   </sheetData>

--- a/voca.xlsx
+++ b/voca.xlsx
@@ -463,266 +463,270 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>discrepancy</t>
+          <t>fabricate</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>불일치, 차이</t>
+          <t>조립하다, 제작하다</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>44226.28725668133</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771804</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>assume</t>
+          <t>put up</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(책임 등을) 떠맡다, 담당하다</t>
+          <t>~을 붙이다, 세우다</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44232.18014923276</v>
+        <v>44222.11419088999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>offshore</t>
+          <t>lay</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>연안에</t>
+          <t>놓다, 두다</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>44224.15166368827</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772433</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>allowance</t>
+          <t>proportional</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>수당</t>
+          <t>(~에) 비례하는</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>44226.28725668143</v>
+        <v>44232.18014923308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fabricate</t>
+          <t>proprietor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>조립하다, 제작하다</t>
+          <t>사업주</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771804</t>
-        </is>
+      <c r="D7" s="1" t="n">
+        <v>44226.28725668335</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>informal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>변환</t>
+          <t>비공식의</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>44226.27521903575</v>
+        <v>44232.18014923258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>relieve A of B</t>
+          <t>tuck away</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
+          <t>찾기힘든 안전한 곳에 보관하다</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>44222.11419089597</v>
+        <v>44222.84692713565</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>be sure to</t>
+          <t>set</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>반드시 ~하다</t>
+          <t>부과하다, 맡기다</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>44226.2752190339</v>
+        <v>44232.18014923265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>board of trustees</t>
+          <t>assortment</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이사회</t>
+          <t>모음</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44226.2872566842</v>
+        <v>44226.27521903592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>publicize</t>
+          <t>discrepancy</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>공표하다, 알리다</t>
+          <t>불일치, 차이</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>44224.95196826175</v>
+        <v>44226.28725668133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pass out</t>
+          <t>insist on -ing</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>건네다</t>
+          <t>~할 것을 주장하다</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>44226.27521903459</v>
+        <v>44224.15166368698</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>as to</t>
+          <t>account</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>44222.11419089403</v>
+        <v>44226.27521903359</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>to this end</t>
+          <t>board of trustees</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>이를 위해, 이런 목적으로</t>
+          <t>이사회</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>44222.11419089136</v>
+        <v>44226.2872566842</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tender</t>
+          <t>high court</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(고기가) 연한</t>
+          <t>고등 법원</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>44222.84692713404</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771936</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>let down</t>
+          <t>jostle for</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~을 실망시키다</t>
+          <t>~을 위하여 다투다, 겨루다</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -730,7 +734,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771974</t>
+          <t>2021-01-26 02:11:09.772185</t>
         </is>
       </c>
     </row>
@@ -755,192 +759,194 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>informal</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>비공식의</t>
+          <t>취재하다, 기사를 담당하다</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>44232.18014923258</v>
+        <v>44226.28725668292</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>help out</t>
+          <t>relieve A of B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>도와주다</t>
+          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>44226.28725668362</v>
+        <v>44222.11419089597</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>criticism</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>유효한</t>
+          <t>비판, 비평</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>44222.8469271319</v>
+        <v>44226.28725668482</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>acidic</t>
+          <t>make landfall</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>매우 신</t>
+          <t>착륙하다</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>44222.84692713419</v>
+        <v>44224.15166368837</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>deliberation</t>
+          <t>excutive chef</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>총 주방장</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>44222.11419089273</v>
+        <v>44224.9519682608</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vary</t>
+          <t>rotunda</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(서로) 다르다, 다양하다</t>
+          <t>원형의 홀, 원형 건축물</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <v>44222.84692713229</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772308</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>put up</t>
+          <t>surveyor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~을 붙이다, 세우다</t>
+          <t>측량사</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>44222.11419088999</v>
+        <v>44222.84692712996</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>be busy -ing</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>탄력, 가속도, 여세</t>
+          <t>~하느라 바쁘다</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>44226.27521903367</v>
+        <v>44226.27521903316</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>in a timely manner</t>
+          <t>a load of</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>시기에 맞게</t>
+          <t>한 짐의, 많은</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>44226.28725668437</v>
+        <v>44222.11419088984</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>expenditure</t>
+          <t>be due to + 동사원형</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>지출</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>44222.84692713573</v>
+        <v>44222.11419089388</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mow</t>
+          <t>associate's degree</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>잔디를 깎다</t>
+          <t>준학사 학위</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -948,111 +954,113 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772470</t>
+          <t>2021-01-26 02:11:09.772097</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>surveyor</t>
+          <t>interfere with</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>측량사</t>
+          <t>~을 방해하다</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>44222.84692712996</v>
+        <v>44224.85289744781</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~에 관한</t>
+          <t>~에 헌신하다[전념하다]</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>44222.11419089493</v>
+        <v>44226.28725668327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>reversal</t>
+          <t>consider A (as [to be]) B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>전환, 역전</t>
+          <t>A를 B로 여기다, 간주하다</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>4</v>
       </c>
-      <c r="D32" s="1" t="n">
-        <v>44226.28725668282</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771898</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>highland</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~을 고려할 때</t>
+          <t>고원</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>4</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <v>44224.95196826023</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772078</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>pier</t>
+          <t>look over</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>부두</t>
+          <t>~을 살펴보다</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772395</t>
-        </is>
+      <c r="D34" s="1" t="n">
+        <v>44226.27521903375</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>cost A B</t>
+          <t>plush</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A에게 B의 비용이 들다</t>
+          <t>안락한, 고급의</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1060,98 +1068,100 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771851</t>
+          <t>2021-01-26 02:11:09.772261</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>proportional</t>
+          <t>quite a while ago</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>(~에) 비례하는</t>
+          <t>꽤 오래전에</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>44232.18014923308</v>
+        <v>44226.27521903308</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>insulated</t>
+          <t>on your own</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>절연된</t>
+          <t>혼자 힘으로</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>44222.1141908941</v>
+        <v>44226.27521903334</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">in exchange for </t>
+          <t>sole</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>~의 대가로</t>
+          <t>밑창</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>44226.27521903688</v>
+        <v>44222.8469271326</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>quality assurance</t>
+          <t>glazed</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>품질 보증</t>
+          <t>(설탕을 입혀) 윤기가 나는</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>44222.11419089433</v>
+        <v>44222.84692713429</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bet</t>
+          <t>let down</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>선택한 것[사람], 방책</t>
+          <t>~을 실망시키다</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
-      <c r="D40" s="1" t="n">
-        <v>44222.84692713251</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771974</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1175,493 +1185,495 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>be sure to</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>~에 헌신하다, 전념하다</t>
+          <t>반드시 ~하다</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>44224.95196826205</v>
+        <v>44226.2752190339</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>tuition</t>
+          <t>forestall</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>학자금</t>
+          <t>선수를 치다, 기선을 제압하다</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
-      <c r="D43" s="1" t="n">
-        <v>44222.84692713174</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771832</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>credential</t>
+          <t>pride oneself on</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>자격(증), 보증서, 자격 인증(서)</t>
+          <t>~에 대해 자랑하다</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>44222.11419089478</v>
+        <v>44222.84692713107</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>collect payment</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
+          <t>대금을 회수하다</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>44226.27521903359</v>
+        <v>44222.11419089455</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>executive committee</t>
+          <t>outplay</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>집행 위원회</t>
+          <t>패배시키다</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>4</v>
       </c>
-      <c r="D46" s="1" t="n">
-        <v>44226.27521903584</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771879</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>beam</t>
+          <t>insulated</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>들보, 보</t>
+          <t>절연된</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>44224.85289744888</v>
+        <v>44222.1141908941</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>orchard</t>
+          <t>you get what you pay for</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>과수원</t>
+          <t>싼게 비지떡</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>44222.11419089173</v>
+        <v>44222.1141908932</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>color scheme</t>
+          <t>be credited to</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>색체 조합</t>
+          <t>~로 입금되다[금액이 넘어가다]</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>44224.15166368855</v>
+        <v>44224.85289744771</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>overlook</t>
+          <t>take inventory</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>간과; ~을 간과하다, 내려보다</t>
+          <t>재고 조사를 하다</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>44222.84692713336</v>
+        <v>44224.95196826282</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>nevertheless</t>
+          <t>ration</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>그럼에도 불구하고</t>
+          <t>배급하다</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>4</v>
       </c>
-      <c r="D51" s="1" t="n">
-        <v>44222.11419089097</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772012</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>jostle for</t>
+          <t>year-round</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>~을 위하여 다투다, 겨루다</t>
+          <t>일년 내내</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>4</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772185</t>
-        </is>
+      <c r="D52" s="1" t="n">
+        <v>44222.1141908922</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>pier</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>비판적인</t>
+          <t>부두</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
-      <c r="D53" s="1" t="n">
-        <v>44226.2872566846</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772395</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>in a single direction</t>
+          <t>autograph</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>한 방향으로</t>
+          <t>사인</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>44224.95196826266</v>
+        <v>44222.11419089082</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>landscape</t>
+          <t>address</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>조경을 하다</t>
+          <t>처리[해결]하다, 다루다</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>44226.27521903383</v>
+        <v>44224.95196826212</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>paycheck</t>
+          <t>move in</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>급여(수표)</t>
+          <t>이사 들어오다</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>44222.84692713146</v>
+        <v>44226.27521903287</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>implore</t>
+          <t>derive</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>애원하다, 간청하다</t>
+          <t>끌어내다</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>44222.11419089589</v>
+        <v>44222.11419089582</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>occasion</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>직업</t>
+          <t>때, 경우</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>44226.27521903744</v>
+        <v>44226.275219036</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>corn</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>간부, 공무원</t>
+          <t>옥수수</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>4</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>44222.11419089281</v>
+        <v>44232.180149233</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>substantial</t>
+          <t>valdiation</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>상당한, 실질적인</t>
+          <t>확인</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>44226.27521903696</v>
+        <v>44226.27521903553</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>verification</t>
+          <t>pavilion</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>확인, 조회</t>
+          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>44224.15166368864</v>
+        <v>44222.11419089228</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>booklet</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>소책자</t>
+          <t>영업, 사업</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>44226.27521903467</v>
+        <v>44226.27521903515</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>associate's degree</t>
+          <t>to this end</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>준학사 학위</t>
+          <t>이를 위해, 이런 목적으로</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>4</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772097</t>
-        </is>
+      <c r="D63" s="1" t="n">
+        <v>44222.11419089136</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>commune</t>
+          <t>frustrating</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>친하게 사귀다</t>
+          <t>실망스러운</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>4</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772068</t>
-        </is>
+      <c r="D64" s="1" t="n">
+        <v>44222.84692713296</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>compliment</t>
+          <t>reserve the right to + 동사원형</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>칭찬하다</t>
+          <t>~할 권한을 보유하다</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>4</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>44224.85289744801</v>
+        <v>44224.85289744757</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>reserve the right to + 동사원형</t>
+          <t>designate</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~할 권한을 보유하다</t>
+          <t>지정하다</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>44224.85289744757</v>
+        <v>44226.28725668353</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sip</t>
+          <t>resolution</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>마시다</t>
+          <t>결심, 결정, 결단력</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>44222.1141908906</v>
+        <v>44226.28725668151</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>extend</t>
+          <t>enthusiast</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>정도, 범위</t>
+          <t>열성팬 [열렬한 팬]</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>44226.28725668084</v>
+        <v>44222.84692713221</v>
       </c>
     </row>
     <row r="69">
@@ -1685,708 +1697,702 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>testimonial</t>
+          <t>present</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>추천의 글</t>
+          <t>제시[제출]하다</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>44222.11419089424</v>
+        <v>44232.18014923333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>admission</t>
+          <t>gain</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>입장, 인정</t>
+          <t>증가, 이익</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>4</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>44222.84692713066</v>
+        <v>44232.18014923292</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>look over</t>
+          <t>in terms of</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>~을 살펴보다</t>
+          <t>~의 면에서</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>4</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>44226.27521903375</v>
+        <v>44232.18014923233</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>as much as possible</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>가능한 많이</t>
+          <t>변환</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>4</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>44226.27521903324</v>
+        <v>44226.27521903575</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>fool</t>
+          <t>be in force</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>속이다</t>
+          <t>(법률 등이) 시행되다</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>4</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>44222.84692713268</v>
+        <v>44224.15166368782</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>autograph</t>
+          <t>allege</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>사인</t>
+          <t>(확실한 증거 없이) 주장하다</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>44222.11419089082</v>
+        <v>44222.11419089303</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>will pay a visit</t>
+          <t>plow</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>방문할 것이다.</t>
+          <t>쟁기로 갈다; 쟁기</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>4</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>44222.11419089448</v>
+        <v>44222.11419088944</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>en masse</t>
+          <t>be supposed to</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>집단으로</t>
+          <t>~할 예정이다, ~하도록 되어 있다</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>44224.85289744838</v>
+        <v>44222.11419089574</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>mural</t>
+          <t>executive committee</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>벽화</t>
+          <t>집행 위원회</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772204</t>
-        </is>
+      <c r="D78" s="1" t="n">
+        <v>44226.27521903584</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>lie</t>
+          <t>rate</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>놓여 있다</t>
+          <t>평가하다, 등급을 매기다</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>4</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772423</t>
-        </is>
+      <c r="D79" s="1" t="n">
+        <v>44232.1801492325</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ration</t>
+          <t>retention</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>배급하다</t>
+          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>4</v>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772012</t>
-        </is>
+      <c r="D80" s="1" t="n">
+        <v>44226.28725668124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>crate</t>
+          <t>assembly</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>상자</t>
+          <t>의회</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>4</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>44222.11419088969</v>
+        <v>44226.27521903737</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>water tower</t>
+          <t>house</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>급수탑</t>
+          <t>(장기적으로) 장소를 제공하다</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>4</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>44222.11419089501</v>
+        <v>44224.95196826055</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>be propped on[against]</t>
+          <t>credential</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>~에 기대어 있다</t>
+          <t>자격(증), 보증서, 자격 인증(서)</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>4</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>44224.95196826236</v>
+        <v>44222.11419089478</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>move in</t>
+          <t>treat</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>이사 들어오다</t>
+          <t>특별한 기쁨, 만족</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>4</v>
       </c>
-      <c r="D84" s="1" t="n">
-        <v>44226.27521903287</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772166</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>in exchange for</t>
+          <t>podium</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>~을 대신해서</t>
+          <t>연단</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>44222.84692713327</v>
+        <v>44222.11419089007</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>acclaimed</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>중역</t>
+          <t>칭찬[호평] 받는</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>44226.28725668391</v>
+        <v>44226.28725668411</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>you get what you pay for</t>
+          <t>school term</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>싼게 비지떡</t>
+          <t>학기</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>44222.1141908932</v>
+        <v>44226.28725668318</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>collect payment</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>대금을 회수하다</t>
+          <t>~에 헌신하다, 전념하다</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>4</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>44222.11419089455</v>
+        <v>44224.95196826205</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>bird-nesting</t>
+          <t>reversal</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>(취미로) 새 둥지를 찾아다니는</t>
+          <t>전환, 역전</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>44224.15166368884</v>
+        <v>44226.28725668282</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">sizable </t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772232</t>
-        </is>
+      <c r="D90" s="1" t="n">
+        <v>44222.84692713288</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>assistant manager</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>대리</t>
+          <t xml:space="preserve">상당히 </t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>4</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>44222.84692713011</v>
+        <v>44222.84692713397</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>pride oneself on</t>
+          <t>admission</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>~에 대해 자랑하다</t>
+          <t>입장, 인정</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>4</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>44222.84692713107</v>
+        <v>44222.84692713066</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>interoffice</t>
+          <t>earn</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>회사 내의, 각 부서간의</t>
+          <t>~에게 …을 받게 할 자격을 주다</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>4</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>44222.8469271298</v>
+        <v>44226.27521903714</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>be credited to</t>
+          <t>opener</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>~로 입금되다[금액이 넘어가다]</t>
+          <t>병따개, 첫 행동</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>4</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>44224.85289744771</v>
+        <v>44232.18014923323</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>paystub</t>
+          <t>disclosure</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>급여 명세서</t>
+          <t>공개</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>44222.84692713153</v>
+        <v>44226.28725668178</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>look forward to + -ing</t>
+          <t>quality assurance</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>~을 고대하다</t>
+          <t>품질 보증</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>4</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>44222.1141908915</v>
+        <v>44222.11419089433</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>year-round</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>일년 내내</t>
+          <t>비판적인</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>4</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>44222.1141908922</v>
+        <v>44226.2872566846</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>occasion</t>
+          <t>pay package</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>때, 경우</t>
+          <t>연봉</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>44226.275219036</v>
+        <v>44226.27521903706</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>considerable</t>
+          <t xml:space="preserve">in exchange for </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>~의 대가로</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>44232.1801492321</v>
+        <v>44226.27521903688</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>scholarship</t>
+          <t>bird-nesting</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>장학금</t>
+          <t>(취미로) 새 둥지를 찾아다니는</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>4</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>44226.28725668429</v>
+        <v>44224.15166368884</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>awning</t>
+          <t>in a single direction</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>차양</t>
+          <t>한 방향으로</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>4</v>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772367</t>
-        </is>
+      <c r="D101" s="1" t="n">
+        <v>44224.95196826266</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>mural</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>(장기적으로) 장소를 제공하다</t>
+          <t>벽화</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>4</v>
       </c>
-      <c r="D102" s="1" t="n">
-        <v>44224.95196826055</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772204</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>be scattered on</t>
+          <t>liability</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>~에 흩어져 있다</t>
+          <t>책임</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>4</v>
       </c>
-      <c r="D103" s="1" t="n">
-        <v>44224.95196826251</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771945</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">halibut </t>
+          <t>floor</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>광어</t>
+          <t>작업장</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>44222.84692713412</v>
+        <v>44224.85289744924</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>plush</t>
+          <t>landscape</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>안락한, 고급의</t>
+          <t>조경을 하다</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>4</v>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772261</t>
-        </is>
+      <c r="D105" s="1" t="n">
+        <v>44226.27521903383</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>be supposed to</t>
+          <t>look forward to + -ing</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>~할 예정이다, ~하도록 되어 있다</t>
+          <t>~을 고대하다</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>44222.11419089574</v>
+        <v>44222.1141908915</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>plow</t>
+          <t>harvest</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>쟁기로 갈다; 쟁기</t>
+          <t>수확(량)</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>4</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>44222.11419088944</v>
+        <v>44226.27521903561</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>yield</t>
+          <t>lie</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>산출하다, (이익을) 내다</t>
+          <t>놓여 있다</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2394,311 +2400,315 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771984</t>
+          <t>2021-01-26 02:11:09.772423</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>be in force</t>
+          <t>paycheck</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>(법률 등이) 시행되다</t>
+          <t>급여(수표)</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>4</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>44224.15166368782</v>
+        <v>44222.84692713146</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>cost A B</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>부과하다, 맡기다</t>
+          <t>A에게 B의 비용이 들다</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>4</v>
       </c>
-      <c r="D110" s="1" t="n">
-        <v>44232.18014923265</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771851</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>in terms of</t>
+          <t>vary</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>~의 면에서</t>
+          <t>(서로) 다르다, 다양하다</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>4</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>44232.18014923233</v>
+        <v>44222.84692713229</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>gain</t>
+          <t>end up -ing</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>증가, 이익</t>
+          <t>~하게 되다, 결국 ~이 되다</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>4</v>
       </c>
-      <c r="D112" s="1" t="n">
-        <v>44232.18014923292</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772223</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>as to</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>~에 헌신하다[전념하다]</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>4</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>44226.28725668327</v>
+        <v>44222.11419089403</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>in preparation for</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>평가하다, 등급을 매기다</t>
+          <t>~에 대비하여</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>4</v>
       </c>
-      <c r="D114" s="1" t="n">
-        <v>44232.1801492325</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772320</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>wilted</t>
+          <t>water tower</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>살짝 데친</t>
+          <t>급수탑</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>4</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>44222.84692713471</v>
+        <v>44222.11419089501</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>feasibility</t>
+          <t>considerable</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>실행 가능성, 실현 가능성</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>4</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>44226.28725668096</v>
+        <v>44232.1801492321</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>bistro</t>
+          <t>research into</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>~을 조사하다</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>4</v>
       </c>
-      <c r="D117" s="1" t="n">
-        <v>44224.95196826063</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771870</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>be busy -ing</t>
+          <t>offshore</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>~하느라 바쁘다</t>
+          <t>연안에</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>4</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>44226.27521903316</v>
+        <v>44224.15166368827</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>courtyard</t>
+          <t>sealed</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>뜰, 정원</t>
+          <t xml:space="preserve">마감칠된, 밀폐된 </t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>4</v>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772213</t>
-        </is>
+      <c r="D119" s="1" t="n">
+        <v>44222.11419089418</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>be appointed + 직위</t>
+          <t>given</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>~로 임명되다</t>
+          <t>~을 고려할 때</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>4</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>44226.28725668301</v>
+        <v>44224.95196826023</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>assortment</t>
+          <t>assigned to</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>모음</t>
+          <t>~로 발령받다</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>44226.27521903592</v>
+        <v>44226.27521903752</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>wilderness</t>
+          <t>booklet</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>황야</t>
+          <t>소책자</t>
         </is>
       </c>
       <c r="C122" t="n">
         <v>4</v>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772087</t>
-        </is>
+      <c r="D122" s="1" t="n">
+        <v>44226.27521903467</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>get off</t>
+          <t>reconfigure</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>내리다</t>
+          <t>(시스템, 기기 등을) 재배열[재설정]</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>4</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>44226.27521903451</v>
+        <v>44224.85289744933</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>on time</t>
+          <t>wilted</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>정시에</t>
+          <t>살짝 데친</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>4</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>44226.28725668383</v>
+        <v>44222.84692713471</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>treat</t>
+          <t>wilderness</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>특별한 기쁨, 만족</t>
+          <t>황야</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2706,349 +2716,347 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772166</t>
+          <t>2021-01-26 02:11:09.772087</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>plumbing</t>
+          <t>theatergoer</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>배관[수도 시설], 배관 작업[공사]</t>
+          <t>극장에 (자주) 가는 사람</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>4</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>44222.11419089181</v>
+        <v>44224.95196826072</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>research into</t>
+          <t>admit</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>~을 조사하다</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>4</v>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771870</t>
-        </is>
+      <c r="D127" s="1" t="n">
+        <v>44224.85289744914</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>official</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>결심, 결정, 결단력</t>
+          <t>간부, 공무원</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>44226.28725668151</v>
+        <v>44222.11419089281</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>formal</t>
+          <t>substantial</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>공식적인</t>
+          <t>상당한, 실질적인</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>4</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>44226.28725668443</v>
+        <v>44226.27521903696</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>be about to + 동사원형</t>
+          <t>premise</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>막 ~하려고 하다</t>
+          <t>구내, 토지</t>
         </is>
       </c>
       <c r="C130" t="n">
         <v>4</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>44222.11419088992</v>
+        <v>44226.28725668188</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>correspondence</t>
+          <t>concerning</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>통신, 연락</t>
+          <t>~에 관한</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>44222.84692713374</v>
+        <v>44222.11419089493</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>bouquet</t>
+          <t>nevertheless</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>꽃다발</t>
+          <t>그럼에도 불구하고</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>4</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>44222.11419088952</v>
+        <v>44222.11419089097</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>devotion</t>
+          <t>courtyard</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>헌신, 전념</t>
+          <t>뜰, 정원</t>
         </is>
       </c>
       <c r="C133" t="n">
         <v>4</v>
       </c>
-      <c r="D133" s="1" t="n">
-        <v>44226.2752190349</v>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772213</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>interfere with</t>
+          <t>proximate</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>~을 방해하다</t>
+          <t>가장 가까운</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>44224.85289744781</v>
+        <v>44222.84692713319</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>every other week</t>
+          <t>get to</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>격주로</t>
+          <t>~에 착수하다</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>4</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>44222.11419089165</v>
+        <v>44226.27521903298</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>school term</t>
+          <t>verification</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>학기</t>
+          <t>확인, 조회</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>44226.28725668318</v>
+        <v>44224.15166368864</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>insist on -ing</t>
+          <t>commune</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>~할 것을 주장하다</t>
+          <t>친하게 사귀다</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>4</v>
       </c>
-      <c r="D137" s="1" t="n">
-        <v>44224.15166368698</v>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772068</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>consider A (as [to be]) B</t>
+          <t>assistant manager</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>A를 B로 여기다, 간주하다</t>
+          <t>대리</t>
         </is>
       </c>
       <c r="C138" t="n">
         <v>4</v>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771898</t>
-        </is>
+      <c r="D138" s="1" t="n">
+        <v>44222.84692713011</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>take over</t>
+          <t>initiator</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>인수하다, 이어받다</t>
+          <t>창시자</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>44226.287256684</v>
+        <v>44224.95196826103</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>delivery window</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>대우, 처치</t>
+          <t>배달 시간대</t>
         </is>
       </c>
       <c r="C140" t="n">
         <v>4</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>44226.27521903482</v>
+        <v>44222.84692713558</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>store credit</t>
+          <t>assume</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>상점 적립금</t>
+          <t>(책임 등을) 떠맡다, 담당하다</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>4</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>44226.27521903476</v>
+        <v>44232.18014923276</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>highland</t>
+          <t>financial position</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>고원</t>
+          <t>재무 상태</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772078</t>
-        </is>
+      <c r="D142" s="1" t="n">
+        <v>44222.11419089536</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>allege</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>(확실한 증거 없이) 주장하다</t>
+          <t>범위, 영역</t>
         </is>
       </c>
       <c r="C143" t="n">
         <v>4</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>44222.11419089303</v>
+        <v>44222.11419089205</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>forestall</t>
+          <t>mow</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>선수를 치다, 기선을 제압하다</t>
+          <t>잔디를 깎다</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -3056,675 +3064,669 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771832</t>
+          <t>2021-01-26 02:11:09.772470</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>authority</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>시의</t>
+          <t>당국, 권한</t>
         </is>
       </c>
       <c r="C145" t="n">
         <v>4</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>44222.11419089144</v>
+        <v>44226.28725668169</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>tenant</t>
+          <t>expenditure</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>세입자</t>
+          <t>지출</t>
         </is>
       </c>
       <c r="C146" t="n">
         <v>4</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>44226.28725668345</v>
+        <v>44222.84692713573</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>podium</t>
+          <t>bouquet</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>연단</t>
+          <t>꽃다발</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>4</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>44222.11419089007</v>
+        <v>44222.11419088952</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>initiation</t>
+          <t>devotion</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>창시, 입문</t>
+          <t>헌신, 전념</t>
         </is>
       </c>
       <c r="C148" t="n">
         <v>4</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>44224.95196826095</v>
+        <v>44226.2752190349</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>pay package</t>
+          <t>scholarship</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>연봉</t>
+          <t>장학금</t>
         </is>
       </c>
       <c r="C149" t="n">
         <v>4</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>44226.27521903706</v>
+        <v>44226.28725668429</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>appreciate</t>
+          <t>feature</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>(영화, 전시 등에) 등장시키다, 특집으로 다루다, 특징을 이루다</t>
         </is>
       </c>
       <c r="C150" t="n">
         <v>4</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>44222.84692713288</v>
+        <v>44224.85289744905</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>on your own</t>
+          <t>extend</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>혼자 힘으로</t>
+          <t>정도, 범위</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>44226.27521903334</v>
+        <v>44226.28725668084</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>color scheme</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>취재하다, 기사를 담당하다</t>
+          <t>색체 조합</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>4</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>44226.28725668292</v>
+        <v>44224.15166368855</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>anchor</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>정박하다</t>
+          <t>(봉지에 넣어) 포장하다</t>
         </is>
       </c>
       <c r="C153" t="n">
         <v>4</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>44224.15166368819</v>
+        <v>44222.11419089067</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>liability</t>
+          <t>acidic</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>책임</t>
+          <t>매우 신</t>
         </is>
       </c>
       <c r="C154" t="n">
         <v>4</v>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771945</t>
-        </is>
+      <c r="D154" s="1" t="n">
+        <v>44222.84692713419</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>sole</t>
+          <t>orchard</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>밑창</t>
+          <t>과수원</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>44222.8469271326</v>
+        <v>44222.11419089173</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>alumi</t>
+          <t>serve as</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>졸업생들</t>
+          <t>~의 역할을 하다</t>
         </is>
       </c>
       <c r="C156" t="n">
         <v>4</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>44226.27521903729</v>
+        <v>44222.8469271309</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>synthetic</t>
+          <t>compete</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>합성의</t>
+          <t>경쟁하다</t>
         </is>
       </c>
       <c r="C157" t="n">
         <v>4</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>44222.84692713212</v>
+        <v>44232.18014923241</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>elevation</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>승진</t>
+          <t>산출하다, (이익을) 내다</t>
         </is>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
-      <c r="D158" s="1" t="n">
-        <v>44226.27521903538</v>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771984</t>
+        </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>decide against -ing</t>
+          <t>testimonial</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>~하지 않기로 결정하다</t>
+          <t>추천의 글</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>44224.85289744789</v>
+        <v>44222.11419089424</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>criticism</t>
+          <t>beam</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>비판, 비평</t>
+          <t>들보, 보</t>
         </is>
       </c>
       <c r="C160" t="n">
         <v>4</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>44226.28725668482</v>
+        <v>44224.85289744888</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>high court</t>
+          <t>somewhat</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>고등 법원</t>
+          <t>다소, 약간</t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771936</t>
-        </is>
+      <c r="D161" s="1" t="n">
+        <v>44222.84692713027</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>make landfall</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>착륙하다</t>
+          <t>시의</t>
         </is>
       </c>
       <c r="C162" t="n">
         <v>4</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>44224.15166368837</v>
+        <v>44222.11419089144</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>sealed</t>
+          <t>tenant</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">마감칠된, 밀폐된 </t>
+          <t>세입자</t>
         </is>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>44222.11419089418</v>
+        <v>44226.28725668345</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>every other week</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">상당히 </t>
+          <t>격주로</t>
         </is>
       </c>
       <c r="C164" t="n">
         <v>4</v>
       </c>
       <c r="D164" s="1" t="n">
-        <v>44222.84692713397</v>
+        <v>44222.11419089165</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ojection</t>
+          <t>paystub</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>급여 명세서</t>
         </is>
       </c>
       <c r="C165" t="n">
         <v>4</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>44226.27521903523</v>
+        <v>44222.84692713153</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>initiation</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>제시[제출]하다</t>
+          <t>창시, 입문</t>
         </is>
       </c>
       <c r="C166" t="n">
         <v>4</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>44232.18014923333</v>
+        <v>44224.95196826095</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>indication</t>
+          <t>fool</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>암시</t>
+          <t>속이다</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>4</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>44226.2752190353</v>
+        <v>44222.84692713268</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>roll-out</t>
+          <t xml:space="preserve">halibut </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>(신제품의) 첫 공개</t>
+          <t>광어</t>
         </is>
       </c>
       <c r="C168" t="n">
         <v>4</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>44224.85289744857</v>
+        <v>44222.84692713412</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>faulty</t>
+          <t>plumbing</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>결함이 있는</t>
+          <t>배관[수도 시설], 배관 작업[공사]</t>
         </is>
       </c>
       <c r="C169" t="n">
         <v>4</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>44226.27521903606</v>
+        <v>44222.11419089181</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>opener</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>병따개, 첫 행동</t>
+          <t>중역</t>
         </is>
       </c>
       <c r="C170" t="n">
         <v>4</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>44232.18014923323</v>
+        <v>44226.28725668391</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>derive</t>
+          <t>latest</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>끌어내다</t>
+          <t>최신의</t>
         </is>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>44222.11419089582</v>
+        <v>44222.84692713204</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>acclaimed</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>칭찬[호평] 받는</t>
+          <t>결근, 부재</t>
         </is>
       </c>
       <c r="C172" t="n">
         <v>4</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>44226.28725668411</v>
+        <v>44222.84692713073</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>earn</t>
+          <t>deliberation</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>~에게 …을 받게 할 자격을 주다</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>44226.27521903714</v>
+        <v>44222.11419089273</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>assigned to</t>
+          <t>have company</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>~로 발령받다</t>
+          <t>동행[일행]이 있다</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>4</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>44226.27521903752</v>
+        <v>44226.28725668309</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>lay</t>
+          <t>correspondence</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>놓다, 두다</t>
+          <t>통신, 연락</t>
         </is>
       </c>
       <c r="C175" t="n">
         <v>4</v>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772433</t>
-        </is>
+      <c r="D175" s="1" t="n">
+        <v>44222.84692713374</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>estimate</t>
+          <t>en masse</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>견적</t>
+          <t>집단으로</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>44226.27521903508</v>
+        <v>44224.85289744838</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>outlook</t>
+          <t>unfavorable</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>관점, 전망</t>
+          <t>불리한</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>4</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>44226.27521903759</v>
+        <v>44224.15166368725</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Town council</t>
+          <t>alumi</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>시의회</t>
+          <t>졸업생들</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>4</v>
       </c>
       <c r="D178" s="1" t="n">
-        <v>44224.95196826015</v>
+        <v>44226.27521903729</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>tuition</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>결근, 부재</t>
+          <t>학자금</t>
         </is>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>44222.84692713073</v>
+        <v>44222.84692713174</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>outplay</t>
+          <t>sip</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>패배시키다</t>
+          <t>마시다</t>
         </is>
       </c>
       <c r="C180" t="n">
         <v>4</v>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771879</t>
-        </is>
+      <c r="D180" s="1" t="n">
+        <v>44222.1141908906</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>in preparation for</t>
+          <t xml:space="preserve">sizable </t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>~에 대비하여</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -3732,55 +3734,55 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772320</t>
+          <t>2021-01-26 02:11:09.772232</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>retention</t>
+          <t>elevation</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
+          <t>승진</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>4</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>44226.28725668124</v>
+        <v>44226.27521903538</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>unfavorable</t>
+          <t>decide against -ing</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>불리한</t>
+          <t>~하지 않기로 결정하다</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>4</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>44224.15166368725</v>
+        <v>44224.85289744789</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>end up -ing</t>
+          <t>overdraw</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>~하게 되다, 결국 ~이 되다</t>
+          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -3788,1324 +3790,1320 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772223</t>
+          <t>2021-01-26 02:11:09.772059</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>Town council</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>작업장</t>
+          <t>시의회</t>
         </is>
       </c>
       <c r="C185" t="n">
         <v>4</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>44224.85289744924</v>
+        <v>44224.95196826015</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>disclosure</t>
+          <t>roll-out</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>공개</t>
+          <t>(신제품의) 첫 공개</t>
         </is>
       </c>
       <c r="C186" t="n">
         <v>4</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>44226.28725668178</v>
+        <v>44224.85289744857</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>corn</t>
+          <t>critically</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>옥수수</t>
+          <t>비판적으로</t>
         </is>
       </c>
       <c r="C187" t="n">
         <v>4</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>44232.180149233</v>
+        <v>44226.28725668474</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>assembly</t>
+          <t>crate</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>의회</t>
+          <t>상자</t>
         </is>
       </c>
       <c r="C188" t="n">
         <v>4</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>44226.27521903737</v>
+        <v>44222.11419088969</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>quite a while ago</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>꽤 오래전에</t>
+          <t>견적</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>4</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>44226.27521903308</v>
+        <v>44226.27521903508</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>harvest</t>
+          <t>store credit</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>수확(량)</t>
+          <t>상점 적립금</t>
         </is>
       </c>
       <c r="C190" t="n">
         <v>4</v>
       </c>
       <c r="D190" s="1" t="n">
-        <v>44226.27521903561</v>
+        <v>44226.27521903476</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>take inventory</t>
+          <t>now that</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>재고 조사를 하다</t>
+          <t>~이기 때문에</t>
         </is>
       </c>
       <c r="C191" t="n">
         <v>4</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>44224.95196826282</v>
+        <v>44226.27521903344</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>serve as</t>
+          <t>ojection</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>~의 역할을 하다</t>
+          <t>반대</t>
         </is>
       </c>
       <c r="C192" t="n">
         <v>4</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>44222.8469271309</v>
+        <v>44226.27521903523</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>somewhat</t>
+          <t xml:space="preserve">critic </t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>다소, 약간</t>
+          <t>비평가</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>4</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>44222.84692713027</v>
+        <v>44226.28725668466</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>thoroughly</t>
+          <t>bet</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>철저히</t>
+          <t>선택한 것[사람], 방책</t>
         </is>
       </c>
       <c r="C194" t="n">
         <v>4</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>44222.84692713282</v>
+        <v>44222.84692713251</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>compete</t>
+          <t>faulty</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>경쟁하다</t>
+          <t>결함이 있는</t>
         </is>
       </c>
       <c r="C195" t="n">
         <v>4</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>44232.18014923241</v>
+        <v>44226.27521903606</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>proprietor</t>
+          <t>publicize</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>사업주</t>
+          <t>공표하다, 알리다</t>
         </is>
       </c>
       <c r="C196" t="n">
         <v>4</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>44226.28725668335</v>
+        <v>44224.95196826175</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>faint</t>
+          <t>allowance</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>희미한</t>
+          <t>수당</t>
         </is>
       </c>
       <c r="C197" t="n">
         <v>4</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>44222.11419089351</v>
+        <v>44226.28725668143</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>synthetic</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>(봉지에 넣어) 포장하다</t>
+          <t>합성의</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>44222.11419089067</v>
+        <v>44222.84692713212</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>feature</t>
+          <t>be about to + 동사원형</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>(영화, 전시 등에) 등장시키다, 특집으로 다루다, 특징을 이루다</t>
+          <t>막 ~하려고 하다</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>44224.85289744905</v>
+        <v>44222.11419088992</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>excutive chef</t>
+          <t>in exchange for</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>총 주방장</t>
+          <t>~을 대신해서</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D200" s="1" t="n">
-        <v>44224.9519682608</v>
+        <v>44222.84692713327</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>be scattered on</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>처리[해결]하다, 다루다</t>
+          <t>~에 흩어져 있다</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>44224.95196826212</v>
+        <v>44224.95196826251</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>authority</t>
+          <t>help out</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>당국, 권한</t>
+          <t>도와주다</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D202" s="1" t="n">
-        <v>44226.28725668169</v>
+        <v>44226.28725668362</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>rotunda</t>
+          <t>overlook</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>원형의 홀, 원형 건축물</t>
+          <t>간과; ~을 간과하다, 내려보다</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>4</v>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772308</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D203" s="1" t="n">
+        <v>44222.84692713336</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>tuck away</t>
+          <t>formerly</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>찾기힘든 안전한 곳에 보관하다</t>
+          <t>예전에</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>44222.84692713565</v>
+        <v>44224.95196826047</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>enthusiast</t>
+          <t>matter</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>열성팬 [열렬한 팬]</t>
+          <t>중요하다</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D205" s="1" t="n">
-        <v>44222.84692713221</v>
+        <v>44226.28725668374</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>latest</t>
+          <t>jointly</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>최신의</t>
+          <t>공동으로</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>44222.84692713204</v>
+        <v>44224.15166368744</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>scope</t>
+          <t>unconvinced</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>범위, 영역</t>
+          <t>납득하지[찬성하지] 않는</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>44222.11419089205</v>
+        <v>44224.95196826149</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>financial position</t>
+          <t>quotation</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>재무 상태</t>
+          <t>인용</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>44222.11419089536</v>
+        <v>44226.27521903567</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>have company</t>
+          <t>tremendous</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>동행[일행]이 있다</t>
+          <t>엄청난, 대단한</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>4</v>
-      </c>
-      <c r="D209" s="1" t="n">
-        <v>44226.28725668309</v>
+        <v>3</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772348</t>
+        </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>designate</t>
+          <t>staircase</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>지정하다</t>
+          <t>계단</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>4</v>
-      </c>
-      <c r="D210" s="1" t="n">
-        <v>44226.28725668353</v>
+        <v>3</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772386</t>
+        </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>delivery window</t>
+          <t>outdate</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>배달 시간대</t>
+          <t>시대에 뒤지게 하다</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>4</v>
-      </c>
-      <c r="D211" s="1" t="n">
-        <v>44222.84692713558</v>
+        <v>3</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772049</t>
+        </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>initiator</t>
+          <t>position</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>창시자</t>
+          <t>배치하다</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D212" s="1" t="n">
-        <v>44224.95196826103</v>
+        <v>44222.11419089052</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">critic </t>
+          <t>privately held company</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>비평가</t>
+          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D213" s="1" t="n">
-        <v>44226.28725668466</v>
+        <v>44222.11419089373</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>be due to + 동사원형</t>
+          <t xml:space="preserve">entrée </t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>메인 메뉴</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D214" s="1" t="n">
-        <v>44222.11419089388</v>
+        <v>44224.15166368672</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>frustrating</t>
+          <t>premiere</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>실망스러운</t>
+          <t>초연, 개봉; 최고의</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D215" s="1" t="n">
-        <v>44222.84692713296</v>
+        <v>44222.11419089365</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>glazed</t>
+          <t>compare A with[to] B</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>(설탕을 입혀) 윤기가 나는</t>
+          <t>A를 B에 비교[비유]하다</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>4</v>
-      </c>
-      <c r="D216" s="1" t="n">
-        <v>44222.84692713429</v>
+        <v>3</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771993</t>
+        </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>get to</t>
+          <t>template</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>~에 착수하다</t>
+          <t>견본</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D217" s="1" t="n">
-        <v>44226.27521903298</v>
+        <v>44224.15166368846</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>proximate</t>
+          <t>take off</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>가장 가까운</t>
+          <t>이륙하다</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>44222.84692713319</v>
+        <v>44222.11419089037</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>overdraw</t>
+          <t>persevere</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
+          <t>인내하다</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772059</t>
+          <t>2021-01-26 02:11:09.771823</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>stove</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>영업, 사업</t>
+          <t>(조리용) 레인지</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>44226.27521903515</v>
+        <v>44222.11419088936</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>critically</t>
+          <t>stationery store</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>비판적으로</t>
+          <t>문구점</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D221" s="1" t="n">
-        <v>44226.28725668474</v>
+        <v>44226.27521903351</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>pavilion</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
+          <t>차이, 변형(시킨 것)</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D222" s="1" t="n">
-        <v>44222.11419089228</v>
+        <v>44226.2872566816</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>premise</t>
+          <t>favor</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>구내, 토지</t>
+          <t>호의</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D223" s="1" t="n">
-        <v>44226.28725668188</v>
+        <v>44226.275219035</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>a load of</t>
+          <t>bistro</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>한 짐의, 많은</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D224" s="1" t="n">
-        <v>44222.11419088984</v>
+        <v>44224.95196826063</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>valdiation</t>
+          <t>be appointed + 직위</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>확인</t>
+          <t>~로 임명되다</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D225" s="1" t="n">
-        <v>44226.27521903553</v>
+        <v>44226.28725668301</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>now that</t>
+          <t>on time</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>~이기 때문에</t>
+          <t>정시에</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D226" s="1" t="n">
-        <v>44226.27521903344</v>
+        <v>44226.28725668383</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>admit</t>
+          <t>in a timely manner</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>시기에 맞게</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D227" s="1" t="n">
-        <v>44224.85289744914</v>
+        <v>44226.28725668437</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>theatergoer</t>
+          <t>momentum</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>극장에 (자주) 가는 사람</t>
+          <t>탄력, 가속도, 여세</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D228" s="1" t="n">
-        <v>44224.95196826072</v>
+        <v>44226.27521903367</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>reconfigure</t>
+          <t>compliment</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>(시스템, 기기 등을) 재배열[재설정]</t>
+          <t>칭찬하다</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D229" s="1" t="n">
-        <v>44224.85289744933</v>
+        <v>44224.85289744801</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>such</t>
+          <t>bear with</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>그러한</t>
+          <t>~을 견디다, 참다</t>
         </is>
       </c>
       <c r="C230" t="n">
         <v>3</v>
       </c>
-      <c r="D230" s="1" t="n">
-        <v>44232.18014923315</v>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771955</t>
+        </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>matter</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>중요하다</t>
+          <t>대우, 처치</t>
         </is>
       </c>
       <c r="C231" t="n">
         <v>3</v>
       </c>
       <c r="D231" s="1" t="n">
-        <v>44226.28725668374</v>
+        <v>44226.27521903482</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>jointly</t>
+          <t>as much as possible</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>공동으로</t>
+          <t>가능한 많이</t>
         </is>
       </c>
       <c r="C232" t="n">
         <v>3</v>
       </c>
       <c r="D232" s="1" t="n">
-        <v>44224.15166368744</v>
+        <v>44226.27521903324</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>polish</t>
+          <t>anchor</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>닦다, 광내다</t>
+          <t>정박하다</t>
         </is>
       </c>
       <c r="C233" t="n">
         <v>3</v>
       </c>
       <c r="D233" s="1" t="n">
-        <v>44222.11419088977</v>
+        <v>44224.15166368819</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>quotation</t>
+          <t>lean against</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>인용</t>
+          <t>~에 기대다</t>
         </is>
       </c>
       <c r="C234" t="n">
         <v>3</v>
       </c>
-      <c r="D234" s="1" t="n">
-        <v>44226.27521903567</v>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772451</t>
+        </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>tremendous</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>엄청난, 대단한</t>
+          <t>유효한</t>
         </is>
       </c>
       <c r="C235" t="n">
         <v>3</v>
       </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772348</t>
-        </is>
+      <c r="D235" s="1" t="n">
+        <v>44222.8469271319</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>attire</t>
+          <t>indication</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>복장</t>
+          <t>암시</t>
         </is>
       </c>
       <c r="C236" t="n">
         <v>3</v>
       </c>
       <c r="D236" s="1" t="n">
-        <v>44222.84692713121</v>
+        <v>44226.2752190353</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>outdate</t>
+          <t>outlook</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>시대에 뒤지게 하다</t>
+          <t>관점, 전망</t>
         </is>
       </c>
       <c r="C237" t="n">
         <v>3</v>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772049</t>
-        </is>
+      <c r="D237" s="1" t="n">
+        <v>44226.27521903759</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>delegate</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>배치하다</t>
+          <t>대표(자), 위임하다, 선정하다</t>
         </is>
       </c>
       <c r="C238" t="n">
         <v>3</v>
       </c>
       <c r="D238" s="1" t="n">
-        <v>44222.11419089052</v>
+        <v>44222.1141908925</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>privately held company</t>
+          <t>awning</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
+          <t>차양</t>
         </is>
       </c>
       <c r="C239" t="n">
         <v>3</v>
       </c>
-      <c r="D239" s="1" t="n">
-        <v>44222.11419089373</v>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772367</t>
+        </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t xml:space="preserve">entrée </t>
+          <t>faint</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>메인 메뉴</t>
+          <t>희미한</t>
         </is>
       </c>
       <c r="C240" t="n">
         <v>3</v>
       </c>
       <c r="D240" s="1" t="n">
-        <v>44224.15166368672</v>
+        <v>44222.11419089351</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>premiere</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>초연, 개봉; 최고의</t>
+          <t>직업</t>
         </is>
       </c>
       <c r="C241" t="n">
         <v>3</v>
       </c>
       <c r="D241" s="1" t="n">
-        <v>44222.11419089365</v>
+        <v>44226.27521903744</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>compare A with[to] B</t>
+          <t>get off</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>A를 B에 비교[비유]하다</t>
+          <t>내리다</t>
         </is>
       </c>
       <c r="C242" t="n">
         <v>3</v>
       </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771993</t>
-        </is>
+      <c r="D242" s="1" t="n">
+        <v>44226.27521903451</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>delegate</t>
+          <t>pass out</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>대표(자), 위임하다, 선정하다</t>
+          <t>건네다</t>
         </is>
       </c>
       <c r="C243" t="n">
         <v>3</v>
       </c>
       <c r="D243" s="1" t="n">
-        <v>44222.1141908925</v>
+        <v>44226.27521903459</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>template</t>
+          <t>tender</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>견본</t>
+          <t>(고기가) 연한</t>
         </is>
       </c>
       <c r="C244" t="n">
         <v>3</v>
       </c>
       <c r="D244" s="1" t="n">
-        <v>44224.15166368846</v>
+        <v>44222.84692713404</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>take off</t>
+          <t>thoroughly</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>이륙하다</t>
+          <t>철저히</t>
         </is>
       </c>
       <c r="C245" t="n">
         <v>3</v>
       </c>
       <c r="D245" s="1" t="n">
-        <v>44222.11419089037</v>
+        <v>44222.84692713282</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>persevere</t>
+          <t>attire</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>인내하다</t>
+          <t>복장</t>
         </is>
       </c>
       <c r="C246" t="n">
         <v>3</v>
       </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771823</t>
-        </is>
+      <c r="D246" s="1" t="n">
+        <v>44222.84692713121</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>staircase</t>
+          <t>will pay a visit</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>계단</t>
+          <t>방문할 것이다.</t>
         </is>
       </c>
       <c r="C247" t="n">
         <v>3</v>
       </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772386</t>
-        </is>
+      <c r="D247" s="1" t="n">
+        <v>44222.11419089448</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>lean against</t>
+          <t>interoffice</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>~에 기대다</t>
+          <t>회사 내의, 각 부서간의</t>
         </is>
       </c>
       <c r="C248" t="n">
         <v>3</v>
       </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772451</t>
-        </is>
+      <c r="D248" s="1" t="n">
+        <v>44222.8469271298</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>stove</t>
+          <t>be propped on[against]</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>(조리용) 레인지</t>
+          <t>~에 기대어 있다</t>
         </is>
       </c>
       <c r="C249" t="n">
         <v>3</v>
       </c>
       <c r="D249" s="1" t="n">
-        <v>44222.11419088936</v>
+        <v>44224.95196826236</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>stationery store</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>문구점</t>
+          <t>닦다, 광내다</t>
         </is>
       </c>
       <c r="C250" t="n">
         <v>3</v>
       </c>
       <c r="D250" s="1" t="n">
-        <v>44226.27521903351</v>
+        <v>44222.11419088977</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>unconvinced</t>
+          <t>feasibility</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>납득하지[찬성하지] 않는</t>
+          <t>실행 가능성, 실현 가능성</t>
         </is>
       </c>
       <c r="C251" t="n">
         <v>3</v>
       </c>
       <c r="D251" s="1" t="n">
-        <v>44224.95196826149</v>
+        <v>44226.28725668096</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>formal</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>차이, 변형(시킨 것)</t>
+          <t>공식적인</t>
         </is>
       </c>
       <c r="C252" t="n">
         <v>3</v>
       </c>
       <c r="D252" s="1" t="n">
-        <v>44226.2872566816</v>
+        <v>44226.28725668443</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>bear with</t>
+          <t>take over</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>~을 견디다, 참다</t>
+          <t>인수하다, 이어받다</t>
         </is>
       </c>
       <c r="C253" t="n">
         <v>3</v>
       </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771955</t>
-        </is>
+      <c r="D253" s="1" t="n">
+        <v>44226.287256684</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>favor</t>
+          <t>such</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>호의</t>
+          <t>그러한</t>
         </is>
       </c>
       <c r="C254" t="n">
         <v>3</v>
       </c>
       <c r="D254" s="1" t="n">
-        <v>44226.275219035</v>
+        <v>44232.18014923315</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>formerly</t>
+          <t>implore</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>예전에</t>
+          <t>애원하다, 간청하다</t>
         </is>
       </c>
       <c r="C255" t="n">
         <v>3</v>
       </c>
       <c r="D255" s="1" t="n">
-        <v>44224.95196826047</v>
+        <v>44222.11419089589</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>excuse</t>
+          <t>consumer electronics industry</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>~을 용서하다, ~에 대해 변명하다</t>
+          <t>가전 사업</t>
         </is>
       </c>
       <c r="C256" t="n">
         <v>3</v>
       </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772040</t>
-        </is>
+      <c r="D256" s="1" t="n">
+        <v>44222.11419089379</v>
       </c>
     </row>
     <row r="257">
@@ -5219,19 +5217,19 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>openness</t>
+          <t>as a token of</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>솔직함, 개방성</t>
+          <t>~의 표시로서, ~의 증거로</t>
         </is>
       </c>
       <c r="C263" t="n">
         <v>3</v>
       </c>
       <c r="D263" s="1" t="n">
-        <v>44222.1141908947</v>
+        <v>44224.9519682622</v>
       </c>
     </row>
     <row r="264">
@@ -5273,19 +5271,19 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>dairy farmer</t>
+          <t>where as</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>낙농업자</t>
+          <t>~이지만</t>
         </is>
       </c>
       <c r="C266" t="n">
         <v>3</v>
       </c>
       <c r="D266" s="1" t="n">
-        <v>44226.2752190368</v>
+        <v>44222.84692713051</v>
       </c>
     </row>
     <row r="267">
@@ -5329,19 +5327,19 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>commentary</t>
+          <t>make a name</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>명성을 얻다</t>
         </is>
       </c>
       <c r="C269" t="n">
         <v>3</v>
       </c>
       <c r="D269" s="1" t="n">
-        <v>44226.28725668451</v>
+        <v>44224.85289744829</v>
       </c>
     </row>
     <row r="270">
@@ -5457,21 +5455,19 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>determine to do</t>
+          <t>sleek</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>~하겠다고 결심하다</t>
+          <t>(모양이) 매끈한</t>
         </is>
       </c>
       <c r="C276" t="n">
         <v>3</v>
       </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771889</t>
-        </is>
+      <c r="D276" s="1" t="n">
+        <v>44224.8528974482</v>
       </c>
     </row>
     <row r="277">
@@ -5515,19 +5511,19 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>excerpt</t>
+          <t>put on hold</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>발췌, 인용</t>
+          <t>보류하다</t>
         </is>
       </c>
       <c r="C279" t="n">
         <v>3</v>
       </c>
       <c r="D279" s="1" t="n">
-        <v>44222.84692713058</v>
+        <v>44224.8528974488</v>
       </c>
     </row>
     <row r="280">
@@ -5569,21 +5565,19 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>get in</t>
+          <t>hearty</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>~에 들어가다, 도착하다</t>
+          <t>(음식이) 푸짐하고 만족스러운</t>
         </is>
       </c>
       <c r="C282" t="n">
         <v>3</v>
       </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771965</t>
-        </is>
+      <c r="D282" s="1" t="n">
+        <v>44222.84692713589</v>
       </c>
     </row>
     <row r="283">
@@ -5703,19 +5697,19 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>shelving unit</t>
+          <t>by contrast</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>그와 대조적으로</t>
         </is>
       </c>
       <c r="C289" t="n">
         <v>3</v>
       </c>
       <c r="D289" s="1" t="n">
-        <v>44222.11419089014</v>
+        <v>44224.8528974481</v>
       </c>
     </row>
     <row r="290">
@@ -5757,19 +5751,19 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>rugged</t>
+          <t>authenticity</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>울퉁불퉁한</t>
+          <t>진짜임</t>
         </is>
       </c>
       <c r="C292" t="n">
         <v>3</v>
       </c>
       <c r="D292" s="1" t="n">
-        <v>44222.84692713236</v>
+        <v>44224.15166368874</v>
       </c>
     </row>
     <row r="293">
@@ -5813,21 +5807,19 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>sweep -&gt; swept -&gt; swept</t>
+          <t>simply</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>(빗자루로)쓸다, 청소하다</t>
+          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
         </is>
       </c>
       <c r="C295" t="n">
         <v>3</v>
       </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772376</t>
-        </is>
+      <c r="D295" s="1" t="n">
+        <v>44222.11419089295</v>
       </c>
     </row>
     <row r="296">
@@ -5941,19 +5933,19 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>set foot on</t>
+          <t>much-needed</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>~에 발을 들여놓다</t>
+          <t>꼭 필요한</t>
         </is>
       </c>
       <c r="C302" t="n">
         <v>3</v>
       </c>
       <c r="D302" s="1" t="n">
-        <v>44224.15166368801</v>
+        <v>44222.11419089566</v>
       </c>
     </row>
     <row r="303">
@@ -5995,19 +5987,19 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>pension</t>
+          <t>prop</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>연금</t>
+          <t>받치다</t>
         </is>
       </c>
       <c r="C305" t="n">
         <v>3</v>
       </c>
       <c r="D305" s="1" t="n">
-        <v>44222.8469271316</v>
+        <v>44222.11419088928</v>
       </c>
     </row>
     <row r="306">
@@ -6051,19 +6043,19 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>traditionally</t>
+          <t>lead character</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>예전부터, 통상적으로</t>
+          <t>주인공</t>
         </is>
       </c>
       <c r="C308" t="n">
         <v>3</v>
       </c>
       <c r="D308" s="1" t="n">
-        <v>44222.84692713359</v>
+        <v>44222.11419089189</v>
       </c>
     </row>
     <row r="309">
@@ -6177,19 +6169,19 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>lodging</t>
+          <t>runway</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>임시 숙소</t>
+          <t>활주로</t>
         </is>
       </c>
       <c r="C315" t="n">
         <v>3</v>
       </c>
       <c r="D315" s="1" t="n">
-        <v>44224.15166368707</v>
+        <v>44222.11419089044</v>
       </c>
     </row>
     <row r="316">
@@ -6231,19 +6223,19 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>glowing</t>
+          <t>technical drawing</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>극찬하는</t>
+          <t>제도(= drafting)</t>
         </is>
       </c>
       <c r="C318" t="n">
         <v>3</v>
       </c>
       <c r="D318" s="1" t="n">
-        <v>44222.84692713534</v>
+        <v>44222.1141908909</v>
       </c>
     </row>
     <row r="319">
@@ -6451,39 +6443,39 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>recognize A as B</t>
+          <t>glowing</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>A를 B로 인식하다</t>
+          <t>극찬하는</t>
         </is>
       </c>
       <c r="C330" t="n">
         <v>3</v>
       </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771842</t>
-        </is>
+      <c r="D330" s="1" t="n">
+        <v>44222.84692713534</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>technical drawing</t>
+          <t>recognize A as B</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>제도(= drafting)</t>
+          <t>A를 B로 인식하다</t>
         </is>
       </c>
       <c r="C331" t="n">
         <v>3</v>
       </c>
-      <c r="D331" s="1" t="n">
-        <v>44222.1141908909</v>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771842</t>
+        </is>
       </c>
     </row>
     <row r="332">
@@ -6527,39 +6519,39 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>high-volume</t>
+          <t>lodging</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>대량의</t>
+          <t>임시 숙소</t>
         </is>
       </c>
       <c r="C334" t="n">
         <v>3</v>
       </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772339</t>
-        </is>
+      <c r="D334" s="1" t="n">
+        <v>44224.15166368707</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>runway</t>
+          <t>high-volume</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>활주로</t>
+          <t>대량의</t>
         </is>
       </c>
       <c r="C335" t="n">
         <v>3</v>
       </c>
-      <c r="D335" s="1" t="n">
-        <v>44222.11419089044</v>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772339</t>
+        </is>
       </c>
     </row>
     <row r="336">
@@ -6677,39 +6669,39 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>botanist</t>
+          <t>traditionally</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>식물학자</t>
+          <t>예전부터, 통상적으로</t>
         </is>
       </c>
       <c r="C342" t="n">
         <v>3</v>
       </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772134</t>
-        </is>
+      <c r="D342" s="1" t="n">
+        <v>44222.84692713359</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>lead character</t>
+          <t>botanist</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>주인공</t>
+          <t>식물학자</t>
         </is>
       </c>
       <c r="C343" t="n">
         <v>3</v>
       </c>
-      <c r="D343" s="1" t="n">
-        <v>44222.11419089189</v>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772134</t>
+        </is>
       </c>
     </row>
     <row r="344">
@@ -6751,37 +6743,37 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>beneath</t>
+          <t>pension</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>~밑에</t>
+          <t>연금</t>
         </is>
       </c>
       <c r="C346" t="n">
         <v>3</v>
       </c>
       <c r="D346" s="1" t="n">
-        <v>44222.11419088913</v>
+        <v>44222.8469271316</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>prop</t>
+          <t>beneath</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>받치다</t>
+          <t>~밑에</t>
         </is>
       </c>
       <c r="C347" t="n">
         <v>3</v>
       </c>
       <c r="D347" s="1" t="n">
-        <v>44222.11419088928</v>
+        <v>44222.11419088913</v>
       </c>
     </row>
     <row r="348">
@@ -6823,37 +6815,37 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>set foot on</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>(길, 강 등이) 구불구불하다</t>
+          <t>~에 발을 들여놓다</t>
         </is>
       </c>
       <c r="C350" t="n">
         <v>3</v>
       </c>
       <c r="D350" s="1" t="n">
-        <v>44222.11419088961</v>
+        <v>44224.15166368801</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>much-needed</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>꼭 필요한</t>
+          <t>(길, 강 등이) 구불구불하다</t>
         </is>
       </c>
       <c r="C351" t="n">
         <v>3</v>
       </c>
       <c r="D351" s="1" t="n">
-        <v>44222.11419089566</v>
+        <v>44222.11419088961</v>
       </c>
     </row>
     <row r="352">
@@ -6973,12 +6965,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>sweep -&gt; swept -&gt; swept</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>제공하다</t>
+          <t>(빗자루로)쓸다, 청소하다</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -6986,26 +6978,28 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772157</t>
+          <t>2021-01-26 02:11:09.772376</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>simply</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
+          <t>제공하다</t>
         </is>
       </c>
       <c r="C359" t="n">
         <v>3</v>
       </c>
-      <c r="D359" s="1" t="n">
-        <v>44222.11419089295</v>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772157</t>
+        </is>
       </c>
     </row>
     <row r="360">
@@ -7049,37 +7043,37 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>hands-on</t>
+          <t>rugged</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>실천의, 직접 해보는</t>
+          <t>울퉁불퉁한</t>
         </is>
       </c>
       <c r="C362" t="n">
         <v>3</v>
       </c>
       <c r="D362" s="1" t="n">
-        <v>44222.11419089559</v>
+        <v>44222.84692713236</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>authenticity</t>
+          <t>hands-on</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>진짜임</t>
+          <t>실천의, 직접 해보는</t>
         </is>
       </c>
       <c r="C363" t="n">
         <v>3</v>
       </c>
       <c r="D363" s="1" t="n">
-        <v>44224.15166368874</v>
+        <v>44222.11419089559</v>
       </c>
     </row>
     <row r="364">
@@ -7121,37 +7115,37 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>shelving unit</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>상당히, 꽤</t>
+          <t>선반</t>
         </is>
       </c>
       <c r="C366" t="n">
         <v>3</v>
       </c>
       <c r="D366" s="1" t="n">
-        <v>44222.11419089105</v>
+        <v>44222.11419089014</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>by contrast</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>그와 대조적으로</t>
+          <t>상당히, 꽤</t>
         </is>
       </c>
       <c r="C367" t="n">
         <v>3</v>
       </c>
       <c r="D367" s="1" t="n">
-        <v>44224.8528974481</v>
+        <v>44222.11419089105</v>
       </c>
     </row>
     <row r="368">
@@ -7269,37 +7263,39 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>be credited with</t>
+          <t>get in</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>~에 공로가 있다</t>
+          <t>~에 들어가다, 도착하다</t>
         </is>
       </c>
       <c r="C374" t="n">
         <v>3</v>
       </c>
-      <c r="D374" s="1" t="n">
-        <v>44224.95196826007</v>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771965</t>
+        </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>hearty</t>
+          <t>be credited with</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>(음식이) 푸짐하고 만족스러운</t>
+          <t>~에 공로가 있다</t>
         </is>
       </c>
       <c r="C375" t="n">
         <v>3</v>
       </c>
       <c r="D375" s="1" t="n">
-        <v>44222.84692713589</v>
+        <v>44224.95196826007</v>
       </c>
     </row>
     <row r="376">
@@ -7343,39 +7339,39 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>crepe</t>
+          <t>excerpt</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>얇은 팬케이크</t>
+          <t>발췌, 인용</t>
         </is>
       </c>
       <c r="C378" t="n">
         <v>3</v>
       </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772147</t>
-        </is>
+      <c r="D378" s="1" t="n">
+        <v>44222.84692713058</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>put on hold</t>
+          <t>crepe</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>보류하다</t>
+          <t>얇은 팬케이크</t>
         </is>
       </c>
       <c r="C379" t="n">
         <v>3</v>
       </c>
-      <c r="D379" s="1" t="n">
-        <v>44224.8528974488</v>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772147</t>
+        </is>
       </c>
     </row>
     <row r="380">
@@ -7421,37 +7417,39 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>hold one's own</t>
+          <t>determine to do</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
+          <t>~하겠다고 결심하다</t>
         </is>
       </c>
       <c r="C382" t="n">
         <v>3</v>
       </c>
-      <c r="D382" s="1" t="n">
-        <v>44224.15166368688</v>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771889</t>
+        </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>sleek</t>
+          <t>hold one's own</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>(모양이) 매끈한</t>
+          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
         </is>
       </c>
       <c r="C383" t="n">
         <v>3</v>
       </c>
       <c r="D383" s="1" t="n">
-        <v>44224.8528974482</v>
+        <v>44224.15166368688</v>
       </c>
     </row>
     <row r="384">
@@ -7569,37 +7567,37 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>frustration</t>
+          <t>commentary</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>좌절감, 불만</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C390" t="n">
         <v>3</v>
       </c>
       <c r="D390" s="1" t="n">
-        <v>44224.85289744847</v>
+        <v>44226.28725668451</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>make a name</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>명성을 얻다</t>
+          <t>좌절감, 불만</t>
         </is>
       </c>
       <c r="C391" t="n">
         <v>3</v>
       </c>
       <c r="D391" s="1" t="n">
-        <v>44224.85289744829</v>
+        <v>44224.85289744847</v>
       </c>
     </row>
     <row r="392">
@@ -7643,37 +7641,37 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>violator</t>
+          <t>dairy farmer</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>위반자</t>
+          <t>낙농업자</t>
         </is>
       </c>
       <c r="C394" t="n">
         <v>3</v>
       </c>
       <c r="D394" s="1" t="n">
-        <v>44222.11419089128</v>
+        <v>44226.2752190368</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>where as</t>
+          <t>violator</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>~이지만</t>
+          <t>위반자</t>
         </is>
       </c>
       <c r="C395" t="n">
         <v>3</v>
       </c>
       <c r="D395" s="1" t="n">
-        <v>44222.84692713051</v>
+        <v>44222.11419089128</v>
       </c>
     </row>
     <row r="396">
@@ -7715,37 +7713,37 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>be lined up</t>
+          <t>openness</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>정렬되어 있다</t>
+          <t>솔직함, 개방성</t>
         </is>
       </c>
       <c r="C398" t="n">
         <v>3</v>
       </c>
       <c r="D398" s="1" t="n">
-        <v>44224.95196826228</v>
+        <v>44222.1141908947</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>as a token of</t>
+          <t>be lined up</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>~의 표시로서, ~의 증거로</t>
+          <t>정렬되어 있다</t>
         </is>
       </c>
       <c r="C399" t="n">
         <v>3</v>
       </c>
       <c r="D399" s="1" t="n">
-        <v>44224.9519682622</v>
+        <v>44224.95196826228</v>
       </c>
     </row>
     <row r="400">
@@ -7861,37 +7859,39 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>run late</t>
+          <t>excuse</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>늦어지다</t>
+          <t>~을 용서하다, ~에 대해 변명하다</t>
         </is>
       </c>
       <c r="C406" t="n">
         <v>3</v>
       </c>
-      <c r="D406" s="1" t="n">
-        <v>44224.95196826274</v>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772040</t>
+        </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>consumer electronics industry</t>
+          <t>run late</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>가전 사업</t>
+          <t>늦어지다</t>
         </is>
       </c>
       <c r="C407" t="n">
         <v>3</v>
       </c>
       <c r="D407" s="1" t="n">
-        <v>44222.11419089379</v>
+        <v>44224.95196826274</v>
       </c>
     </row>
   </sheetData>

--- a/voca.xlsx
+++ b/voca.xlsx
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>44232.18014923225</v>
@@ -445,416 +445,414 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>discretion</t>
+          <t>surveyor</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>재량(권), 신중함</t>
+          <t>측량사</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>44226.28725668115</v>
+        <v>44222.84692712996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fabricate</t>
+          <t>discretion</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>조립하다, 제작하다</t>
+          <t>재량(권), 신중함</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771804</t>
-        </is>
+      <c r="D3" s="1" t="n">
+        <v>44226.28725668115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>put up</t>
+          <t>reconfigure</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>~을 붙이다, 세우다</t>
+          <t>(시스템, 기기 등을) 재배열[재설정]</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44222.11419088999</v>
+        <v>44224.85289744933</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lay</t>
+          <t>account</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>놓다, 두다</t>
+          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772433</t>
-        </is>
+      <c r="D5" s="1" t="n">
+        <v>44226.27521903359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>proportional</t>
+          <t>harvest</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(~에) 비례하는</t>
+          <t>수확(량)</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>44232.18014923308</v>
+        <v>44226.27521903561</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>proprietor</t>
+          <t>floor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>사업주</t>
+          <t>작업장</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>44226.28725668335</v>
+        <v>44224.85289744924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>informal</t>
+          <t>rotunda</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>비공식의</t>
+          <t>원형의 홀, 원형 건축물</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>44232.18014923258</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772308</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tuck away</t>
+          <t>take inventory</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>찾기힘든 안전한 곳에 보관하다</t>
+          <t>재고 조사를 하다</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>44222.84692713565</v>
+        <v>44224.95196826282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>deliberation</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>부과하다, 맡기다</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>44232.18014923265</v>
+        <v>44222.11419089273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>assortment</t>
+          <t>tenant</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>모음</t>
+          <t>세입자</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44226.27521903592</v>
+        <v>44226.28725668345</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>discrepancy</t>
+          <t>executive committee</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>불일치, 차이</t>
+          <t>집행 위원회</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>44226.28725668133</v>
+        <v>44226.27521903584</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>insist on -ing</t>
+          <t>feature</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~할 것을 주장하다</t>
+          <t>(영화, 전시 등에) 등장시키다, 특집으로 다루다, 특징을 이루다</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>44224.15166368698</v>
+        <v>44224.85289744905</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>excutive chef</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
+          <t>총 주방장</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>44226.27521903359</v>
+        <v>44224.9519682608</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>board of trustees</t>
+          <t>commune</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>이사회</t>
+          <t>친하게 사귀다</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>44226.2872566842</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772068</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>high court</t>
+          <t>reserve the right to + 동사원형</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>고등 법원</t>
+          <t>~할 권한을 보유하다</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771936</t>
-        </is>
+      <c r="D16" s="1" t="n">
+        <v>44224.85289744757</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jostle for</t>
+          <t>wilted</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~을 위하여 다투다, 겨루다</t>
+          <t>살짝 데친</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772185</t>
-        </is>
+      <c r="D17" s="1" t="n">
+        <v>44222.84692713471</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>be to blame</t>
+          <t>sealed</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(잘못의) 책임이 있다</t>
+          <t xml:space="preserve">마감칠된, 밀폐된 </t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>44224.85289744868</v>
+        <v>44222.11419089418</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>in preparation for</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>취재하다, 기사를 담당하다</t>
+          <t>~에 대비하여</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>44226.28725668292</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772320</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>relieve A of B</t>
+          <t>address</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
+          <t>처리[해결]하다, 다루다</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>44222.11419089597</v>
+        <v>44224.95196826212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>criticism</t>
+          <t>assigned to</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>비판, 비평</t>
+          <t>~로 발령받다</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>44226.28725668482</v>
+        <v>44226.27521903752</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>make landfall</t>
+          <t>look forward to + -ing</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>착륙하다</t>
+          <t>~을 고대하다</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>44224.15166368837</v>
+        <v>44222.1141908915</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>excutive chef</t>
+          <t>substantial</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>총 주방장</t>
+          <t>상당한, 실질적인</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>44224.9519682608</v>
+        <v>44226.27521903696</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>rotunda</t>
+          <t>consider A (as [to be]) B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>원형의 홀, 원형 건축물</t>
+          <t>A를 B로 여기다, 간주하다</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -862,409 +860,403 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772308</t>
+          <t>2021-01-26 02:11:09.771898</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>surveyor</t>
+          <t>put up</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>측량사</t>
+          <t>~을 붙이다, 세우다</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>44222.84692712996</v>
+        <v>44222.11419088999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>be busy -ing</t>
+          <t>opener</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~하느라 바쁘다</t>
+          <t>병따개, 첫 행동</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>44226.27521903316</v>
+        <v>44232.18014923323</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>a load of</t>
+          <t>overdraw</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>한 짐의, 많은</t>
+          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>4</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <v>44222.11419088984</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772059</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>be due to + 동사원형</t>
+          <t>reversal</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>전환, 역전</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>44222.11419089388</v>
+        <v>44226.28725668282</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>associate's degree</t>
+          <t>have company</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>준학사 학위</t>
+          <t>동행[일행]이 있다</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>4</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772097</t>
-        </is>
+      <c r="D29" s="1" t="n">
+        <v>44226.28725668309</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>interfere with</t>
+          <t>plumbing</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~을 방해하다</t>
+          <t>배관[수도 시설], 배관 작업[공사]</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>44224.85289744781</v>
+        <v>44222.11419089181</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>every other week</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~에 헌신하다[전념하다]</t>
+          <t>격주로</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>44226.28725668327</v>
+        <v>44222.11419089165</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>consider A (as [to be]) B</t>
+          <t>beam</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A를 B로 여기다, 간주하다</t>
+          <t>들보, 보</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>4</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771898</t>
-        </is>
+      <c r="D32" s="1" t="n">
+        <v>44224.85289744888</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>highland</t>
+          <t>compete</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>고원</t>
+          <t>경쟁하다</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>4</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772078</t>
-        </is>
+      <c r="D33" s="1" t="n">
+        <v>44232.18014923241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>look over</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~을 살펴보다</t>
+          <t>취재하다, 기사를 담당하다</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>44226.27521903375</v>
+        <v>44226.28725668292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>plush</t>
+          <t>allege</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>안락한, 고급의</t>
+          <t>(확실한 증거 없이) 주장하다</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>4</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772261</t>
-        </is>
+      <c r="D35" s="1" t="n">
+        <v>44222.11419089303</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>quite a while ago</t>
+          <t>bouquet</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>꽤 오래전에</t>
+          <t>꽃다발</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>44226.27521903308</v>
+        <v>44222.11419088952</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>on your own</t>
+          <t>mow</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>혼자 힘으로</t>
+          <t>잔디를 깎다</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
-      <c r="D37" s="1" t="n">
-        <v>44226.27521903334</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772470</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sole</t>
+          <t>present</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>밑창</t>
+          <t>제시[제출]하다</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>44222.8469271326</v>
+        <v>44232.18014923333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>glazed</t>
+          <t>jostle for</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>(설탕을 입혀) 윤기가 나는</t>
+          <t>~을 위하여 다투다, 겨루다</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>4</v>
       </c>
-      <c r="D39" s="1" t="n">
-        <v>44222.84692713429</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772185</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>let down</t>
+          <t>proximate</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>~을 실망시키다</t>
+          <t>가장 가까운</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771974</t>
-        </is>
+      <c r="D40" s="1" t="n">
+        <v>44222.84692713319</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>faculty</t>
+          <t>concerning</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>교수진</t>
+          <t>~에 관한</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>44226.27521903722</v>
+        <v>44222.11419089493</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>be sure to</t>
+          <t>admit</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>반드시 ~하다</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>44226.2752190339</v>
+        <v>44224.85289744914</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>forestall</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>선수를 치다, 기선을 제압하다</t>
+          <t>영업, 사업</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771832</t>
-        </is>
+      <c r="D43" s="1" t="n">
+        <v>44226.27521903515</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>pride oneself on</t>
+          <t>booklet</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~에 대해 자랑하다</t>
+          <t>소책자</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>44222.84692713107</v>
+        <v>44226.27521903467</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>collect payment</t>
+          <t>given</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>대금을 회수하다</t>
+          <t>~을 고려할 때</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>44222.11419089455</v>
+        <v>44224.95196826023</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>outplay</t>
+          <t>research into</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>패배시키다</t>
+          <t>~을 조사하다</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1272,91 +1264,91 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771879</t>
+          <t>2021-01-26 02:11:09.771870</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>insulated</t>
+          <t>derive</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>절연된</t>
+          <t>끌어내다</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>44222.1141908941</v>
+        <v>44222.11419089582</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>you get what you pay for</t>
+          <t>move in</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>싼게 비지떡</t>
+          <t>이사 들어오다</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>44222.1141908932</v>
+        <v>44226.27521903287</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>be credited to</t>
+          <t>vary</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~로 입금되다[금액이 넘어가다]</t>
+          <t>(서로) 다르다, 다양하다</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>44224.85289744771</v>
+        <v>44222.84692713229</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>take inventory</t>
+          <t>corn</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>재고 조사를 하다</t>
+          <t>옥수수</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>44224.95196826282</v>
+        <v>44232.180149233</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ration</t>
+          <t>lie</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>배급하다</t>
+          <t>놓여 있다</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1364,1035 +1356,1041 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772012</t>
+          <t>2021-01-26 02:11:09.772423</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>year-round</t>
+          <t>interfere with</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>일년 내내</t>
+          <t>~을 방해하다</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>44222.1141908922</v>
+        <v>44224.85289744781</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>pier</t>
+          <t>year-round</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>부두</t>
+          <t>일년 내내</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772395</t>
-        </is>
+      <c r="D53" s="1" t="n">
+        <v>44222.1141908922</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>autograph</t>
+          <t>liability</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>사인</t>
+          <t>책임</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
-      <c r="D54" s="1" t="n">
-        <v>44222.11419089082</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771945</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>frustrating</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>처리[해결]하다, 다루다</t>
+          <t>실망스러운</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>44224.95196826212</v>
+        <v>44222.84692713296</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>move in</t>
+          <t>bird-nesting</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>이사 들어오다</t>
+          <t>(취미로) 새 둥지를 찾아다니는</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>44226.27521903287</v>
+        <v>44224.15166368884</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>derive</t>
+          <t xml:space="preserve">critic </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>끌어내다</t>
+          <t>비평가</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>44222.11419089582</v>
+        <v>44226.28725668466</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>occasion</t>
+          <t>pay package</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>때, 경우</t>
+          <t>연봉</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>44226.275219036</v>
+        <v>44226.27521903706</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>corn</t>
+          <t>bet</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>옥수수</t>
+          <t>선택한 것[사람], 방책</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>4</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>44232.180149233</v>
+        <v>44222.84692713251</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>valdiation</t>
+          <t>ojection</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>확인</t>
+          <t>반대</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>44226.27521903553</v>
+        <v>44226.27521903523</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>pavilion</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
+          <t>견적</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>44222.11419089228</v>
+        <v>44226.27521903508</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>earn</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>영업, 사업</t>
+          <t>~에게 …을 받게 할 자격을 주다</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>44226.27521903515</v>
+        <v>44226.27521903714</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>to this end</t>
+          <t>admission</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>이를 위해, 이런 목적으로</t>
+          <t>입장, 인정</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>4</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>44222.11419089136</v>
+        <v>44222.84692713066</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>frustrating</t>
+          <t>elevation</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>실망스러운</t>
+          <t>승진</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>4</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>44222.84692713296</v>
+        <v>44226.27521903538</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>reserve the right to + 동사원형</t>
+          <t>tuition</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>~할 권한을 보유하다</t>
+          <t>학자금</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>4</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>44224.85289744757</v>
+        <v>44222.84692713174</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>designate</t>
+          <t>unfavorable</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>지정하다</t>
+          <t>불리한</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>44226.28725668353</v>
+        <v>44224.15166368725</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>school term</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>결심, 결정, 결단력</t>
+          <t>학기</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>44226.28725668151</v>
+        <v>44226.28725668318</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>enthusiast</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>열성팬 [열렬한 팬]</t>
+          <t>결근, 부재</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>44222.84692713221</v>
+        <v>44222.84692713073</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>irrigation</t>
+          <t>criticism</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>관개, 물을 끌어들임</t>
+          <t>비판, 비평</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>44232.18014923284</v>
+        <v>44226.28725668482</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>fool</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>제시[제출]하다</t>
+          <t>속이다</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>44232.18014923333</v>
+        <v>44222.84692713268</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>gain</t>
+          <t>house</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>증가, 이익</t>
+          <t>(장기적으로) 장소를 제공하다</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>4</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>44232.18014923292</v>
+        <v>44224.95196826055</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>in terms of</t>
+          <t>lay</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>~의 면에서</t>
+          <t>놓다, 두다</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>4</v>
       </c>
-      <c r="D72" s="1" t="n">
-        <v>44232.18014923233</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772433</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>retention</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>변환</t>
+          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>4</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>44226.27521903575</v>
+        <v>44226.28725668124</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>be in force</t>
+          <t>testimonial</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>(법률 등이) 시행되다</t>
+          <t>추천의 글</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>4</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>44224.15166368782</v>
+        <v>44222.11419089424</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>allege</t>
+          <t>treat</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>(확실한 증거 없이) 주장하다</t>
+          <t>특별한 기쁨, 만족</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
-      <c r="D75" s="1" t="n">
-        <v>44222.11419089303</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772166</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>plow</t>
+          <t>podium</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>쟁기로 갈다; 쟁기</t>
+          <t>연단</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>4</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>44222.11419088944</v>
+        <v>44222.11419089007</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>be supposed to</t>
+          <t>acidic</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>~할 예정이다, ~하도록 되어 있다</t>
+          <t>매우 신</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>44222.11419089574</v>
+        <v>44222.84692713419</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>executive committee</t>
+          <t>plow</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>집행 위원회</t>
+          <t>쟁기로 갈다; 쟁기</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>44226.27521903584</v>
+        <v>44222.11419088944</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>extend</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>평가하다, 등급을 매기다</t>
+          <t>정도, 범위</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>4</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>44232.1801492325</v>
+        <v>44226.28725668084</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>retention</t>
+          <t>scholarship</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
+          <t>장학금</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>4</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>44226.28725668124</v>
+        <v>44226.28725668429</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>assembly</t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>의회</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>4</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>44226.27521903737</v>
+        <v>44222.84692713288</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>expenditure</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>(장기적으로) 장소를 제공하다</t>
+          <t>지출</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>4</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>44224.95196826055</v>
+        <v>44222.84692713573</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>credential</t>
+          <t>in terms of</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>자격(증), 보증서, 자격 인증(서)</t>
+          <t>~의 면에서</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>4</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>44222.11419089478</v>
+        <v>44232.18014923233</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>treat</t>
+          <t>gain</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>특별한 기쁨, 만족</t>
+          <t>증가, 이익</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>4</v>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772166</t>
-        </is>
+      <c r="D84" s="1" t="n">
+        <v>44232.18014923292</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>podium</t>
+          <t>assume</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>연단</t>
+          <t>(책임 등을) 떠맡다, 담당하다</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>44222.11419089007</v>
+        <v>44232.18014923276</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>acclaimed</t>
+          <t>disclosure</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>칭찬[호평] 받는</t>
+          <t>공개</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>44226.28725668411</v>
+        <v>44226.28725668178</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>school term</t>
+          <t>assistant manager</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>학기</t>
+          <t>대리</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>44226.28725668318</v>
+        <v>44222.84692713011</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>proportional</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>~에 헌신하다, 전념하다</t>
+          <t>(~에) 비례하는</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>4</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>44224.95196826205</v>
+        <v>44232.18014923308</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>reversal</t>
+          <t>resolution</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>전환, 역전</t>
+          <t>결심, 결정, 결단력</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>44226.28725668282</v>
+        <v>44226.28725668151</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>appreciate</t>
+          <t>courtyard</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>뜰, 정원</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
-      <c r="D90" s="1" t="n">
-        <v>44222.84692713288</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772213</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>designate</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">상당히 </t>
+          <t>지정하다</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>4</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>44222.84692713397</v>
+        <v>44226.28725668353</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>admission</t>
+          <t>high court</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>입장, 인정</t>
+          <t>고등 법원</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>4</v>
       </c>
-      <c r="D92" s="1" t="n">
-        <v>44222.84692713066</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771936</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>earn</t>
+          <t>official</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>~에게 …을 받게 할 자격을 주다</t>
+          <t>간부, 공무원</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>4</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>44226.27521903714</v>
+        <v>44222.11419089281</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>opener</t>
+          <t>to this end</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>병따개, 첫 행동</t>
+          <t>이를 위해, 이런 목적으로</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>4</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>44232.18014923323</v>
+        <v>44222.11419089136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>disclosure</t>
+          <t>wilderness</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>공개</t>
+          <t>황야</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
-      <c r="D95" s="1" t="n">
-        <v>44226.28725668178</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772087</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>quality assurance</t>
+          <t>be busy -ing</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>품질 보증</t>
+          <t>~하느라 바쁘다</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>4</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>44222.11419089433</v>
+        <v>44226.27521903316</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>pavilion</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>비판적인</t>
+          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>4</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>44226.2872566846</v>
+        <v>44222.11419089228</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>pay package</t>
+          <t>board of trustees</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>연봉</t>
+          <t>이사회</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>44226.27521903706</v>
+        <v>44226.2872566842</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">in exchange for </t>
+          <t>valdiation</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>~의 대가로</t>
+          <t>확인</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>44226.27521903688</v>
+        <v>44226.27521903553</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>bird-nesting</t>
+          <t>a load of</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>(취미로) 새 둥지를 찾아다니는</t>
+          <t>한 짐의, 많은</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>4</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>44224.15166368884</v>
+        <v>44222.11419088984</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>in a single direction</t>
+          <t>offshore</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>한 방향으로</t>
+          <t>연안에</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>4</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>44224.95196826266</v>
+        <v>44224.15166368827</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>mural</t>
+          <t>occasion</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>벽화</t>
+          <t>때, 경우</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>4</v>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772204</t>
-        </is>
+      <c r="D102" s="1" t="n">
+        <v>44226.275219036</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>liability</t>
+          <t>water tower</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>책임</t>
+          <t>급수탑</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>4</v>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771945</t>
-        </is>
+      <c r="D103" s="1" t="n">
+        <v>44222.11419089501</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>be due to + 동사원형</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>작업장</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>44224.85289744924</v>
+        <v>44222.11419089388</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>landscape</t>
+          <t>proprietor</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>조경을 하다</t>
+          <t>사업주</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>4</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>44226.27521903383</v>
+        <v>44226.28725668335</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>look forward to + -ing</t>
+          <t>end up -ing</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>~을 고대하다</t>
+          <t>~하게 되다, 결국 ~이 되다</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>4</v>
       </c>
-      <c r="D106" s="1" t="n">
-        <v>44222.1141908915</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772223</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>harvest</t>
+          <t>considerable</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>수확(량)</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>4</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>44226.27521903561</v>
+        <v>44232.1801492321</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>lie</t>
+          <t>associate's degree</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>놓여 있다</t>
+          <t>준학사 학위</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2400,2395 +2398,2393 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772423</t>
+          <t>2021-01-26 02:11:09.772097</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>paycheck</t>
+          <t>cost A B</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>급여(수표)</t>
+          <t>A에게 B의 비용이 들다</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>4</v>
       </c>
-      <c r="D109" s="1" t="n">
-        <v>44222.84692713146</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771851</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>cost A B</t>
+          <t>paycheck</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>A에게 B의 비용이 들다</t>
+          <t>급여(수표)</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>4</v>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771851</t>
-        </is>
+      <c r="D110" s="1" t="n">
+        <v>44222.84692713146</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>vary</t>
+          <t>autograph</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>(서로) 다르다, 다양하다</t>
+          <t>사인</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>4</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>44222.84692713229</v>
+        <v>44222.11419089082</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>end up -ing</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>~하게 되다, 결국 ~이 되다</t>
+          <t xml:space="preserve">상당히 </t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>4</v>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772223</t>
-        </is>
+      <c r="D112" s="1" t="n">
+        <v>44222.84692713397</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>as to</t>
+          <t>pier</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>부두</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>4</v>
       </c>
-      <c r="D113" s="1" t="n">
-        <v>44222.11419089403</v>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772395</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>in preparation for</t>
+          <t>insist on -ing</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>~에 대비하여</t>
+          <t>~할 것을 주장하다</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>4</v>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772320</t>
-        </is>
+      <c r="D114" s="1" t="n">
+        <v>44224.15166368698</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>water tower</t>
+          <t>landscape</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>급수탑</t>
+          <t>조경을 하다</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>4</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>44222.11419089501</v>
+        <v>44226.27521903383</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>considerable</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>~에 헌신하다[전념하다]</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>4</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>44232.1801492321</v>
+        <v>44226.28725668327</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>research into</t>
+          <t>theatergoer</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>~을 조사하다</t>
+          <t>극장에 (자주) 가는 사람</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>4</v>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771870</t>
-        </is>
+      <c r="D117" s="1" t="n">
+        <v>44224.95196826072</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>offshore</t>
+          <t>ration</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>연안에</t>
+          <t>배급하다</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>4</v>
       </c>
-      <c r="D118" s="1" t="n">
-        <v>44224.15166368827</v>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772012</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>sealed</t>
+          <t>mural</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve">마감칠된, 밀폐된 </t>
+          <t>벽화</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>4</v>
       </c>
-      <c r="D119" s="1" t="n">
-        <v>44222.11419089418</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772204</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>~을 고려할 때</t>
+          <t>시의</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>4</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>44224.95196826023</v>
+        <v>44222.11419089144</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>assigned to</t>
+          <t>informal</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>~로 발령받다</t>
+          <t>비공식의</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>44226.27521903752</v>
+        <v>44232.18014923258</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>booklet</t>
+          <t>premise</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>소책자</t>
+          <t>구내, 토지</t>
         </is>
       </c>
       <c r="C122" t="n">
         <v>4</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>44226.27521903467</v>
+        <v>44226.28725668188</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>reconfigure</t>
+          <t>in a single direction</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>(시스템, 기기 등을) 재배열[재설정]</t>
+          <t>한 방향으로</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>4</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>44224.85289744933</v>
+        <v>44224.95196826266</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>wilted</t>
+          <t>highland</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>살짝 데친</t>
+          <t>고원</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>4</v>
       </c>
-      <c r="D124" s="1" t="n">
-        <v>44222.84692713471</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772078</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>wilderness</t>
+          <t>allowance</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>황야</t>
+          <t>수당</t>
         </is>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772087</t>
-        </is>
+      <c r="D125" s="1" t="n">
+        <v>44226.28725668143</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>theatergoer</t>
+          <t>publicize</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>극장에 (자주) 가는 사람</t>
+          <t>공표하다, 알리다</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>4</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>44224.95196826072</v>
+        <v>44224.95196826175</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>admit</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>비판적인</t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>4</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>44224.85289744914</v>
+        <v>44226.2872566846</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>look over</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>간부, 공무원</t>
+          <t>~을 살펴보다</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>44222.11419089281</v>
+        <v>44226.27521903375</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>substantial</t>
+          <t>quality assurance</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>상당한, 실질적인</t>
+          <t>품질 보증</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>4</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>44226.27521903696</v>
+        <v>44222.11419089433</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>premise</t>
+          <t>now that</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>구내, 토지</t>
+          <t>~이기 때문에</t>
         </is>
       </c>
       <c r="C130" t="n">
         <v>4</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>44226.28725668188</v>
+        <v>44226.27521903344</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>store credit</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>~에 관한</t>
+          <t>상점 적립금</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>44222.11419089493</v>
+        <v>44226.27521903476</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>nevertheless</t>
+          <t>plush</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>그럼에도 불구하고</t>
+          <t>안락한, 고급의</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>4</v>
       </c>
-      <c r="D132" s="1" t="n">
-        <v>44222.11419089097</v>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772261</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>courtyard</t>
+          <t>critically</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>뜰, 정원</t>
+          <t>비판적으로</t>
         </is>
       </c>
       <c r="C133" t="n">
         <v>4</v>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772213</t>
-        </is>
+      <c r="D133" s="1" t="n">
+        <v>44226.28725668474</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>proximate</t>
+          <t>roll-out</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>가장 가까운</t>
+          <t>(신제품의) 첫 공개</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>44222.84692713319</v>
+        <v>44224.85289744857</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>get to</t>
+          <t>Town council</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>~에 착수하다</t>
+          <t>시의회</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>4</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>44226.27521903298</v>
+        <v>44224.95196826015</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>verification</t>
+          <t>quite a while ago</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>확인, 조회</t>
+          <t>꽤 오래전에</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>44224.15166368864</v>
+        <v>44226.27521903308</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>commune</t>
+          <t>tuck away</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>친하게 사귀다</t>
+          <t>찾기힘든 안전한 곳에 보관하다</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>4</v>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772068</t>
-        </is>
+      <c r="D137" s="1" t="n">
+        <v>44222.84692713565</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>assistant manager</t>
+          <t xml:space="preserve">sizable </t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>대리</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C138" t="n">
         <v>4</v>
       </c>
-      <c r="D138" s="1" t="n">
-        <v>44222.84692713011</v>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772232</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>initiator</t>
+          <t>sip</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>창시자</t>
+          <t>마시다</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>44224.95196826103</v>
+        <v>44222.1141908906</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>delivery window</t>
+          <t>on your own</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>배달 시간대</t>
+          <t>혼자 힘으로</t>
         </is>
       </c>
       <c r="C140" t="n">
         <v>4</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>44222.84692713558</v>
+        <v>44226.27521903334</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>assume</t>
+          <t>make landfall</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>(책임 등을) 떠맡다, 담당하다</t>
+          <t>착륙하다</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>4</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>44232.18014923276</v>
+        <v>44224.15166368837</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>financial position</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>재무 상태</t>
+          <t>~에 헌신하다, 전념하다</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>44222.11419089536</v>
+        <v>44224.95196826205</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>scope</t>
+          <t>correspondence</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>범위, 영역</t>
+          <t>통신, 연락</t>
         </is>
       </c>
       <c r="C143" t="n">
         <v>4</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>44222.11419089205</v>
+        <v>44222.84692713374</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>mow</t>
+          <t>sole</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>잔디를 깎다</t>
+          <t>밑창</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>4</v>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772470</t>
-        </is>
+      <c r="D144" s="1" t="n">
+        <v>44222.8469271326</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>authority</t>
+          <t>acclaimed</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>당국, 권한</t>
+          <t>칭찬[호평] 받는</t>
         </is>
       </c>
       <c r="C145" t="n">
         <v>4</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>44226.28725668169</v>
+        <v>44226.28725668411</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>expenditure</t>
+          <t>latest</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>지출</t>
+          <t>최신의</t>
         </is>
       </c>
       <c r="C146" t="n">
         <v>4</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>44222.84692713573</v>
+        <v>44222.84692713204</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>bouquet</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>꽃다발</t>
+          <t>중역</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>4</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>44222.11419088952</v>
+        <v>44226.28725668391</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>devotion</t>
+          <t>glazed</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>헌신, 전념</t>
+          <t>(설탕을 입혀) 윤기가 나는</t>
         </is>
       </c>
       <c r="C148" t="n">
         <v>4</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>44226.2752190349</v>
+        <v>44222.84692713429</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>scholarship</t>
+          <t xml:space="preserve">halibut </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>장학금</t>
+          <t>광어</t>
         </is>
       </c>
       <c r="C149" t="n">
         <v>4</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>44226.28725668429</v>
+        <v>44222.84692713412</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>feature</t>
+          <t>credential</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>(영화, 전시 등에) 등장시키다, 특집으로 다루다, 특징을 이루다</t>
+          <t>자격(증), 보증서, 자격 인증(서)</t>
         </is>
       </c>
       <c r="C150" t="n">
         <v>4</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>44224.85289744905</v>
+        <v>44222.11419089478</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>extend</t>
+          <t>paystub</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>정도, 범위</t>
+          <t>급여 명세서</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>44226.28725668084</v>
+        <v>44222.84692713153</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>color scheme</t>
+          <t>let down</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>색체 조합</t>
+          <t>~을 실망시키다</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>4</v>
       </c>
-      <c r="D152" s="1" t="n">
-        <v>44224.15166368855</v>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771974</t>
+        </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>set</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>(봉지에 넣어) 포장하다</t>
+          <t>부과하다, 맡기다</t>
         </is>
       </c>
       <c r="C153" t="n">
         <v>4</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>44222.11419089067</v>
+        <v>44232.18014923265</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>acidic</t>
+          <t>relieve A of B</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>매우 신</t>
+          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
         </is>
       </c>
       <c r="C154" t="n">
         <v>4</v>
       </c>
       <c r="D154" s="1" t="n">
-        <v>44222.84692713419</v>
+        <v>44222.11419089597</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>orchard</t>
+          <t>somewhat</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>과수원</t>
+          <t>다소, 약간</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>44222.11419089173</v>
+        <v>44222.84692713027</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>serve as</t>
+          <t>faculty</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>~의 역할을 하다</t>
+          <t>교수진</t>
         </is>
       </c>
       <c r="C156" t="n">
         <v>4</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>44222.8469271309</v>
+        <v>44226.27521903722</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>compete</t>
+          <t>initiation</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>경쟁하다</t>
+          <t>창시, 입문</t>
         </is>
       </c>
       <c r="C157" t="n">
         <v>4</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>44232.18014923241</v>
+        <v>44224.95196826095</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>yield</t>
+          <t>rate</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>산출하다, (이익을) 내다</t>
+          <t>평가하다, 등급을 매기다</t>
         </is>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771984</t>
-        </is>
+      <c r="D158" s="1" t="n">
+        <v>44232.1801492325</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>testimonial</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>추천의 글</t>
+          <t>산출하다, (이익을) 내다</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
-      <c r="D159" s="1" t="n">
-        <v>44222.11419089424</v>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771984</t>
+        </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>beam</t>
+          <t>be sure to</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>들보, 보</t>
+          <t>반드시 ~하다</t>
         </is>
       </c>
       <c r="C160" t="n">
         <v>4</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>44224.85289744888</v>
+        <v>44226.2752190339</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>somewhat</t>
+          <t>serve as</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>다소, 약간</t>
+          <t>~의 역할을 하다</t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>44222.84692713027</v>
+        <v>44222.8469271309</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>orchard</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>시의</t>
+          <t>과수원</t>
         </is>
       </c>
       <c r="C162" t="n">
         <v>4</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>44222.11419089144</v>
+        <v>44222.11419089173</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>tenant</t>
+          <t>be supposed to</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>세입자</t>
+          <t>~할 예정이다, ~하도록 되어 있다</t>
         </is>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>44226.28725668345</v>
+        <v>44222.11419089574</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>every other week</t>
+          <t>forestall</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>격주로</t>
+          <t>선수를 치다, 기선을 제압하다</t>
         </is>
       </c>
       <c r="C164" t="n">
         <v>4</v>
       </c>
-      <c r="D164" s="1" t="n">
-        <v>44222.11419089165</v>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771832</t>
+        </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>paystub</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>급여 명세서</t>
+          <t>(봉지에 넣어) 포장하다</t>
         </is>
       </c>
       <c r="C165" t="n">
         <v>4</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>44222.84692713153</v>
+        <v>44222.11419089067</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>initiation</t>
+          <t>color scheme</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>창시, 입문</t>
+          <t>색체 조합</t>
         </is>
       </c>
       <c r="C166" t="n">
         <v>4</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>44224.95196826095</v>
+        <v>44224.15166368855</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>fool</t>
+          <t>en masse</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>속이다</t>
+          <t>집단으로</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>4</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>44222.84692713268</v>
+        <v>44224.85289744838</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">halibut </t>
+          <t>pride oneself on</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>광어</t>
+          <t>~에 대해 자랑하다</t>
         </is>
       </c>
       <c r="C168" t="n">
         <v>4</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>44222.84692713412</v>
+        <v>44222.84692713107</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>plumbing</t>
+          <t>assortment</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>배관[수도 시설], 배관 작업[공사]</t>
+          <t>모음</t>
         </is>
       </c>
       <c r="C169" t="n">
         <v>4</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>44222.11419089181</v>
+        <v>44226.27521903592</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>be in force</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>중역</t>
+          <t>(법률 등이) 시행되다</t>
         </is>
       </c>
       <c r="C170" t="n">
         <v>4</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>44226.28725668391</v>
+        <v>44224.15166368782</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>latest</t>
+          <t>devotion</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>최신의</t>
+          <t>헌신, 전념</t>
         </is>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>44222.84692713204</v>
+        <v>44226.2752190349</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>collect payment</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>결근, 부재</t>
+          <t>대금을 회수하다</t>
         </is>
       </c>
       <c r="C172" t="n">
         <v>4</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>44222.84692713073</v>
+        <v>44222.11419089455</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>deliberation</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>변환</t>
         </is>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>44222.11419089273</v>
+        <v>44226.27521903575</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>have company</t>
+          <t>be to blame</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>동행[일행]이 있다</t>
+          <t>(잘못의) 책임이 있다</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>4</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>44226.28725668309</v>
+        <v>44224.85289744868</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>correspondence</t>
+          <t>authority</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>통신, 연락</t>
+          <t>당국, 권한</t>
         </is>
       </c>
       <c r="C175" t="n">
         <v>4</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>44222.84692713374</v>
+        <v>44226.28725668169</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>en masse</t>
+          <t>outplay</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>집단으로</t>
+          <t>패배시키다</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
-      <c r="D176" s="1" t="n">
-        <v>44224.85289744838</v>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771879</t>
+        </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>unfavorable</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>불리한</t>
+          <t>범위, 영역</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>4</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>44224.15166368725</v>
+        <v>44222.11419089205</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>alumi</t>
+          <t>financial position</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>졸업생들</t>
+          <t>재무 상태</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>4</v>
       </c>
       <c r="D178" s="1" t="n">
-        <v>44226.27521903729</v>
+        <v>44222.11419089536</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>tuition</t>
+          <t>crate</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>학자금</t>
+          <t>상자</t>
         </is>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>44222.84692713174</v>
+        <v>44222.11419088969</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>sip</t>
+          <t>insulated</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>마시다</t>
+          <t>절연된</t>
         </is>
       </c>
       <c r="C180" t="n">
         <v>4</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>44222.1141908906</v>
+        <v>44222.1141908941</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">sizable </t>
+          <t>delivery window</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>배달 시간대</t>
         </is>
       </c>
       <c r="C181" t="n">
         <v>4</v>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772232</t>
-        </is>
+      <c r="D181" s="1" t="n">
+        <v>44222.84692713558</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>elevation</t>
+          <t>initiator</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>승진</t>
+          <t>창시자</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>4</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>44226.27521903538</v>
+        <v>44224.95196826103</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>decide against -ing</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>~하지 않기로 결정하다</t>
+          <t>관개, 물을 끌어들임</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>4</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>44224.85289744789</v>
+        <v>44232.18014923284</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>overdraw</t>
+          <t>you get what you pay for</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
+          <t>싼게 비지떡</t>
         </is>
       </c>
       <c r="C184" t="n">
         <v>4</v>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772059</t>
-        </is>
+      <c r="D184" s="1" t="n">
+        <v>44222.1141908932</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Town council</t>
+          <t>discrepancy</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>시의회</t>
+          <t>불일치, 차이</t>
         </is>
       </c>
       <c r="C185" t="n">
         <v>4</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>44224.95196826015</v>
+        <v>44226.28725668133</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>roll-out</t>
+          <t>fabricate</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>(신제품의) 첫 공개</t>
+          <t>조립하다, 제작하다</t>
         </is>
       </c>
       <c r="C186" t="n">
         <v>4</v>
       </c>
-      <c r="D186" s="1" t="n">
-        <v>44224.85289744857</v>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771804</t>
+        </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>critically</t>
+          <t>get to</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>비판적으로</t>
+          <t>~에 착수하다</t>
         </is>
       </c>
       <c r="C187" t="n">
         <v>4</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>44226.28725668474</v>
+        <v>44226.27521903298</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>crate</t>
+          <t>be credited to</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>상자</t>
+          <t>~로 입금되다[금액이 넘어가다]</t>
         </is>
       </c>
       <c r="C188" t="n">
         <v>4</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>44222.11419088969</v>
+        <v>44224.85289744771</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>estimate</t>
+          <t xml:space="preserve">in exchange for </t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>견적</t>
+          <t>~의 대가로</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>4</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>44226.27521903508</v>
+        <v>44226.27521903688</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>store credit</t>
+          <t>faulty</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>상점 적립금</t>
+          <t>결함이 있는</t>
         </is>
       </c>
       <c r="C190" t="n">
         <v>4</v>
       </c>
       <c r="D190" s="1" t="n">
-        <v>44226.27521903476</v>
+        <v>44226.27521903606</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>now that</t>
+          <t>nevertheless</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>~이기 때문에</t>
+          <t>그럼에도 불구하고</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>44226.27521903344</v>
+        <v>44222.11419089097</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ojection</t>
+          <t>verification</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>확인, 조회</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>44226.27521903523</v>
+        <v>44224.15166368864</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">critic </t>
+          <t>as to</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>비평가</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>44226.28725668466</v>
+        <v>44222.11419089403</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>bet</t>
+          <t>assembly</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>선택한 것[사람], 방책</t>
+          <t>의회</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>44222.84692713251</v>
+        <v>44226.27521903737</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>faulty</t>
+          <t>decide against -ing</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>결함이 있는</t>
+          <t>~하지 않기로 결정하다</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>44226.27521903606</v>
+        <v>44224.85289744789</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>publicize</t>
+          <t>alumi</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>공표하다, 알리다</t>
+          <t>졸업생들</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>44224.95196826175</v>
+        <v>44226.27521903729</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>allowance</t>
+          <t>enthusiast</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>수당</t>
+          <t>열성팬 [열렬한 팬]</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>44226.28725668143</v>
+        <v>44222.84692713221</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>synthetic</t>
+          <t>such</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>합성의</t>
+          <t>그러한</t>
         </is>
       </c>
       <c r="C198" t="n">
         <v>3</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>44222.84692713212</v>
+        <v>44232.18014923315</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>be about to + 동사원형</t>
+          <t>take over</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>막 ~하려고 하다</t>
+          <t>인수하다, 이어받다</t>
         </is>
       </c>
       <c r="C199" t="n">
         <v>3</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>44222.11419088992</v>
+        <v>44226.287256684</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>in exchange for</t>
+          <t>formal</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>~을 대신해서</t>
+          <t>공식적인</t>
         </is>
       </c>
       <c r="C200" t="n">
         <v>3</v>
       </c>
       <c r="D200" s="1" t="n">
-        <v>44222.84692713327</v>
+        <v>44226.28725668443</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>be scattered on</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>~에 흩어져 있다</t>
+          <t>닦다, 광내다</t>
         </is>
       </c>
       <c r="C201" t="n">
         <v>3</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>44224.95196826251</v>
+        <v>44222.11419088977</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>help out</t>
+          <t>be propped on[against]</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>도와주다</t>
+          <t>~에 기대어 있다</t>
         </is>
       </c>
       <c r="C202" t="n">
         <v>3</v>
       </c>
       <c r="D202" s="1" t="n">
-        <v>44226.28725668362</v>
+        <v>44224.95196826236</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>overlook</t>
+          <t>interoffice</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>간과; ~을 간과하다, 내려보다</t>
+          <t>회사 내의, 각 부서간의</t>
         </is>
       </c>
       <c r="C203" t="n">
         <v>3</v>
       </c>
       <c r="D203" s="1" t="n">
-        <v>44222.84692713336</v>
+        <v>44222.8469271298</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>formerly</t>
+          <t>attire</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>예전에</t>
+          <t>복장</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>3</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>44224.95196826047</v>
+        <v>44222.84692713121</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>matter</t>
+          <t>thoroughly</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>중요하다</t>
+          <t>철저히</t>
         </is>
       </c>
       <c r="C205" t="n">
         <v>3</v>
       </c>
       <c r="D205" s="1" t="n">
-        <v>44226.28725668374</v>
+        <v>44222.84692713282</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>jointly</t>
+          <t>tender</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>공동으로</t>
+          <t>(고기가) 연한</t>
         </is>
       </c>
       <c r="C206" t="n">
         <v>3</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>44224.15166368744</v>
+        <v>44222.84692713404</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>unconvinced</t>
+          <t>pass out</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>납득하지[찬성하지] 않는</t>
+          <t>건네다</t>
         </is>
       </c>
       <c r="C207" t="n">
         <v>3</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>44224.95196826149</v>
+        <v>44226.27521903459</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>quotation</t>
+          <t>get off</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>인용</t>
+          <t>내리다</t>
         </is>
       </c>
       <c r="C208" t="n">
         <v>3</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>44226.27521903567</v>
+        <v>44226.27521903451</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>tremendous</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>엄청난, 대단한</t>
+          <t>직업</t>
         </is>
       </c>
       <c r="C209" t="n">
         <v>3</v>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772348</t>
-        </is>
+      <c r="D209" s="1" t="n">
+        <v>44226.27521903744</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>staircase</t>
+          <t>faint</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>계단</t>
+          <t>희미한</t>
         </is>
       </c>
       <c r="C210" t="n">
         <v>3</v>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772386</t>
-        </is>
+      <c r="D210" s="1" t="n">
+        <v>44222.11419089351</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>outdate</t>
+          <t>delegate</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>시대에 뒤지게 하다</t>
+          <t>대표(자), 위임하다, 선정하다</t>
         </is>
       </c>
       <c r="C211" t="n">
         <v>3</v>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772049</t>
-        </is>
+      <c r="D211" s="1" t="n">
+        <v>44222.1141908925</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>outlook</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>배치하다</t>
+          <t>관점, 전망</t>
         </is>
       </c>
       <c r="C212" t="n">
         <v>3</v>
       </c>
       <c r="D212" s="1" t="n">
-        <v>44222.11419089052</v>
+        <v>44226.27521903759</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>privately held company</t>
+          <t>indication</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
+          <t>암시</t>
         </is>
       </c>
       <c r="C213" t="n">
         <v>3</v>
       </c>
       <c r="D213" s="1" t="n">
-        <v>44222.11419089373</v>
+        <v>44226.2752190353</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">entrée </t>
+          <t>lean against</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>메인 메뉴</t>
+          <t>~에 기대다</t>
         </is>
       </c>
       <c r="C214" t="n">
         <v>3</v>
       </c>
-      <c r="D214" s="1" t="n">
-        <v>44224.15166368672</v>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772451</t>
+        </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>premiere</t>
+          <t>anchor</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>초연, 개봉; 최고의</t>
+          <t>정박하다</t>
         </is>
       </c>
       <c r="C215" t="n">
         <v>3</v>
       </c>
       <c r="D215" s="1" t="n">
-        <v>44222.11419089365</v>
+        <v>44224.15166368819</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>compare A with[to] B</t>
+          <t>as much as possible</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>A를 B에 비교[비유]하다</t>
+          <t>가능한 많이</t>
         </is>
       </c>
       <c r="C216" t="n">
         <v>3</v>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771993</t>
-        </is>
+      <c r="D216" s="1" t="n">
+        <v>44226.27521903324</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>template</t>
+          <t>bear with</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>견본</t>
+          <t>~을 견디다, 참다</t>
         </is>
       </c>
       <c r="C217" t="n">
         <v>3</v>
       </c>
-      <c r="D217" s="1" t="n">
-        <v>44224.15166368846</v>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771955</t>
+        </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>take off</t>
+          <t>compliment</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>이륙하다</t>
+          <t>칭찬하다</t>
         </is>
       </c>
       <c r="C218" t="n">
         <v>3</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>44222.11419089037</v>
+        <v>44224.85289744801</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>persevere</t>
+          <t>momentum</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>인내하다</t>
+          <t>탄력, 가속도, 여세</t>
         </is>
       </c>
       <c r="C219" t="n">
         <v>3</v>
       </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771823</t>
-        </is>
+      <c r="D219" s="1" t="n">
+        <v>44226.27521903367</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>stove</t>
+          <t>in a timely manner</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>(조리용) 레인지</t>
+          <t>시기에 맞게</t>
         </is>
       </c>
       <c r="C220" t="n">
         <v>3</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>44222.11419088936</v>
+        <v>44226.28725668437</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>stationery store</t>
+          <t>on time</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>문구점</t>
+          <t>정시에</t>
         </is>
       </c>
       <c r="C221" t="n">
         <v>3</v>
       </c>
       <c r="D221" s="1" t="n">
-        <v>44226.27521903351</v>
+        <v>44226.28725668383</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>be appointed + 직위</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>차이, 변형(시킨 것)</t>
+          <t>~로 임명되다</t>
         </is>
       </c>
       <c r="C222" t="n">
         <v>3</v>
       </c>
       <c r="D222" s="1" t="n">
-        <v>44226.2872566816</v>
+        <v>44226.28725668301</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>favor</t>
+          <t>bistro</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>호의</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C223" t="n">
         <v>3</v>
       </c>
       <c r="D223" s="1" t="n">
-        <v>44226.275219035</v>
+        <v>44224.95196826063</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>bistro</t>
+          <t>favor</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>호의</t>
         </is>
       </c>
       <c r="C224" t="n">
         <v>3</v>
       </c>
       <c r="D224" s="1" t="n">
-        <v>44224.95196826063</v>
+        <v>44226.275219035</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>be appointed + 직위</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>~로 임명되다</t>
+          <t>차이, 변형(시킨 것)</t>
         </is>
       </c>
       <c r="C225" t="n">
         <v>3</v>
       </c>
       <c r="D225" s="1" t="n">
-        <v>44226.28725668301</v>
+        <v>44226.2872566816</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>on time</t>
+          <t>stationery store</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>정시에</t>
+          <t>문구점</t>
         </is>
       </c>
       <c r="C226" t="n">
         <v>3</v>
       </c>
       <c r="D226" s="1" t="n">
-        <v>44226.28725668383</v>
+        <v>44226.27521903351</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>in a timely manner</t>
+          <t>stove</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>시기에 맞게</t>
+          <t>(조리용) 레인지</t>
         </is>
       </c>
       <c r="C227" t="n">
         <v>3</v>
       </c>
       <c r="D227" s="1" t="n">
-        <v>44226.28725668437</v>
+        <v>44222.11419088936</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>persevere</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>탄력, 가속도, 여세</t>
+          <t>인내하다</t>
         </is>
       </c>
       <c r="C228" t="n">
         <v>3</v>
       </c>
-      <c r="D228" s="1" t="n">
-        <v>44226.27521903367</v>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771823</t>
+        </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>compliment</t>
+          <t>take off</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>칭찬하다</t>
+          <t>이륙하다</t>
         </is>
       </c>
       <c r="C229" t="n">
         <v>3</v>
       </c>
       <c r="D229" s="1" t="n">
-        <v>44224.85289744801</v>
+        <v>44222.11419089037</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>bear with</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>~을 견디다, 참다</t>
+          <t>대우, 처치</t>
         </is>
       </c>
       <c r="C230" t="n">
         <v>3</v>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771955</t>
-        </is>
+      <c r="D230" s="1" t="n">
+        <v>44226.27521903482</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>template</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>대우, 처치</t>
+          <t>견본</t>
         </is>
       </c>
       <c r="C231" t="n">
         <v>3</v>
       </c>
       <c r="D231" s="1" t="n">
-        <v>44226.27521903482</v>
+        <v>44224.15166368846</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>as much as possible</t>
+          <t>compare A with[to] B</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>가능한 많이</t>
+          <t>A를 B에 비교[비유]하다</t>
         </is>
       </c>
       <c r="C232" t="n">
         <v>3</v>
       </c>
-      <c r="D232" s="1" t="n">
-        <v>44226.27521903324</v>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771993</t>
+        </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>anchor</t>
+          <t>premiere</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>정박하다</t>
+          <t>초연, 개봉; 최고의</t>
         </is>
       </c>
       <c r="C233" t="n">
         <v>3</v>
       </c>
       <c r="D233" s="1" t="n">
-        <v>44224.15166368819</v>
+        <v>44222.11419089365</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>lean against</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>~에 기대다</t>
+          <t>유효한</t>
         </is>
       </c>
       <c r="C234" t="n">
         <v>3</v>
       </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772451</t>
-        </is>
+      <c r="D234" s="1" t="n">
+        <v>44222.8469271319</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>good</t>
+          <t xml:space="preserve">entrée </t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>유효한</t>
+          <t>메인 메뉴</t>
         </is>
       </c>
       <c r="C235" t="n">
         <v>3</v>
       </c>
       <c r="D235" s="1" t="n">
-        <v>44222.8469271319</v>
+        <v>44224.15166368672</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>indication</t>
+          <t>privately held company</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>암시</t>
+          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
         </is>
       </c>
       <c r="C236" t="n">
         <v>3</v>
       </c>
       <c r="D236" s="1" t="n">
-        <v>44226.2752190353</v>
+        <v>44222.11419089373</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>outlook</t>
+          <t>position</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>관점, 전망</t>
+          <t>배치하다</t>
         </is>
       </c>
       <c r="C237" t="n">
         <v>3</v>
       </c>
       <c r="D237" s="1" t="n">
-        <v>44226.27521903759</v>
+        <v>44222.11419089052</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>delegate</t>
+          <t>awning</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>대표(자), 위임하다, 선정하다</t>
+          <t>차양</t>
         </is>
       </c>
       <c r="C238" t="n">
         <v>3</v>
       </c>
-      <c r="D238" s="1" t="n">
-        <v>44222.1141908925</v>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772367</t>
+        </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>awning</t>
+          <t>outdate</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>차양</t>
+          <t>시대에 뒤지게 하다</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -4796,1239 +4792,1261 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772367</t>
+          <t>2021-01-26 02:11:09.772049</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>faint</t>
+          <t>staircase</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>희미한</t>
+          <t>계단</t>
         </is>
       </c>
       <c r="C240" t="n">
         <v>3</v>
       </c>
-      <c r="D240" s="1" t="n">
-        <v>44222.11419089351</v>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772386</t>
+        </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>tremendous</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>직업</t>
+          <t>엄청난, 대단한</t>
         </is>
       </c>
       <c r="C241" t="n">
         <v>3</v>
       </c>
-      <c r="D241" s="1" t="n">
-        <v>44226.27521903744</v>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772348</t>
+        </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>get off</t>
+          <t>quotation</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>내리다</t>
+          <t>인용</t>
         </is>
       </c>
       <c r="C242" t="n">
         <v>3</v>
       </c>
       <c r="D242" s="1" t="n">
-        <v>44226.27521903451</v>
+        <v>44226.27521903567</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>pass out</t>
+          <t>unconvinced</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>건네다</t>
+          <t>납득하지[찬성하지] 않는</t>
         </is>
       </c>
       <c r="C243" t="n">
         <v>3</v>
       </c>
       <c r="D243" s="1" t="n">
-        <v>44226.27521903459</v>
+        <v>44224.95196826149</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>tender</t>
+          <t>jointly</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>(고기가) 연한</t>
+          <t>공동으로</t>
         </is>
       </c>
       <c r="C244" t="n">
         <v>3</v>
       </c>
       <c r="D244" s="1" t="n">
-        <v>44222.84692713404</v>
+        <v>44224.15166368744</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>thoroughly</t>
+          <t>matter</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>철저히</t>
+          <t>중요하다</t>
         </is>
       </c>
       <c r="C245" t="n">
         <v>3</v>
       </c>
       <c r="D245" s="1" t="n">
-        <v>44222.84692713282</v>
+        <v>44226.28725668374</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>attire</t>
+          <t>will pay a visit</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>복장</t>
+          <t>방문할 것이다.</t>
         </is>
       </c>
       <c r="C246" t="n">
         <v>3</v>
       </c>
       <c r="D246" s="1" t="n">
-        <v>44222.84692713121</v>
+        <v>44222.11419089448</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>will pay a visit</t>
+          <t>formerly</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>방문할 것이다.</t>
+          <t>예전에</t>
         </is>
       </c>
       <c r="C247" t="n">
         <v>3</v>
       </c>
       <c r="D247" s="1" t="n">
-        <v>44222.11419089448</v>
+        <v>44224.95196826047</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>interoffice</t>
+          <t>overlook</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>회사 내의, 각 부서간의</t>
+          <t>간과; ~을 간과하다, 내려보다</t>
         </is>
       </c>
       <c r="C248" t="n">
         <v>3</v>
       </c>
       <c r="D248" s="1" t="n">
-        <v>44222.8469271298</v>
+        <v>44222.84692713336</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>be propped on[against]</t>
+          <t>sloppy</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>~에 기대어 있다</t>
+          <t>날림의, 엉성한</t>
         </is>
       </c>
       <c r="C249" t="n">
         <v>3</v>
       </c>
       <c r="D249" s="1" t="n">
-        <v>44224.95196826236</v>
+        <v>44222.11419089342</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>polish</t>
+          <t>feasibility</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>닦다, 광내다</t>
+          <t>실행 가능성, 실현 가능성</t>
         </is>
       </c>
       <c r="C250" t="n">
         <v>3</v>
       </c>
       <c r="D250" s="1" t="n">
-        <v>44222.11419088977</v>
+        <v>44226.28725668096</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>feasibility</t>
+          <t>help out</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>실행 가능성, 실현 가능성</t>
+          <t>도와주다</t>
         </is>
       </c>
       <c r="C251" t="n">
         <v>3</v>
       </c>
       <c r="D251" s="1" t="n">
-        <v>44226.28725668096</v>
+        <v>44226.28725668362</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>formal</t>
+          <t>be scattered on</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>공식적인</t>
+          <t>~에 흩어져 있다</t>
         </is>
       </c>
       <c r="C252" t="n">
         <v>3</v>
       </c>
       <c r="D252" s="1" t="n">
-        <v>44226.28725668443</v>
+        <v>44224.95196826251</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>take over</t>
+          <t>deliveration</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>인수하다, 이어받다</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C253" t="n">
         <v>3</v>
       </c>
       <c r="D253" s="1" t="n">
-        <v>44226.287256684</v>
+        <v>44222.84692713342</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>such</t>
+          <t>implore</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>그러한</t>
+          <t>애원하다, 간청하다</t>
         </is>
       </c>
       <c r="C254" t="n">
         <v>3</v>
       </c>
       <c r="D254" s="1" t="n">
-        <v>44232.18014923315</v>
+        <v>44222.11419089589</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>implore</t>
+          <t>eatery</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>애원하다, 간청하다</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C255" t="n">
         <v>3</v>
       </c>
       <c r="D255" s="1" t="n">
-        <v>44222.11419089589</v>
+        <v>44222.84692713509</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>consumer electronics industry</t>
+          <t>in exchange for</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>가전 사업</t>
+          <t>~을 대신해서</t>
         </is>
       </c>
       <c r="C256" t="n">
         <v>3</v>
       </c>
       <c r="D256" s="1" t="n">
-        <v>44222.11419089379</v>
+        <v>44222.84692713327</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>input</t>
+          <t>be about to + 동사원형</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>조언</t>
+          <t>막 ~하려고 하다</t>
         </is>
       </c>
       <c r="C257" t="n">
         <v>3</v>
       </c>
       <c r="D257" s="1" t="n">
-        <v>44222.8469271358</v>
+        <v>44222.11419088992</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>directory</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>(목표를 위한 새로운) 계획</t>
+          <t>안내판, 명부</t>
         </is>
       </c>
       <c r="C258" t="n">
         <v>3</v>
       </c>
       <c r="D258" s="1" t="n">
-        <v>44222.11419089396</v>
+        <v>44222.84692713129</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>flier</t>
+          <t>synthetic</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>광고 전단(= flyer)</t>
+          <t>합성의</t>
         </is>
       </c>
       <c r="C259" t="n">
         <v>3</v>
       </c>
       <c r="D259" s="1" t="n">
-        <v>44224.95196826182</v>
+        <v>44222.84692713212</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>rake</t>
+          <t>dairy farmer</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>갈퀴</t>
+          <t>낙농업자</t>
         </is>
       </c>
       <c r="C260" t="n">
         <v>3</v>
       </c>
       <c r="D260" s="1" t="n">
-        <v>44222.11419089029</v>
+        <v>44226.2752190368</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>at the latest</t>
+          <t>outpace</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>늦어도</t>
+          <t>~을 능가하다</t>
         </is>
       </c>
       <c r="C261" t="n">
         <v>3</v>
       </c>
-      <c r="D261" s="1" t="n">
-        <v>44224.15166368772</v>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771813</t>
+        </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>call in</t>
+          <t>sew</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>~를 불러들이다</t>
+          <t>바느질하다, 꿰매다</t>
         </is>
       </c>
       <c r="C262" t="n">
         <v>3</v>
       </c>
       <c r="D262" s="1" t="n">
-        <v>44222.11419089902</v>
+        <v>44222.11419089357</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>as a token of</t>
+          <t>commentary</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>~의 표시로서, ~의 증거로</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C263" t="n">
         <v>3</v>
       </c>
       <c r="D263" s="1" t="n">
-        <v>44224.9519682622</v>
+        <v>44226.28725668451</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>obstruct</t>
+          <t>implication</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>막다</t>
+          <t>함축, 함의</t>
         </is>
       </c>
       <c r="C264" t="n">
         <v>3</v>
       </c>
-      <c r="D264" s="1" t="n">
-        <v>44222.84692713019</v>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771926</t>
+        </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>watercraft</t>
+          <t>outfitter</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>배, 배 타는 기술</t>
+          <t>야외 활동 장비점</t>
         </is>
       </c>
       <c r="C265" t="n">
         <v>3</v>
       </c>
       <c r="D265" s="1" t="n">
-        <v>44224.1516636881</v>
+        <v>44222.84692713182</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>where as</t>
+          <t>go out of business</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>~이지만</t>
+          <t>파산하다, 폐업하다</t>
         </is>
       </c>
       <c r="C266" t="n">
         <v>3</v>
       </c>
       <c r="D266" s="1" t="n">
-        <v>44222.84692713051</v>
+        <v>44224.95196825996</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>as of + 시점</t>
+          <t>candidacy</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>~부로</t>
+          <t>입후보, 출마</t>
         </is>
       </c>
       <c r="C267" t="n">
         <v>3</v>
       </c>
       <c r="D267" s="1" t="n">
-        <v>44222.11419089551</v>
+        <v>44222.1141908944</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>claim</t>
+          <t>somehow</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>~을 주장하다</t>
+          <t>왜 그런지</t>
         </is>
       </c>
       <c r="C268" t="n">
         <v>3</v>
       </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771907</t>
-        </is>
+      <c r="D268" s="1" t="n">
+        <v>44224.15166368764</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>make a name</t>
+          <t>inform A of B</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>명성을 얻다</t>
+          <t>A에게 B에 대해 알리다</t>
         </is>
       </c>
       <c r="C269" t="n">
         <v>3</v>
       </c>
-      <c r="D269" s="1" t="n">
-        <v>44224.85289744829</v>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772002</t>
+        </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>composition</t>
+          <t>determine to do</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>구성(요소)</t>
+          <t>~하겠다고 결심하다</t>
         </is>
       </c>
       <c r="C270" t="n">
         <v>3</v>
       </c>
-      <c r="D270" s="1" t="n">
-        <v>44226.28725668104</v>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771889</t>
+        </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>adjacent to</t>
+          <t>pole</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>~에 인접한</t>
+          <t>기둥</t>
         </is>
       </c>
       <c r="C271" t="n">
         <v>3</v>
       </c>
-      <c r="D271" s="1" t="n">
-        <v>44224.95196826039</v>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772404</t>
+        </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ramp</t>
+          <t>robe</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>경사로</t>
+          <t>가운</t>
         </is>
       </c>
       <c r="C272" t="n">
         <v>3</v>
       </c>
-      <c r="D272" s="1" t="n">
-        <v>44224.95196826259</v>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772270</t>
+        </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>honorarium</t>
+          <t>excerpt</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>사례비</t>
+          <t>발췌, 인용</t>
         </is>
       </c>
       <c r="C273" t="n">
         <v>3</v>
       </c>
       <c r="D273" s="1" t="n">
-        <v>44224.15166368717</v>
+        <v>44222.84692713058</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>dome</t>
+          <t>saving</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>둥근 지붕을 달다; 둥근 지붕</t>
+          <t>감액</t>
         </is>
       </c>
       <c r="C274" t="n">
         <v>3</v>
       </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772299</t>
-        </is>
+      <c r="D274" s="1" t="n">
+        <v>44224.85289744897</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>prop(property)</t>
+          <t>courteous</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>소도구</t>
+          <t>정중한</t>
         </is>
       </c>
       <c r="C275" t="n">
         <v>3</v>
       </c>
-      <c r="D275" s="1" t="n">
-        <v>44222.1141908952</v>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772125</t>
+        </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>sleek</t>
+          <t>get in</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>(모양이) 매끈한</t>
+          <t>~에 들어가다, 도착하다</t>
         </is>
       </c>
       <c r="C276" t="n">
         <v>3</v>
       </c>
-      <c r="D276" s="1" t="n">
-        <v>44224.8528974482</v>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771965</t>
+        </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>prohibit A from -ing</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>조각조각으로 찢다, 끝내버리다</t>
+          <t>A가 ~하는 것을 금하다</t>
         </is>
       </c>
       <c r="C277" t="n">
         <v>3</v>
       </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772021</t>
-        </is>
+      <c r="D277" s="1" t="n">
+        <v>44224.1516636879</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>plot</t>
+          <t>operating efficiency</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>(소설, 영화 등의) 구성, 줄거리</t>
+          <t>작업 성능</t>
         </is>
       </c>
       <c r="C278" t="n">
         <v>3</v>
       </c>
       <c r="D278" s="1" t="n">
-        <v>44222.11419089288</v>
+        <v>44224.95196826111</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>put on hold</t>
+          <t>justify</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>보류하다</t>
+          <t>증명하다, 입증하다</t>
         </is>
       </c>
       <c r="C279" t="n">
         <v>3</v>
       </c>
-      <c r="D279" s="1" t="n">
-        <v>44224.8528974488</v>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772242</t>
+        </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>fiscal year</t>
+          <t>be in line for</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>회계 연도</t>
+          <t>~할 가능성이 있다</t>
         </is>
       </c>
       <c r="C280" t="n">
         <v>3</v>
       </c>
       <c r="D280" s="1" t="n">
-        <v>44222.11419089911</v>
+        <v>44222.11419089894</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>valued at</t>
+          <t>initiative</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>가격이 ~에 상당하는</t>
+          <t>주도적임, 계획</t>
         </is>
       </c>
       <c r="C281" t="n">
         <v>3</v>
       </c>
       <c r="D281" s="1" t="n">
-        <v>44224.95196826031</v>
+        <v>44224.95196826087</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>hearty</t>
+          <t>associate</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>(음식이) 푸짐하고 만족스러운</t>
+          <t>연결지어 생각하다</t>
         </is>
       </c>
       <c r="C282" t="n">
         <v>3</v>
       </c>
-      <c r="D282" s="1" t="n">
-        <v>44222.84692713589</v>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772251</t>
+        </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ceiling fan</t>
+          <t>shelving unit</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>천장 선풍기</t>
+          <t>선반</t>
         </is>
       </c>
       <c r="C283" t="n">
         <v>3</v>
       </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772461</t>
-        </is>
+      <c r="D283" s="1" t="n">
+        <v>44222.11419089014</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>one another</t>
+          <t>representative</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>서로</t>
+          <t>대표(자), 대의원, 국회의원</t>
         </is>
       </c>
       <c r="C284" t="n">
         <v>3</v>
       </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772329</t>
-        </is>
+      <c r="D284" s="1" t="n">
+        <v>44224.95196826141</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>prompt</t>
+          <t>have been left</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>(컴퓨터 시스템 상에서) ~하라고( 메시지로) 지시하다, 촉구하다</t>
+          <t>~인 채로 있다</t>
         </is>
       </c>
       <c r="C285" t="n">
         <v>3</v>
       </c>
       <c r="D285" s="1" t="n">
-        <v>44222.84692713043</v>
+        <v>44224.95196826243</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>rugged</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>(질문을) 처리하다</t>
+          <t>울퉁불퉁한</t>
         </is>
       </c>
       <c r="C286" t="n">
         <v>3</v>
       </c>
       <c r="D286" s="1" t="n">
-        <v>44222.11419089486</v>
+        <v>44222.84692713236</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>identical</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>구현</t>
+          <t>똑같은, 동일한</t>
         </is>
       </c>
       <c r="C287" t="n">
         <v>3</v>
       </c>
-      <c r="D287" s="1" t="n">
-        <v>44222.84692713084</v>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772414</t>
+        </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>phenomenal</t>
+          <t>reenter</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>경의적인, 경탄이 나오는</t>
+          <t>다시 입력하다</t>
         </is>
       </c>
       <c r="C288" t="n">
         <v>3</v>
       </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772289</t>
-        </is>
+      <c r="D288" s="1" t="n">
+        <v>44224.95196826167</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>by contrast</t>
+          <t>sweep -&gt; swept -&gt; swept</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>그와 대조적으로</t>
+          <t>(빗자루로)쓸다, 청소하다</t>
         </is>
       </c>
       <c r="C289" t="n">
         <v>3</v>
       </c>
-      <c r="D289" s="1" t="n">
-        <v>44224.8528974481</v>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772376</t>
+        </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>mussels</t>
+          <t>upholstery</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>홍합</t>
+          <t>(가구 덮개 등의) 실내 장식(품)</t>
         </is>
       </c>
       <c r="C290" t="n">
         <v>3</v>
       </c>
       <c r="D290" s="1" t="n">
-        <v>44222.84692713389</v>
+        <v>44222.11419089334</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>qualify for ~</t>
+          <t>reception</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>~의 자격을 얻다</t>
+          <t>수신상태</t>
         </is>
       </c>
       <c r="C291" t="n">
         <v>3</v>
       </c>
-      <c r="D291" s="1" t="n">
-        <v>44222.1141908912</v>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772106</t>
+        </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>authenticity</t>
+          <t>take A out of B</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>진짜임</t>
+          <t>B에서 A를 뽑다</t>
         </is>
       </c>
       <c r="C292" t="n">
         <v>3</v>
       </c>
-      <c r="D292" s="1" t="n">
-        <v>44224.15166368874</v>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772480</t>
+        </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>confer</t>
+          <t>promotional offers</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>수여하다</t>
+          <t>판촉할인</t>
         </is>
       </c>
       <c r="C293" t="n">
         <v>3</v>
       </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771860</t>
-        </is>
+      <c r="D293" s="1" t="n">
+        <v>44222.84692713197</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>stiff</t>
+          <t>disapprove</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>뻣뻣한</t>
+          <t>못마땅해 하다, 불만을 나타내다</t>
         </is>
       </c>
       <c r="C294" t="n">
         <v>3</v>
       </c>
-      <c r="D294" s="1" t="n">
-        <v>44222.84692713274</v>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771917</t>
+        </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>simply</t>
+          <t>high-rise</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
+          <t>고층 빌딩</t>
         </is>
       </c>
       <c r="C295" t="n">
         <v>3</v>
       </c>
       <c r="D295" s="1" t="n">
-        <v>44222.11419089295</v>
+        <v>44222.11419089326</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>right candidate</t>
+          <t>set foot on</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>적임자</t>
+          <t>~에 발을 들여놓다</t>
         </is>
       </c>
       <c r="C296" t="n">
         <v>3</v>
       </c>
       <c r="D296" s="1" t="n">
-        <v>44222.11419089267</v>
+        <v>44224.15166368801</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>assumption</t>
+          <t>proximity to</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>가정</t>
+          <t>~에서 아주 가까움, 근접함</t>
         </is>
       </c>
       <c r="C297" t="n">
         <v>3</v>
       </c>
       <c r="D297" s="1" t="n">
-        <v>44222.8469271335</v>
+        <v>44222.84692713313</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>display bin</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>생산, 생상량</t>
+          <t>진열장</t>
         </is>
       </c>
       <c r="C298" t="n">
         <v>3</v>
       </c>
       <c r="D298" s="1" t="n">
-        <v>44222.84692713002</v>
+        <v>44222.11419089544</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>bio</t>
+          <t>pension</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>약력</t>
+          <t>연금</t>
         </is>
       </c>
       <c r="C299" t="n">
         <v>3</v>
       </c>
       <c r="D299" s="1" t="n">
-        <v>44224.15166368753</v>
+        <v>44222.8469271316</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>help in -ing</t>
+          <t>once a month</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>~하는데 있어서 도움</t>
+          <t>매달</t>
         </is>
       </c>
       <c r="C300" t="n">
         <v>3</v>
       </c>
       <c r="D300" s="1" t="n">
-        <v>44222.84692713382</v>
+        <v>44222.11419089159</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>language institute</t>
+          <t>compelling</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>어학원</t>
+          <t>설득력 있는, 눈을 뗄 수 없는</t>
         </is>
       </c>
       <c r="C301" t="n">
         <v>3</v>
       </c>
       <c r="D301" s="1" t="n">
-        <v>44222.1141908951</v>
+        <v>44224.15166368735</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>much-needed</t>
+          <t>traditionally</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>꼭 필요한</t>
+          <t>예전부터, 통상적으로</t>
         </is>
       </c>
       <c r="C302" t="n">
         <v>3</v>
       </c>
       <c r="D302" s="1" t="n">
-        <v>44222.11419089566</v>
+        <v>44222.84692713359</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Candidate Referral Program</t>
+          <t>matte</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>사내 추천제</t>
+          <t>무광</t>
         </is>
       </c>
       <c r="C303" t="n">
         <v>3</v>
       </c>
       <c r="D303" s="1" t="n">
-        <v>44222.84692713138</v>
+        <v>44222.84692713501</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>start off</t>
+          <t>oar</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>출발하다, 시작하다</t>
+          <t>(물에서 쓰는) 노</t>
         </is>
       </c>
       <c r="C304" t="n">
         <v>3</v>
       </c>
       <c r="D304" s="1" t="n">
-        <v>44224.95196826196</v>
+        <v>44222.11419089075</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>prop</t>
+          <t>pay roll</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>받치다</t>
+          <t>급여 대상자 명단, 급여 총액</t>
         </is>
       </c>
       <c r="C305" t="n">
         <v>3</v>
       </c>
       <c r="D305" s="1" t="n">
-        <v>44222.11419088928</v>
+        <v>44222.11419089212</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>meet with approval</t>
+          <t>fasten</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>동의[승인]를 얻다</t>
+          <t>매다, 고정시키다</t>
         </is>
       </c>
       <c r="C306" t="n">
         <v>3</v>
       </c>
-      <c r="D306" s="1" t="n">
-        <v>44224.95196826134</v>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772357</t>
+        </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>knob</t>
+          <t>intense</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>손잡이, 스위치</t>
+          <t>강렬한, 거센</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -6036,551 +6054,551 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772031</t>
+          <t>2021-01-26 02:11:09.772195</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>lead character</t>
+          <t>terrain</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>주인공</t>
+          <t>지형</t>
         </is>
       </c>
       <c r="C308" t="n">
         <v>3</v>
       </c>
       <c r="D308" s="1" t="n">
-        <v>44222.11419089189</v>
+        <v>44222.84692713244</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>lodging</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>결정하다</t>
+          <t>임시 숙소</t>
         </is>
       </c>
       <c r="C309" t="n">
         <v>3</v>
       </c>
       <c r="D309" s="1" t="n">
-        <v>44224.95196826118</v>
+        <v>44224.15166368707</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>manner</t>
+          <t>step over</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>방법, 방식, 예의 범절</t>
+          <t>(장애물을) 넘다</t>
         </is>
       </c>
       <c r="C310" t="n">
         <v>3</v>
       </c>
       <c r="D310" s="1" t="n">
-        <v>44222.84692713305</v>
+        <v>44222.11419089022</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>back-to-back</t>
+          <t>exquisite</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>연속적인, 잇따라</t>
+          <t>정교한, 세련된</t>
         </is>
       </c>
       <c r="C311" t="n">
         <v>3</v>
       </c>
-      <c r="D311" s="1" t="n">
-        <v>44224.95196826157</v>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772280</t>
+        </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>qualified</t>
+          <t>glowing</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>적격인</t>
+          <t>극찬하는</t>
         </is>
       </c>
       <c r="C312" t="n">
         <v>3</v>
       </c>
       <c r="D312" s="1" t="n">
-        <v>44222.84692713166</v>
+        <v>44222.84692713534</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>gazebo</t>
+          <t>expertise</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>(정원의) 정자</t>
+          <t>전문성, 전문지식</t>
         </is>
       </c>
       <c r="C313" t="n">
         <v>3</v>
       </c>
       <c r="D313" s="1" t="n">
-        <v>44222.11419089243</v>
+        <v>44222.84692712968</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>centerpiece</t>
+          <t>gift certificate</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>중심부, 중앙 장식물</t>
+          <t>상품권</t>
         </is>
       </c>
       <c r="C314" t="n">
         <v>3</v>
       </c>
       <c r="D314" s="1" t="n">
-        <v>44222.11419089235</v>
+        <v>44222.84692713035</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>runway</t>
+          <t>professional reference</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>활주로</t>
+          <t>직장 관련 추천인</t>
         </is>
       </c>
       <c r="C315" t="n">
         <v>3</v>
       </c>
       <c r="D315" s="1" t="n">
-        <v>44222.11419089044</v>
+        <v>44222.84692713101</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>fill prescriptions</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>처방약을 조제하다</t>
         </is>
       </c>
       <c r="C316" t="n">
         <v>3</v>
       </c>
       <c r="D316" s="1" t="n">
-        <v>44222.84692713367</v>
+        <v>44222.11419089463</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>aspiring</t>
+          <t>fudge</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>장차 ~가 되려는</t>
+          <t>연한(무른) 캔디</t>
         </is>
       </c>
       <c r="C317" t="n">
         <v>3</v>
       </c>
-      <c r="D317" s="1" t="n">
-        <v>44224.95196826126</v>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772176</t>
+        </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>technical drawing</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>제도(= drafting)</t>
+          <t>배치, 직업소개</t>
         </is>
       </c>
       <c r="C318" t="n">
         <v>3</v>
       </c>
       <c r="D318" s="1" t="n">
-        <v>44222.1141908909</v>
+        <v>44224.9519682619</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>autehntic</t>
+          <t>sports complex</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>진짜의</t>
+          <t>종합 운동장</t>
         </is>
       </c>
       <c r="C319" t="n">
         <v>3</v>
       </c>
       <c r="D319" s="1" t="n">
-        <v>44222.11419089112</v>
+        <v>44222.11419089258</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>outline</t>
+          <t>accomplished</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>설명하다</t>
+          <t>완수하다, 성취하다, 해내다 (= achieve)</t>
         </is>
       </c>
       <c r="C320" t="n">
         <v>3</v>
       </c>
       <c r="D320" s="1" t="n">
-        <v>44222.11419089312</v>
+        <v>44222.84692712988</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>accomplished</t>
+          <t>outline</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>완수하다, 성취하다, 해내다 (= achieve)</t>
+          <t>설명하다</t>
         </is>
       </c>
       <c r="C321" t="n">
         <v>3</v>
       </c>
       <c r="D321" s="1" t="n">
-        <v>44222.84692712988</v>
+        <v>44222.11419089312</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>sports complex</t>
+          <t>autehntic</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>종합 운동장</t>
+          <t>진짜의</t>
         </is>
       </c>
       <c r="C322" t="n">
         <v>3</v>
       </c>
       <c r="D322" s="1" t="n">
-        <v>44222.11419089258</v>
+        <v>44222.11419089112</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>technical drawing</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>배치, 직업소개</t>
+          <t>제도(= drafting)</t>
         </is>
       </c>
       <c r="C323" t="n">
         <v>3</v>
       </c>
       <c r="D323" s="1" t="n">
-        <v>44224.9519682619</v>
+        <v>44222.1141908909</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>fudge</t>
+          <t>aspiring</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>연한(무른) 캔디</t>
+          <t>장차 ~가 되려는</t>
         </is>
       </c>
       <c r="C324" t="n">
         <v>3</v>
       </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772176</t>
-        </is>
+      <c r="D324" s="1" t="n">
+        <v>44224.95196826126</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>fill prescriptions</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>처방약을 조제하다</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C325" t="n">
         <v>3</v>
       </c>
       <c r="D325" s="1" t="n">
-        <v>44222.11419089463</v>
+        <v>44222.84692713367</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>professional reference</t>
+          <t>sail</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>직장 관련 추천인</t>
+          <t>돛; 항해하다</t>
         </is>
       </c>
       <c r="C326" t="n">
         <v>3</v>
       </c>
-      <c r="D326" s="1" t="n">
-        <v>44222.84692713101</v>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772442</t>
+        </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>sail</t>
+          <t>runway</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>돛; 항해하다</t>
+          <t>활주로</t>
         </is>
       </c>
       <c r="C327" t="n">
         <v>3</v>
       </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772442</t>
-        </is>
+      <c r="D327" s="1" t="n">
+        <v>44222.11419089044</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>gift certificate</t>
+          <t>centerpiece</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>상품권</t>
+          <t>중심부, 중앙 장식물</t>
         </is>
       </c>
       <c r="C328" t="n">
         <v>3</v>
       </c>
       <c r="D328" s="1" t="n">
-        <v>44222.84692713035</v>
+        <v>44222.11419089235</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>expertise</t>
+          <t>gazebo</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>전문성, 전문지식</t>
+          <t>(정원의) 정자</t>
         </is>
       </c>
       <c r="C329" t="n">
         <v>3</v>
       </c>
       <c r="D329" s="1" t="n">
-        <v>44222.84692712968</v>
+        <v>44222.11419089243</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>glowing</t>
+          <t>recognize A as B</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>극찬하는</t>
+          <t>A를 B로 인식하다</t>
         </is>
       </c>
       <c r="C330" t="n">
         <v>3</v>
       </c>
-      <c r="D330" s="1" t="n">
-        <v>44222.84692713534</v>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771842</t>
+        </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>recognize A as B</t>
+          <t>qualified</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>A를 B로 인식하다</t>
+          <t>적격인</t>
         </is>
       </c>
       <c r="C331" t="n">
         <v>3</v>
       </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771842</t>
-        </is>
+      <c r="D331" s="1" t="n">
+        <v>44222.84692713166</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>exquisite</t>
+          <t>back-to-back</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>정교한, 세련된</t>
+          <t>연속적인, 잇따라</t>
         </is>
       </c>
       <c r="C332" t="n">
         <v>3</v>
       </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772280</t>
-        </is>
+      <c r="D332" s="1" t="n">
+        <v>44224.95196826157</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>step over</t>
+          <t>manner</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>(장애물을) 넘다</t>
+          <t>방법, 방식, 예의 범절</t>
         </is>
       </c>
       <c r="C333" t="n">
         <v>3</v>
       </c>
       <c r="D333" s="1" t="n">
-        <v>44222.11419089022</v>
+        <v>44222.84692713305</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>lodging</t>
+          <t>high-volume</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>임시 숙소</t>
+          <t>대량의</t>
         </is>
       </c>
       <c r="C334" t="n">
         <v>3</v>
       </c>
-      <c r="D334" s="1" t="n">
-        <v>44224.15166368707</v>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772339</t>
+        </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>high-volume</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>대량의</t>
+          <t>결정하다</t>
         </is>
       </c>
       <c r="C335" t="n">
         <v>3</v>
       </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772339</t>
-        </is>
+      <c r="D335" s="1" t="n">
+        <v>44224.95196826118</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>terrain</t>
+          <t>lead character</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>지형</t>
+          <t>주인공</t>
         </is>
       </c>
       <c r="C336" t="n">
         <v>3</v>
       </c>
       <c r="D336" s="1" t="n">
-        <v>44222.84692713244</v>
+        <v>44222.11419089189</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>intense</t>
+          <t>knob</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>강렬한, 거센</t>
+          <t>손잡이, 스위치</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -6588,389 +6606,383 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772195</t>
+          <t>2021-01-26 02:11:09.772031</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>fasten</t>
+          <t>meet with approval</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>매다, 고정시키다</t>
+          <t>동의[승인]를 얻다</t>
         </is>
       </c>
       <c r="C338" t="n">
         <v>3</v>
       </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772357</t>
-        </is>
+      <c r="D338" s="1" t="n">
+        <v>44224.95196826134</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>pay roll</t>
+          <t>prop</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>급여 대상자 명단, 급여 총액</t>
+          <t>받치다</t>
         </is>
       </c>
       <c r="C339" t="n">
         <v>3</v>
       </c>
       <c r="D339" s="1" t="n">
-        <v>44222.11419089212</v>
+        <v>44222.11419088928</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>oar</t>
+          <t>start off</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>(물에서 쓰는) 노</t>
+          <t>출발하다, 시작하다</t>
         </is>
       </c>
       <c r="C340" t="n">
         <v>3</v>
       </c>
       <c r="D340" s="1" t="n">
-        <v>44222.11419089075</v>
+        <v>44224.95196826196</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>matte</t>
+          <t>Candidate Referral Program</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>무광</t>
+          <t>사내 추천제</t>
         </is>
       </c>
       <c r="C341" t="n">
         <v>3</v>
       </c>
       <c r="D341" s="1" t="n">
-        <v>44222.84692713501</v>
+        <v>44222.84692713138</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>traditionally</t>
+          <t>botanist</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>예전부터, 통상적으로</t>
+          <t>식물학자</t>
         </is>
       </c>
       <c r="C342" t="n">
         <v>3</v>
       </c>
-      <c r="D342" s="1" t="n">
-        <v>44222.84692713359</v>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772134</t>
+        </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>botanist</t>
+          <t>much-needed</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>식물학자</t>
+          <t>꼭 필요한</t>
         </is>
       </c>
       <c r="C343" t="n">
         <v>3</v>
       </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772134</t>
-        </is>
+      <c r="D343" s="1" t="n">
+        <v>44222.11419089566</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>compelling</t>
+          <t>language institute</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>설득력 있는, 눈을 뗄 수 없는</t>
+          <t>어학원</t>
         </is>
       </c>
       <c r="C344" t="n">
         <v>3</v>
       </c>
       <c r="D344" s="1" t="n">
-        <v>44224.15166368735</v>
+        <v>44222.1141908951</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>once a month</t>
+          <t>help in -ing</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>매달</t>
+          <t>~하는데 있어서 도움</t>
         </is>
       </c>
       <c r="C345" t="n">
         <v>3</v>
       </c>
       <c r="D345" s="1" t="n">
-        <v>44222.11419089159</v>
+        <v>44222.84692713382</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>pension</t>
+          <t>beneath</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>연금</t>
+          <t>~밑에</t>
         </is>
       </c>
       <c r="C346" t="n">
         <v>3</v>
       </c>
       <c r="D346" s="1" t="n">
-        <v>44222.8469271316</v>
+        <v>44222.11419088913</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>beneath</t>
+          <t>bio</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>~밑에</t>
+          <t>약력</t>
         </is>
       </c>
       <c r="C347" t="n">
         <v>3</v>
       </c>
       <c r="D347" s="1" t="n">
-        <v>44222.11419088913</v>
+        <v>44224.15166368753</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>display bin</t>
+          <t>production</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>진열장</t>
+          <t>생산, 생상량</t>
         </is>
       </c>
       <c r="C348" t="n">
         <v>3</v>
       </c>
       <c r="D348" s="1" t="n">
-        <v>44222.11419089544</v>
+        <v>44222.84692713002</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>proximity to</t>
+          <t>assumption</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>~에서 아주 가까움, 근접함</t>
+          <t>가정</t>
         </is>
       </c>
       <c r="C349" t="n">
         <v>3</v>
       </c>
       <c r="D349" s="1" t="n">
-        <v>44222.84692713313</v>
+        <v>44222.8469271335</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>set foot on</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>~에 발을 들여놓다</t>
+          <t>(길, 강 등이) 구불구불하다</t>
         </is>
       </c>
       <c r="C350" t="n">
         <v>3</v>
       </c>
       <c r="D350" s="1" t="n">
-        <v>44224.15166368801</v>
+        <v>44222.11419088961</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>right candidate</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>(길, 강 등이) 구불구불하다</t>
+          <t>적임자</t>
         </is>
       </c>
       <c r="C351" t="n">
         <v>3</v>
       </c>
       <c r="D351" s="1" t="n">
-        <v>44222.11419088961</v>
+        <v>44222.11419089267</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>high-rise</t>
+          <t>simply</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>고층 빌딩</t>
+          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
         </is>
       </c>
       <c r="C352" t="n">
         <v>3</v>
       </c>
       <c r="D352" s="1" t="n">
-        <v>44222.11419089326</v>
+        <v>44222.11419089295</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>stiff</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>못마땅해 하다, 불만을 나타내다</t>
+          <t>뻣뻣한</t>
         </is>
       </c>
       <c r="C353" t="n">
         <v>3</v>
       </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771917</t>
-        </is>
+      <c r="D353" s="1" t="n">
+        <v>44222.84692713274</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>promotional offers</t>
+          <t>confer</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>판촉할인</t>
+          <t>수여하다</t>
         </is>
       </c>
       <c r="C354" t="n">
         <v>3</v>
       </c>
-      <c r="D354" s="1" t="n">
-        <v>44222.84692713197</v>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771860</t>
+        </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>take A out of B</t>
+          <t>authenticity</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>B에서 A를 뽑다</t>
+          <t>진짜임</t>
         </is>
       </c>
       <c r="C355" t="n">
         <v>3</v>
       </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772480</t>
-        </is>
+      <c r="D355" s="1" t="n">
+        <v>44224.15166368874</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>reception</t>
+          <t>qualify for ~</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>수신상태</t>
+          <t>~의 자격을 얻다</t>
         </is>
       </c>
       <c r="C356" t="n">
         <v>3</v>
       </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772106</t>
-        </is>
+      <c r="D356" s="1" t="n">
+        <v>44222.1141908912</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>upholstery</t>
+          <t>mussels</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>(가구 덮개 등의) 실내 장식(품)</t>
+          <t>홍합</t>
         </is>
       </c>
       <c r="C357" t="n">
         <v>3</v>
       </c>
       <c r="D357" s="1" t="n">
-        <v>44222.11419089334</v>
+        <v>44222.84692713389</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>sweep -&gt; swept -&gt; swept</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>(빗자루로)쓸다, 청소하다</t>
+          <t>제공하다</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -6978,920 +6990,908 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772376</t>
+          <t>2021-01-26 02:11:09.772157</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>by contrast</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>제공하다</t>
+          <t>그와 대조적으로</t>
         </is>
       </c>
       <c r="C359" t="n">
         <v>3</v>
       </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772157</t>
-        </is>
+      <c r="D359" s="1" t="n">
+        <v>44224.8528974481</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>reenter</t>
+          <t>phenomenal</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>다시 입력하다</t>
+          <t>경의적인, 경탄이 나오는</t>
         </is>
       </c>
       <c r="C360" t="n">
         <v>3</v>
       </c>
-      <c r="D360" s="1" t="n">
-        <v>44224.95196826167</v>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772289</t>
+        </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>똑같은, 동일한</t>
+          <t>구현</t>
         </is>
       </c>
       <c r="C361" t="n">
         <v>3</v>
       </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772414</t>
-        </is>
+      <c r="D361" s="1" t="n">
+        <v>44222.84692713084</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>rugged</t>
+          <t>hands-on</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>울퉁불퉁한</t>
+          <t>실천의, 직접 해보는</t>
         </is>
       </c>
       <c r="C362" t="n">
         <v>3</v>
       </c>
       <c r="D362" s="1" t="n">
-        <v>44222.84692713236</v>
+        <v>44222.11419089559</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>hands-on</t>
+          <t>field</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>실천의, 직접 해보는</t>
+          <t>(질문을) 처리하다</t>
         </is>
       </c>
       <c r="C363" t="n">
         <v>3</v>
       </c>
       <c r="D363" s="1" t="n">
-        <v>44222.11419089559</v>
+        <v>44222.11419089486</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>have been left</t>
+          <t>prompt</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>~인 채로 있다</t>
+          <t>(컴퓨터 시스템 상에서) ~하라고( 메시지로) 지시하다, 촉구하다</t>
         </is>
       </c>
       <c r="C364" t="n">
         <v>3</v>
       </c>
       <c r="D364" s="1" t="n">
-        <v>44224.95196826243</v>
+        <v>44222.84692713043</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>representative</t>
+          <t>one another</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>대표(자), 대의원, 국회의원</t>
+          <t>서로</t>
         </is>
       </c>
       <c r="C365" t="n">
         <v>3</v>
       </c>
-      <c r="D365" s="1" t="n">
-        <v>44224.95196826141</v>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772329</t>
+        </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>shelving unit</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>상당히, 꽤</t>
         </is>
       </c>
       <c r="C366" t="n">
         <v>3</v>
       </c>
       <c r="D366" s="1" t="n">
-        <v>44222.11419089014</v>
+        <v>44222.11419089105</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>ceiling fan</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>상당히, 꽤</t>
+          <t>천장 선풍기</t>
         </is>
       </c>
       <c r="C367" t="n">
         <v>3</v>
       </c>
-      <c r="D367" s="1" t="n">
-        <v>44222.11419089105</v>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772461</t>
+        </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>associate</t>
+          <t>hearty</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>연결지어 생각하다</t>
+          <t>(음식이) 푸짐하고 만족스러운</t>
         </is>
       </c>
       <c r="C368" t="n">
         <v>3</v>
       </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772251</t>
-        </is>
+      <c r="D368" s="1" t="n">
+        <v>44222.84692713589</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>valued at</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>주도적임, 계획</t>
+          <t>가격이 ~에 상당하는</t>
         </is>
       </c>
       <c r="C369" t="n">
         <v>3</v>
       </c>
       <c r="D369" s="1" t="n">
-        <v>44224.95196826087</v>
+        <v>44224.95196826031</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>be in line for</t>
+          <t>fiscal year</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>~할 가능성이 있다</t>
+          <t>회계 연도</t>
         </is>
       </c>
       <c r="C370" t="n">
         <v>3</v>
       </c>
       <c r="D370" s="1" t="n">
-        <v>44222.11419089894</v>
+        <v>44222.11419089911</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>justify</t>
+          <t>put on hold</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>증명하다, 입증하다</t>
+          <t>보류하다</t>
         </is>
       </c>
       <c r="C371" t="n">
         <v>3</v>
       </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772242</t>
-        </is>
+      <c r="D371" s="1" t="n">
+        <v>44224.8528974488</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>operating efficiency</t>
+          <t>plot</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>작업 성능</t>
+          <t>(소설, 영화 등의) 구성, 줄거리</t>
         </is>
       </c>
       <c r="C372" t="n">
         <v>3</v>
       </c>
       <c r="D372" s="1" t="n">
-        <v>44224.95196826111</v>
+        <v>44222.11419089288</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>prohibit A from -ing</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>A가 ~하는 것을 금하다</t>
+          <t>조각조각으로 찢다, 끝내버리다</t>
         </is>
       </c>
       <c r="C373" t="n">
         <v>3</v>
       </c>
-      <c r="D373" s="1" t="n">
-        <v>44224.1516636879</v>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772021</t>
+        </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>get in</t>
+          <t>be credited with</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>~에 들어가다, 도착하다</t>
+          <t>~에 공로가 있다</t>
         </is>
       </c>
       <c r="C374" t="n">
         <v>3</v>
       </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771965</t>
-        </is>
+      <c r="D374" s="1" t="n">
+        <v>44224.95196826007</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>be credited with</t>
+          <t>sleek</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>~에 공로가 있다</t>
+          <t>(모양이) 매끈한</t>
         </is>
       </c>
       <c r="C375" t="n">
         <v>3</v>
       </c>
       <c r="D375" s="1" t="n">
-        <v>44224.95196826007</v>
+        <v>44224.8528974482</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>courteous</t>
+          <t>prop(property)</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>정중한</t>
+          <t>소도구</t>
         </is>
       </c>
       <c r="C376" t="n">
         <v>3</v>
       </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772125</t>
-        </is>
+      <c r="D376" s="1" t="n">
+        <v>44222.1141908952</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>saving</t>
+          <t>dome</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>감액</t>
+          <t>둥근 지붕을 달다; 둥근 지붕</t>
         </is>
       </c>
       <c r="C377" t="n">
         <v>3</v>
       </c>
-      <c r="D377" s="1" t="n">
-        <v>44224.85289744897</v>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772299</t>
+        </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>excerpt</t>
+          <t>crepe</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>발췌, 인용</t>
+          <t>얇은 팬케이크</t>
         </is>
       </c>
       <c r="C378" t="n">
         <v>3</v>
       </c>
-      <c r="D378" s="1" t="n">
-        <v>44222.84692713058</v>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772147</t>
+        </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>crepe</t>
+          <t>honorarium</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>얇은 팬케이크</t>
+          <t>사례비</t>
         </is>
       </c>
       <c r="C379" t="n">
         <v>3</v>
       </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772147</t>
-        </is>
+      <c r="D379" s="1" t="n">
+        <v>44224.15166368717</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>robe</t>
+          <t>ramp</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>가운</t>
+          <t>경사로</t>
         </is>
       </c>
       <c r="C380" t="n">
         <v>3</v>
       </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772270</t>
-        </is>
+      <c r="D380" s="1" t="n">
+        <v>44224.95196826259</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>pole</t>
+          <t>adjacent to</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>기둥</t>
+          <t>~에 인접한</t>
         </is>
       </c>
       <c r="C381" t="n">
         <v>3</v>
       </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772404</t>
-        </is>
+      <c r="D381" s="1" t="n">
+        <v>44224.95196826039</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>determine to do</t>
+          <t>hold one's own</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>~하겠다고 결심하다</t>
+          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
         </is>
       </c>
       <c r="C382" t="n">
         <v>3</v>
       </c>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771889</t>
-        </is>
+      <c r="D382" s="1" t="n">
+        <v>44224.15166368688</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>hold one's own</t>
+          <t>composition</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
+          <t>구성(요소)</t>
         </is>
       </c>
       <c r="C383" t="n">
         <v>3</v>
       </c>
       <c r="D383" s="1" t="n">
-        <v>44224.15166368688</v>
+        <v>44226.28725668104</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>inform A of B</t>
+          <t>make a name</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>A에게 B에 대해 알리다</t>
+          <t>명성을 얻다</t>
         </is>
       </c>
       <c r="C384" t="n">
         <v>3</v>
       </c>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772002</t>
-        </is>
+      <c r="D384" s="1" t="n">
+        <v>44224.85289744829</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>somehow</t>
+          <t>claim</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>왜 그런지</t>
+          <t>~을 주장하다</t>
         </is>
       </c>
       <c r="C385" t="n">
         <v>3</v>
       </c>
-      <c r="D385" s="1" t="n">
-        <v>44224.15166368764</v>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771907</t>
+        </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>candidacy</t>
+          <t>as of + 시점</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>입후보, 출마</t>
+          <t>~부로</t>
         </is>
       </c>
       <c r="C386" t="n">
         <v>3</v>
       </c>
       <c r="D386" s="1" t="n">
-        <v>44222.1141908944</v>
+        <v>44222.11419089551</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>go out of business</t>
+          <t>where as</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>파산하다, 폐업하다</t>
+          <t>~이지만</t>
         </is>
       </c>
       <c r="C387" t="n">
         <v>3</v>
       </c>
       <c r="D387" s="1" t="n">
-        <v>44224.95196825996</v>
+        <v>44222.84692713051</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>outfitter</t>
+          <t>watercraft</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>야외 활동 장비점</t>
+          <t>배, 배 타는 기술</t>
         </is>
       </c>
       <c r="C388" t="n">
         <v>3</v>
       </c>
       <c r="D388" s="1" t="n">
-        <v>44222.84692713182</v>
+        <v>44224.1516636881</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>implication</t>
+          <t>obstruct</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>함축, 함의</t>
+          <t>막다</t>
         </is>
       </c>
       <c r="C389" t="n">
         <v>3</v>
       </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771926</t>
-        </is>
+      <c r="D389" s="1" t="n">
+        <v>44222.84692713019</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>commentary</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>좌절감, 불만</t>
         </is>
       </c>
       <c r="C390" t="n">
         <v>3</v>
       </c>
       <c r="D390" s="1" t="n">
-        <v>44226.28725668451</v>
+        <v>44224.85289744847</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>frustration</t>
+          <t>as a token of</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>좌절감, 불만</t>
+          <t>~의 표시로서, ~의 증거로</t>
         </is>
       </c>
       <c r="C391" t="n">
         <v>3</v>
       </c>
       <c r="D391" s="1" t="n">
-        <v>44224.85289744847</v>
+        <v>44224.9519682622</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>sew</t>
+          <t>call in</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>바느질하다, 꿰매다</t>
+          <t>~를 불러들이다</t>
         </is>
       </c>
       <c r="C392" t="n">
         <v>3</v>
       </c>
       <c r="D392" s="1" t="n">
-        <v>44222.11419089357</v>
+        <v>44222.11419089902</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>outpace</t>
+          <t>at the latest</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>~을 능가하다</t>
+          <t>늦어도</t>
         </is>
       </c>
       <c r="C393" t="n">
         <v>3</v>
       </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771813</t>
-        </is>
+      <c r="D393" s="1" t="n">
+        <v>44224.15166368772</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>dairy farmer</t>
+          <t>violator</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>낙농업자</t>
+          <t>위반자</t>
         </is>
       </c>
       <c r="C394" t="n">
         <v>3</v>
       </c>
       <c r="D394" s="1" t="n">
-        <v>44226.2752190368</v>
+        <v>44222.11419089128</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>violator</t>
+          <t>rake</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>위반자</t>
+          <t>갈퀴</t>
         </is>
       </c>
       <c r="C395" t="n">
         <v>3</v>
       </c>
       <c r="D395" s="1" t="n">
-        <v>44222.11419089128</v>
+        <v>44222.11419089029</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>directory</t>
+          <t>troupe</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>안내판, 명부</t>
+          <t>공연단, 극단</t>
         </is>
       </c>
       <c r="C396" t="n">
         <v>3</v>
       </c>
       <c r="D396" s="1" t="n">
-        <v>44222.84692713129</v>
+        <v>44222.11419089528</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>troupe</t>
+          <t>openness</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>공연단, 극단</t>
+          <t>솔직함, 개방성</t>
         </is>
       </c>
       <c r="C397" t="n">
         <v>3</v>
       </c>
       <c r="D397" s="1" t="n">
-        <v>44222.11419089528</v>
+        <v>44222.1141908947</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>openness</t>
+          <t>be lined up</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>솔직함, 개방성</t>
+          <t>정렬되어 있다</t>
         </is>
       </c>
       <c r="C398" t="n">
         <v>3</v>
       </c>
       <c r="D398" s="1" t="n">
-        <v>44222.1141908947</v>
+        <v>44224.95196826228</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>be lined up</t>
+          <t>flier</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>정렬되어 있다</t>
+          <t>광고 전단(= flyer)</t>
         </is>
       </c>
       <c r="C399" t="n">
         <v>3</v>
       </c>
       <c r="D399" s="1" t="n">
-        <v>44224.95196826228</v>
+        <v>44224.95196826182</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>eatery</t>
+          <t>initiative</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>(목표를 위한 새로운) 계획</t>
         </is>
       </c>
       <c r="C400" t="n">
         <v>3</v>
       </c>
       <c r="D400" s="1" t="n">
-        <v>44222.84692713509</v>
+        <v>44222.11419089396</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>deliveration</t>
+          <t>autobiographical</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>자전적인</t>
         </is>
       </c>
       <c r="C401" t="n">
         <v>3</v>
       </c>
       <c r="D401" s="1" t="n">
-        <v>44222.84692713342</v>
+        <v>44222.11419089197</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>autobiographical</t>
+          <t>regardless of</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>자전적인</t>
+          <t>~와 상관없이</t>
         </is>
       </c>
       <c r="C402" t="n">
         <v>3</v>
       </c>
-      <c r="D402" s="1" t="n">
-        <v>44222.11419089197</v>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772116</t>
+        </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>regardless of</t>
+          <t>input</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>~와 상관없이</t>
+          <t>조언</t>
         </is>
       </c>
       <c r="C403" t="n">
         <v>3</v>
       </c>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772116</t>
-        </is>
+      <c r="D403" s="1" t="n">
+        <v>44222.8469271358</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>sloppy</t>
+          <t>professionalism</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>날림의, 엉성한</t>
+          <t xml:space="preserve">전문성 </t>
         </is>
       </c>
       <c r="C404" t="n">
         <v>3</v>
       </c>
       <c r="D404" s="1" t="n">
-        <v>44222.11419089342</v>
+        <v>44222.84692713115</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>professionalism</t>
+          <t>excuse</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t xml:space="preserve">전문성 </t>
+          <t>~을 용서하다, ~에 대해 변명하다</t>
         </is>
       </c>
       <c r="C405" t="n">
         <v>3</v>
       </c>
-      <c r="D405" s="1" t="n">
-        <v>44222.84692713115</v>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772040</t>
+        </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>excuse</t>
+          <t>run late</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>~을 용서하다, ~에 대해 변명하다</t>
+          <t>늦어지다</t>
         </is>
       </c>
       <c r="C406" t="n">
         <v>3</v>
       </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772040</t>
-        </is>
+      <c r="D406" s="1" t="n">
+        <v>44224.95196826274</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>run late</t>
+          <t>consumer electronics industry</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>늦어지다</t>
+          <t>가전 사업</t>
         </is>
       </c>
       <c r="C407" t="n">
         <v>3</v>
       </c>
       <c r="D407" s="1" t="n">
-        <v>44224.95196826274</v>
+        <v>44222.11419089379</v>
       </c>
     </row>
   </sheetData>

--- a/voca.xlsx
+++ b/voca.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D407"/>
+  <dimension ref="A1:D417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,1638 +427,1634 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>on the premise</t>
+          <t>store credit</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>점포 내에서</t>
+          <t>상점 적립금</t>
         </is>
       </c>
       <c r="C1" t="n">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>44232.18014923225</v>
+        <v>44226.27521903476</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>surveyor</t>
+          <t>mural</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>측량사</t>
+          <t>벽화</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>44222.84692712996</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772204</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>discretion</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>재량(권), 신중함</t>
+          <t>결근, 부재</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>44226.28725668115</v>
+        <v>44222.84692713073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>reconfigure</t>
+          <t>delivery window</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(시스템, 기기 등을) 재배열[재설정]</t>
+          <t>배달 시간대</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44224.85289744933</v>
+        <v>44222.84692713558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>treat</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
+          <t>특별한 기쁨, 만족</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>44226.27521903359</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772166</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>harvest</t>
+          <t>resolution</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>수확(량)</t>
+          <t>결심, 결정, 결단력</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>44226.27521903561</v>
+        <v>44226.28725668151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>reversal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>작업장</t>
+          <t>전환, 역전</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>44224.85289744924</v>
+        <v>44226.28725668282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rotunda</t>
+          <t>latest</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>원형의 홀, 원형 건축물</t>
+          <t>최신의</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772308</t>
-        </is>
+      <c r="D8" s="1" t="n">
+        <v>44222.84692713204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>take inventory</t>
+          <t>initiation</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>재고 조사를 하다</t>
+          <t>창시, 입문</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>44224.95196826282</v>
+        <v>44224.95196826095</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>deliberation</t>
+          <t>allowance</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>수당</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>44222.11419089273</v>
+        <v>44226.28725668143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tenant</t>
+          <t>be to blame</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>세입자</t>
+          <t>(잘못의) 책임이 있다</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44226.28725668345</v>
+        <v>44224.85289744868</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>executive committee</t>
+          <t>forestall</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>집행 위원회</t>
+          <t>선수를 치다, 기선을 제압하다</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>44226.27521903584</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771832</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>feature</t>
+          <t>beam</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(영화, 전시 등에) 등장시키다, 특집으로 다루다, 특징을 이루다</t>
+          <t>들보, 보</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>44224.85289744905</v>
+        <v>44224.85289744888</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>excutive chef</t>
+          <t>authority</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>총 주방장</t>
+          <t>당국, 권한</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>44224.9519682608</v>
+        <v>44226.28725668169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>commune</t>
+          <t>sealed</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>친하게 사귀다</t>
+          <t xml:space="preserve">마감칠된, 밀폐된 </t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772068</t>
-        </is>
+      <c r="D15" s="1" t="n">
+        <v>44222.11419089418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>reserve the right to + 동사원형</t>
+          <t>have company</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>~할 권한을 보유하다</t>
+          <t>동행[일행]이 있다</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>44224.85289744757</v>
+        <v>44226.28725668309</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>wilted</t>
+          <t>take inventory</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>살짝 데친</t>
+          <t>재고 조사를 하다</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>44222.84692713471</v>
+        <v>44224.95196826282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sealed</t>
+          <t>bird-nesting</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">마감칠된, 밀폐된 </t>
+          <t>(취미로) 새 둥지를 찾아다니는</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>44222.11419089418</v>
+        <v>44224.15166368884</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>in preparation for</t>
+          <t>executive committee</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>~에 대비하여</t>
+          <t>집행 위원회</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772320</t>
-        </is>
+      <c r="D19" s="1" t="n">
+        <v>44226.27521903584</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>처리[해결]하다, 다루다</t>
+          <t>취재하다, 기사를 담당하다</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>44224.95196826212</v>
+        <v>44226.28725668292</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>assigned to</t>
+          <t>reconfigure</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~로 발령받다</t>
+          <t>(시스템, 기기 등을) 재배열[재설정]</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>44226.27521903752</v>
+        <v>44224.85289744933</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>look forward to + -ing</t>
+          <t>pavilion</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~을 고대하다</t>
+          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>44222.1141908915</v>
+        <v>44222.11419089228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>substantial</t>
+          <t>interfere with</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>상당한, 실질적인</t>
+          <t>~을 방해하다</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>44226.27521903696</v>
+        <v>44224.85289744781</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>consider A (as [to be]) B</t>
+          <t>roll-out</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A를 B로 여기다, 간주하다</t>
+          <t>(신제품의) 첫 공개</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771898</t>
-        </is>
+      <c r="D24" s="1" t="n">
+        <v>44224.85289744857</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>put up</t>
+          <t>move in</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~을 붙이다, 세우다</t>
+          <t>이사 들어오다</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>44222.11419088999</v>
+        <v>44226.27521903287</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>opener</t>
+          <t>year-round</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>병따개, 첫 행동</t>
+          <t>일년 내내</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>44232.18014923323</v>
+        <v>44222.1141908922</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>overdraw</t>
+          <t>insulated</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
+          <t>절연된</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>4</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772059</t>
-        </is>
+      <c r="D27" s="1" t="n">
+        <v>44222.1141908941</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>reversal</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>전환, 역전</t>
+          <t>산출하다, (이익을) 내다</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <v>44226.28725668282</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771984</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>have company</t>
+          <t>landscape</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>동행[일행]이 있다</t>
+          <t>조경을 하다</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>44226.28725668309</v>
+        <v>44226.27521903383</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>plumbing</t>
+          <t>glazed</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>배관[수도 시설], 배관 작업[공사]</t>
+          <t>(설탕을 입혀) 윤기가 나는</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>44222.11419089181</v>
+        <v>44222.84692713429</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>every other week</t>
+          <t>acclaimed</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>격주로</t>
+          <t>칭찬[호평] 받는</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>44222.11419089165</v>
+        <v>44226.28725668411</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>beam</t>
+          <t>faculty</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>들보, 보</t>
+          <t>교수진</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>44224.85289744888</v>
+        <v>44226.27521903722</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>compete</t>
+          <t>in preparation for</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>경쟁하다</t>
+          <t>~에 대비하여</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>4</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <v>44232.18014923241</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772320</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>criticism</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>취재하다, 기사를 담당하다</t>
+          <t>비판, 비평</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>44226.28725668292</v>
+        <v>44226.28725668482</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>allege</t>
+          <t>paystub</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>(확실한 증거 없이) 주장하다</t>
+          <t>급여 명세서</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>4</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>44222.11419089303</v>
+        <v>44222.84692713153</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bouquet</t>
+          <t>account</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>꽃다발</t>
+          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>44222.11419088952</v>
+        <v>44226.27521903359</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mow</t>
+          <t>given</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>잔디를 깎다</t>
+          <t>~을 고려할 때</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772470</t>
-        </is>
+      <c r="D37" s="1" t="n">
+        <v>44224.95196826023</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>relieve A of B</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>제시[제출]하다</t>
+          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>44232.18014923333</v>
+        <v>44222.11419089597</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>jostle for</t>
+          <t>verification</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~을 위하여 다투다, 겨루다</t>
+          <t>확인, 검증, 증거, 비준</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>4</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772185</t>
-        </is>
+      <c r="D39" s="1" t="n">
+        <v>44328.72546750459</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>proximate</t>
+          <t>premise</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>가장 가까운</t>
+          <t>구내, 토지</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>44222.84692713319</v>
+        <v>44226.28725668188</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>to this end</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>~에 관한</t>
+          <t>이를 위해, 이런 목적으로</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>44222.11419089493</v>
+        <v>44222.11419089136</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>admit</t>
+          <t>be busy -ing</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>~하느라 바쁘다</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>44224.85289744914</v>
+        <v>44226.27521903316</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>영업, 사업</t>
+          <t>관개, 물을 끌어들임</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>44226.27521903515</v>
+        <v>44232.18014923284</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>booklet</t>
+          <t>research into</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>소책자</t>
+          <t>~을 조사하다</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>4</v>
       </c>
-      <c r="D44" s="1" t="n">
-        <v>44226.27521903467</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771870</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>inherent</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>~을 고려할 때</t>
+          <t>내재하는</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>44224.95196826023</v>
+        <v>44328.72546750403</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>research into</t>
+          <t>every other week</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>~을 조사하다</t>
+          <t>격주로</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>4</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771870</t>
-        </is>
+      <c r="D46" s="1" t="n">
+        <v>44222.11419089165</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>derive</t>
+          <t>a load of</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>끌어내다</t>
+          <t>한 짐의, 많은</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>44222.11419089582</v>
+        <v>44222.11419088984</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>move in</t>
+          <t>autograph</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>이사 들어오다</t>
+          <t>사인</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>44226.27521903287</v>
+        <v>44222.11419089082</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>vary</t>
+          <t>plush</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>(서로) 다르다, 다양하다</t>
+          <t>안락한, 고급의</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>4</v>
       </c>
-      <c r="D49" s="1" t="n">
-        <v>44222.84692713229</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772261</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>corn</t>
+          <t>pay package</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>옥수수</t>
+          <t>연봉</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>44232.180149233</v>
+        <v>44226.27521903706</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>lie</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>놓여 있다</t>
+          <t>~에 헌신하다[전념하다]</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>4</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772423</t>
-        </is>
+      <c r="D51" s="1" t="n">
+        <v>44226.28725668327</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>interfere with</t>
+          <t>compete</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>~을 방해하다</t>
+          <t>경쟁하다</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>44224.85289744781</v>
+        <v>44232.18014923241</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>year-round</t>
+          <t>financial position</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>일년 내내</t>
+          <t>재무 상태</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>44222.1141908922</v>
+        <v>44222.11419089536</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>liability</t>
+          <t>proportional</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>책임</t>
+          <t>(~에) 비례하는</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771945</t>
-        </is>
+      <c r="D54" s="1" t="n">
+        <v>44232.18014923308</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>frustrating</t>
+          <t>overdraw</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>실망스러운</t>
+          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
-      <c r="D55" s="1" t="n">
-        <v>44222.84692713296</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772059</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>bird-nesting</t>
+          <t>tuition</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>(취미로) 새 둥지를 찾아다니는</t>
+          <t>학자금</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>44224.15166368884</v>
+        <v>44222.84692713174</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">critic </t>
+          <t>condemned</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>비평가</t>
+          <t>비난받은, 구제할 길 없는</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>44226.28725668466</v>
+        <v>44328.72546750419</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>pay package</t>
+          <t>acidic</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>연봉</t>
+          <t>매우 신</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>44226.27521903706</v>
+        <v>44222.84692713419</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bet</t>
+          <t xml:space="preserve">in exchange for </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>선택한 것[사람], 방책</t>
+          <t>~의 대가로</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>4</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>44222.84692713251</v>
+        <v>44226.27521903688</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ojection</t>
+          <t>in terms of</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>~의 면에서</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>44226.27521903523</v>
+        <v>44232.18014923233</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>estimate</t>
+          <t>quite a while ago</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>견적</t>
+          <t>꽤 오래전에</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>44226.27521903508</v>
+        <v>44226.27521903308</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>earn</t>
+          <t>reserve the right to + 동사원형</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~에게 …을 받게 할 자격을 주다</t>
+          <t>~할 권한을 보유하다</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>44226.27521903714</v>
+        <v>44224.85289744757</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>admission</t>
+          <t>Dancing around</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>입장, 인정</t>
+          <t>빙빙돌려 얘기하다</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>4</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>44222.84692713066</v>
+        <v>44328.72546750391</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>elevation</t>
+          <t>jostle for</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>승진</t>
+          <t>~을 위하여 다투다, 겨루다</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>4</v>
       </c>
-      <c r="D64" s="1" t="n">
-        <v>44226.27521903538</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772185</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>tuition</t>
+          <t>in a single direction</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>학자금</t>
+          <t>한 방향으로</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>4</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>44222.84692713174</v>
+        <v>44224.95196826266</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>unfavorable</t>
+          <t>look forward to + -ing</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>불리한</t>
+          <t>~을 고대하다</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>44224.15166368725</v>
+        <v>44222.1141908915</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>school term</t>
+          <t>somewhat</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>학기</t>
+          <t>다소, 약간</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>44226.28725668318</v>
+        <v>44222.84692713027</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>plumbing</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>결근, 부재</t>
+          <t>배관[수도 시설], 배관 작업[공사]</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>44222.84692713073</v>
+        <v>44222.11419089181</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>criticism</t>
+          <t>initiator</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>비판, 비평</t>
+          <t>창시자</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>44226.28725668482</v>
+        <v>44224.95196826103</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>fool</t>
+          <t>credential</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>속이다</t>
+          <t>자격(증), 보증서, 자격 인증(서)</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>44222.84692713268</v>
+        <v>44222.11419089478</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>sip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>(장기적으로) 장소를 제공하다</t>
+          <t>마시다</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>4</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>44224.95196826055</v>
+        <v>44222.1141908906</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>lay</t>
+          <t>podium</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>놓다, 두다</t>
+          <t>연단</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>4</v>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772433</t>
-        </is>
+      <c r="D72" s="1" t="n">
+        <v>44222.11419089007</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>retention</t>
+          <t>surveyor</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
+          <t>측량사</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>4</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>44226.28725668124</v>
+        <v>44222.84692712996</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>testimonial</t>
+          <t>set</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>추천의 글</t>
+          <t>부과하다, 맡기다</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>4</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>44222.11419089424</v>
+        <v>44232.18014923265</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>treat</t>
+          <t>fool</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>특별한 기쁨, 만족</t>
+          <t>속이다</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772166</t>
-        </is>
+      <c r="D75" s="1" t="n">
+        <v>44222.84692713268</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>podium</t>
+          <t>look over</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>연단</t>
+          <t>~을 살펴보다</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>4</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>44222.11419089007</v>
+        <v>44226.27521903375</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>acidic</t>
+          <t>cyanide</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>매우 신</t>
+          <t>시안화물, 청산가리</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>44222.84692713419</v>
+        <v>44328.72546750427</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>plow</t>
+          <t>Town council</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>쟁기로 갈다; 쟁기</t>
+          <t>시의회</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>44222.11419088944</v>
+        <v>44224.95196826015</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>extend</t>
+          <t>retention</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>정도, 범위</t>
+          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>4</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>44226.28725668084</v>
+        <v>44226.28725668124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>scholarship</t>
+          <t>be due to + 동사원형</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>장학금</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>4</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>44226.28725668429</v>
+        <v>44222.11419089388</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>appreciate</t>
+          <t>be credited to</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>~로 입금되다[금액이 넘어가다]</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>4</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>44222.84692713288</v>
+        <v>44224.85289744771</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>expenditure</t>
+          <t>testimonial</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>지출</t>
+          <t>추천의 글</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>4</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>44222.84692713573</v>
+        <v>44222.11419089424</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>in terms of</t>
+          <t>littered with</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>~의 면에서</t>
+          <t>~로 어질러진, ~이 흩어진</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>4</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>44232.18014923233</v>
+        <v>44328.72546750412</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>gain</t>
+          <t>be in force</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>증가, 이익</t>
+          <t>(법률 등이) 시행되다</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>4</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>44232.18014923292</v>
+        <v>44224.15166368782</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>assume</t>
+          <t>mow</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>(책임 등을) 떠맡다, 담당하다</t>
+          <t>잔디를 깎다</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
-      <c r="D85" s="1" t="n">
-        <v>44232.18014923276</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772470</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>disclosure</t>
+          <t>faulty</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>공개</t>
+          <t>결함이 있는</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>44226.28725668178</v>
+        <v>44226.27521903606</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>assistant manager</t>
+          <t>scholarship</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>대리</t>
+          <t>장학금</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>44222.84692713011</v>
+        <v>44226.28725668429</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>proportional</t>
+          <t>board of trustees</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>(~에) 비례하는</t>
+          <t>이사회</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>4</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>44232.18014923308</v>
+        <v>44226.2872566842</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>on the premise</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>결심, 결정, 결단력</t>
+          <t>점포 내에서</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>44226.28725668151</v>
+        <v>44232.18014923225</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>courtyard</t>
+          <t>let down</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>뜰, 정원</t>
+          <t>~을 실망시키다</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2066,93 +2062,91 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772213</t>
+          <t>2021-01-26 02:11:09.771974</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>designate</t>
+          <t>bet</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>지정하다</t>
+          <t>선택한 것[사람], 방책</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>4</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>44226.28725668353</v>
+        <v>44222.84692713251</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>high court</t>
+          <t>allege</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>고등 법원</t>
+          <t>(확실한 증거 없이) 주장하다</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>4</v>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771936</t>
-        </is>
+      <c r="D92" s="1" t="n">
+        <v>44222.11419089303</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>frustrating</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>간부, 공무원</t>
+          <t>실망스러운</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>4</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>44222.11419089281</v>
+        <v>44222.84692713296</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>to this end</t>
+          <t>vary</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>이를 위해, 이런 목적으로</t>
+          <t>(서로) 다르다, 다양하다</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>4</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>44222.11419089136</v>
+        <v>44222.84692713229</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>wilderness</t>
+          <t>associate's degree</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>황야</t>
+          <t>준학사 학위</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2160,681 +2154,679 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772087</t>
+          <t>2021-01-26 02:11:09.772097</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>be busy -ing</t>
+          <t>lay</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>~하느라 바쁘다</t>
+          <t>놓다, 두다</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>4</v>
       </c>
-      <c r="D96" s="1" t="n">
-        <v>44226.27521903316</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772433</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pavilion</t>
+          <t>orchard</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
+          <t>과수원</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>4</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>44222.11419089228</v>
+        <v>44222.11419089173</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>board of trustees</t>
+          <t>discretion</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>이사회</t>
+          <t>재량(권), 신중함</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>44226.2872566842</v>
+        <v>44226.28725668115</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>valdiation</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>확인</t>
+          <t>변환</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>44226.27521903553</v>
+        <v>44226.27521903575</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>a load of</t>
+          <t>proprietor</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>한 짐의, 많은</t>
+          <t>사업주</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>4</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>44222.11419088984</v>
+        <v>44226.28725668335</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>offshore</t>
+          <t>water tower</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>연안에</t>
+          <t>급수탑</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>4</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>44224.15166368827</v>
+        <v>44222.11419089501</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>occasion</t>
+          <t>tenant</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>때, 경우</t>
+          <t>세입자</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>4</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>44226.275219036</v>
+        <v>44226.28725668345</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>water tower</t>
+          <t>be sure to</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>급수탑</t>
+          <t>반드시 ~하다</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>4</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>44222.11419089501</v>
+        <v>44226.2752190339</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>be due to + 동사원형</t>
+          <t>elevation</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>승진</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>44222.11419089388</v>
+        <v>44226.27521903538</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>proprietor</t>
+          <t>high court</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>사업주</t>
+          <t>고등 법원</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>4</v>
       </c>
-      <c r="D105" s="1" t="n">
-        <v>44226.28725668335</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771936</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>end up -ing</t>
+          <t>Destruction</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>~하게 되다, 결국 ~이 되다</t>
+          <t>파괴</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>4</v>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772223</t>
-        </is>
+      <c r="D106" s="1" t="n">
+        <v>44328.72546750468</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>considerable</t>
+          <t>feature</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>(영화, 전시 등에) 등장시키다, 특집으로 다루다, 특징을 이루다</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>4</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>44232.1801492321</v>
+        <v>44224.85289744905</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>associate's degree</t>
+          <t>crate</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>준학사 학위</t>
+          <t>상자</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>4</v>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772097</t>
-        </is>
+      <c r="D108" s="1" t="n">
+        <v>44222.11419088969</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>cost A B</t>
+          <t>discrepancy</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>A에게 B의 비용이 들다</t>
+          <t>불일치, 차이</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>4</v>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771851</t>
-        </is>
+      <c r="D109" s="1" t="n">
+        <v>44226.28725668133</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>paycheck</t>
+          <t>earn</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>급여(수표)</t>
+          <t>~에게 …을 받게 할 자격을 주다</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>4</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>44222.84692713146</v>
+        <v>44226.27521903714</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>autograph</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>사인</t>
+          <t xml:space="preserve">상당히 </t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>4</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>44222.11419089082</v>
+        <v>44222.84692713397</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>cost A B</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">상당히 </t>
+          <t>A에게 B의 비용이 들다</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>4</v>
       </c>
-      <c r="D112" s="1" t="n">
-        <v>44222.84692713397</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771851</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>pier</t>
+          <t>assistant manager</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>부두</t>
+          <t>대리</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>4</v>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772395</t>
-        </is>
+      <c r="D113" s="1" t="n">
+        <v>44222.84692713011</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>insist on -ing</t>
+          <t>lethal</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>~할 것을 주장하다</t>
+          <t>치명적인</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>4</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>44224.15166368698</v>
+        <v>44328.72546750443</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>landscape</t>
+          <t>you get what you pay for</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>조경을 하다</t>
+          <t>싼게 비지떡</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>4</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>44226.27521903383</v>
+        <v>44222.1141908932</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>excutive chef</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>~에 헌신하다[전념하다]</t>
+          <t>총 주방장</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>4</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>44226.28725668327</v>
+        <v>44224.9519682608</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>theatergoer</t>
+          <t>be supposed to</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>극장에 (자주) 가는 사람</t>
+          <t>~할 예정이다, ~하도록 되어 있다</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>4</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>44224.95196826072</v>
+        <v>44222.11419089574</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ration</t>
+          <t>devotion</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>배급하다</t>
+          <t>헌신, 전념</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>4</v>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772012</t>
-        </is>
+      <c r="D118" s="1" t="n">
+        <v>44226.2752190349</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>mural</t>
+          <t>put up</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>벽화</t>
+          <t>~을 붙이다, 세우다</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>4</v>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772204</t>
-        </is>
+      <c r="D119" s="1" t="n">
+        <v>44222.11419088999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>deliberation</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>시의</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>4</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>44222.11419089144</v>
+        <v>44222.11419089273</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>informal</t>
+          <t>ration</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>비공식의</t>
+          <t>배급하다</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
-      <c r="D121" s="1" t="n">
-        <v>44232.18014923258</v>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772012</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>premise</t>
+          <t>rotunda</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>구내, 토지</t>
+          <t>원형의 홀, 원형 건축물</t>
         </is>
       </c>
       <c r="C122" t="n">
         <v>4</v>
       </c>
-      <c r="D122" s="1" t="n">
-        <v>44226.28725668188</v>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772308</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>in a single direction</t>
+          <t>fertilizer</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>한 방향으로</t>
+          <t>비료</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>4</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>44224.95196826266</v>
+        <v>44328.72546750435</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>highland</t>
+          <t>occasion</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>고원</t>
+          <t>때, 경우</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>4</v>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772078</t>
-        </is>
+      <c r="D124" s="1" t="n">
+        <v>44226.275219036</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>allowance</t>
+          <t>theatergoer</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>수당</t>
+          <t>극장에 (자주) 가는 사람</t>
         </is>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>44226.28725668143</v>
+        <v>44224.95196826072</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>publicize</t>
+          <t>collect payment</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>공표하다, 알리다</t>
+          <t>대금을 회수하다</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>4</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>44224.95196826175</v>
+        <v>44222.11419089455</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>floor</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>비판적인</t>
+          <t>작업장</t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>4</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>44226.2872566846</v>
+        <v>44224.85289744924</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>look over</t>
+          <t>outplay</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>~을 살펴보다</t>
+          <t>패배시키다</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
-      <c r="D128" s="1" t="n">
-        <v>44226.27521903375</v>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771879</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>quality assurance</t>
+          <t>serve as</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>품질 보증</t>
+          <t>~의 역할을 하다</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>4</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>44222.11419089433</v>
+        <v>44222.8469271309</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>now that</t>
+          <t>get to</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>~이기 때문에</t>
+          <t>~에 착수하다</t>
         </is>
       </c>
       <c r="C130" t="n">
         <v>4</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>44226.27521903344</v>
+        <v>44226.27521903298</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>store credit</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>상점 적립금</t>
+          <t>중역</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>44226.27521903476</v>
+        <v>44226.28725668391</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>plush</t>
+          <t>pier</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>안락한, 고급의</t>
+          <t>부두</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -2842,109 +2834,109 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772261</t>
+          <t>2021-01-26 02:11:09.772395</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>critically</t>
+          <t>school term</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>비판적으로</t>
+          <t>학기</t>
         </is>
       </c>
       <c r="C133" t="n">
         <v>4</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>44226.28725668474</v>
+        <v>44226.28725668318</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>roll-out</t>
+          <t>assigned to</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>(신제품의) 첫 공개</t>
+          <t>~로 발령받다</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>44224.85289744857</v>
+        <v>44226.27521903752</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Town council</t>
+          <t>official</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>시의회</t>
+          <t>간부, 공무원</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>4</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>44224.95196826015</v>
+        <v>44222.11419089281</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>quite a while ago</t>
+          <t>unfavorable</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>꽤 오래전에</t>
+          <t>불리한</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>44226.27521903308</v>
+        <v>44224.15166368725</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>tuck away</t>
+          <t>substantial</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>찾기힘든 안전한 곳에 보관하다</t>
+          <t>상당한, 실질적인</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>4</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>44222.84692713565</v>
+        <v>44226.27521903696</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">sizable </t>
+          <t>lie</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>놓여 있다</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -2952,873 +2944,873 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772232</t>
+          <t>2021-01-26 02:11:09.772423</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>sip</t>
+          <t>wilderness</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>마시다</t>
+          <t>황야</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
-      <c r="D139" s="1" t="n">
-        <v>44222.1141908906</v>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772087</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>on your own</t>
+          <t>wilted</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>혼자 힘으로</t>
+          <t>살짝 데친</t>
         </is>
       </c>
       <c r="C140" t="n">
         <v>4</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>44226.27521903334</v>
+        <v>44222.84692713471</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>make landfall</t>
+          <t>paycheck</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>착륙하다</t>
+          <t>급여(수표)</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>4</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>44224.15166368837</v>
+        <v>44222.84692713146</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>harvest</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>~에 헌신하다, 전념하다</t>
+          <t>수확(량)</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>44224.95196826205</v>
+        <v>44226.27521903561</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>correspondence</t>
+          <t>on your own</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>통신, 연락</t>
+          <t>혼자 힘으로</t>
         </is>
       </c>
       <c r="C143" t="n">
         <v>4</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>44222.84692713374</v>
+        <v>44226.27521903334</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>sole</t>
+          <t>tuck away</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>밑창</t>
+          <t>찾기힘든 안전한 곳에 보관하다</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>4</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>44222.8469271326</v>
+        <v>44222.84692713565</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>acclaimed</t>
+          <t>critically</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>칭찬[호평] 받는</t>
+          <t>비판적으로</t>
         </is>
       </c>
       <c r="C145" t="n">
         <v>4</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>44226.28725668411</v>
+        <v>44226.28725668474</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>latest</t>
+          <t>bouquet</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>최신의</t>
+          <t>꽃다발</t>
         </is>
       </c>
       <c r="C146" t="n">
         <v>4</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>44222.84692713204</v>
+        <v>44222.11419088952</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>expenditure</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>중역</t>
+          <t>지출</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>4</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>44226.28725668391</v>
+        <v>44222.84692713573</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>glazed</t>
+          <t>assortment</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>(설탕을 입혀) 윤기가 나는</t>
+          <t>모음</t>
         </is>
       </c>
       <c r="C148" t="n">
         <v>4</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>44222.84692713429</v>
+        <v>44226.27521903592</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">halibut </t>
+          <t>concerning</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>광어</t>
+          <t>~에 관한</t>
         </is>
       </c>
       <c r="C149" t="n">
         <v>4</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>44222.84692713412</v>
+        <v>44222.11419089493</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>credential</t>
+          <t>admission</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>자격(증), 보증서, 자격 인증(서)</t>
+          <t>입장, 인정</t>
         </is>
       </c>
       <c r="C150" t="n">
         <v>4</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>44222.11419089478</v>
+        <v>44222.84692713066</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>paystub</t>
+          <t>offshore</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>급여 명세서</t>
+          <t>연안에</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>44222.84692713153</v>
+        <v>44224.15166368827</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>let down</t>
+          <t>rate</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>~을 실망시키다</t>
+          <t>평가하다, 등급을 매기다</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>4</v>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771974</t>
-        </is>
+      <c r="D152" s="1" t="n">
+        <v>44232.1801492325</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>부과하다, 맡기다</t>
+          <t>영업, 사업</t>
         </is>
       </c>
       <c r="C153" t="n">
         <v>4</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>44232.18014923265</v>
+        <v>44226.27521903515</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>relieve A of B</t>
+          <t>fabricate</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
+          <t>조립하다, 제작하다</t>
         </is>
       </c>
       <c r="C154" t="n">
         <v>4</v>
       </c>
-      <c r="D154" s="1" t="n">
-        <v>44222.11419089597</v>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771804</t>
+        </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>somewhat</t>
+          <t>plow</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>다소, 약간</t>
+          <t>쟁기로 갈다; 쟁기</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>44222.84692713027</v>
+        <v>44222.11419088944</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>faculty</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>교수진</t>
+          <t>(봉지에 넣어) 포장하다</t>
         </is>
       </c>
       <c r="C156" t="n">
         <v>4</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>44226.27521903722</v>
+        <v>44222.11419089067</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>initiation</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>창시, 입문</t>
+          <t>시의</t>
         </is>
       </c>
       <c r="C157" t="n">
         <v>4</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>44224.95196826095</v>
+        <v>44222.11419089144</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>평가하다, 등급을 매기다</t>
+          <t>비판적인</t>
         </is>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>44232.1801492325</v>
+        <v>44226.2872566846</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>yield</t>
+          <t>booklet</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>산출하다, (이익을) 내다</t>
+          <t>소책자</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771984</t>
-        </is>
+      <c r="D159" s="1" t="n">
+        <v>44226.27521903467</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>be sure to</t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>반드시 ~하다</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C160" t="n">
         <v>4</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>44226.2752190339</v>
+        <v>44222.84692713288</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>serve as</t>
+          <t>sole</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>~의 역할을 하다</t>
+          <t>밑창</t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>44222.8469271309</v>
+        <v>44222.8469271326</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>orchard</t>
+          <t xml:space="preserve">halibut </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>과수원</t>
+          <t>광어</t>
         </is>
       </c>
       <c r="C162" t="n">
         <v>4</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>44222.11419089173</v>
+        <v>44222.84692713412</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>be supposed to</t>
+          <t>present</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>~할 예정이다, ~하도록 되어 있다</t>
+          <t>제시[제출]하다</t>
         </is>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>44222.11419089574</v>
+        <v>44232.18014923333</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>forestall</t>
+          <t>proximate</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>선수를 치다, 기선을 제압하다</t>
+          <t>가장 가까운</t>
         </is>
       </c>
       <c r="C164" t="n">
         <v>4</v>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771832</t>
-        </is>
+      <c r="D164" s="1" t="n">
+        <v>44222.84692713319</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>(봉지에 넣어) 포장하다</t>
+          <t>~에 헌신하다, 전념하다</t>
         </is>
       </c>
       <c r="C165" t="n">
         <v>4</v>
       </c>
       <c r="D165" s="1" t="n">
-        <v>44222.11419089067</v>
+        <v>44224.95196826205</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>color scheme</t>
+          <t>gain</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>색체 조합</t>
+          <t>증가, 이익</t>
         </is>
       </c>
       <c r="C166" t="n">
         <v>4</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>44224.15166368855</v>
+        <v>44232.18014923292</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>en masse</t>
+          <t>extend</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>집단으로</t>
+          <t>정도, 범위</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>4</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>44224.85289744838</v>
+        <v>44226.28725668084</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>pride oneself on</t>
+          <t>opener</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>~에 대해 자랑하다</t>
+          <t>병따개, 첫 행동</t>
         </is>
       </c>
       <c r="C168" t="n">
         <v>4</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>44222.84692713107</v>
+        <v>44232.18014923323</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>assortment</t>
+          <t>designate</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>모음</t>
+          <t>지정하다</t>
         </is>
       </c>
       <c r="C169" t="n">
         <v>4</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>44226.27521903592</v>
+        <v>44226.28725668353</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>be in force</t>
+          <t>assume</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>(법률 등이) 시행되다</t>
+          <t>(책임 등을) 떠맡다, 담당하다</t>
         </is>
       </c>
       <c r="C170" t="n">
         <v>4</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>44224.15166368782</v>
+        <v>44232.18014923276</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>devotion</t>
+          <t>commune</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>헌신, 전념</t>
+          <t>친하게 사귀다</t>
         </is>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
-      <c r="D171" s="1" t="n">
-        <v>44226.2752190349</v>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772068</t>
+        </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>collect payment</t>
+          <t>color scheme</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>대금을 회수하다</t>
+          <t>색체 조합</t>
         </is>
       </c>
       <c r="C172" t="n">
         <v>4</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>44222.11419089455</v>
+        <v>44224.15166368855</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>address</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>변환</t>
+          <t>처리[해결]하다, 다루다</t>
         </is>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>44226.27521903575</v>
+        <v>44224.95196826212</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>be to blame</t>
+          <t>en masse</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>(잘못의) 책임이 있다</t>
+          <t>집단으로</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>4</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>44224.85289744868</v>
+        <v>44224.85289744838</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>authority</t>
+          <t>correspondence</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>당국, 권한</t>
+          <t>통신, 연락</t>
         </is>
       </c>
       <c r="C175" t="n">
         <v>4</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>44226.28725668169</v>
+        <v>44222.84692713374</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>outplay</t>
+          <t xml:space="preserve">critic </t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>패배시키다</t>
+          <t>비평가</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771879</t>
-        </is>
+      <c r="D176" s="1" t="n">
+        <v>44226.28725668466</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>scope</t>
+          <t>informal</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>범위, 영역</t>
+          <t>비공식의</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>4</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>44222.11419089205</v>
+        <v>44232.18014923258</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>financial position</t>
+          <t>disclosure</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>재무 상태</t>
+          <t>공개</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>4</v>
       </c>
       <c r="D178" s="1" t="n">
-        <v>44222.11419089536</v>
+        <v>44226.28725668178</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>crate</t>
+          <t>make landfall</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>상자</t>
+          <t>착륙하다</t>
         </is>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>44222.11419088969</v>
+        <v>44224.15166368837</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>insulated</t>
+          <t>pride oneself on</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>절연된</t>
+          <t>~에 대해 자랑하다</t>
         </is>
       </c>
       <c r="C180" t="n">
         <v>4</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>44222.1141908941</v>
+        <v>44222.84692713107</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>delivery window</t>
+          <t>admit</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>배달 시간대</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C181" t="n">
         <v>4</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>44222.84692713558</v>
+        <v>44224.85289744914</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>initiator</t>
+          <t>courtyard</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>창시자</t>
+          <t>뜰, 정원</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>4</v>
       </c>
-      <c r="D182" s="1" t="n">
-        <v>44224.95196826103</v>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772213</t>
+        </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>irrigation</t>
+          <t>now that</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>관개, 물을 끌어들임</t>
+          <t>~이기 때문에</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>4</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>44232.18014923284</v>
+        <v>44226.27521903344</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>you get what you pay for</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>싼게 비지떡</t>
+          <t>범위, 영역</t>
         </is>
       </c>
       <c r="C184" t="n">
         <v>4</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>44222.1141908932</v>
+        <v>44222.11419089205</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>discrepancy</t>
+          <t>considerable</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>불일치, 차이</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C185" t="n">
         <v>4</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>44226.28725668133</v>
+        <v>44232.1801492321</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>fabricate</t>
+          <t>liability</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>조립하다, 제작하다</t>
+          <t>책임</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -3826,945 +3818,951 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771804</t>
+          <t>2021-01-26 02:11:09.771945</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>get to</t>
+          <t>divert</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>~에 착수하다</t>
+          <t>우회시키다</t>
         </is>
       </c>
       <c r="C187" t="n">
         <v>4</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>44226.27521903298</v>
+        <v>44328.72546750451</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>be credited to</t>
+          <t>valdiation</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>~로 입금되다[금액이 넘어가다]</t>
+          <t>확인</t>
         </is>
       </c>
       <c r="C188" t="n">
         <v>4</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>44224.85289744771</v>
+        <v>44226.27521903553</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">in exchange for </t>
+          <t>publicize</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>~의 대가로</t>
+          <t>공표하다, 알리다</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>4</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>44226.27521903688</v>
+        <v>44224.95196826175</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>faulty</t>
+          <t>derive</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>결함이 있는</t>
+          <t>끌어내다</t>
         </is>
       </c>
       <c r="C190" t="n">
         <v>4</v>
       </c>
       <c r="D190" s="1" t="n">
-        <v>44226.27521903606</v>
+        <v>44222.11419089582</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>nevertheless</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>그럼에도 불구하고</t>
+          <t>견적</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>44222.11419089097</v>
+        <v>44226.27521903508</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>verification</t>
+          <t xml:space="preserve">sizable </t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>확인, 조회</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C192" t="n">
         <v>3</v>
       </c>
-      <c r="D192" s="1" t="n">
-        <v>44224.15166368864</v>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772232</t>
+        </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>as to</t>
+          <t>corn</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>옥수수</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>3</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>44222.11419089403</v>
+        <v>44232.180149233</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>assembly</t>
+          <t>ojection</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>의회</t>
+          <t>반대</t>
         </is>
       </c>
       <c r="C194" t="n">
         <v>3</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>44226.27521903737</v>
+        <v>44226.27521903523</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>decide against -ing</t>
+          <t>end up -ing</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>~하지 않기로 결정하다</t>
+          <t>~하게 되다, 결국 ~이 되다</t>
         </is>
       </c>
       <c r="C195" t="n">
         <v>3</v>
       </c>
-      <c r="D195" s="1" t="n">
-        <v>44224.85289744789</v>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772223</t>
+        </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>alumi</t>
+          <t>quality assurance</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>졸업생들</t>
+          <t>품질 보증</t>
         </is>
       </c>
       <c r="C196" t="n">
         <v>3</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>44226.27521903729</v>
+        <v>44222.11419089433</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>enthusiast</t>
+          <t>highland</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>열성팬 [열렬한 팬]</t>
+          <t>고원</t>
         </is>
       </c>
       <c r="C197" t="n">
         <v>3</v>
       </c>
-      <c r="D197" s="1" t="n">
-        <v>44222.84692713221</v>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772078</t>
+        </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>such</t>
+          <t>awning</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>그러한</t>
+          <t>차양</t>
         </is>
       </c>
       <c r="C198" t="n">
         <v>3</v>
       </c>
-      <c r="D198" s="1" t="n">
-        <v>44232.18014923315</v>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772367</t>
+        </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>take over</t>
+          <t>input</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>인수하다, 이어받다</t>
+          <t>조언</t>
         </is>
       </c>
       <c r="C199" t="n">
         <v>3</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>44226.287256684</v>
+        <v>44222.8469271358</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>formal</t>
+          <t>as to</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>공식적인</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C200" t="n">
         <v>3</v>
       </c>
       <c r="D200" s="1" t="n">
-        <v>44226.28725668443</v>
+        <v>44222.11419089403</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>polish</t>
+          <t>formal</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>닦다, 광내다</t>
+          <t>공식적인</t>
         </is>
       </c>
       <c r="C201" t="n">
         <v>3</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>44222.11419088977</v>
+        <v>44226.28725668443</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>be propped on[against]</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>~에 기대어 있다</t>
+          <t>닦다, 광내다</t>
         </is>
       </c>
       <c r="C202" t="n">
         <v>3</v>
       </c>
       <c r="D202" s="1" t="n">
-        <v>44224.95196826236</v>
+        <v>44222.11419088977</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>interoffice</t>
+          <t>assembly</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>회사 내의, 각 부서간의</t>
+          <t>의회</t>
         </is>
       </c>
       <c r="C203" t="n">
         <v>3</v>
       </c>
       <c r="D203" s="1" t="n">
-        <v>44222.8469271298</v>
+        <v>44226.27521903737</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>attire</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>복장</t>
+          <t>유효한</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>3</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>44222.84692713121</v>
+        <v>44222.8469271319</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>thoroughly</t>
+          <t>alumi</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>철저히</t>
+          <t>졸업생들</t>
         </is>
       </c>
       <c r="C205" t="n">
         <v>3</v>
       </c>
       <c r="D205" s="1" t="n">
-        <v>44222.84692713282</v>
+        <v>44226.27521903729</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>tender</t>
+          <t>run late</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>(고기가) 연한</t>
+          <t>늦어지다</t>
         </is>
       </c>
       <c r="C206" t="n">
         <v>3</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>44222.84692713404</v>
+        <v>44224.95196826274</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>pass out</t>
+          <t>troupe</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>건네다</t>
+          <t>공연단, 극단</t>
         </is>
       </c>
       <c r="C207" t="n">
         <v>3</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>44226.27521903459</v>
+        <v>44222.11419089528</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>get off</t>
+          <t>be propped on[against]</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>내리다</t>
+          <t>~에 기대어 있다</t>
         </is>
       </c>
       <c r="C208" t="n">
         <v>3</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>44226.27521903451</v>
+        <v>44224.95196826236</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>professionalism</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>직업</t>
+          <t xml:space="preserve">전문성 </t>
         </is>
       </c>
       <c r="C209" t="n">
         <v>3</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>44226.27521903744</v>
+        <v>44222.84692713115</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>faint</t>
+          <t>interoffice</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>희미한</t>
+          <t>회사 내의, 각 부서간의</t>
         </is>
       </c>
       <c r="C210" t="n">
         <v>3</v>
       </c>
       <c r="D210" s="1" t="n">
-        <v>44222.11419089351</v>
+        <v>44222.8469271298</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>delegate</t>
+          <t>attire</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>대표(자), 위임하다, 선정하다</t>
+          <t>복장</t>
         </is>
       </c>
       <c r="C211" t="n">
         <v>3</v>
       </c>
       <c r="D211" s="1" t="n">
-        <v>44222.1141908925</v>
+        <v>44222.84692713121</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>outlook</t>
+          <t>thoroughly</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>관점, 전망</t>
+          <t>철저히</t>
         </is>
       </c>
       <c r="C212" t="n">
         <v>3</v>
       </c>
       <c r="D212" s="1" t="n">
-        <v>44226.27521903759</v>
+        <v>44222.84692713282</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>indication</t>
+          <t>tender</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>암시</t>
+          <t>(고기가) 연한</t>
         </is>
       </c>
       <c r="C213" t="n">
         <v>3</v>
       </c>
       <c r="D213" s="1" t="n">
-        <v>44226.2752190353</v>
+        <v>44222.84692713404</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>lean against</t>
+          <t>pass out</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>~에 기대다</t>
+          <t>건네다</t>
         </is>
       </c>
       <c r="C214" t="n">
         <v>3</v>
       </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772451</t>
-        </is>
+      <c r="D214" s="1" t="n">
+        <v>44226.27521903459</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>anchor</t>
+          <t>get off</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>정박하다</t>
+          <t>내리다</t>
         </is>
       </c>
       <c r="C215" t="n">
         <v>3</v>
       </c>
       <c r="D215" s="1" t="n">
-        <v>44224.15166368819</v>
+        <v>44226.27521903451</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>as much as possible</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>가능한 많이</t>
+          <t>직업</t>
         </is>
       </c>
       <c r="C216" t="n">
         <v>3</v>
       </c>
       <c r="D216" s="1" t="n">
-        <v>44226.27521903324</v>
+        <v>44226.27521903744</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>bear with</t>
+          <t>faint</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>~을 견디다, 참다</t>
+          <t>희미한</t>
         </is>
       </c>
       <c r="C217" t="n">
         <v>3</v>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771955</t>
-        </is>
+      <c r="D217" s="1" t="n">
+        <v>44222.11419089351</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>compliment</t>
+          <t>delegate</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>칭찬하다</t>
+          <t>대표(자), 위임하다, 선정하다</t>
         </is>
       </c>
       <c r="C218" t="n">
         <v>3</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>44224.85289744801</v>
+        <v>44222.1141908925</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>outlook</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>탄력, 가속도, 여세</t>
+          <t>관점, 전망</t>
         </is>
       </c>
       <c r="C219" t="n">
         <v>3</v>
       </c>
       <c r="D219" s="1" t="n">
-        <v>44226.27521903367</v>
+        <v>44226.27521903759</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>in a timely manner</t>
+          <t>indication</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>시기에 맞게</t>
+          <t>암시</t>
         </is>
       </c>
       <c r="C220" t="n">
         <v>3</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>44226.28725668437</v>
+        <v>44226.2752190353</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>on time</t>
+          <t>lean against</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>정시에</t>
+          <t>~에 기대다</t>
         </is>
       </c>
       <c r="C221" t="n">
         <v>3</v>
       </c>
-      <c r="D221" s="1" t="n">
-        <v>44226.28725668383</v>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772451</t>
+        </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>be appointed + 직위</t>
+          <t>anchor</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>~로 임명되다</t>
+          <t>정박하다</t>
         </is>
       </c>
       <c r="C222" t="n">
         <v>3</v>
       </c>
       <c r="D222" s="1" t="n">
-        <v>44226.28725668301</v>
+        <v>44224.15166368819</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>bistro</t>
+          <t>as much as possible</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>가능한 많이</t>
         </is>
       </c>
       <c r="C223" t="n">
         <v>3</v>
       </c>
       <c r="D223" s="1" t="n">
-        <v>44224.95196826063</v>
+        <v>44226.27521903324</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>favor</t>
+          <t>bear with</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>호의</t>
+          <t>~을 견디다, 참다</t>
         </is>
       </c>
       <c r="C224" t="n">
         <v>3</v>
       </c>
-      <c r="D224" s="1" t="n">
-        <v>44226.275219035</v>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771955</t>
+        </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>compliment</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>차이, 변형(시킨 것)</t>
+          <t>칭찬하다</t>
         </is>
       </c>
       <c r="C225" t="n">
         <v>3</v>
       </c>
       <c r="D225" s="1" t="n">
-        <v>44226.2872566816</v>
+        <v>44224.85289744801</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>stationery store</t>
+          <t>momentum</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>문구점</t>
+          <t>탄력, 가속도, 여세</t>
         </is>
       </c>
       <c r="C226" t="n">
         <v>3</v>
       </c>
       <c r="D226" s="1" t="n">
-        <v>44226.27521903351</v>
+        <v>44226.27521903367</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>stove</t>
+          <t>in a timely manner</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>(조리용) 레인지</t>
+          <t>시기에 맞게</t>
         </is>
       </c>
       <c r="C227" t="n">
         <v>3</v>
       </c>
       <c r="D227" s="1" t="n">
-        <v>44222.11419088936</v>
+        <v>44226.28725668437</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>persevere</t>
+          <t>on time</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>인내하다</t>
+          <t>정시에</t>
         </is>
       </c>
       <c r="C228" t="n">
         <v>3</v>
       </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771823</t>
-        </is>
+      <c r="D228" s="1" t="n">
+        <v>44226.28725668383</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>take off</t>
+          <t>template</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>이륙하다</t>
+          <t>견본</t>
         </is>
       </c>
       <c r="C229" t="n">
         <v>3</v>
       </c>
       <c r="D229" s="1" t="n">
-        <v>44222.11419089037</v>
+        <v>44224.15166368846</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>be appointed + 직위</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>대우, 처치</t>
+          <t>~로 임명되다</t>
         </is>
       </c>
       <c r="C230" t="n">
         <v>3</v>
       </c>
       <c r="D230" s="1" t="n">
-        <v>44226.27521903482</v>
+        <v>44226.28725668301</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>template</t>
+          <t>bistro</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>견본</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C231" t="n">
         <v>3</v>
       </c>
       <c r="D231" s="1" t="n">
-        <v>44224.15166368846</v>
+        <v>44224.95196826063</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>compare A with[to] B</t>
+          <t>favor</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>A를 B에 비교[비유]하다</t>
+          <t>호의</t>
         </is>
       </c>
       <c r="C232" t="n">
         <v>3</v>
       </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771993</t>
-        </is>
+      <c r="D232" s="1" t="n">
+        <v>44226.275219035</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>premiere</t>
+          <t xml:space="preserve">entrée </t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>초연, 개봉; 최고의</t>
+          <t>메인 메뉴</t>
         </is>
       </c>
       <c r="C233" t="n">
         <v>3</v>
       </c>
       <c r="D233" s="1" t="n">
-        <v>44222.11419089365</v>
+        <v>44224.15166368672</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>유효한</t>
+          <t>차이, 변형(시킨 것)</t>
         </is>
       </c>
       <c r="C234" t="n">
         <v>3</v>
       </c>
       <c r="D234" s="1" t="n">
-        <v>44222.8469271319</v>
+        <v>44226.2872566816</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">entrée </t>
+          <t>stationery store</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>메인 메뉴</t>
+          <t>문구점</t>
         </is>
       </c>
       <c r="C235" t="n">
         <v>3</v>
       </c>
       <c r="D235" s="1" t="n">
-        <v>44224.15166368672</v>
+        <v>44226.27521903351</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>privately held company</t>
+          <t>stove</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
+          <t>(조리용) 레인지</t>
         </is>
       </c>
       <c r="C236" t="n">
         <v>3</v>
       </c>
       <c r="D236" s="1" t="n">
-        <v>44222.11419089373</v>
+        <v>44222.11419088936</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>outdate</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>배치하다</t>
+          <t>시대에 뒤지게 하다</t>
         </is>
       </c>
       <c r="C237" t="n">
         <v>3</v>
       </c>
-      <c r="D237" s="1" t="n">
-        <v>44222.11419089052</v>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772049</t>
+        </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>awning</t>
+          <t>persevere</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>차양</t>
+          <t>인내하다</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -4772,59 +4770,55 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772367</t>
+          <t>2021-01-26 02:11:09.771823</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>outdate</t>
+          <t>take off</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>시대에 뒤지게 하다</t>
+          <t>이륙하다</t>
         </is>
       </c>
       <c r="C239" t="n">
         <v>3</v>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772049</t>
-        </is>
+      <c r="D239" s="1" t="n">
+        <v>44222.11419089037</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>staircase</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>계단</t>
+          <t>대우, 처치</t>
         </is>
       </c>
       <c r="C240" t="n">
         <v>3</v>
       </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772386</t>
-        </is>
+      <c r="D240" s="1" t="n">
+        <v>44226.27521903482</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>tremendous</t>
+          <t>compare A with[to] B</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>엄청난, 대단한</t>
+          <t>A를 B에 비교[비유]하다</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -4832,645 +4826,635 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772348</t>
+          <t>2021-01-26 02:11:09.771993</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>quotation</t>
+          <t>staircase</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>인용</t>
+          <t>계단</t>
         </is>
       </c>
       <c r="C242" t="n">
         <v>3</v>
       </c>
-      <c r="D242" s="1" t="n">
-        <v>44226.27521903567</v>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772386</t>
+        </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>unconvinced</t>
+          <t>consumer electronics industry</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>납득하지[찬성하지] 않는</t>
+          <t>가전 사업</t>
         </is>
       </c>
       <c r="C243" t="n">
         <v>3</v>
       </c>
       <c r="D243" s="1" t="n">
-        <v>44224.95196826149</v>
+        <v>44222.11419089379</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>jointly</t>
+          <t>directory</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>공동으로</t>
+          <t>안내판, 명부</t>
         </is>
       </c>
       <c r="C244" t="n">
         <v>3</v>
       </c>
       <c r="D244" s="1" t="n">
-        <v>44224.15166368744</v>
+        <v>44222.84692713129</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>matter</t>
+          <t>unconvinced</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>중요하다</t>
+          <t>납득하지[찬성하지] 않는</t>
         </is>
       </c>
       <c r="C245" t="n">
         <v>3</v>
       </c>
       <c r="D245" s="1" t="n">
-        <v>44226.28725668374</v>
+        <v>44224.95196826149</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>will pay a visit</t>
+          <t>decide against -ing</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>방문할 것이다.</t>
+          <t>~하지 않기로 결정하다</t>
         </is>
       </c>
       <c r="C246" t="n">
         <v>3</v>
       </c>
       <c r="D246" s="1" t="n">
-        <v>44222.11419089448</v>
+        <v>44224.85289744789</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>formerly</t>
+          <t>watercraft</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>예전에</t>
+          <t>배, 배 타는 기술</t>
         </is>
       </c>
       <c r="C247" t="n">
         <v>3</v>
       </c>
       <c r="D247" s="1" t="n">
-        <v>44224.95196826047</v>
+        <v>44224.1516636881</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>overlook</t>
+          <t>premiere</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>간과; ~을 간과하다, 내려보다</t>
+          <t>초연, 개봉; 최고의</t>
         </is>
       </c>
       <c r="C248" t="n">
         <v>3</v>
       </c>
       <c r="D248" s="1" t="n">
-        <v>44222.84692713336</v>
+        <v>44222.11419089365</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>sloppy</t>
+          <t>autobiographical</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>날림의, 엉성한</t>
+          <t>자전적인</t>
         </is>
       </c>
       <c r="C249" t="n">
         <v>3</v>
       </c>
       <c r="D249" s="1" t="n">
-        <v>44222.11419089342</v>
+        <v>44222.11419089197</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>feasibility</t>
+          <t>position</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>실행 가능성, 실현 가능성</t>
+          <t>배치하다</t>
         </is>
       </c>
       <c r="C250" t="n">
         <v>3</v>
       </c>
       <c r="D250" s="1" t="n">
-        <v>44226.28725668096</v>
+        <v>44222.11419089052</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>help out</t>
+          <t>openness</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>도와주다</t>
+          <t>솔직함, 개방성</t>
         </is>
       </c>
       <c r="C251" t="n">
         <v>3</v>
       </c>
       <c r="D251" s="1" t="n">
-        <v>44226.28725668362</v>
+        <v>44222.1141908947</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>be scattered on</t>
+          <t>be about to + 동사원형</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>~에 흩어져 있다</t>
+          <t>막 ~하려고 하다</t>
         </is>
       </c>
       <c r="C252" t="n">
         <v>3</v>
       </c>
       <c r="D252" s="1" t="n">
-        <v>44224.95196826251</v>
+        <v>44222.11419088992</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>deliveration</t>
+          <t>where as</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>~이지만</t>
         </is>
       </c>
       <c r="C253" t="n">
         <v>3</v>
       </c>
       <c r="D253" s="1" t="n">
-        <v>44222.84692713342</v>
+        <v>44222.84692713051</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>implore</t>
+          <t>as of + 시점</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>애원하다, 간청하다</t>
+          <t>~부로</t>
         </is>
       </c>
       <c r="C254" t="n">
         <v>3</v>
       </c>
       <c r="D254" s="1" t="n">
-        <v>44222.11419089589</v>
+        <v>44222.11419089551</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>eatery</t>
+          <t>privately held company</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
         </is>
       </c>
       <c r="C255" t="n">
         <v>3</v>
       </c>
       <c r="D255" s="1" t="n">
-        <v>44222.84692713509</v>
+        <v>44222.11419089373</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>in exchange for</t>
+          <t>nevertheless</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>~을 대신해서</t>
+          <t>그럼에도 불구하고</t>
         </is>
       </c>
       <c r="C256" t="n">
         <v>3</v>
       </c>
       <c r="D256" s="1" t="n">
-        <v>44222.84692713327</v>
+        <v>44222.11419089097</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>be about to + 동사원형</t>
+          <t>formerly</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>막 ~하려고 하다</t>
+          <t>예전에</t>
         </is>
       </c>
       <c r="C257" t="n">
         <v>3</v>
       </c>
       <c r="D257" s="1" t="n">
-        <v>44222.11419088992</v>
+        <v>44224.95196826047</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>directory</t>
+          <t>claim</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>안내판, 명부</t>
+          <t>~을 주장하다</t>
         </is>
       </c>
       <c r="C258" t="n">
         <v>3</v>
       </c>
-      <c r="D258" s="1" t="n">
-        <v>44222.84692713129</v>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771907</t>
+        </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>synthetic</t>
+          <t>violator</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>합성의</t>
+          <t>위반자</t>
         </is>
       </c>
       <c r="C259" t="n">
         <v>3</v>
       </c>
       <c r="D259" s="1" t="n">
-        <v>44222.84692713212</v>
+        <v>44222.11419089128</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>dairy farmer</t>
+          <t>call in</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>낙농업자</t>
+          <t>~를 불러들이다</t>
         </is>
       </c>
       <c r="C260" t="n">
         <v>3</v>
       </c>
       <c r="D260" s="1" t="n">
-        <v>44226.2752190368</v>
+        <v>44222.11419089902</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>outpace</t>
+          <t>matter</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>~을 능가하다</t>
+          <t>중요하다</t>
         </is>
       </c>
       <c r="C261" t="n">
         <v>3</v>
       </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771813</t>
-        </is>
+      <c r="D261" s="1" t="n">
+        <v>44226.28725668374</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>sew</t>
+          <t>take over</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>바느질하다, 꿰매다</t>
+          <t>인수하다, 이어받다</t>
         </is>
       </c>
       <c r="C262" t="n">
         <v>3</v>
       </c>
       <c r="D262" s="1" t="n">
-        <v>44222.11419089357</v>
+        <v>44226.287256684</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>commentary</t>
+          <t>sloppy</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>날림의, 엉성한</t>
         </is>
       </c>
       <c r="C263" t="n">
         <v>3</v>
       </c>
       <c r="D263" s="1" t="n">
-        <v>44226.28725668451</v>
+        <v>44222.11419089342</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>implication</t>
+          <t>house</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>함축, 함의</t>
+          <t>(장기적으로) 장소를 제공하다</t>
         </is>
       </c>
       <c r="C264" t="n">
         <v>3</v>
       </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771926</t>
-        </is>
+      <c r="D264" s="1" t="n">
+        <v>44224.95196826055</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>outfitter</t>
+          <t>dairy farmer</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>야외 활동 장비점</t>
+          <t>낙농업자</t>
         </is>
       </c>
       <c r="C265" t="n">
         <v>3</v>
       </c>
       <c r="D265" s="1" t="n">
-        <v>44222.84692713182</v>
+        <v>44226.2752190368</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>go out of business</t>
+          <t>feasibility</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>파산하다, 폐업하다</t>
+          <t>실행 가능성, 실현 가능성</t>
         </is>
       </c>
       <c r="C266" t="n">
         <v>3</v>
       </c>
       <c r="D266" s="1" t="n">
-        <v>44224.95196825996</v>
+        <v>44226.28725668096</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>candidacy</t>
+          <t>commentary</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>입후보, 출마</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C267" t="n">
         <v>3</v>
       </c>
       <c r="D267" s="1" t="n">
-        <v>44222.1141908944</v>
+        <v>44226.28725668451</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>somehow</t>
+          <t>sew</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>왜 그런지</t>
+          <t>바느질하다, 꿰매다</t>
         </is>
       </c>
       <c r="C268" t="n">
         <v>3</v>
       </c>
       <c r="D268" s="1" t="n">
-        <v>44224.15166368764</v>
+        <v>44222.11419089357</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>inform A of B</t>
+          <t>be scattered on</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>A에게 B에 대해 알리다</t>
+          <t>~에 흩어져 있다</t>
         </is>
       </c>
       <c r="C269" t="n">
         <v>3</v>
       </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772002</t>
-        </is>
+      <c r="D269" s="1" t="n">
+        <v>44224.95196826251</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>determine to do</t>
+          <t>outfitter</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>~하겠다고 결심하다</t>
+          <t>야외 활동 장비점</t>
         </is>
       </c>
       <c r="C270" t="n">
         <v>3</v>
       </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771889</t>
-        </is>
+      <c r="D270" s="1" t="n">
+        <v>44222.84692713182</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>pole</t>
+          <t>go out of business</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>기둥</t>
+          <t>파산하다, 폐업하다</t>
         </is>
       </c>
       <c r="C271" t="n">
         <v>3</v>
       </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772404</t>
-        </is>
+      <c r="D271" s="1" t="n">
+        <v>44224.95196825996</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>robe</t>
+          <t>deliveration</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>가운</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C272" t="n">
         <v>3</v>
       </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772270</t>
-        </is>
+      <c r="D272" s="1" t="n">
+        <v>44222.84692713342</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>excerpt</t>
+          <t>implore</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>발췌, 인용</t>
+          <t>애원하다, 간청하다</t>
         </is>
       </c>
       <c r="C273" t="n">
         <v>3</v>
       </c>
       <c r="D273" s="1" t="n">
-        <v>44222.84692713058</v>
+        <v>44222.11419089589</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>saving</t>
+          <t>somehow</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>감액</t>
+          <t>왜 그런지</t>
         </is>
       </c>
       <c r="C274" t="n">
         <v>3</v>
       </c>
       <c r="D274" s="1" t="n">
-        <v>44224.85289744897</v>
+        <v>44224.15166368764</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>courteous</t>
+          <t>candidacy</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>정중한</t>
+          <t>입후보, 출마</t>
         </is>
       </c>
       <c r="C275" t="n">
         <v>3</v>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772125</t>
-        </is>
+      <c r="D275" s="1" t="n">
+        <v>44222.1141908944</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>get in</t>
+          <t>consider A (as [to be]) B</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>~에 들어가다, 도착하다</t>
+          <t>A를 B로 여기다, 간주하다</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -5478,111 +5462,115 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771965</t>
+          <t>2021-01-26 02:11:09.771898</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>prohibit A from -ing</t>
+          <t>determine to do</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>A가 ~하는 것을 금하다</t>
+          <t>~하겠다고 결심하다</t>
         </is>
       </c>
       <c r="C277" t="n">
         <v>3</v>
       </c>
-      <c r="D277" s="1" t="n">
-        <v>44224.1516636879</v>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771889</t>
+        </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>operating efficiency</t>
+          <t>inform A of B</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>작업 성능</t>
+          <t>A에게 B에 대해 알리다</t>
         </is>
       </c>
       <c r="C278" t="n">
         <v>3</v>
       </c>
-      <c r="D278" s="1" t="n">
-        <v>44224.95196826111</v>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772002</t>
+        </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>justify</t>
+          <t>sleek</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>증명하다, 입증하다</t>
+          <t>(모양이) 매끈한</t>
         </is>
       </c>
       <c r="C279" t="n">
         <v>3</v>
       </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772242</t>
-        </is>
+      <c r="D279" s="1" t="n">
+        <v>44224.8528974482</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>be in line for</t>
+          <t>excerpt</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>~할 가능성이 있다</t>
+          <t>발췌, 인용</t>
         </is>
       </c>
       <c r="C280" t="n">
         <v>3</v>
       </c>
       <c r="D280" s="1" t="n">
-        <v>44222.11419089894</v>
+        <v>44222.84692713058</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>robe</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>주도적임, 계획</t>
+          <t>가운</t>
         </is>
       </c>
       <c r="C281" t="n">
         <v>3</v>
       </c>
-      <c r="D281" s="1" t="n">
-        <v>44224.95196826087</v>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772270</t>
+        </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>associate</t>
+          <t>courteous</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>연결지어 생각하다</t>
+          <t>정중한</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -5590,167 +5578,169 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772251</t>
+          <t>2021-01-26 02:11:09.772125</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>shelving unit</t>
+          <t>get in</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>~에 들어가다, 도착하다</t>
         </is>
       </c>
       <c r="C283" t="n">
         <v>3</v>
       </c>
-      <c r="D283" s="1" t="n">
-        <v>44222.11419089014</v>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771965</t>
+        </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>representative</t>
+          <t>prohibit A from -ing</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>대표(자), 대의원, 국회의원</t>
+          <t>A가 ~하는 것을 금하다</t>
         </is>
       </c>
       <c r="C284" t="n">
         <v>3</v>
       </c>
       <c r="D284" s="1" t="n">
-        <v>44224.95196826141</v>
+        <v>44224.1516636879</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>have been left</t>
+          <t>operating efficiency</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>~인 채로 있다</t>
+          <t>작업 성능</t>
         </is>
       </c>
       <c r="C285" t="n">
         <v>3</v>
       </c>
       <c r="D285" s="1" t="n">
-        <v>44224.95196826243</v>
+        <v>44224.95196826111</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>rugged</t>
+          <t>ceiling fan</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>울퉁불퉁한</t>
+          <t>천장 선풍기</t>
         </is>
       </c>
       <c r="C286" t="n">
         <v>3</v>
       </c>
-      <c r="D286" s="1" t="n">
-        <v>44222.84692713236</v>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772461</t>
+        </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>be in line for</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>똑같은, 동일한</t>
+          <t>~할 가능성이 있다</t>
         </is>
       </c>
       <c r="C287" t="n">
         <v>3</v>
       </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772414</t>
-        </is>
+      <c r="D287" s="1" t="n">
+        <v>44222.11419089894</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>reenter</t>
+          <t>justify</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>다시 입력하다</t>
+          <t>증명하다, 입증하다</t>
         </is>
       </c>
       <c r="C288" t="n">
         <v>3</v>
       </c>
-      <c r="D288" s="1" t="n">
-        <v>44224.95196826167</v>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772242</t>
+        </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>sweep -&gt; swept -&gt; swept</t>
+          <t>field</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>(빗자루로)쓸다, 청소하다</t>
+          <t>(질문을) 처리하다</t>
         </is>
       </c>
       <c r="C289" t="n">
         <v>3</v>
       </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772376</t>
-        </is>
+      <c r="D289" s="1" t="n">
+        <v>44222.11419089486</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>upholstery</t>
+          <t>shelving unit</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>(가구 덮개 등의) 실내 장식(품)</t>
+          <t>선반</t>
         </is>
       </c>
       <c r="C290" t="n">
         <v>3</v>
       </c>
       <c r="D290" s="1" t="n">
-        <v>44222.11419089334</v>
+        <v>44222.11419089014</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>reception</t>
+          <t>associate</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>수신상태</t>
+          <t>연결지어 생각하다</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -5758,1583 +5748,1585 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772106</t>
+          <t>2021-01-26 02:11:09.772251</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>take A out of B</t>
+          <t>by contrast</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>B에서 A를 뽑다</t>
+          <t>그와 대조적으로</t>
         </is>
       </c>
       <c r="C292" t="n">
         <v>3</v>
       </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772480</t>
-        </is>
+      <c r="D292" s="1" t="n">
+        <v>44224.8528974481</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>promotional offers</t>
+          <t>rugged</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>판촉할인</t>
+          <t>울퉁불퉁한</t>
         </is>
       </c>
       <c r="C293" t="n">
         <v>3</v>
       </c>
       <c r="D293" s="1" t="n">
-        <v>44222.84692713197</v>
+        <v>44222.84692713236</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>have been left</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>못마땅해 하다, 불만을 나타내다</t>
+          <t>~인 채로 있다</t>
         </is>
       </c>
       <c r="C294" t="n">
         <v>3</v>
       </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771917</t>
-        </is>
+      <c r="D294" s="1" t="n">
+        <v>44224.95196826243</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>high-rise</t>
+          <t>reenter</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>고층 빌딩</t>
+          <t>다시 입력하다</t>
         </is>
       </c>
       <c r="C295" t="n">
         <v>3</v>
       </c>
       <c r="D295" s="1" t="n">
-        <v>44222.11419089326</v>
+        <v>44224.95196826167</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>set foot on</t>
+          <t>sweep -&gt; swept -&gt; swept</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>~에 발을 들여놓다</t>
+          <t>(빗자루로)쓸다, 청소하다</t>
         </is>
       </c>
       <c r="C296" t="n">
         <v>3</v>
       </c>
-      <c r="D296" s="1" t="n">
-        <v>44224.15166368801</v>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772376</t>
+        </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>proximity to</t>
+          <t>upholstery</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>~에서 아주 가까움, 근접함</t>
+          <t>(가구 덮개 등의) 실내 장식(품)</t>
         </is>
       </c>
       <c r="C297" t="n">
         <v>3</v>
       </c>
       <c r="D297" s="1" t="n">
-        <v>44222.84692713313</v>
+        <v>44222.11419089334</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>display bin</t>
+          <t>reception</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>진열장</t>
+          <t>수신상태</t>
         </is>
       </c>
       <c r="C298" t="n">
         <v>3</v>
       </c>
-      <c r="D298" s="1" t="n">
-        <v>44222.11419089544</v>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772106</t>
+        </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>pension</t>
+          <t>right candidate</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>연금</t>
+          <t>적임자</t>
         </is>
       </c>
       <c r="C299" t="n">
         <v>3</v>
       </c>
       <c r="D299" s="1" t="n">
-        <v>44222.8469271316</v>
+        <v>44222.11419089267</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>once a month</t>
+          <t>promotional offers</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>매달</t>
+          <t>판촉할인</t>
         </is>
       </c>
       <c r="C300" t="n">
         <v>3</v>
       </c>
       <c r="D300" s="1" t="n">
-        <v>44222.11419089159</v>
+        <v>44222.84692713197</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>compelling</t>
+          <t>take A out of B</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>설득력 있는, 눈을 뗄 수 없는</t>
+          <t>B에서 A를 뽑다</t>
         </is>
       </c>
       <c r="C301" t="n">
         <v>3</v>
       </c>
-      <c r="D301" s="1" t="n">
-        <v>44224.15166368735</v>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772480</t>
+        </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>traditionally</t>
+          <t>bio</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>예전부터, 통상적으로</t>
+          <t>약력</t>
         </is>
       </c>
       <c r="C302" t="n">
         <v>3</v>
       </c>
       <c r="D302" s="1" t="n">
-        <v>44222.84692713359</v>
+        <v>44224.15166368753</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>matte</t>
+          <t>set foot on</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>무광</t>
+          <t>~에 발을 들여놓다</t>
         </is>
       </c>
       <c r="C303" t="n">
         <v>3</v>
       </c>
       <c r="D303" s="1" t="n">
-        <v>44222.84692713501</v>
+        <v>44224.15166368801</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>oar</t>
+          <t>high-rise</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>(물에서 쓰는) 노</t>
+          <t>고층 빌딩</t>
         </is>
       </c>
       <c r="C304" t="n">
         <v>3</v>
       </c>
       <c r="D304" s="1" t="n">
-        <v>44222.11419089075</v>
+        <v>44222.11419089326</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>pay roll</t>
+          <t>much-needed</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>급여 대상자 명단, 급여 총액</t>
+          <t>꼭 필요한</t>
         </is>
       </c>
       <c r="C305" t="n">
         <v>3</v>
       </c>
       <c r="D305" s="1" t="n">
-        <v>44222.11419089212</v>
+        <v>44222.11419089566</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>fasten</t>
+          <t>pension</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>매다, 고정시키다</t>
+          <t>연금</t>
         </is>
       </c>
       <c r="C306" t="n">
         <v>3</v>
       </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772357</t>
-        </is>
+      <c r="D306" s="1" t="n">
+        <v>44222.8469271316</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>intense</t>
+          <t>display bin</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>강렬한, 거센</t>
+          <t>진열장</t>
         </is>
       </c>
       <c r="C307" t="n">
         <v>3</v>
       </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772195</t>
-        </is>
+      <c r="D307" s="1" t="n">
+        <v>44222.11419089544</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>terrain</t>
+          <t>compelling</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>지형</t>
+          <t>설득력 있는, 눈을 뗄 수 없는</t>
         </is>
       </c>
       <c r="C308" t="n">
         <v>3</v>
       </c>
       <c r="D308" s="1" t="n">
-        <v>44222.84692713244</v>
+        <v>44224.15166368735</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>lodging</t>
+          <t>traditionally</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>임시 숙소</t>
+          <t>예전부터, 통상적으로</t>
         </is>
       </c>
       <c r="C309" t="n">
         <v>3</v>
       </c>
       <c r="D309" s="1" t="n">
-        <v>44224.15166368707</v>
+        <v>44222.84692713359</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>step over</t>
+          <t>matte</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>(장애물을) 넘다</t>
+          <t>무광</t>
         </is>
       </c>
       <c r="C310" t="n">
         <v>3</v>
       </c>
       <c r="D310" s="1" t="n">
-        <v>44222.11419089022</v>
+        <v>44222.84692713501</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>exquisite</t>
+          <t>oar</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>정교한, 세련된</t>
+          <t>(물에서 쓰는) 노</t>
         </is>
       </c>
       <c r="C311" t="n">
         <v>3</v>
       </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772280</t>
-        </is>
+      <c r="D311" s="1" t="n">
+        <v>44222.11419089075</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>glowing</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>극찬하는</t>
+          <t>결정하다</t>
         </is>
       </c>
       <c r="C312" t="n">
         <v>3</v>
       </c>
       <c r="D312" s="1" t="n">
-        <v>44222.84692713534</v>
+        <v>44224.95196826118</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>expertise</t>
+          <t>fasten</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>전문성, 전문지식</t>
+          <t>매다, 고정시키다</t>
         </is>
       </c>
       <c r="C313" t="n">
         <v>3</v>
       </c>
-      <c r="D313" s="1" t="n">
-        <v>44222.84692712968</v>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772357</t>
+        </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>gift certificate</t>
+          <t>pay roll</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>상품권</t>
+          <t>급여 대상자 명단, 급여 총액</t>
         </is>
       </c>
       <c r="C314" t="n">
         <v>3</v>
       </c>
       <c r="D314" s="1" t="n">
-        <v>44222.84692713035</v>
+        <v>44222.11419089212</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>professional reference</t>
+          <t>qualified</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>직장 관련 추천인</t>
+          <t>적격인</t>
         </is>
       </c>
       <c r="C315" t="n">
         <v>3</v>
       </c>
       <c r="D315" s="1" t="n">
-        <v>44222.84692713101</v>
+        <v>44222.84692713166</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>fill prescriptions</t>
+          <t>lodging</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>처방약을 조제하다</t>
+          <t>임시 숙소</t>
         </is>
       </c>
       <c r="C316" t="n">
         <v>3</v>
       </c>
       <c r="D316" s="1" t="n">
-        <v>44222.11419089463</v>
+        <v>44224.15166368707</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>fudge</t>
+          <t>terrain</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>연한(무른) 캔디</t>
+          <t>지형</t>
         </is>
       </c>
       <c r="C317" t="n">
         <v>3</v>
       </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772176</t>
-        </is>
+      <c r="D317" s="1" t="n">
+        <v>44222.84692713244</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>runway</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>배치, 직업소개</t>
+          <t>활주로</t>
         </is>
       </c>
       <c r="C318" t="n">
         <v>3</v>
       </c>
       <c r="D318" s="1" t="n">
-        <v>44224.9519682619</v>
+        <v>44222.11419089044</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>sports complex</t>
+          <t>glowing</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>종합 운동장</t>
+          <t>극찬하는</t>
         </is>
       </c>
       <c r="C319" t="n">
         <v>3</v>
       </c>
       <c r="D319" s="1" t="n">
-        <v>44222.11419089258</v>
+        <v>44222.84692713534</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>accomplished</t>
+          <t>expertise</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>완수하다, 성취하다, 해내다 (= achieve)</t>
+          <t>전문성, 전문지식</t>
         </is>
       </c>
       <c r="C320" t="n">
         <v>3</v>
       </c>
       <c r="D320" s="1" t="n">
-        <v>44222.84692712988</v>
+        <v>44222.84692712968</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>outline</t>
+          <t>gift certificate</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>설명하다</t>
+          <t>상품권</t>
         </is>
       </c>
       <c r="C321" t="n">
         <v>3</v>
       </c>
       <c r="D321" s="1" t="n">
-        <v>44222.11419089312</v>
+        <v>44222.84692713035</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>autehntic</t>
+          <t>professional reference</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>진짜의</t>
+          <t>직장 관련 추천인</t>
         </is>
       </c>
       <c r="C322" t="n">
         <v>3</v>
       </c>
       <c r="D322" s="1" t="n">
-        <v>44222.11419089112</v>
+        <v>44222.84692713101</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>technical drawing</t>
+          <t>fill prescriptions</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>제도(= drafting)</t>
+          <t>처방약을 조제하다</t>
         </is>
       </c>
       <c r="C323" t="n">
         <v>3</v>
       </c>
       <c r="D323" s="1" t="n">
-        <v>44222.1141908909</v>
+        <v>44222.11419089463</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>aspiring</t>
+          <t>fudge</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>장차 ~가 되려는</t>
+          <t>연한(무른) 캔디</t>
         </is>
       </c>
       <c r="C324" t="n">
         <v>3</v>
       </c>
-      <c r="D324" s="1" t="n">
-        <v>44224.95196826126</v>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772176</t>
+        </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>exquisite</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>정교한, 세련된</t>
         </is>
       </c>
       <c r="C325" t="n">
         <v>3</v>
       </c>
-      <c r="D325" s="1" t="n">
-        <v>44222.84692713367</v>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772280</t>
+        </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>sail</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>돛; 항해하다</t>
+          <t>배치, 직업소개</t>
         </is>
       </c>
       <c r="C326" t="n">
         <v>3</v>
       </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772442</t>
-        </is>
+      <c r="D326" s="1" t="n">
+        <v>44224.9519682619</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>runway</t>
+          <t>sports complex</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>활주로</t>
+          <t>종합 운동장</t>
         </is>
       </c>
       <c r="C327" t="n">
         <v>3</v>
       </c>
       <c r="D327" s="1" t="n">
-        <v>44222.11419089044</v>
+        <v>44222.11419089258</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>centerpiece</t>
+          <t>accomplished</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>중심부, 중앙 장식물</t>
+          <t>완수하다, 성취하다, 해내다 (= achieve)</t>
         </is>
       </c>
       <c r="C328" t="n">
         <v>3</v>
       </c>
       <c r="D328" s="1" t="n">
-        <v>44222.11419089235</v>
+        <v>44222.84692712988</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>gazebo</t>
+          <t>step over</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>(정원의) 정자</t>
+          <t>(장애물을) 넘다</t>
         </is>
       </c>
       <c r="C329" t="n">
         <v>3</v>
       </c>
       <c r="D329" s="1" t="n">
-        <v>44222.11419089243</v>
+        <v>44222.11419089022</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>recognize A as B</t>
+          <t>outline</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>A를 B로 인식하다</t>
+          <t>설명하다</t>
         </is>
       </c>
       <c r="C330" t="n">
         <v>3</v>
       </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771842</t>
-        </is>
+      <c r="D330" s="1" t="n">
+        <v>44222.11419089312</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>qualified</t>
+          <t>autehntic</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>적격인</t>
+          <t>진짜의</t>
         </is>
       </c>
       <c r="C331" t="n">
         <v>3</v>
       </c>
       <c r="D331" s="1" t="n">
-        <v>44222.84692713166</v>
+        <v>44222.11419089112</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>back-to-back</t>
+          <t>technical drawing</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>연속적인, 잇따라</t>
+          <t>제도(= drafting)</t>
         </is>
       </c>
       <c r="C332" t="n">
         <v>3</v>
       </c>
       <c r="D332" s="1" t="n">
-        <v>44224.95196826157</v>
+        <v>44222.1141908909</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>manner</t>
+          <t>intense</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>방법, 방식, 예의 범절</t>
+          <t>강렬한, 거센</t>
         </is>
       </c>
       <c r="C333" t="n">
         <v>3</v>
       </c>
-      <c r="D333" s="1" t="n">
-        <v>44222.84692713305</v>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772195</t>
+        </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>high-volume</t>
+          <t>aspiring</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>대량의</t>
+          <t>장차 ~가 되려는</t>
         </is>
       </c>
       <c r="C334" t="n">
         <v>3</v>
       </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772339</t>
-        </is>
+      <c r="D334" s="1" t="n">
+        <v>44224.95196826126</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>결정하다</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C335" t="n">
         <v>3</v>
       </c>
       <c r="D335" s="1" t="n">
-        <v>44224.95196826118</v>
+        <v>44222.84692713367</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>lead character</t>
+          <t>sail</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>주인공</t>
+          <t>돛; 항해하다</t>
         </is>
       </c>
       <c r="C336" t="n">
         <v>3</v>
       </c>
-      <c r="D336" s="1" t="n">
-        <v>44222.11419089189</v>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772442</t>
+        </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>knob</t>
+          <t>centerpiece</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>손잡이, 스위치</t>
+          <t>중심부, 중앙 장식물</t>
         </is>
       </c>
       <c r="C337" t="n">
         <v>3</v>
       </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772031</t>
-        </is>
+      <c r="D337" s="1" t="n">
+        <v>44222.11419089235</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>meet with approval</t>
+          <t>gazebo</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>동의[승인]를 얻다</t>
+          <t>(정원의) 정자</t>
         </is>
       </c>
       <c r="C338" t="n">
         <v>3</v>
       </c>
       <c r="D338" s="1" t="n">
-        <v>44224.95196826134</v>
+        <v>44222.11419089243</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>prop</t>
+          <t>recognize A as B</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>받치다</t>
+          <t>A를 B로 인식하다</t>
         </is>
       </c>
       <c r="C339" t="n">
         <v>3</v>
       </c>
-      <c r="D339" s="1" t="n">
-        <v>44222.11419088928</v>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771842</t>
+        </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>start off</t>
+          <t>back-to-back</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>출발하다, 시작하다</t>
+          <t>연속적인, 잇따라</t>
         </is>
       </c>
       <c r="C340" t="n">
         <v>3</v>
       </c>
       <c r="D340" s="1" t="n">
-        <v>44224.95196826196</v>
+        <v>44224.95196826157</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Candidate Referral Program</t>
+          <t>once a month</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>사내 추천제</t>
+          <t>매달</t>
         </is>
       </c>
       <c r="C341" t="n">
         <v>3</v>
       </c>
       <c r="D341" s="1" t="n">
-        <v>44222.84692713138</v>
+        <v>44222.11419089159</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>botanist</t>
+          <t>manner</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>식물학자</t>
+          <t>방법, 방식, 예의 범절</t>
         </is>
       </c>
       <c r="C342" t="n">
         <v>3</v>
       </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772134</t>
-        </is>
+      <c r="D342" s="1" t="n">
+        <v>44222.84692713305</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>much-needed</t>
+          <t>high-volume</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>꼭 필요한</t>
+          <t>대량의</t>
         </is>
       </c>
       <c r="C343" t="n">
         <v>3</v>
       </c>
-      <c r="D343" s="1" t="n">
-        <v>44222.11419089566</v>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772339</t>
+        </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>language institute</t>
+          <t>lead character</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>어학원</t>
+          <t>주인공</t>
         </is>
       </c>
       <c r="C344" t="n">
         <v>3</v>
       </c>
       <c r="D344" s="1" t="n">
-        <v>44222.1141908951</v>
+        <v>44222.11419089189</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>help in -ing</t>
+          <t>proximity to</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>~하는데 있어서 도움</t>
+          <t>~에서 아주 가까움, 근접함</t>
         </is>
       </c>
       <c r="C345" t="n">
         <v>3</v>
       </c>
       <c r="D345" s="1" t="n">
-        <v>44222.84692713382</v>
+        <v>44222.84692713313</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>beneath</t>
+          <t>knob</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>~밑에</t>
+          <t>손잡이, 스위치</t>
         </is>
       </c>
       <c r="C346" t="n">
         <v>3</v>
       </c>
-      <c r="D346" s="1" t="n">
-        <v>44222.11419088913</v>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772031</t>
+        </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>bio</t>
+          <t>meet with approval</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>약력</t>
+          <t>동의[승인]를 얻다</t>
         </is>
       </c>
       <c r="C347" t="n">
         <v>3</v>
       </c>
       <c r="D347" s="1" t="n">
-        <v>44224.15166368753</v>
+        <v>44224.95196826134</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>prop</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>생산, 생상량</t>
+          <t>받치다</t>
         </is>
       </c>
       <c r="C348" t="n">
         <v>3</v>
       </c>
       <c r="D348" s="1" t="n">
-        <v>44222.84692713002</v>
+        <v>44222.11419088928</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>assumption</t>
+          <t>disapprove</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>가정</t>
+          <t>못마땅해 하다, 불만을 나타내다</t>
         </is>
       </c>
       <c r="C349" t="n">
         <v>3</v>
       </c>
-      <c r="D349" s="1" t="n">
-        <v>44222.8469271335</v>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771917</t>
+        </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>start off</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>(길, 강 등이) 구불구불하다</t>
+          <t>출발하다, 시작하다</t>
         </is>
       </c>
       <c r="C350" t="n">
         <v>3</v>
       </c>
       <c r="D350" s="1" t="n">
-        <v>44222.11419088961</v>
+        <v>44224.95196826196</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>right candidate</t>
+          <t>Candidate Referral Program</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>적임자</t>
+          <t>사내 추천제</t>
         </is>
       </c>
       <c r="C351" t="n">
         <v>3</v>
       </c>
       <c r="D351" s="1" t="n">
-        <v>44222.11419089267</v>
+        <v>44222.84692713138</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>simply</t>
+          <t>botanist</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
+          <t>식물학자</t>
         </is>
       </c>
       <c r="C352" t="n">
         <v>3</v>
       </c>
-      <c r="D352" s="1" t="n">
-        <v>44222.11419089295</v>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772134</t>
+        </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>stiff</t>
+          <t>language institute</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>뻣뻣한</t>
+          <t>어학원</t>
         </is>
       </c>
       <c r="C353" t="n">
         <v>3</v>
       </c>
       <c r="D353" s="1" t="n">
-        <v>44222.84692713274</v>
+        <v>44222.1141908951</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>confer</t>
+          <t>help in -ing</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>수여하다</t>
+          <t>~하는데 있어서 도움</t>
         </is>
       </c>
       <c r="C354" t="n">
         <v>3</v>
       </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771860</t>
-        </is>
+      <c r="D354" s="1" t="n">
+        <v>44222.84692713382</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>authenticity</t>
+          <t>beneath</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>진짜임</t>
+          <t>~밑에</t>
         </is>
       </c>
       <c r="C355" t="n">
         <v>3</v>
       </c>
       <c r="D355" s="1" t="n">
-        <v>44224.15166368874</v>
+        <v>44222.11419088913</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>qualify for ~</t>
+          <t>production</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>~의 자격을 얻다</t>
+          <t>생산, 생상량</t>
         </is>
       </c>
       <c r="C356" t="n">
         <v>3</v>
       </c>
       <c r="D356" s="1" t="n">
-        <v>44222.1141908912</v>
+        <v>44222.84692713002</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>mussels</t>
+          <t>identical</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>홍합</t>
+          <t>똑같은, 동일한</t>
         </is>
       </c>
       <c r="C357" t="n">
         <v>3</v>
       </c>
-      <c r="D357" s="1" t="n">
-        <v>44222.84692713389</v>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772414</t>
+        </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>assumption</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>제공하다</t>
+          <t>가정</t>
         </is>
       </c>
       <c r="C358" t="n">
         <v>3</v>
       </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772157</t>
-        </is>
+      <c r="D358" s="1" t="n">
+        <v>44222.8469271335</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>by contrast</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>그와 대조적으로</t>
+          <t>(길, 강 등이) 구불구불하다</t>
         </is>
       </c>
       <c r="C359" t="n">
         <v>3</v>
       </c>
       <c r="D359" s="1" t="n">
-        <v>44224.8528974481</v>
+        <v>44222.11419088961</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>phenomenal</t>
+          <t>simply</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>경의적인, 경탄이 나오는</t>
+          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
         </is>
       </c>
       <c r="C360" t="n">
         <v>3</v>
       </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772289</t>
-        </is>
+      <c r="D360" s="1" t="n">
+        <v>44222.11419089295</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>representative</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>구현</t>
+          <t>대표(자), 대의원, 국회의원</t>
         </is>
       </c>
       <c r="C361" t="n">
         <v>3</v>
       </c>
       <c r="D361" s="1" t="n">
-        <v>44222.84692713084</v>
+        <v>44224.95196826141</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>hands-on</t>
+          <t>stiff</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>실천의, 직접 해보는</t>
+          <t>뻣뻣한</t>
         </is>
       </c>
       <c r="C362" t="n">
         <v>3</v>
       </c>
       <c r="D362" s="1" t="n">
-        <v>44222.11419089559</v>
+        <v>44222.84692713274</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>confer</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>(질문을) 처리하다</t>
+          <t>수여하다</t>
         </is>
       </c>
       <c r="C363" t="n">
         <v>3</v>
       </c>
-      <c r="D363" s="1" t="n">
-        <v>44222.11419089486</v>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771860</t>
+        </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>prompt</t>
+          <t>authenticity</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>(컴퓨터 시스템 상에서) ~하라고( 메시지로) 지시하다, 촉구하다</t>
+          <t>진짜임</t>
         </is>
       </c>
       <c r="C364" t="n">
         <v>3</v>
       </c>
       <c r="D364" s="1" t="n">
-        <v>44222.84692713043</v>
+        <v>44224.15166368874</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>one another</t>
+          <t>initiative</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>서로</t>
+          <t>주도적임, 계획</t>
         </is>
       </c>
       <c r="C365" t="n">
         <v>3</v>
       </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772329</t>
-        </is>
+      <c r="D365" s="1" t="n">
+        <v>44224.95196826087</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>qualify for ~</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>상당히, 꽤</t>
+          <t>~의 자격을 얻다</t>
         </is>
       </c>
       <c r="C366" t="n">
         <v>3</v>
       </c>
       <c r="D366" s="1" t="n">
-        <v>44222.11419089105</v>
+        <v>44222.1141908912</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ceiling fan</t>
+          <t>mussels</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>천장 선풍기</t>
+          <t>홍합</t>
         </is>
       </c>
       <c r="C367" t="n">
         <v>3</v>
       </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772461</t>
-        </is>
+      <c r="D367" s="1" t="n">
+        <v>44222.84692713389</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>hearty</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>(음식이) 푸짐하고 만족스러운</t>
+          <t>제공하다</t>
         </is>
       </c>
       <c r="C368" t="n">
         <v>3</v>
       </c>
-      <c r="D368" s="1" t="n">
-        <v>44222.84692713589</v>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772157</t>
+        </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>valued at</t>
+          <t>phenomenal</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>가격이 ~에 상당하는</t>
+          <t>경의적인, 경탄이 나오는</t>
         </is>
       </c>
       <c r="C369" t="n">
         <v>3</v>
       </c>
-      <c r="D369" s="1" t="n">
-        <v>44224.95196826031</v>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772289</t>
+        </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>fiscal year</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>회계 연도</t>
+          <t>구현</t>
         </is>
       </c>
       <c r="C370" t="n">
         <v>3</v>
       </c>
       <c r="D370" s="1" t="n">
-        <v>44222.11419089911</v>
+        <v>44222.84692713084</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>put on hold</t>
+          <t>hands-on</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>보류하다</t>
+          <t>실천의, 직접 해보는</t>
         </is>
       </c>
       <c r="C371" t="n">
         <v>3</v>
       </c>
       <c r="D371" s="1" t="n">
-        <v>44224.8528974488</v>
+        <v>44222.11419089559</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>plot</t>
+          <t>prompt</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>(소설, 영화 등의) 구성, 줄거리</t>
+          <t>(컴퓨터 시스템 상에서) ~하라고( 메시지로) 지시하다, 촉구하다</t>
         </is>
       </c>
       <c r="C372" t="n">
         <v>3</v>
       </c>
       <c r="D372" s="1" t="n">
-        <v>44222.11419089288</v>
+        <v>44222.84692713043</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>saving</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>조각조각으로 찢다, 끝내버리다</t>
+          <t>감액</t>
         </is>
       </c>
       <c r="C373" t="n">
         <v>3</v>
       </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772021</t>
-        </is>
+      <c r="D373" s="1" t="n">
+        <v>44224.85289744897</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>be credited with</t>
+          <t>one another</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>~에 공로가 있다</t>
+          <t>서로</t>
         </is>
       </c>
       <c r="C374" t="n">
         <v>3</v>
       </c>
-      <c r="D374" s="1" t="n">
-        <v>44224.95196826007</v>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772329</t>
+        </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>sleek</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>(모양이) 매끈한</t>
+          <t>상당히, 꽤</t>
         </is>
       </c>
       <c r="C375" t="n">
         <v>3</v>
       </c>
       <c r="D375" s="1" t="n">
-        <v>44224.8528974482</v>
+        <v>44222.11419089105</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>prop(property)</t>
+          <t>honorarium</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>소도구</t>
+          <t>사례비</t>
         </is>
       </c>
       <c r="C376" t="n">
         <v>3</v>
       </c>
       <c r="D376" s="1" t="n">
-        <v>44222.1141908952</v>
+        <v>44224.15166368717</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>dome</t>
+          <t>pole</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>둥근 지붕을 달다; 둥근 지붕</t>
+          <t>기둥</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -7342,556 +7334,744 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772299</t>
+          <t>2021-01-26 02:11:09.772404</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>crepe</t>
+          <t>hearty</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>얇은 팬케이크</t>
+          <t>(음식이) 푸짐하고 만족스러운</t>
         </is>
       </c>
       <c r="C378" t="n">
         <v>3</v>
       </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772147</t>
-        </is>
+      <c r="D378" s="1" t="n">
+        <v>44222.84692713589</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>honorarium</t>
+          <t>hold one's own</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>사례비</t>
+          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
         </is>
       </c>
       <c r="C379" t="n">
         <v>3</v>
       </c>
       <c r="D379" s="1" t="n">
-        <v>44224.15166368717</v>
+        <v>44224.15166368688</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ramp</t>
+          <t>composition</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>경사로</t>
+          <t>구성(요소)</t>
         </is>
       </c>
       <c r="C380" t="n">
         <v>3</v>
       </c>
       <c r="D380" s="1" t="n">
-        <v>44224.95196826259</v>
+        <v>44226.28725668104</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>adjacent to</t>
+          <t>insist on -ing</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>~에 인접한</t>
+          <t>~할 것을 주장하다</t>
         </is>
       </c>
       <c r="C381" t="n">
         <v>3</v>
       </c>
       <c r="D381" s="1" t="n">
-        <v>44224.95196826039</v>
+        <v>44224.15166368698</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>hold one's own</t>
+          <t>valued at</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
+          <t>가격이 ~에 상당하는</t>
         </is>
       </c>
       <c r="C382" t="n">
         <v>3</v>
       </c>
       <c r="D382" s="1" t="n">
-        <v>44224.15166368688</v>
+        <v>44224.95196826031</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>composition</t>
+          <t>fiscal year</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>구성(요소)</t>
+          <t>회계 연도</t>
         </is>
       </c>
       <c r="C383" t="n">
         <v>3</v>
       </c>
       <c r="D383" s="1" t="n">
-        <v>44226.28725668104</v>
+        <v>44222.11419089911</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>make a name</t>
+          <t>put on hold</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>명성을 얻다</t>
+          <t>보류하다</t>
         </is>
       </c>
       <c r="C384" t="n">
         <v>3</v>
       </c>
       <c r="D384" s="1" t="n">
-        <v>44224.85289744829</v>
+        <v>44224.8528974488</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>claim</t>
+          <t>plot</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>~을 주장하다</t>
+          <t>(소설, 영화 등의) 구성, 줄거리</t>
         </is>
       </c>
       <c r="C385" t="n">
         <v>3</v>
       </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771907</t>
-        </is>
+      <c r="D385" s="1" t="n">
+        <v>44222.11419089288</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>as of + 시점</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>~부로</t>
+          <t>조각조각으로 찢다, 끝내버리다</t>
         </is>
       </c>
       <c r="C386" t="n">
         <v>3</v>
       </c>
-      <c r="D386" s="1" t="n">
-        <v>44222.11419089551</v>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772021</t>
+        </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>where as</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>~이지만</t>
+          <t>좌절감, 불만</t>
         </is>
       </c>
       <c r="C387" t="n">
         <v>3</v>
       </c>
       <c r="D387" s="1" t="n">
-        <v>44222.84692713051</v>
+        <v>44224.85289744847</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>watercraft</t>
+          <t>as a token of</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>배, 배 타는 기술</t>
+          <t>~의 표시로서, ~의 증거로</t>
         </is>
       </c>
       <c r="C388" t="n">
         <v>3</v>
       </c>
       <c r="D388" s="1" t="n">
-        <v>44224.1516636881</v>
+        <v>44224.9519682622</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>obstruct</t>
+          <t>implication</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>막다</t>
+          <t>함축, 함의</t>
         </is>
       </c>
       <c r="C389" t="n">
         <v>3</v>
       </c>
-      <c r="D389" s="1" t="n">
-        <v>44222.84692713019</v>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771926</t>
+        </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>frustration</t>
+          <t>be credited with</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>좌절감, 불만</t>
+          <t>~에 공로가 있다</t>
         </is>
       </c>
       <c r="C390" t="n">
         <v>3</v>
       </c>
       <c r="D390" s="1" t="n">
-        <v>44224.85289744847</v>
+        <v>44224.95196826007</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>as a token of</t>
+          <t>prop(property)</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>~의 표시로서, ~의 증거로</t>
+          <t>소도구</t>
         </is>
       </c>
       <c r="C391" t="n">
         <v>3</v>
       </c>
       <c r="D391" s="1" t="n">
-        <v>44224.9519682622</v>
+        <v>44222.1141908952</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>call in</t>
+          <t>rake</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>~를 불러들이다</t>
+          <t>갈퀴</t>
         </is>
       </c>
       <c r="C392" t="n">
         <v>3</v>
       </c>
       <c r="D392" s="1" t="n">
-        <v>44222.11419089902</v>
+        <v>44222.11419089029</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>at the latest</t>
+          <t>obstruct</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>늦어도</t>
+          <t>막다</t>
         </is>
       </c>
       <c r="C393" t="n">
         <v>3</v>
       </c>
       <c r="D393" s="1" t="n">
-        <v>44224.15166368772</v>
+        <v>44222.84692713019</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>violator</t>
+          <t>dome</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>위반자</t>
+          <t>둥근 지붕을 달다; 둥근 지붕</t>
         </is>
       </c>
       <c r="C394" t="n">
         <v>3</v>
       </c>
-      <c r="D394" s="1" t="n">
-        <v>44222.11419089128</v>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772299</t>
+        </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>rake</t>
+          <t>be lined up</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>갈퀴</t>
+          <t>정렬되어 있다</t>
         </is>
       </c>
       <c r="C395" t="n">
         <v>3</v>
       </c>
       <c r="D395" s="1" t="n">
-        <v>44222.11419089029</v>
+        <v>44224.95196826228</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>troupe</t>
+          <t>overlook</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>공연단, 극단</t>
+          <t>간과; ~을 간과하다, 내려보다</t>
         </is>
       </c>
       <c r="C396" t="n">
         <v>3</v>
       </c>
       <c r="D396" s="1" t="n">
-        <v>44222.11419089528</v>
+        <v>44222.84692713336</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>openness</t>
+          <t>flier</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>솔직함, 개방성</t>
+          <t>광고 전단(= flyer)</t>
         </is>
       </c>
       <c r="C397" t="n">
         <v>3</v>
       </c>
       <c r="D397" s="1" t="n">
-        <v>44222.1141908947</v>
+        <v>44224.95196826182</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>be lined up</t>
+          <t>synthetic</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>정렬되어 있다</t>
+          <t>합성의</t>
         </is>
       </c>
       <c r="C398" t="n">
         <v>3</v>
       </c>
       <c r="D398" s="1" t="n">
-        <v>44224.95196826228</v>
+        <v>44222.84692713212</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>flier</t>
+          <t>crepe</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>광고 전단(= flyer)</t>
+          <t>얇은 팬케이크</t>
         </is>
       </c>
       <c r="C399" t="n">
         <v>3</v>
       </c>
-      <c r="D399" s="1" t="n">
-        <v>44224.95196826182</v>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772147</t>
+        </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>regardless of</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>(목표를 위한 새로운) 계획</t>
+          <t>~와 상관없이</t>
         </is>
       </c>
       <c r="C400" t="n">
         <v>3</v>
       </c>
-      <c r="D400" s="1" t="n">
-        <v>44222.11419089396</v>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772116</t>
+        </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>autobiographical</t>
+          <t>at the latest</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>자전적인</t>
+          <t>늦어도</t>
         </is>
       </c>
       <c r="C401" t="n">
         <v>3</v>
       </c>
       <c r="D401" s="1" t="n">
-        <v>44222.11419089197</v>
+        <v>44224.15166368772</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>regardless of</t>
+          <t>quotation</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>~와 상관없이</t>
+          <t>인용</t>
         </is>
       </c>
       <c r="C402" t="n">
         <v>3</v>
       </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772116</t>
-        </is>
+      <c r="D402" s="1" t="n">
+        <v>44226.27521903567</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>input</t>
+          <t>verification</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>조언</t>
+          <t>확인, 조회</t>
         </is>
       </c>
       <c r="C403" t="n">
         <v>3</v>
       </c>
       <c r="D403" s="1" t="n">
-        <v>44222.8469271358</v>
+        <v>44224.15166368864</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>professionalism</t>
+          <t>will pay a visit</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t xml:space="preserve">전문성 </t>
+          <t>방문할 것이다.</t>
         </is>
       </c>
       <c r="C404" t="n">
         <v>3</v>
       </c>
       <c r="D404" s="1" t="n">
-        <v>44222.84692713115</v>
+        <v>44222.11419089448</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>excuse</t>
+          <t>ramp</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>~을 용서하다, ~에 대해 변명하다</t>
+          <t>경사로</t>
         </is>
       </c>
       <c r="C405" t="n">
         <v>3</v>
       </c>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772040</t>
-        </is>
+      <c r="D405" s="1" t="n">
+        <v>44224.95196826259</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>run late</t>
+          <t>outpace</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>늦어지다</t>
+          <t>~을 능가하다</t>
         </is>
       </c>
       <c r="C406" t="n">
         <v>3</v>
       </c>
-      <c r="D406" s="1" t="n">
-        <v>44224.95196826274</v>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771813</t>
+        </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>consumer electronics industry</t>
+          <t>eatery</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>가전 사업</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C407" t="n">
         <v>3</v>
       </c>
       <c r="D407" s="1" t="n">
-        <v>44222.11419089379</v>
+        <v>44222.84692713509</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>adjacent to</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>~에 인접한</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>3</v>
+      </c>
+      <c r="D408" s="1" t="n">
+        <v>44224.95196826039</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>enthusiast</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>열성팬 [열렬한 팬]</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>3</v>
+      </c>
+      <c r="D409" s="1" t="n">
+        <v>44222.84692713221</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>tremendous</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>엄청난, 대단한</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>3</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772348</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>make a name</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>명성을 얻다</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>3</v>
+      </c>
+      <c r="D411" s="1" t="n">
+        <v>44224.85289744829</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>jointly</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>공동으로</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>3</v>
+      </c>
+      <c r="D412" s="1" t="n">
+        <v>44224.15166368744</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>help out</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>도와주다</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>3</v>
+      </c>
+      <c r="D413" s="1" t="n">
+        <v>44226.28725668362</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>such</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>그러한</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>3</v>
+      </c>
+      <c r="D414" s="1" t="n">
+        <v>44232.18014923315</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>excuse</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>~을 용서하다, ~에 대해 변명하다</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>3</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772040</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>in exchange for</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>~을 대신해서</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>3</v>
+      </c>
+      <c r="D416" s="1" t="n">
+        <v>44222.84692713327</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>initiative</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>(목표를 위한 새로운) 계획</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>3</v>
+      </c>
+      <c r="D417" s="1" t="n">
+        <v>44222.11419089396</v>
       </c>
     </row>
   </sheetData>

--- a/voca.xlsx
+++ b/voca.xlsx
@@ -427,19 +427,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>store credit</t>
+          <t>substantial</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>상점 적립금</t>
+          <t>상당한, 실질적인</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>44226.27521903476</v>
+        <v>44226.27521903696</v>
       </c>
     </row>
     <row r="2">
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -465,558 +465,566 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>put up</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>결근, 부재</t>
+          <t>~을 붙이다, 세우다</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>44222.84692713073</v>
+        <v>44222.11419088999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>delivery window</t>
+          <t>be due to + 동사원형</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>배달 시간대</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>44222.84692713558</v>
+        <v>44222.11419089388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>treat</t>
+          <t>relieve A of B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>특별한 기쁨, 만족</t>
+          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772166</t>
-        </is>
+      <c r="D5" s="1" t="n">
+        <v>44222.11419089597</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>결심, 결정, 결단력</t>
+          <t>견적</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>44226.28725668151</v>
+        <v>44226.27521903508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>reversal</t>
+          <t>move in</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>전환, 역전</t>
+          <t>이사 들어오다</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>44226.28725668282</v>
+        <v>44226.27521903287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>latest</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>최신의</t>
+          <t>산출하다, (이익을) 내다</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>44222.84692713204</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771984</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>initiation</t>
+          <t>school term</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>창시, 입문</t>
+          <t>학기</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>44224.95196826095</v>
+        <v>44226.28725668318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>allowance</t>
+          <t>resolution</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>수당</t>
+          <t>결심, 결정, 결단력</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>44226.28725668143</v>
+        <v>44226.28725668151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>be to blame</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(잘못의) 책임이 있다</t>
+          <t>중역</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44224.85289744868</v>
+        <v>44226.28725668391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>forestall</t>
+          <t>on your own</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>선수를 치다, 기선을 제압하다</t>
+          <t>혼자 힘으로</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771832</t>
-        </is>
+      <c r="D12" s="1" t="n">
+        <v>44226.27521903334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>beam</t>
+          <t>research into</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>들보, 보</t>
+          <t>~을 조사하다</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>44224.85289744888</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771870</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>authority</t>
+          <t>extend</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>당국, 권한</t>
+          <t>정도, 범위</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>44226.28725668169</v>
+        <v>44226.28725668084</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sealed</t>
+          <t>littered with</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">마감칠된, 밀폐된 </t>
+          <t>~로 어질러진, ~이 흩어진</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>44222.11419089418</v>
+        <v>44328.72546750412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>have company</t>
+          <t>mow</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>동행[일행]이 있다</t>
+          <t>잔디를 깎다</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>44226.28725668309</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772470</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>take inventory</t>
+          <t>bet</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>재고 조사를 하다</t>
+          <t>선택한 것[사람], 방책</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>44224.95196826282</v>
+        <v>44222.84692713251</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bird-nesting</t>
+          <t>testimonial</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(취미로) 새 둥지를 찾아다니는</t>
+          <t>추천의 글</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>44224.15166368884</v>
+        <v>44222.11419089424</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>executive committee</t>
+          <t>scholarship</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>집행 위원회</t>
+          <t>장학금</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>44226.27521903584</v>
+        <v>44226.28725668429</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>collect payment</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>취재하다, 기사를 담당하다</t>
+          <t>대금을 회수하다</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>44226.28725668292</v>
+        <v>44222.11419089455</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>reconfigure</t>
+          <t>high court</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>(시스템, 기기 등을) 재배열[재설정]</t>
+          <t>고등 법원</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>44224.85289744933</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771936</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pavilion</t>
+          <t>crate</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
+          <t>상자</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>44222.11419089228</v>
+        <v>44222.11419088969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>interfere with</t>
+          <t>lethal</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>~을 방해하다</t>
+          <t>치명적인</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>44224.85289744781</v>
+        <v>44328.72546750443</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>roll-out</t>
+          <t>be supposed to</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(신제품의) 첫 공개</t>
+          <t>~할 예정이다, ~하도록 되어 있다</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>44224.85289744857</v>
+        <v>44222.11419089574</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>move in</t>
+          <t>compete</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>이사 들어오다</t>
+          <t>경쟁하다</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>44226.27521903287</v>
+        <v>44232.18014923241</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>year-round</t>
+          <t>associate's degree</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>일년 내내</t>
+          <t>준학사 학위</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <v>44222.1141908922</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772097</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>insulated</t>
+          <t>tuck away</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>절연된</t>
+          <t>찾기힘든 안전한 곳에 보관하다</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>44222.1141908941</v>
+        <v>44222.84692713565</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>yield</t>
+          <t>serve as</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>산출하다, (이익을) 내다</t>
+          <t>~의 역할을 하다</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771984</t>
-        </is>
+      <c r="D28" s="1" t="n">
+        <v>44222.8469271309</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>landscape</t>
+          <t>lay</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>조경을 하다</t>
+          <t>놓다, 두다</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>4</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <v>44226.27521903383</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772433</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>glazed</t>
+          <t>credential</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>(설탕을 입혀) 윤기가 나는</t>
+          <t>자격(증), 보증서, 자격 인증(서)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>44222.84692713429</v>
+        <v>44222.11419089478</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>acclaimed</t>
+          <t>courtyard</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>칭찬[호평] 받는</t>
+          <t>뜰, 정원</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
-      <c r="D31" s="1" t="n">
-        <v>44226.28725668411</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772213</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>faculty</t>
+          <t>set</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>교수진</t>
+          <t>부과하다, 맡기다</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>44226.27521903722</v>
+        <v>44232.18014923265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>in preparation for</t>
+          <t>lie</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~에 대비하여</t>
+          <t>놓여 있다</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1024,199 +1032,201 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772320</t>
+          <t>2021-01-26 02:11:09.772423</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>criticism</t>
+          <t>Town council</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>비판, 비평</t>
+          <t>시의회</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>44226.28725668482</v>
+        <v>44224.95196826015</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>paystub</t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>급여 명세서</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>4</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>44222.84692713153</v>
+        <v>44222.84692713288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>color scheme</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
+          <t>색체 조합</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>44226.27521903359</v>
+        <v>44224.15166368855</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>verification</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~을 고려할 때</t>
+          <t>확인, 검증, 증거, 비준</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>44224.95196826023</v>
+        <v>44328.72546750459</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>relieve A of B</t>
+          <t>en masse</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A에게서 B(짐, 책임, 부담)를 덜어주다</t>
+          <t>집단으로</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>44222.11419089597</v>
+        <v>44224.85289744838</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>verification</t>
+          <t>bouquet</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>확인, 검증, 증거, 비준</t>
+          <t>꽃다발</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>44328.72546750459</v>
+        <v>44222.11419088952</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>premise</t>
+          <t>disclosure</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>구내, 토지</t>
+          <t>공개</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>44226.28725668188</v>
+        <v>44226.28725668178</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>to this end</t>
+          <t>liability</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>이를 위해, 이런 목적으로</t>
+          <t>책임</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>4</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <v>44222.11419089136</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771945</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>be busy -ing</t>
+          <t>paystub</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>~하느라 바쁘다</t>
+          <t>급여 명세서</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>44226.27521903316</v>
+        <v>44222.84692713153</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>irrigation</t>
+          <t>excutive chef</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>관개, 물을 끌어들임</t>
+          <t>총 주방장</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>44232.18014923284</v>
+        <v>44224.9519682608</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>research into</t>
+          <t>in preparation for</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>~을 조사하다</t>
+          <t>~에 대비하여</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1224,300 +1234,298 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771870</t>
+          <t>2021-01-26 02:11:09.772320</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>inherent</t>
+          <t>present</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>내재하는</t>
+          <t>제시[제출]하다</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>44328.72546750403</v>
+        <v>44232.18014923333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>every other week</t>
+          <t>elevation</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>격주로</t>
+          <t>승진</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>44222.11419089165</v>
+        <v>44226.27521903538</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>a load of</t>
+          <t>glazed</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>한 짐의, 많은</t>
+          <t>(설탕을 입혀) 윤기가 나는</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>44222.11419088984</v>
+        <v>44222.84692713429</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>autograph</t>
+          <t>feature</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>사인</t>
+          <t>(영화, 전시 등에) 등장시키다, 특집으로 다루다, 특징을 이루다</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>44222.11419089082</v>
+        <v>44224.85289744905</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>plush</t>
+          <t>proportional</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>안락한, 고급의</t>
+          <t>(~에) 비례하는</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>4</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772261</t>
-        </is>
+      <c r="D49" s="1" t="n">
+        <v>44232.18014923308</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>pay package</t>
+          <t>reversal</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>연봉</t>
+          <t>전환, 역전</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>44226.27521903706</v>
+        <v>44226.28725668282</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>cost A B</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~에 헌신하다[전념하다]</t>
+          <t>A에게 B의 비용이 들다</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>4</v>
       </c>
-      <c r="D51" s="1" t="n">
-        <v>44226.28725668327</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771851</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>compete</t>
+          <t>occasion</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>경쟁하다</t>
+          <t>때, 경우</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>44232.18014923241</v>
+        <v>44226.275219036</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>financial position</t>
+          <t>insulated</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>재무 상태</t>
+          <t>절연된</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>44222.11419089536</v>
+        <v>44222.1141908941</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>proportional</t>
+          <t>official</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>(~에) 비례하는</t>
+          <t>간부, 공무원</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>44232.18014923308</v>
+        <v>44222.11419089281</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>overdraw</t>
+          <t>be sure to</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
+          <t>반드시 ~하다</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772059</t>
-        </is>
+      <c r="D55" s="1" t="n">
+        <v>44226.2752190339</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>tuition</t>
+          <t>get to</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>학자금</t>
+          <t>~에 착수하다</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>44222.84692713174</v>
+        <v>44226.27521903298</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>condemned</t>
+          <t>tenant</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>비난받은, 구제할 길 없는</t>
+          <t>세입자</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>44328.72546750419</v>
+        <v>44226.28725668345</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>acidic</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>매우 신</t>
+          <t>변환</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>44222.84692713419</v>
+        <v>44226.27521903575</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">in exchange for </t>
+          <t>retention</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>~의 대가로</t>
+          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>4</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>44226.27521903688</v>
+        <v>44226.28725668124</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>in terms of</t>
+          <t>devotion</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>~의 면에서</t>
+          <t>헌신, 전념</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>44232.18014923233</v>
+        <v>44226.2752190349</v>
       </c>
     </row>
     <row r="61">
@@ -1541,1108 +1549,1104 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>reserve the right to + 동사원형</t>
+          <t>rotunda</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~할 권한을 보유하다</t>
+          <t>원형의 홀, 원형 건축물</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
-      <c r="D62" s="1" t="n">
-        <v>44224.85289744757</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772308</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Dancing around</t>
+          <t>year-round</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>빙빙돌려 얘기하다</t>
+          <t>일년 내내</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>4</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>44328.72546750391</v>
+        <v>44222.1141908922</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>jostle for</t>
+          <t>plumbing</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~을 위하여 다투다, 겨루다</t>
+          <t>배관[수도 시설], 배관 작업[공사]</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>4</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772185</t>
-        </is>
+      <c r="D64" s="1" t="n">
+        <v>44222.11419089181</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>in a single direction</t>
+          <t>paycheck</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>한 방향으로</t>
+          <t>급여(수표)</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>4</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>44224.95196826266</v>
+        <v>44222.84692713146</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>look forward to + -ing</t>
+          <t>sip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>~을 고대하다</t>
+          <t>마시다</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>44222.1141908915</v>
+        <v>44222.1141908906</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>somewhat</t>
+          <t>harvest</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>다소, 약간</t>
+          <t>수확(량)</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>44222.84692713027</v>
+        <v>44226.27521903561</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>plumbing</t>
+          <t>surveyor</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>배관[수도 시설], 배관 작업[공사]</t>
+          <t>측량사</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>44222.11419089181</v>
+        <v>44222.84692712996</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>initiator</t>
+          <t>assigned to</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>창시자</t>
+          <t>~로 발령받다</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>44224.95196826103</v>
+        <v>44226.27521903752</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>credential</t>
+          <t>be to blame</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>자격(증), 보증서, 자격 인증(서)</t>
+          <t>(잘못의) 책임이 있다</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>44222.11419089478</v>
+        <v>44224.85289744868</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>sip</t>
+          <t>admission</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>마시다</t>
+          <t>입장, 인정</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>4</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>44222.1141908906</v>
+        <v>44222.84692713066</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>podium</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>연단</t>
+          <t>관개, 물을 끌어들임</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>4</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>44222.11419089007</v>
+        <v>44232.18014923284</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>surveyor</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>측량사</t>
+          <t>(봉지에 넣어) 포장하다</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>4</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>44222.84692712996</v>
+        <v>44222.11419089067</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>booklet</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>부과하다, 맡기다</t>
+          <t>소책자</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>4</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>44232.18014923265</v>
+        <v>44226.27521903467</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>fool</t>
+          <t>proprietor</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>속이다</t>
+          <t>사업주</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>44222.84692713268</v>
+        <v>44226.28725668335</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>look over</t>
+          <t xml:space="preserve">halibut </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>~을 살펴보다</t>
+          <t>광어</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>4</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>44226.27521903375</v>
+        <v>44222.84692713412</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>cyanide</t>
+          <t>plow</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>시안화물, 청산가리</t>
+          <t>쟁기로 갈다; 쟁기</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>44328.72546750427</v>
+        <v>44222.11419088944</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Town council</t>
+          <t>premise</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>시의회</t>
+          <t>구내, 토지</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>44224.95196826015</v>
+        <v>44226.28725668188</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>retention</t>
+          <t>opener</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>(어떤 것을 잃지 않는) 유지, 보유</t>
+          <t>병따개, 첫 행동</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>4</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>44226.28725668124</v>
+        <v>44232.18014923323</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>be due to + 동사원형</t>
+          <t>gain</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>증가, 이익</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>4</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>44222.11419089388</v>
+        <v>44232.18014923292</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>be credited to</t>
+          <t>commune</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>~로 입금되다[금액이 넘어가다]</t>
+          <t>친하게 사귀다</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>4</v>
       </c>
-      <c r="D81" s="1" t="n">
-        <v>44224.85289744771</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772068</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>testimonial</t>
+          <t>expenditure</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>추천의 글</t>
+          <t>지출</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>4</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>44222.11419089424</v>
+        <v>44222.84692713573</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>littered with</t>
+          <t>bird-nesting</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>~로 어질러진, ~이 흩어진</t>
+          <t>(취미로) 새 둥지를 찾아다니는</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>4</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>44328.72546750412</v>
+        <v>44224.15166368884</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>be in force</t>
+          <t>pavilion</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>(법률 등이) 시행되다</t>
+          <t>파빌리온 (공원 내 쉼터, 공연장으로 쓰이는 건물)</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>4</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>44224.15166368782</v>
+        <v>44222.11419089228</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>mow</t>
+          <t xml:space="preserve">critic </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>잔디를 깎다</t>
+          <t>비평가</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772470</t>
-        </is>
+      <c r="D85" s="1" t="n">
+        <v>44226.28725668466</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>faulty</t>
+          <t>admit</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>결함이 있는</t>
+          <t>인정하다</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>44226.27521903606</v>
+        <v>44224.85289744914</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>scholarship</t>
+          <t>initiation</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>장학금</t>
+          <t>창시, 입문</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>44226.28725668429</v>
+        <v>44224.95196826095</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>board of trustees</t>
+          <t>roll-out</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>이사회</t>
+          <t>(신제품의) 첫 공개</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>4</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>44226.2872566842</v>
+        <v>44224.85289744857</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>on the premise</t>
+          <t>divert</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>점포 내에서</t>
+          <t>우회시키다</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>44232.18014923225</v>
+        <v>44328.72546750451</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>let down</t>
+          <t>interfere with</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>~을 실망시키다</t>
+          <t>~을 방해하다</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771974</t>
-        </is>
+      <c r="D90" s="1" t="n">
+        <v>44224.85289744781</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bet</t>
+          <t>reserve the right to + 동사원형</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>선택한 것[사람], 방책</t>
+          <t>~할 권한을 보유하다</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>4</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>44222.84692713251</v>
+        <v>44224.85289744757</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>allege</t>
+          <t>criticism</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>(확실한 증거 없이) 주장하다</t>
+          <t>비판, 비평</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>4</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>44222.11419089303</v>
+        <v>44226.28725668482</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>frustrating</t>
+          <t>pay package</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>실망스러운</t>
+          <t>연봉</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>4</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>44222.84692713296</v>
+        <v>44226.27521903706</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>vary</t>
+          <t>plush</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>(서로) 다르다, 다양하다</t>
+          <t>안락한, 고급의</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>4</v>
       </c>
-      <c r="D94" s="1" t="n">
-        <v>44222.84692713229</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772261</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>associate's degree</t>
+          <t>water tower</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>준학사 학위</t>
+          <t>급수탑</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772097</t>
-        </is>
+      <c r="D95" s="1" t="n">
+        <v>44222.11419089501</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>lay</t>
+          <t>orchard</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>놓다, 두다</t>
+          <t>과수원</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>4</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772433</t>
-        </is>
+      <c r="D96" s="1" t="n">
+        <v>44222.11419089173</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>orchard</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>과수원</t>
+          <t>범위, 영역</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>4</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>44222.11419089173</v>
+        <v>44222.11419089205</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>discretion</t>
+          <t>acclaimed</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>재량(권), 신중함</t>
+          <t>칭찬[호평] 받는</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>44226.28725668115</v>
+        <v>44226.28725668411</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>theatergoer</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>변환</t>
+          <t>극장에 (자주) 가는 사람</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>44226.27521903575</v>
+        <v>44224.95196826072</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>proprietor</t>
+          <t>outplay</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>사업주</t>
+          <t>패배시키다</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>4</v>
       </c>
-      <c r="D100" s="1" t="n">
-        <v>44226.28725668335</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771879</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>water tower</t>
+          <t>deliberation</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>급수탑</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>4</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>44222.11419089501</v>
+        <v>44222.11419089273</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>tenant</t>
+          <t>Destruction</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>세입자</t>
+          <t>파괴</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>4</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>44226.28725668345</v>
+        <v>44328.72546750468</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>be sure to</t>
+          <t>beam</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>반드시 ~하다</t>
+          <t>들보, 보</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>4</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>44226.2752190339</v>
+        <v>44224.85289744888</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>elevation</t>
+          <t>discretion</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>승진</t>
+          <t>재량(권), 신중함</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>44226.27521903538</v>
+        <v>44226.28725668115</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>high court</t>
+          <t>financial position</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>고등 법원</t>
+          <t>재무 상태</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>4</v>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771936</t>
-        </is>
+      <c r="D105" s="1" t="n">
+        <v>44222.11419089536</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Destruction</t>
+          <t>discrepancy</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>파괴</t>
+          <t>불일치, 차이</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>44328.72546750468</v>
+        <v>44226.28725668133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>feature</t>
+          <t>jostle for</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>(영화, 전시 등에) 등장시키다, 특집으로 다루다, 특징을 이루다</t>
+          <t>~을 위하여 다투다, 겨루다</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>4</v>
       </c>
-      <c r="D107" s="1" t="n">
-        <v>44224.85289744905</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772185</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>crate</t>
+          <t>allege</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>상자</t>
+          <t>(확실한 증거 없이) 주장하다</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>4</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>44222.11419088969</v>
+        <v>44222.11419089303</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>discrepancy</t>
+          <t>condemned</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>불일치, 차이</t>
+          <t>비난받은, 구제할 길 없는</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>4</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>44226.28725668133</v>
+        <v>44328.72546750419</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>earn</t>
+          <t>assistant manager</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>~에게 …을 받게 할 자격을 주다</t>
+          <t>대리</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>4</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>44226.27521903714</v>
+        <v>44222.84692713011</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">상당히 </t>
+          <t>~에 헌신하다[전념하다]</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>4</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>44222.84692713397</v>
+        <v>44226.28725668327</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>cost A B</t>
+          <t>tuition</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>A에게 B의 비용이 들다</t>
+          <t>학자금</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>4</v>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771851</t>
-        </is>
+      <c r="D112" s="1" t="n">
+        <v>44222.84692713174</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>assistant manager</t>
+          <t>fertilizer</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>대리</t>
+          <t>비료</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>4</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>44222.84692713011</v>
+        <v>44328.72546750435</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>lethal</t>
+          <t>acidic</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>치명적인</t>
+          <t>매우 신</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>4</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>44328.72546750443</v>
+        <v>44222.84692713419</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>you get what you pay for</t>
+          <t>faculty</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>싼게 비지떡</t>
+          <t>교수진</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>4</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>44222.1141908932</v>
+        <v>44226.27521903722</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>excutive chef</t>
+          <t>have company</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>총 주방장</t>
+          <t>동행[일행]이 있다</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>4</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>44224.9519682608</v>
+        <v>44226.28725668309</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>be supposed to</t>
+          <t>pier</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>~할 예정이다, ~하도록 되어 있다</t>
+          <t>부두</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>4</v>
       </c>
-      <c r="D117" s="1" t="n">
-        <v>44222.11419089574</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772395</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>devotion</t>
+          <t>latest</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>헌신, 전념</t>
+          <t>최신의</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>4</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>44226.2752190349</v>
+        <v>44222.84692713204</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>put up</t>
+          <t>delivery window</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>~을 붙이다, 세우다</t>
+          <t>배달 시간대</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>4</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>44222.11419088999</v>
+        <v>44222.84692713558</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>deliberation</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t xml:space="preserve">상당히 </t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>4</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>44222.11419089273</v>
+        <v>44222.84692713397</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ration</t>
+          <t>autograph</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>배급하다</t>
+          <t>사인</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>4</v>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772012</t>
-        </is>
+      <c r="D121" s="1" t="n">
+        <v>44222.11419089082</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>rotunda</t>
+          <t>forestall</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>원형의 홀, 원형 건축물</t>
+          <t>선수를 치다, 기선을 제압하다</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2650,1277 +2654,1273 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772308</t>
+          <t>2021-01-26 02:11:09.771832</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>fertilizer</t>
+          <t>derive</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>비료</t>
+          <t>끌어내다</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>4</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>44328.72546750435</v>
+        <v>44222.11419089582</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>occasion</t>
+          <t>fool</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>때, 경우</t>
+          <t>속이다</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>4</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>44226.275219036</v>
+        <v>44222.84692713268</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>theatergoer</t>
+          <t>store credit</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>극장에 (자주) 가는 사람</t>
+          <t>상점 적립금</t>
         </is>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>44224.95196826072</v>
+        <v>44226.27521903476</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>collect payment</t>
+          <t>authority</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>대금을 회수하다</t>
+          <t>당국, 권한</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>4</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>44222.11419089455</v>
+        <v>44226.28725668169</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>considerable</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>작업장</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>4</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>44224.85289744924</v>
+        <v>44232.1801492321</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>outplay</t>
+          <t>in terms of</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>패배시키다</t>
+          <t>~의 면에서</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771879</t>
-        </is>
+      <c r="D128" s="1" t="n">
+        <v>44232.18014923233</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>serve as</t>
+          <t xml:space="preserve">in exchange for </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>~의 역할을 하다</t>
+          <t>~의 대가로</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>4</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>44222.8469271309</v>
+        <v>44226.27521903688</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>get to</t>
+          <t>floor</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>~에 착수하다</t>
+          <t>작업장</t>
         </is>
       </c>
       <c r="C130" t="n">
         <v>4</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>44226.27521903298</v>
+        <v>44224.85289744924</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>pride oneself on</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>중역</t>
+          <t>~에 대해 자랑하다</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>44226.28725668391</v>
+        <v>44222.84692713107</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>pier</t>
+          <t>proximate</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>부두</t>
+          <t>가장 가까운</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>4</v>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772395</t>
-        </is>
+      <c r="D132" s="1" t="n">
+        <v>44222.84692713319</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>school term</t>
+          <t>Dancing around</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>학기</t>
+          <t>빙빙돌려 얘기하다</t>
         </is>
       </c>
       <c r="C133" t="n">
         <v>4</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>44226.28725668318</v>
+        <v>44328.72546750391</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>assigned to</t>
+          <t>somewhat</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>~로 발령받다</t>
+          <t>다소, 약간</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>44226.27521903752</v>
+        <v>44222.84692713027</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>correspondence</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>간부, 공무원</t>
+          <t>통신, 연락</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>4</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>44222.11419089281</v>
+        <v>44222.84692713374</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>unfavorable</t>
+          <t>wilted</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>불리한</t>
+          <t>살짝 데친</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>44224.15166368725</v>
+        <v>44222.84692713471</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>substantial</t>
+          <t>wilderness</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>상당한, 실질적인</t>
+          <t>황야</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>4</v>
       </c>
-      <c r="D137" s="1" t="n">
-        <v>44226.27521903696</v>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772087</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>lie</t>
+          <t>sealed</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>놓여 있다</t>
+          <t xml:space="preserve">마감칠된, 밀폐된 </t>
         </is>
       </c>
       <c r="C138" t="n">
         <v>4</v>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772423</t>
-        </is>
+      <c r="D138" s="1" t="n">
+        <v>44222.11419089418</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>wilderness</t>
+          <t>assume</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>황야</t>
+          <t>(책임 등을) 떠맡다, 담당하다</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772087</t>
-        </is>
+      <c r="D139" s="1" t="n">
+        <v>44232.18014923276</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>wilted</t>
+          <t>take inventory</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>살짝 데친</t>
+          <t>재고 조사를 하다</t>
         </is>
       </c>
       <c r="C140" t="n">
         <v>4</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>44222.84692713471</v>
+        <v>44224.95196826282</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>paycheck</t>
+          <t>every other week</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>급여(수표)</t>
+          <t>격주로</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>4</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>44222.84692713146</v>
+        <v>44222.11419089165</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>harvest</t>
+          <t>frustrating</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>수확(량)</t>
+          <t>실망스러운</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>4</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>44226.27521903561</v>
+        <v>44222.84692713296</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>on your own</t>
+          <t>be committed to</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>혼자 힘으로</t>
+          <t>~에 헌신하다, 전념하다</t>
         </is>
       </c>
       <c r="C143" t="n">
         <v>4</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>44226.27521903334</v>
+        <v>44224.95196826205</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>tuck away</t>
+          <t>inherent</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>찾기힘든 안전한 곳에 보관하다</t>
+          <t>내재하는</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>4</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>44222.84692713565</v>
+        <v>44328.72546750403</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>critically</t>
+          <t>concerning</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>비판적으로</t>
+          <t>~에 관한</t>
         </is>
       </c>
       <c r="C145" t="n">
         <v>4</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>44226.28725668474</v>
+        <v>44222.11419089493</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>bouquet</t>
+          <t>make landfall</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>꽃다발</t>
+          <t>착륙하다</t>
         </is>
       </c>
       <c r="C146" t="n">
         <v>4</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>44222.11419088952</v>
+        <v>44224.15166368837</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>expenditure</t>
+          <t>sole</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>지출</t>
+          <t>밑창</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>4</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>44222.84692713573</v>
+        <v>44222.8469271326</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>assortment</t>
+          <t>look over</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>모음</t>
+          <t>~을 살펴보다</t>
         </is>
       </c>
       <c r="C148" t="n">
         <v>4</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>44226.27521903592</v>
+        <v>44226.27521903375</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>~에 관한</t>
+          <t>영업, 사업</t>
         </is>
       </c>
       <c r="C149" t="n">
         <v>4</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>44222.11419089493</v>
+        <v>44226.27521903515</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>admission</t>
+          <t>rate</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>입장, 인정</t>
+          <t>평가하다, 등급을 매기다</t>
         </is>
       </c>
       <c r="C150" t="n">
         <v>4</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>44222.84692713066</v>
+        <v>44232.1801492325</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>offshore</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>연안에</t>
+          <t>비판적인</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" s="1" t="n">
-        <v>44224.15166368827</v>
+        <v>44226.2872566846</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>executive committee</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>평가하다, 등급을 매기다</t>
+          <t>집행 위원회</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>4</v>
       </c>
       <c r="D152" s="1" t="n">
-        <v>44232.1801492325</v>
+        <v>44226.27521903584</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>영업, 사업</t>
+          <t>시의</t>
         </is>
       </c>
       <c r="C153" t="n">
         <v>4</v>
       </c>
       <c r="D153" s="1" t="n">
-        <v>44226.27521903515</v>
+        <v>44222.11419089144</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>fabricate</t>
+          <t>be busy -ing</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>조립하다, 제작하다</t>
+          <t>~하느라 바쁘다</t>
         </is>
       </c>
       <c r="C154" t="n">
         <v>4</v>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771804</t>
-        </is>
+      <c r="D154" s="1" t="n">
+        <v>44226.27521903316</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>plow</t>
+          <t>cyanide</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>쟁기로 갈다; 쟁기</t>
+          <t>시안화물, 청산가리</t>
         </is>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" s="1" t="n">
-        <v>44222.11419088944</v>
+        <v>44328.72546750427</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>ration</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>(봉지에 넣어) 포장하다</t>
+          <t>배급하다</t>
         </is>
       </c>
       <c r="C156" t="n">
         <v>4</v>
       </c>
-      <c r="D156" s="1" t="n">
-        <v>44222.11419089067</v>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772012</t>
+        </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>to this end</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>시의</t>
+          <t>이를 위해, 이런 목적으로</t>
         </is>
       </c>
       <c r="C157" t="n">
         <v>4</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>44222.11419089144</v>
+        <v>44222.11419089136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>podium</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>비판적인</t>
+          <t>연단</t>
         </is>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>44226.2872566846</v>
+        <v>44222.11419089007</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>booklet</t>
+          <t>informal</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>소책자</t>
+          <t>비공식의</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>44226.27521903467</v>
+        <v>44232.18014923258</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>appreciate</t>
+          <t>be credited to</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>~로 입금되다[금액이 넘어가다]</t>
         </is>
       </c>
       <c r="C160" t="n">
         <v>4</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>44222.84692713288</v>
+        <v>44224.85289744771</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>sole</t>
+          <t>allowance</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>밑창</t>
+          <t>수당</t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>44222.8469271326</v>
+        <v>44226.28725668143</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">halibut </t>
+          <t>cover</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>광어</t>
+          <t>취재하다, 기사를 담당하다</t>
         </is>
       </c>
       <c r="C162" t="n">
         <v>4</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>44222.84692713412</v>
+        <v>44226.28725668292</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>assortment</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>제시[제출]하다</t>
+          <t>모음</t>
         </is>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" s="1" t="n">
-        <v>44232.18014923333</v>
+        <v>44226.27521903592</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>proximate</t>
+          <t>treat</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>가장 가까운</t>
+          <t>특별한 기쁨, 만족</t>
         </is>
       </c>
       <c r="C164" t="n">
         <v>4</v>
       </c>
-      <c r="D164" s="1" t="n">
-        <v>44222.84692713319</v>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772166</t>
+        </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>be committed to</t>
+          <t>fabricate</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>~에 헌신하다, 전념하다</t>
+          <t>조립하다, 제작하다</t>
         </is>
       </c>
       <c r="C165" t="n">
         <v>4</v>
       </c>
-      <c r="D165" s="1" t="n">
-        <v>44224.95196826205</v>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771804</t>
+        </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>gain</t>
+          <t>designate</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>증가, 이익</t>
+          <t>지정하다</t>
         </is>
       </c>
       <c r="C166" t="n">
         <v>4</v>
       </c>
       <c r="D166" s="1" t="n">
-        <v>44232.18014923292</v>
+        <v>44226.28725668353</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>extend</t>
+          <t>critically</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>정도, 범위</t>
+          <t>비판적으로</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>4</v>
       </c>
       <c r="D167" s="1" t="n">
-        <v>44226.28725668084</v>
+        <v>44226.28725668474</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>opener</t>
+          <t>offshore</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>병따개, 첫 행동</t>
+          <t>연안에</t>
         </is>
       </c>
       <c r="C168" t="n">
         <v>4</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>44232.18014923323</v>
+        <v>44224.15166368827</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>designate</t>
+          <t>be in force</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>지정하다</t>
+          <t>(법률 등이) 시행되다</t>
         </is>
       </c>
       <c r="C169" t="n">
         <v>4</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>44226.28725668353</v>
+        <v>44224.15166368782</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>assume</t>
+          <t>faulty</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>(책임 등을) 떠맡다, 담당하다</t>
+          <t>결함이 있는</t>
         </is>
       </c>
       <c r="C170" t="n">
         <v>4</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>44232.18014923276</v>
+        <v>44226.27521903606</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>commune</t>
+          <t>publicize</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>친하게 사귀다</t>
+          <t>공표하다, 알리다</t>
         </is>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772068</t>
-        </is>
+      <c r="D171" s="1" t="n">
+        <v>44224.95196826175</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>color scheme</t>
+          <t>overdraw</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>색체 조합</t>
+          <t>(수표나 어음을) 잔액 이상으로 초과발행하다</t>
         </is>
       </c>
       <c r="C172" t="n">
         <v>4</v>
       </c>
-      <c r="D172" s="1" t="n">
-        <v>44224.15166368855</v>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772059</t>
+        </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>board of trustees</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>처리[해결]하다, 다루다</t>
+          <t>이사회</t>
         </is>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>44224.95196826212</v>
+        <v>44226.2872566842</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>en masse</t>
+          <t>address</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>집단으로</t>
+          <t>처리[해결]하다, 다루다</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>4</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>44224.85289744838</v>
+        <v>44224.95196826212</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>correspondence</t>
+          <t>initiator</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>통신, 연락</t>
+          <t>창시자</t>
         </is>
       </c>
       <c r="C175" t="n">
         <v>4</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>44222.84692713374</v>
+        <v>44224.95196826103</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">critic </t>
+          <t>on the premise</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>비평가</t>
+          <t>점포 내에서</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>44226.28725668466</v>
+        <v>44232.18014923225</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>informal</t>
+          <t>given</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>비공식의</t>
+          <t>~을 고려할 때</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>4</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>44232.18014923258</v>
+        <v>44224.95196826023</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>disclosure</t>
+          <t>reconfigure</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>공개</t>
+          <t>(시스템, 기기 등을) 재배열[재설정]</t>
         </is>
       </c>
       <c r="C178" t="n">
         <v>4</v>
       </c>
       <c r="D178" s="1" t="n">
-        <v>44226.28725668178</v>
+        <v>44224.85289744933</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>make landfall</t>
+          <t>unfavorable</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>착륙하다</t>
+          <t>불리한</t>
         </is>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
       <c r="D179" s="1" t="n">
-        <v>44224.15166368837</v>
+        <v>44224.15166368725</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>pride oneself on</t>
+          <t>a load of</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>~에 대해 자랑하다</t>
+          <t>한 짐의, 많은</t>
         </is>
       </c>
       <c r="C180" t="n">
         <v>4</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>44222.84692713107</v>
+        <v>44222.11419088984</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>admit</t>
+          <t>let down</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>인정하다</t>
+          <t>~을 실망시키다</t>
         </is>
       </c>
       <c r="C181" t="n">
         <v>4</v>
       </c>
-      <c r="D181" s="1" t="n">
-        <v>44224.85289744914</v>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771974</t>
+        </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>courtyard</t>
+          <t>account</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>뜰, 정원</t>
+          <t>(광고 업체에 의뢰된) 일, 광고주; 거래 계약</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>4</v>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772213</t>
-        </is>
+      <c r="D182" s="1" t="n">
+        <v>44226.27521903359</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>now that</t>
+          <t>in a single direction</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>~이기 때문에</t>
+          <t>한 방향으로</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>4</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>44226.27521903344</v>
+        <v>44224.95196826266</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>scope</t>
+          <t>now that</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>범위, 영역</t>
+          <t>~이기 때문에</t>
         </is>
       </c>
       <c r="C184" t="n">
         <v>4</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>44222.11419089205</v>
+        <v>44226.27521903344</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>considerable</t>
+          <t>look forward to + -ing</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>~을 고대하다</t>
         </is>
       </c>
       <c r="C185" t="n">
         <v>4</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>44232.1801492321</v>
+        <v>44222.1141908915</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>liability</t>
+          <t>vary</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>책임</t>
+          <t>(서로) 다르다, 다양하다</t>
         </is>
       </c>
       <c r="C186" t="n">
         <v>4</v>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771945</t>
-        </is>
+      <c r="D186" s="1" t="n">
+        <v>44222.84692713229</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>divert</t>
+          <t>you get what you pay for</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>우회시키다</t>
+          <t>싼게 비지떡</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D187" s="1" t="n">
-        <v>44328.72546750451</v>
+        <v>44222.1141908932</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>valdiation</t>
+          <t>earn</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>확인</t>
+          <t>~에게 …을 받게 할 자격을 주다</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D188" s="1" t="n">
-        <v>44226.27521903553</v>
+        <v>44226.27521903714</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>publicize</t>
+          <t>valdiation</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>공표하다, 알리다</t>
+          <t>확인</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D189" s="1" t="n">
-        <v>44224.95196826175</v>
+        <v>44226.27521903553</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>derive</t>
+          <t>landscape</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>끌어내다</t>
+          <t>조경을 하다</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D190" s="1" t="n">
-        <v>44222.11419089582</v>
+        <v>44226.27521903383</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>estimate</t>
+          <t>privately held company</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>견적</t>
+          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D191" s="1" t="n">
-        <v>44226.27521903508</v>
+        <v>44222.11419089373</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">sizable </t>
+          <t>regardless of</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>상당한</t>
+          <t>~와 상관없이</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -3928,897 +3928,889 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772232</t>
+          <t>2021-01-26 02:11:09.772116</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>corn</t>
+          <t>at the latest</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>옥수수</t>
+          <t>늦어도</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>3</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>44232.180149233</v>
+        <v>44224.15166368772</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ojection</t>
+          <t>openness</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>솔직함, 개방성</t>
         </is>
       </c>
       <c r="C194" t="n">
         <v>3</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>44226.27521903523</v>
+        <v>44222.1141908947</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>end up -ing</t>
+          <t>polish</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>~하게 되다, 결국 ~이 되다</t>
+          <t>닦다, 광내다</t>
         </is>
       </c>
       <c r="C195" t="n">
         <v>3</v>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772223</t>
-        </is>
+      <c r="D195" s="1" t="n">
+        <v>44222.11419088977</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>quality assurance</t>
+          <t>will pay a visit</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>품질 보증</t>
+          <t>방문할 것이다.</t>
         </is>
       </c>
       <c r="C196" t="n">
         <v>3</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>44222.11419089433</v>
+        <v>44222.11419089448</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>highland</t>
+          <t>watercraft</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>고원</t>
+          <t>배, 배 타는 기술</t>
         </is>
       </c>
       <c r="C197" t="n">
         <v>3</v>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772078</t>
-        </is>
+      <c r="D197" s="1" t="n">
+        <v>44224.1516636881</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>awning</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>차양</t>
+          <t>유효한</t>
         </is>
       </c>
       <c r="C198" t="n">
         <v>3</v>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772367</t>
-        </is>
+      <c r="D198" s="1" t="n">
+        <v>44222.8469271319</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>input</t>
+          <t>adjacent to</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>조언</t>
+          <t>~에 인접한</t>
         </is>
       </c>
       <c r="C199" t="n">
         <v>3</v>
       </c>
       <c r="D199" s="1" t="n">
-        <v>44222.8469271358</v>
+        <v>44224.95196826039</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>as to</t>
+          <t>enthusiast</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>~에 관해</t>
+          <t>열성팬 [열렬한 팬]</t>
         </is>
       </c>
       <c r="C200" t="n">
         <v>3</v>
       </c>
       <c r="D200" s="1" t="n">
-        <v>44222.11419089403</v>
+        <v>44222.84692713221</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>formal</t>
+          <t>alumi</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>공식적인</t>
+          <t>졸업생들</t>
         </is>
       </c>
       <c r="C201" t="n">
         <v>3</v>
       </c>
       <c r="D201" s="1" t="n">
-        <v>44226.28725668443</v>
+        <v>44226.27521903729</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>polish</t>
+          <t>run late</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>닦다, 광내다</t>
+          <t>늦어지다</t>
         </is>
       </c>
       <c r="C202" t="n">
         <v>3</v>
       </c>
       <c r="D202" s="1" t="n">
-        <v>44222.11419088977</v>
+        <v>44224.95196826274</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>assembly</t>
+          <t>jointly</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>의회</t>
+          <t>공동으로</t>
         </is>
       </c>
       <c r="C203" t="n">
         <v>3</v>
       </c>
       <c r="D203" s="1" t="n">
-        <v>44226.27521903737</v>
+        <v>44224.15166368744</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>take off</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>유효한</t>
+          <t>이륙하다</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>3</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>44222.8469271319</v>
+        <v>44222.11419089037</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>alumi</t>
+          <t>be propped on[against]</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>졸업생들</t>
+          <t>~에 기대어 있다</t>
         </is>
       </c>
       <c r="C205" t="n">
         <v>3</v>
       </c>
       <c r="D205" s="1" t="n">
-        <v>44226.27521903729</v>
+        <v>44224.95196826236</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>run late</t>
+          <t>in exchange for</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>늦어지다</t>
+          <t>~을 대신해서</t>
         </is>
       </c>
       <c r="C206" t="n">
         <v>3</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>44224.95196826274</v>
+        <v>44222.84692713327</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>troupe</t>
+          <t>stationery store</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>공연단, 극단</t>
+          <t>문구점</t>
         </is>
       </c>
       <c r="C207" t="n">
         <v>3</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>44222.11419089528</v>
+        <v>44226.27521903351</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>be propped on[against]</t>
+          <t>professionalism</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>~에 기대어 있다</t>
+          <t xml:space="preserve">전문성 </t>
         </is>
       </c>
       <c r="C208" t="n">
         <v>3</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>44224.95196826236</v>
+        <v>44222.84692713115</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>professionalism</t>
+          <t>interoffice</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve">전문성 </t>
+          <t>회사 내의, 각 부서간의</t>
         </is>
       </c>
       <c r="C209" t="n">
         <v>3</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>44222.84692713115</v>
+        <v>44222.8469271298</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>interoffice</t>
+          <t>bistro</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>회사 내의, 각 부서간의</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C210" t="n">
         <v>3</v>
       </c>
       <c r="D210" s="1" t="n">
-        <v>44222.8469271298</v>
+        <v>44224.95196826063</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>attire</t>
+          <t>thoroughly</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>복장</t>
+          <t>철저히</t>
         </is>
       </c>
       <c r="C211" t="n">
         <v>3</v>
       </c>
       <c r="D211" s="1" t="n">
-        <v>44222.84692713121</v>
+        <v>44222.84692713282</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>thoroughly</t>
+          <t>tender</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>철저히</t>
+          <t>(고기가) 연한</t>
         </is>
       </c>
       <c r="C212" t="n">
         <v>3</v>
       </c>
       <c r="D212" s="1" t="n">
-        <v>44222.84692713282</v>
+        <v>44222.84692713404</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>tender</t>
+          <t>pass out</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>(고기가) 연한</t>
+          <t>건네다</t>
         </is>
       </c>
       <c r="C213" t="n">
         <v>3</v>
       </c>
       <c r="D213" s="1" t="n">
-        <v>44222.84692713404</v>
+        <v>44226.27521903459</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>pass out</t>
+          <t>get off</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>건네다</t>
+          <t>내리다</t>
         </is>
       </c>
       <c r="C214" t="n">
         <v>3</v>
       </c>
       <c r="D214" s="1" t="n">
-        <v>44226.27521903459</v>
+        <v>44226.27521903451</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>get off</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>내리다</t>
+          <t>직업</t>
         </is>
       </c>
       <c r="C215" t="n">
         <v>3</v>
       </c>
       <c r="D215" s="1" t="n">
-        <v>44226.27521903451</v>
+        <v>44226.27521903744</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>faint</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>직업</t>
+          <t>희미한</t>
         </is>
       </c>
       <c r="C216" t="n">
         <v>3</v>
       </c>
       <c r="D216" s="1" t="n">
-        <v>44226.27521903744</v>
+        <v>44222.11419089351</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>faint</t>
+          <t>delegate</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>희미한</t>
+          <t>대표(자), 위임하다, 선정하다</t>
         </is>
       </c>
       <c r="C217" t="n">
         <v>3</v>
       </c>
       <c r="D217" s="1" t="n">
-        <v>44222.11419089351</v>
+        <v>44222.1141908925</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>delegate</t>
+          <t>outlook</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>대표(자), 위임하다, 선정하다</t>
+          <t>관점, 전망</t>
         </is>
       </c>
       <c r="C218" t="n">
         <v>3</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>44222.1141908925</v>
+        <v>44226.27521903759</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>outlook</t>
+          <t>indication</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>관점, 전망</t>
+          <t>암시</t>
         </is>
       </c>
       <c r="C219" t="n">
         <v>3</v>
       </c>
       <c r="D219" s="1" t="n">
-        <v>44226.27521903759</v>
+        <v>44226.2752190353</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>indication</t>
+          <t>lean against</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>암시</t>
+          <t>~에 기대다</t>
         </is>
       </c>
       <c r="C220" t="n">
         <v>3</v>
       </c>
-      <c r="D220" s="1" t="n">
-        <v>44226.2752190353</v>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772451</t>
+        </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>lean against</t>
+          <t>anchor</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>~에 기대다</t>
+          <t>정박하다</t>
         </is>
       </c>
       <c r="C221" t="n">
         <v>3</v>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772451</t>
-        </is>
+      <c r="D221" s="1" t="n">
+        <v>44224.15166368819</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>anchor</t>
+          <t>as much as possible</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>정박하다</t>
+          <t>가능한 많이</t>
         </is>
       </c>
       <c r="C222" t="n">
         <v>3</v>
       </c>
       <c r="D222" s="1" t="n">
-        <v>44224.15166368819</v>
+        <v>44226.27521903324</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>as much as possible</t>
+          <t>bear with</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>가능한 많이</t>
+          <t>~을 견디다, 참다</t>
         </is>
       </c>
       <c r="C223" t="n">
         <v>3</v>
       </c>
-      <c r="D223" s="1" t="n">
-        <v>44226.27521903324</v>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771955</t>
+        </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>bear with</t>
+          <t>compliment</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>~을 견디다, 참다</t>
+          <t>칭찬하다</t>
         </is>
       </c>
       <c r="C224" t="n">
         <v>3</v>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771955</t>
-        </is>
+      <c r="D224" s="1" t="n">
+        <v>44224.85289744801</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>compliment</t>
+          <t>momentum</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>칭찬하다</t>
+          <t>탄력, 가속도, 여세</t>
         </is>
       </c>
       <c r="C225" t="n">
         <v>3</v>
       </c>
       <c r="D225" s="1" t="n">
-        <v>44224.85289744801</v>
+        <v>44226.27521903367</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>momentum</t>
+          <t>in a timely manner</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>탄력, 가속도, 여세</t>
+          <t>시기에 맞게</t>
         </is>
       </c>
       <c r="C226" t="n">
         <v>3</v>
       </c>
       <c r="D226" s="1" t="n">
-        <v>44226.27521903367</v>
+        <v>44226.28725668437</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>in a timely manner</t>
+          <t>on time</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>시기에 맞게</t>
+          <t>정시에</t>
         </is>
       </c>
       <c r="C227" t="n">
         <v>3</v>
       </c>
       <c r="D227" s="1" t="n">
-        <v>44226.28725668437</v>
+        <v>44226.28725668383</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>on time</t>
+          <t>template</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>정시에</t>
+          <t>견본</t>
         </is>
       </c>
       <c r="C228" t="n">
         <v>3</v>
       </c>
       <c r="D228" s="1" t="n">
-        <v>44226.28725668383</v>
+        <v>44224.15166368846</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>template</t>
+          <t>be appointed + 직위</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>견본</t>
+          <t>~로 임명되다</t>
         </is>
       </c>
       <c r="C229" t="n">
         <v>3</v>
       </c>
       <c r="D229" s="1" t="n">
-        <v>44224.15166368846</v>
+        <v>44226.28725668301</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>be appointed + 직위</t>
+          <t>attire</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>~로 임명되다</t>
+          <t>복장</t>
         </is>
       </c>
       <c r="C230" t="n">
         <v>3</v>
       </c>
       <c r="D230" s="1" t="n">
-        <v>44226.28725668301</v>
+        <v>44222.84692713121</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>bistro</t>
+          <t>favor</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>호의</t>
         </is>
       </c>
       <c r="C231" t="n">
         <v>3</v>
       </c>
       <c r="D231" s="1" t="n">
-        <v>44224.95196826063</v>
+        <v>44226.275219035</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>favor</t>
+          <t xml:space="preserve">entrée </t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>호의</t>
+          <t>메인 메뉴</t>
         </is>
       </c>
       <c r="C232" t="n">
         <v>3</v>
       </c>
       <c r="D232" s="1" t="n">
-        <v>44226.275219035</v>
+        <v>44224.15166368672</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">entrée </t>
+          <t>nevertheless</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>메인 메뉴</t>
+          <t>그럼에도 불구하고</t>
         </is>
       </c>
       <c r="C233" t="n">
         <v>3</v>
       </c>
       <c r="D233" s="1" t="n">
-        <v>44224.15166368672</v>
+        <v>44222.11419089097</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>variation</t>
+          <t>initiative</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>차이, 변형(시킨 것)</t>
+          <t>(목표를 위한 새로운) 계획</t>
         </is>
       </c>
       <c r="C234" t="n">
         <v>3</v>
       </c>
       <c r="D234" s="1" t="n">
-        <v>44226.2872566816</v>
+        <v>44222.11419089396</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>stationery store</t>
+          <t>formerly</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>문구점</t>
+          <t>예전에</t>
         </is>
       </c>
       <c r="C235" t="n">
         <v>3</v>
       </c>
       <c r="D235" s="1" t="n">
-        <v>44226.27521903351</v>
+        <v>44224.95196826047</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>stove</t>
+          <t>variation</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>(조리용) 레인지</t>
+          <t>차이, 변형(시킨 것)</t>
         </is>
       </c>
       <c r="C236" t="n">
         <v>3</v>
       </c>
       <c r="D236" s="1" t="n">
-        <v>44222.11419088936</v>
+        <v>44226.2872566816</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>outdate</t>
+          <t>stove</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>시대에 뒤지게 하다</t>
+          <t>(조리용) 레인지</t>
         </is>
       </c>
       <c r="C237" t="n">
         <v>3</v>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772049</t>
-        </is>
+      <c r="D237" s="1" t="n">
+        <v>44222.11419088936</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>persevere</t>
+          <t>troupe</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>인내하다</t>
+          <t>공연단, 극단</t>
         </is>
       </c>
       <c r="C238" t="n">
         <v>3</v>
       </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771823</t>
-        </is>
+      <c r="D238" s="1" t="n">
+        <v>44222.11419089528</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>take off</t>
+          <t>help out</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>이륙하다</t>
+          <t>도와주다</t>
         </is>
       </c>
       <c r="C239" t="n">
         <v>3</v>
       </c>
       <c r="D239" s="1" t="n">
-        <v>44222.11419089037</v>
+        <v>44226.28725668362</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>outdate</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>대우, 처치</t>
+          <t>시대에 뒤지게 하다</t>
         </is>
       </c>
       <c r="C240" t="n">
         <v>3</v>
       </c>
-      <c r="D240" s="1" t="n">
-        <v>44226.27521903482</v>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772049</t>
+        </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>compare A with[to] B</t>
+          <t>persevere</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>A를 B에 비교[비유]하다</t>
+          <t>인내하다</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -4826,19 +4818,19 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771993</t>
+          <t>2021-01-26 02:11:09.771823</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>staircase</t>
+          <t>tremendous</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>계단</t>
+          <t>엄청난, 대단한</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -4846,615 +4838,623 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772386</t>
+          <t>2021-01-26 02:11:09.772348</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>consumer electronics industry</t>
+          <t>call in</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>가전 사업</t>
+          <t>~를 불러들이다</t>
         </is>
       </c>
       <c r="C243" t="n">
         <v>3</v>
       </c>
       <c r="D243" s="1" t="n">
-        <v>44222.11419089379</v>
+        <v>44222.11419089902</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>directory</t>
+          <t>treatment</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>안내판, 명부</t>
+          <t>대우, 처치</t>
         </is>
       </c>
       <c r="C244" t="n">
         <v>3</v>
       </c>
       <c r="D244" s="1" t="n">
-        <v>44222.84692713129</v>
+        <v>44226.27521903482</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>unconvinced</t>
+          <t>compare A with[to] B</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>납득하지[찬성하지] 않는</t>
+          <t>A를 B에 비교[비유]하다</t>
         </is>
       </c>
       <c r="C245" t="n">
         <v>3</v>
       </c>
-      <c r="D245" s="1" t="n">
-        <v>44224.95196826149</v>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771993</t>
+        </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>decide against -ing</t>
+          <t>assembly</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>~하지 않기로 결정하다</t>
+          <t>의회</t>
         </is>
       </c>
       <c r="C246" t="n">
         <v>3</v>
       </c>
       <c r="D246" s="1" t="n">
-        <v>44224.85289744789</v>
+        <v>44226.27521903737</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>watercraft</t>
+          <t>ramp</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>배, 배 타는 기술</t>
+          <t>경사로</t>
         </is>
       </c>
       <c r="C247" t="n">
         <v>3</v>
       </c>
       <c r="D247" s="1" t="n">
-        <v>44224.1516636881</v>
+        <v>44224.95196826259</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>premiere</t>
+          <t>staircase</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>초연, 개봉; 최고의</t>
+          <t>계단</t>
         </is>
       </c>
       <c r="C248" t="n">
         <v>3</v>
       </c>
-      <c r="D248" s="1" t="n">
-        <v>44222.11419089365</v>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772386</t>
+        </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>autobiographical</t>
+          <t>consumer electronics industry</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>자전적인</t>
+          <t>가전 사업</t>
         </is>
       </c>
       <c r="C249" t="n">
         <v>3</v>
       </c>
       <c r="D249" s="1" t="n">
-        <v>44222.11419089197</v>
+        <v>44222.11419089379</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>formal</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>배치하다</t>
+          <t>공식적인</t>
         </is>
       </c>
       <c r="C250" t="n">
         <v>3</v>
       </c>
       <c r="D250" s="1" t="n">
-        <v>44222.11419089052</v>
+        <v>44226.28725668443</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>openness</t>
+          <t>quotation</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>솔직함, 개방성</t>
+          <t>인용</t>
         </is>
       </c>
       <c r="C251" t="n">
         <v>3</v>
       </c>
       <c r="D251" s="1" t="n">
-        <v>44222.1141908947</v>
+        <v>44226.27521903567</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>be about to + 동사원형</t>
+          <t>sloppy</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>막 ~하려고 하다</t>
+          <t>날림의, 엉성한</t>
         </is>
       </c>
       <c r="C252" t="n">
         <v>3</v>
       </c>
       <c r="D252" s="1" t="n">
-        <v>44222.11419088992</v>
+        <v>44222.11419089342</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>where as</t>
+          <t>directory</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>~이지만</t>
+          <t>안내판, 명부</t>
         </is>
       </c>
       <c r="C253" t="n">
         <v>3</v>
       </c>
       <c r="D253" s="1" t="n">
-        <v>44222.84692713051</v>
+        <v>44222.84692713129</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>as of + 시점</t>
+          <t>as to</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>~부로</t>
+          <t>~에 관해</t>
         </is>
       </c>
       <c r="C254" t="n">
         <v>3</v>
       </c>
       <c r="D254" s="1" t="n">
-        <v>44222.11419089551</v>
+        <v>44222.11419089403</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>privately held company</t>
+          <t>unconvinced</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>비공개회사 (소수의 주주나 임원이 소유한 회사)</t>
+          <t>납득하지[찬성하지] 않는</t>
         </is>
       </c>
       <c r="C255" t="n">
         <v>3</v>
       </c>
       <c r="D255" s="1" t="n">
-        <v>44222.11419089373</v>
+        <v>44224.95196826149</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>nevertheless</t>
+          <t>flier</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>그럼에도 불구하고</t>
+          <t>광고 전단(= flyer)</t>
         </is>
       </c>
       <c r="C256" t="n">
         <v>3</v>
       </c>
       <c r="D256" s="1" t="n">
-        <v>44222.11419089097</v>
+        <v>44224.95196826182</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>formerly</t>
+          <t>decide against -ing</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>예전에</t>
+          <t>~하지 않기로 결정하다</t>
         </is>
       </c>
       <c r="C257" t="n">
         <v>3</v>
       </c>
       <c r="D257" s="1" t="n">
-        <v>44224.95196826047</v>
+        <v>44224.85289744789</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>claim</t>
+          <t>premiere</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>~을 주장하다</t>
+          <t>초연, 개봉; 최고의</t>
         </is>
       </c>
       <c r="C258" t="n">
         <v>3</v>
       </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771907</t>
-        </is>
+      <c r="D258" s="1" t="n">
+        <v>44222.11419089365</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>violator</t>
+          <t>dome</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>위반자</t>
+          <t>둥근 지붕을 달다; 둥근 지붕</t>
         </is>
       </c>
       <c r="C259" t="n">
         <v>3</v>
       </c>
-      <c r="D259" s="1" t="n">
-        <v>44222.11419089128</v>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772299</t>
+        </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>call in</t>
+          <t>feasibility</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>~를 불러들이다</t>
+          <t>실행 가능성, 실현 가능성</t>
         </is>
       </c>
       <c r="C260" t="n">
         <v>3</v>
       </c>
       <c r="D260" s="1" t="n">
-        <v>44222.11419089902</v>
+        <v>44226.28725668096</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>matter</t>
+          <t>autobiographical</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>중요하다</t>
+          <t>자전적인</t>
         </is>
       </c>
       <c r="C261" t="n">
         <v>3</v>
       </c>
       <c r="D261" s="1" t="n">
-        <v>44226.28725668374</v>
+        <v>44222.11419089197</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>take over</t>
+          <t>position</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>인수하다, 이어받다</t>
+          <t>배치하다</t>
         </is>
       </c>
       <c r="C262" t="n">
         <v>3</v>
       </c>
       <c r="D262" s="1" t="n">
-        <v>44226.287256684</v>
+        <v>44222.11419089052</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>sloppy</t>
+          <t>implication</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>날림의, 엉성한</t>
+          <t>함축, 함의</t>
         </is>
       </c>
       <c r="C263" t="n">
         <v>3</v>
       </c>
-      <c r="D263" s="1" t="n">
-        <v>44222.11419089342</v>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771926</t>
+        </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>be about to + 동사원형</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>(장기적으로) 장소를 제공하다</t>
+          <t>막 ~하려고 하다</t>
         </is>
       </c>
       <c r="C264" t="n">
         <v>3</v>
       </c>
       <c r="D264" s="1" t="n">
-        <v>44224.95196826055</v>
+        <v>44222.11419088992</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>dairy farmer</t>
+          <t>sew</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>낙농업자</t>
+          <t>바느질하다, 꿰매다</t>
         </is>
       </c>
       <c r="C265" t="n">
         <v>3</v>
       </c>
       <c r="D265" s="1" t="n">
-        <v>44226.2752190368</v>
+        <v>44222.11419089357</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>feasibility</t>
+          <t>be scattered on</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>실행 가능성, 실현 가능성</t>
+          <t>~에 흩어져 있다</t>
         </is>
       </c>
       <c r="C266" t="n">
         <v>3</v>
       </c>
       <c r="D266" s="1" t="n">
-        <v>44226.28725668096</v>
+        <v>44224.95196826251</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>commentary</t>
+          <t>where as</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>~이지만</t>
         </is>
       </c>
       <c r="C267" t="n">
         <v>3</v>
       </c>
       <c r="D267" s="1" t="n">
-        <v>44226.28725668451</v>
+        <v>44222.84692713051</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>sew</t>
+          <t>outfitter</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>바느질하다, 꿰매다</t>
+          <t>야외 활동 장비점</t>
         </is>
       </c>
       <c r="C268" t="n">
         <v>3</v>
       </c>
       <c r="D268" s="1" t="n">
-        <v>44222.11419089357</v>
+        <v>44222.84692713182</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>be scattered on</t>
+          <t>go out of business</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>~에 흩어져 있다</t>
+          <t>파산하다, 폐업하다</t>
         </is>
       </c>
       <c r="C269" t="n">
         <v>3</v>
       </c>
       <c r="D269" s="1" t="n">
-        <v>44224.95196826251</v>
+        <v>44224.95196825996</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>outfitter</t>
+          <t>as of + 시점</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>야외 활동 장비점</t>
+          <t>~부로</t>
         </is>
       </c>
       <c r="C270" t="n">
         <v>3</v>
       </c>
       <c r="D270" s="1" t="n">
-        <v>44222.84692713182</v>
+        <v>44222.11419089551</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>go out of business</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>파산하다, 폐업하다</t>
+          <t>결근, 부재</t>
         </is>
       </c>
       <c r="C271" t="n">
         <v>3</v>
       </c>
       <c r="D271" s="1" t="n">
-        <v>44224.95196825996</v>
+        <v>44222.84692713073</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>deliveration</t>
+          <t>implore</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>심사숙고</t>
+          <t>애원하다, 간청하다</t>
         </is>
       </c>
       <c r="C272" t="n">
         <v>3</v>
       </c>
       <c r="D272" s="1" t="n">
-        <v>44222.84692713342</v>
+        <v>44222.11419089589</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>implore</t>
+          <t>somehow</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>애원하다, 간청하다</t>
+          <t>왜 그런지</t>
         </is>
       </c>
       <c r="C273" t="n">
         <v>3</v>
       </c>
       <c r="D273" s="1" t="n">
-        <v>44222.11419089589</v>
+        <v>44224.15166368764</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>somehow</t>
+          <t>hold one's own</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>왜 그런지</t>
+          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
         </is>
       </c>
       <c r="C274" t="n">
         <v>3</v>
       </c>
       <c r="D274" s="1" t="n">
-        <v>44224.15166368764</v>
+        <v>44224.15166368688</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>candidacy</t>
+          <t>consider A (as [to be]) B</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>입후보, 출마</t>
+          <t>A를 B로 여기다, 간주하다</t>
         </is>
       </c>
       <c r="C275" t="n">
         <v>3</v>
       </c>
-      <c r="D275" s="1" t="n">
-        <v>44222.1141908944</v>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771898</t>
+        </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>consider A (as [to be]) B</t>
+          <t>determine to do</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>A를 B로 여기다, 간주하다</t>
+          <t>~하겠다고 결심하다</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -5462,95 +5462,93 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.771898</t>
+          <t>2021-01-26 02:11:09.771889</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>determine to do</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>~하겠다고 결심하다</t>
+          <t>상당히, 꽤</t>
         </is>
       </c>
       <c r="C277" t="n">
         <v>3</v>
       </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771889</t>
-        </is>
+      <c r="D277" s="1" t="n">
+        <v>44222.11419089105</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>inform A of B</t>
+          <t>sleek</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>A에게 B에 대해 알리다</t>
+          <t>(모양이) 매끈한</t>
         </is>
       </c>
       <c r="C278" t="n">
         <v>3</v>
       </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772002</t>
-        </is>
+      <c r="D278" s="1" t="n">
+        <v>44224.8528974482</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>sleek</t>
+          <t>excerpt</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>(모양이) 매끈한</t>
+          <t>발췌, 인용</t>
         </is>
       </c>
       <c r="C279" t="n">
         <v>3</v>
       </c>
       <c r="D279" s="1" t="n">
-        <v>44224.8528974482</v>
+        <v>44222.84692713058</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>excerpt</t>
+          <t>robe</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>발췌, 인용</t>
+          <t>가운</t>
         </is>
       </c>
       <c r="C280" t="n">
         <v>3</v>
       </c>
-      <c r="D280" s="1" t="n">
-        <v>44222.84692713058</v>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772270</t>
+        </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>robe</t>
+          <t>courteous</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>가운</t>
+          <t>정중한</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -5558,19 +5556,19 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772270</t>
+          <t>2021-01-26 02:11:09.772125</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>courteous</t>
+          <t>get in</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>정중한</t>
+          <t>~에 들어가다, 도착하다</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -5578,773 +5576,769 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772125</t>
+          <t>2021-01-26 02:11:09.771965</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>get in</t>
+          <t>prohibit A from -ing</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>~에 들어가다, 도착하다</t>
+          <t>A가 ~하는 것을 금하다</t>
         </is>
       </c>
       <c r="C283" t="n">
         <v>3</v>
       </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771965</t>
-        </is>
+      <c r="D283" s="1" t="n">
+        <v>44224.1516636879</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>prohibit A from -ing</t>
+          <t>mussels</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>A가 ~하는 것을 금하다</t>
+          <t>홍합</t>
         </is>
       </c>
       <c r="C284" t="n">
         <v>3</v>
       </c>
       <c r="D284" s="1" t="n">
-        <v>44224.1516636879</v>
+        <v>44222.84692713389</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>operating efficiency</t>
+          <t>ceiling fan</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>작업 성능</t>
+          <t>천장 선풍기</t>
         </is>
       </c>
       <c r="C285" t="n">
         <v>3</v>
       </c>
-      <c r="D285" s="1" t="n">
-        <v>44224.95196826111</v>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772461</t>
+        </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ceiling fan</t>
+          <t>be in line for</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>천장 선풍기</t>
+          <t>~할 가능성이 있다</t>
         </is>
       </c>
       <c r="C286" t="n">
         <v>3</v>
       </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772461</t>
-        </is>
+      <c r="D286" s="1" t="n">
+        <v>44222.11419089894</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>be in line for</t>
+          <t>confer</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>~할 가능성이 있다</t>
+          <t>수여하다</t>
         </is>
       </c>
       <c r="C287" t="n">
         <v>3</v>
       </c>
-      <c r="D287" s="1" t="n">
-        <v>44222.11419089894</v>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771860</t>
+        </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>justify</t>
+          <t>field</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>증명하다, 입증하다</t>
+          <t>(질문을) 처리하다</t>
         </is>
       </c>
       <c r="C288" t="n">
         <v>3</v>
       </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772242</t>
-        </is>
+      <c r="D288" s="1" t="n">
+        <v>44222.11419089486</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>shelving unit</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>(질문을) 처리하다</t>
+          <t>선반</t>
         </is>
       </c>
       <c r="C289" t="n">
         <v>3</v>
       </c>
       <c r="D289" s="1" t="n">
-        <v>44222.11419089486</v>
+        <v>44222.11419089014</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>shelving unit</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>(길, 강 등이) 구불구불하다</t>
         </is>
       </c>
       <c r="C290" t="n">
         <v>3</v>
       </c>
       <c r="D290" s="1" t="n">
-        <v>44222.11419089014</v>
+        <v>44222.11419088961</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>associate</t>
+          <t>by contrast</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>연결지어 생각하다</t>
+          <t>그와 대조적으로</t>
         </is>
       </c>
       <c r="C291" t="n">
         <v>3</v>
       </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772251</t>
-        </is>
+      <c r="D291" s="1" t="n">
+        <v>44224.8528974481</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>by contrast</t>
+          <t>rugged</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>그와 대조적으로</t>
+          <t>울퉁불퉁한</t>
         </is>
       </c>
       <c r="C292" t="n">
         <v>3</v>
       </c>
       <c r="D292" s="1" t="n">
-        <v>44224.8528974481</v>
+        <v>44222.84692713236</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>rugged</t>
+          <t>have been left</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>울퉁불퉁한</t>
+          <t>~인 채로 있다</t>
         </is>
       </c>
       <c r="C293" t="n">
         <v>3</v>
       </c>
       <c r="D293" s="1" t="n">
-        <v>44222.84692713236</v>
+        <v>44224.95196826243</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>have been left</t>
+          <t>reenter</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>~인 채로 있다</t>
+          <t>다시 입력하다</t>
         </is>
       </c>
       <c r="C294" t="n">
         <v>3</v>
       </c>
       <c r="D294" s="1" t="n">
-        <v>44224.95196826243</v>
+        <v>44224.95196826167</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>reenter</t>
+          <t>sweep -&gt; swept -&gt; swept</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>다시 입력하다</t>
+          <t>(빗자루로)쓸다, 청소하다</t>
         </is>
       </c>
       <c r="C295" t="n">
         <v>3</v>
       </c>
-      <c r="D295" s="1" t="n">
-        <v>44224.95196826167</v>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772376</t>
+        </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>sweep -&gt; swept -&gt; swept</t>
+          <t>upholstery</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>(빗자루로)쓸다, 청소하다</t>
+          <t>(가구 덮개 등의) 실내 장식(품)</t>
         </is>
       </c>
       <c r="C296" t="n">
         <v>3</v>
       </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772376</t>
-        </is>
+      <c r="D296" s="1" t="n">
+        <v>44222.11419089334</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>upholstery</t>
+          <t>Candidate Referral Program</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>(가구 덮개 등의) 실내 장식(품)</t>
+          <t>사내 추천제</t>
         </is>
       </c>
       <c r="C297" t="n">
         <v>3</v>
       </c>
       <c r="D297" s="1" t="n">
-        <v>44222.11419089334</v>
+        <v>44222.84692713138</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>reception</t>
+          <t>right candidate</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>수신상태</t>
+          <t>적임자</t>
         </is>
       </c>
       <c r="C298" t="n">
         <v>3</v>
       </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772106</t>
-        </is>
+      <c r="D298" s="1" t="n">
+        <v>44222.11419089267</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>right candidate</t>
+          <t>promotional offers</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>적임자</t>
+          <t>판촉할인</t>
         </is>
       </c>
       <c r="C299" t="n">
         <v>3</v>
       </c>
       <c r="D299" s="1" t="n">
-        <v>44222.11419089267</v>
+        <v>44222.84692713197</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>promotional offers</t>
+          <t>meet with approval</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>판촉할인</t>
+          <t>동의[승인]를 얻다</t>
         </is>
       </c>
       <c r="C300" t="n">
         <v>3</v>
       </c>
       <c r="D300" s="1" t="n">
-        <v>44222.84692713197</v>
+        <v>44224.95196826134</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>take A out of B</t>
+          <t>bio</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>B에서 A를 뽑다</t>
+          <t>약력</t>
         </is>
       </c>
       <c r="C301" t="n">
         <v>3</v>
       </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772480</t>
-        </is>
+      <c r="D301" s="1" t="n">
+        <v>44224.15166368753</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>bio</t>
+          <t>set foot on</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>약력</t>
+          <t>~에 발을 들여놓다</t>
         </is>
       </c>
       <c r="C302" t="n">
         <v>3</v>
       </c>
       <c r="D302" s="1" t="n">
-        <v>44224.15166368753</v>
+        <v>44224.15166368801</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>set foot on</t>
+          <t>high-volume</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>~에 발을 들여놓다</t>
+          <t>대량의</t>
         </is>
       </c>
       <c r="C303" t="n">
         <v>3</v>
       </c>
-      <c r="D303" s="1" t="n">
-        <v>44224.15166368801</v>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772339</t>
+        </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>high-rise</t>
+          <t>much-needed</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>고층 빌딩</t>
+          <t>꼭 필요한</t>
         </is>
       </c>
       <c r="C304" t="n">
         <v>3</v>
       </c>
       <c r="D304" s="1" t="n">
-        <v>44222.11419089326</v>
+        <v>44222.11419089566</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>much-needed</t>
+          <t>pension</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>꼭 필요한</t>
+          <t>연금</t>
         </is>
       </c>
       <c r="C305" t="n">
         <v>3</v>
       </c>
       <c r="D305" s="1" t="n">
-        <v>44222.11419089566</v>
+        <v>44222.8469271316</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>pension</t>
+          <t>display bin</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>연금</t>
+          <t>진열장</t>
         </is>
       </c>
       <c r="C306" t="n">
         <v>3</v>
       </c>
       <c r="D306" s="1" t="n">
-        <v>44222.8469271316</v>
+        <v>44222.11419089544</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>display bin</t>
+          <t>compelling</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>진열장</t>
+          <t>설득력 있는, 눈을 뗄 수 없는</t>
         </is>
       </c>
       <c r="C307" t="n">
         <v>3</v>
       </c>
       <c r="D307" s="1" t="n">
-        <v>44222.11419089544</v>
+        <v>44224.15166368735</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>compelling</t>
+          <t>traditionally</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>설득력 있는, 눈을 뗄 수 없는</t>
+          <t>예전부터, 통상적으로</t>
         </is>
       </c>
       <c r="C308" t="n">
         <v>3</v>
       </c>
       <c r="D308" s="1" t="n">
-        <v>44224.15166368735</v>
+        <v>44222.84692713359</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>traditionally</t>
+          <t>matte</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>예전부터, 통상적으로</t>
+          <t>무광</t>
         </is>
       </c>
       <c r="C309" t="n">
         <v>3</v>
       </c>
       <c r="D309" s="1" t="n">
-        <v>44222.84692713359</v>
+        <v>44222.84692713501</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>matte</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>무광</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C310" t="n">
         <v>3</v>
       </c>
       <c r="D310" s="1" t="n">
-        <v>44222.84692713501</v>
+        <v>44222.84692713367</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>oar</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>(물에서 쓰는) 노</t>
+          <t>결정하다</t>
         </is>
       </c>
       <c r="C311" t="n">
         <v>3</v>
       </c>
       <c r="D311" s="1" t="n">
-        <v>44222.11419089075</v>
+        <v>44224.95196826118</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>fasten</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>결정하다</t>
+          <t>매다, 고정시키다</t>
         </is>
       </c>
       <c r="C312" t="n">
         <v>3</v>
       </c>
-      <c r="D312" s="1" t="n">
-        <v>44224.95196826118</v>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772357</t>
+        </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>fasten</t>
+          <t>autehntic</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>매다, 고정시키다</t>
+          <t>진짜의</t>
         </is>
       </c>
       <c r="C313" t="n">
         <v>3</v>
       </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772357</t>
-        </is>
+      <c r="D313" s="1" t="n">
+        <v>44222.11419089112</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>pay roll</t>
+          <t>qualified</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>급여 대상자 명단, 급여 총액</t>
+          <t>적격인</t>
         </is>
       </c>
       <c r="C314" t="n">
         <v>3</v>
       </c>
       <c r="D314" s="1" t="n">
-        <v>44222.11419089212</v>
+        <v>44222.84692713166</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>qualified</t>
+          <t>lodging</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>적격인</t>
+          <t>임시 숙소</t>
         </is>
       </c>
       <c r="C315" t="n">
         <v>3</v>
       </c>
       <c r="D315" s="1" t="n">
-        <v>44222.84692713166</v>
+        <v>44224.15166368707</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>lodging</t>
+          <t>sports complex</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>임시 숙소</t>
+          <t>종합 운동장</t>
         </is>
       </c>
       <c r="C316" t="n">
         <v>3</v>
       </c>
       <c r="D316" s="1" t="n">
-        <v>44224.15166368707</v>
+        <v>44222.11419089258</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>terrain</t>
+          <t>runway</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>지형</t>
+          <t>활주로</t>
         </is>
       </c>
       <c r="C317" t="n">
         <v>3</v>
       </c>
       <c r="D317" s="1" t="n">
-        <v>44222.84692713244</v>
+        <v>44222.11419089044</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>runway</t>
+          <t>glowing</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>활주로</t>
+          <t>극찬하는</t>
         </is>
       </c>
       <c r="C318" t="n">
         <v>3</v>
       </c>
       <c r="D318" s="1" t="n">
-        <v>44222.11419089044</v>
+        <v>44222.84692713534</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>glowing</t>
+          <t>expertise</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>극찬하는</t>
+          <t>전문성, 전문지식</t>
         </is>
       </c>
       <c r="C319" t="n">
         <v>3</v>
       </c>
       <c r="D319" s="1" t="n">
-        <v>44222.84692713534</v>
+        <v>44222.84692712968</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>expertise</t>
+          <t>gift certificate</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>전문성, 전문지식</t>
+          <t>상품권</t>
         </is>
       </c>
       <c r="C320" t="n">
         <v>3</v>
       </c>
       <c r="D320" s="1" t="n">
-        <v>44222.84692712968</v>
+        <v>44222.84692713035</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>gift certificate</t>
+          <t>professional reference</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>상품권</t>
+          <t>직장 관련 추천인</t>
         </is>
       </c>
       <c r="C321" t="n">
         <v>3</v>
       </c>
       <c r="D321" s="1" t="n">
-        <v>44222.84692713035</v>
+        <v>44222.84692713101</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>professional reference</t>
+          <t>fill prescriptions</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>직장 관련 추천인</t>
+          <t>처방약을 조제하다</t>
         </is>
       </c>
       <c r="C322" t="n">
         <v>3</v>
       </c>
       <c r="D322" s="1" t="n">
-        <v>44222.84692713101</v>
+        <v>44222.11419089463</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>fill prescriptions</t>
+          <t>fudge</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>처방약을 조제하다</t>
+          <t>연한(무른) 캔디</t>
         </is>
       </c>
       <c r="C323" t="n">
         <v>3</v>
       </c>
-      <c r="D323" s="1" t="n">
-        <v>44222.11419089463</v>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772176</t>
+        </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>fudge</t>
+          <t>exquisite</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>연한(무른) 캔디</t>
+          <t>정교한, 세련된</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -6352,407 +6346,405 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772176</t>
+          <t>2021-01-26 02:11:09.772280</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>exquisite</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>정교한, 세련된</t>
+          <t>배치, 직업소개</t>
         </is>
       </c>
       <c r="C325" t="n">
         <v>3</v>
       </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772280</t>
-        </is>
+      <c r="D325" s="1" t="n">
+        <v>44224.9519682619</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>terrain</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>배치, 직업소개</t>
+          <t>지형</t>
         </is>
       </c>
       <c r="C326" t="n">
         <v>3</v>
       </c>
       <c r="D326" s="1" t="n">
-        <v>44224.9519682619</v>
+        <v>44222.84692713244</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>sports complex</t>
+          <t>accomplished</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>종합 운동장</t>
+          <t>완수하다, 성취하다, 해내다 (= achieve)</t>
         </is>
       </c>
       <c r="C327" t="n">
         <v>3</v>
       </c>
       <c r="D327" s="1" t="n">
-        <v>44222.11419089258</v>
+        <v>44222.84692712988</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>accomplished</t>
+          <t>step over</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>완수하다, 성취하다, 해내다 (= achieve)</t>
+          <t>(장애물을) 넘다</t>
         </is>
       </c>
       <c r="C328" t="n">
         <v>3</v>
       </c>
       <c r="D328" s="1" t="n">
-        <v>44222.84692712988</v>
+        <v>44222.11419089022</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>step over</t>
+          <t>outline</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>(장애물을) 넘다</t>
+          <t>설명하다</t>
         </is>
       </c>
       <c r="C329" t="n">
         <v>3</v>
       </c>
       <c r="D329" s="1" t="n">
-        <v>44222.11419089022</v>
+        <v>44222.11419089312</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>outline</t>
+          <t>pay roll</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>설명하다</t>
+          <t>급여 대상자 명단, 급여 총액</t>
         </is>
       </c>
       <c r="C330" t="n">
         <v>3</v>
       </c>
       <c r="D330" s="1" t="n">
-        <v>44222.11419089312</v>
+        <v>44222.11419089212</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>autehntic</t>
+          <t>technical drawing</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>진짜의</t>
+          <t>제도(= drafting)</t>
         </is>
       </c>
       <c r="C331" t="n">
         <v>3</v>
       </c>
       <c r="D331" s="1" t="n">
-        <v>44222.11419089112</v>
+        <v>44222.1141908909</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>technical drawing</t>
+          <t>intense</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>제도(= drafting)</t>
+          <t>강렬한, 거센</t>
         </is>
       </c>
       <c r="C332" t="n">
         <v>3</v>
       </c>
-      <c r="D332" s="1" t="n">
-        <v>44222.1141908909</v>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772195</t>
+        </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>intense</t>
+          <t>aspiring</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>강렬한, 거센</t>
+          <t>장차 ~가 되려는</t>
         </is>
       </c>
       <c r="C333" t="n">
         <v>3</v>
       </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772195</t>
-        </is>
+      <c r="D333" s="1" t="n">
+        <v>44224.95196826126</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>aspiring</t>
+          <t>oar</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>장차 ~가 되려는</t>
+          <t>(물에서 쓰는) 노</t>
         </is>
       </c>
       <c r="C334" t="n">
         <v>3</v>
       </c>
       <c r="D334" s="1" t="n">
-        <v>44224.95196826126</v>
+        <v>44222.11419089075</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>sail</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>평가</t>
+          <t>돛; 항해하다</t>
         </is>
       </c>
       <c r="C335" t="n">
         <v>3</v>
       </c>
-      <c r="D335" s="1" t="n">
-        <v>44222.84692713367</v>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772442</t>
+        </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>sail</t>
+          <t>centerpiece</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>돛; 항해하다</t>
+          <t>중심부, 중앙 장식물</t>
         </is>
       </c>
       <c r="C336" t="n">
         <v>3</v>
       </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772442</t>
-        </is>
+      <c r="D336" s="1" t="n">
+        <v>44222.11419089235</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>centerpiece</t>
+          <t>gazebo</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>중심부, 중앙 장식물</t>
+          <t>(정원의) 정자</t>
         </is>
       </c>
       <c r="C337" t="n">
         <v>3</v>
       </c>
       <c r="D337" s="1" t="n">
-        <v>44222.11419089235</v>
+        <v>44222.11419089243</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>gazebo</t>
+          <t>recognize A as B</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>(정원의) 정자</t>
+          <t>A를 B로 인식하다</t>
         </is>
       </c>
       <c r="C338" t="n">
         <v>3</v>
       </c>
-      <c r="D338" s="1" t="n">
-        <v>44222.11419089243</v>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771842</t>
+        </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>recognize A as B</t>
+          <t>back-to-back</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>A를 B로 인식하다</t>
+          <t>연속적인, 잇따라</t>
         </is>
       </c>
       <c r="C339" t="n">
         <v>3</v>
       </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771842</t>
-        </is>
+      <c r="D339" s="1" t="n">
+        <v>44224.95196826157</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>back-to-back</t>
+          <t>once a month</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>연속적인, 잇따라</t>
+          <t>매달</t>
         </is>
       </c>
       <c r="C340" t="n">
         <v>3</v>
       </c>
       <c r="D340" s="1" t="n">
-        <v>44224.95196826157</v>
+        <v>44222.11419089159</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>once a month</t>
+          <t>manner</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>매달</t>
+          <t>방법, 방식, 예의 범절</t>
         </is>
       </c>
       <c r="C341" t="n">
         <v>3</v>
       </c>
       <c r="D341" s="1" t="n">
-        <v>44222.11419089159</v>
+        <v>44222.84692713305</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>manner</t>
+          <t>high-rise</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>방법, 방식, 예의 범절</t>
+          <t>고층 빌딩</t>
         </is>
       </c>
       <c r="C342" t="n">
         <v>3</v>
       </c>
       <c r="D342" s="1" t="n">
-        <v>44222.84692713305</v>
+        <v>44222.11419089326</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>high-volume</t>
+          <t>lead character</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>대량의</t>
+          <t>주인공</t>
         </is>
       </c>
       <c r="C343" t="n">
         <v>3</v>
       </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772339</t>
-        </is>
+      <c r="D343" s="1" t="n">
+        <v>44222.11419089189</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>lead character</t>
+          <t>proximity to</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>주인공</t>
+          <t>~에서 아주 가까움, 근접함</t>
         </is>
       </c>
       <c r="C344" t="n">
         <v>3</v>
       </c>
       <c r="D344" s="1" t="n">
-        <v>44222.11419089189</v>
+        <v>44222.84692713313</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>proximity to</t>
+          <t>knob</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>~에서 아주 가까움, 근접함</t>
+          <t>손잡이, 스위치</t>
         </is>
       </c>
       <c r="C345" t="n">
         <v>3</v>
       </c>
-      <c r="D345" s="1" t="n">
-        <v>44222.84692713313</v>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772031</t>
+        </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>knob</t>
+          <t>take A out of B</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>손잡이, 스위치</t>
+          <t>B에서 A를 뽑다</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -6760,405 +6752,411 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772031</t>
+          <t>2021-01-26 02:11:09.772480</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>meet with approval</t>
+          <t>prop</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>동의[승인]를 얻다</t>
+          <t>받치다</t>
         </is>
       </c>
       <c r="C347" t="n">
         <v>3</v>
       </c>
       <c r="D347" s="1" t="n">
-        <v>44224.95196826134</v>
+        <v>44222.11419088928</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>prop</t>
+          <t>disapprove</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>받치다</t>
+          <t>못마땅해 하다, 불만을 나타내다</t>
         </is>
       </c>
       <c r="C348" t="n">
         <v>3</v>
       </c>
-      <c r="D348" s="1" t="n">
-        <v>44222.11419088928</v>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771917</t>
+        </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>disapprove</t>
+          <t>start off</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>못마땅해 하다, 불만을 나타내다</t>
+          <t>출발하다, 시작하다</t>
         </is>
       </c>
       <c r="C349" t="n">
         <v>3</v>
       </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771917</t>
-        </is>
+      <c r="D349" s="1" t="n">
+        <v>44224.95196826196</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>start off</t>
+          <t>reception</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>출발하다, 시작하다</t>
+          <t>수신상태</t>
         </is>
       </c>
       <c r="C350" t="n">
         <v>3</v>
       </c>
-      <c r="D350" s="1" t="n">
-        <v>44224.95196826196</v>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772106</t>
+        </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Candidate Referral Program</t>
+          <t>botanist</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>사내 추천제</t>
+          <t>식물학자</t>
         </is>
       </c>
       <c r="C351" t="n">
         <v>3</v>
       </c>
-      <c r="D351" s="1" t="n">
-        <v>44222.84692713138</v>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772134</t>
+        </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>botanist</t>
+          <t>language institute</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>식물학자</t>
+          <t>어학원</t>
         </is>
       </c>
       <c r="C352" t="n">
         <v>3</v>
       </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772134</t>
-        </is>
+      <c r="D352" s="1" t="n">
+        <v>44222.1141908951</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>language institute</t>
+          <t>help in -ing</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>어학원</t>
+          <t>~하는데 있어서 도움</t>
         </is>
       </c>
       <c r="C353" t="n">
         <v>3</v>
       </c>
       <c r="D353" s="1" t="n">
-        <v>44222.1141908951</v>
+        <v>44222.84692713382</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>help in -ing</t>
+          <t>beneath</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>~하는데 있어서 도움</t>
+          <t>~밑에</t>
         </is>
       </c>
       <c r="C354" t="n">
         <v>3</v>
       </c>
       <c r="D354" s="1" t="n">
-        <v>44222.84692713382</v>
+        <v>44222.11419088913</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>beneath</t>
+          <t>production</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>~밑에</t>
+          <t>생산, 생상량</t>
         </is>
       </c>
       <c r="C355" t="n">
         <v>3</v>
       </c>
       <c r="D355" s="1" t="n">
-        <v>44222.11419088913</v>
+        <v>44222.84692713002</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>identical</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>생산, 생상량</t>
+          <t>똑같은, 동일한</t>
         </is>
       </c>
       <c r="C356" t="n">
         <v>3</v>
       </c>
-      <c r="D356" s="1" t="n">
-        <v>44222.84692713002</v>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772414</t>
+        </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>assumption</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>똑같은, 동일한</t>
+          <t>가정</t>
         </is>
       </c>
       <c r="C357" t="n">
         <v>3</v>
       </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772414</t>
-        </is>
+      <c r="D357" s="1" t="n">
+        <v>44222.8469271335</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>assumption</t>
+          <t>associate</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>가정</t>
+          <t>연결지어 생각하다</t>
         </is>
       </c>
       <c r="C358" t="n">
         <v>3</v>
       </c>
-      <c r="D358" s="1" t="n">
-        <v>44222.8469271335</v>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772251</t>
+        </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>simply</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>(길, 강 등이) 구불구불하다</t>
+          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
         </is>
       </c>
       <c r="C359" t="n">
         <v>3</v>
       </c>
       <c r="D359" s="1" t="n">
-        <v>44222.11419088961</v>
+        <v>44222.11419089295</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>simply</t>
+          <t>representative</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>&lt;말하고자 하는 것을 강조할 때 쓰인다&gt;</t>
+          <t>대표(자), 대의원, 국회의원</t>
         </is>
       </c>
       <c r="C360" t="n">
         <v>3</v>
       </c>
       <c r="D360" s="1" t="n">
-        <v>44222.11419089295</v>
+        <v>44224.95196826141</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>representative</t>
+          <t>stiff</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>대표(자), 대의원, 국회의원</t>
+          <t>뻣뻣한</t>
         </is>
       </c>
       <c r="C361" t="n">
         <v>3</v>
       </c>
       <c r="D361" s="1" t="n">
-        <v>44224.95196826141</v>
+        <v>44222.84692713274</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>stiff</t>
+          <t>justify</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>뻣뻣한</t>
+          <t>증명하다, 입증하다</t>
         </is>
       </c>
       <c r="C362" t="n">
         <v>3</v>
       </c>
-      <c r="D362" s="1" t="n">
-        <v>44222.84692713274</v>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772242</t>
+        </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>confer</t>
+          <t>authenticity</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>수여하다</t>
+          <t>진짜임</t>
         </is>
       </c>
       <c r="C363" t="n">
         <v>3</v>
       </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771860</t>
-        </is>
+      <c r="D363" s="1" t="n">
+        <v>44224.15166368874</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>authenticity</t>
+          <t>initiative</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>진짜임</t>
+          <t>주도적임, 계획</t>
         </is>
       </c>
       <c r="C364" t="n">
         <v>3</v>
       </c>
       <c r="D364" s="1" t="n">
-        <v>44224.15166368874</v>
+        <v>44224.95196826087</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>qualify for ~</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>주도적임, 계획</t>
+          <t>~의 자격을 얻다</t>
         </is>
       </c>
       <c r="C365" t="n">
         <v>3</v>
       </c>
       <c r="D365" s="1" t="n">
-        <v>44224.95196826087</v>
+        <v>44222.1141908912</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>qualify for ~</t>
+          <t>operating efficiency</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>~의 자격을 얻다</t>
+          <t>작업 성능</t>
         </is>
       </c>
       <c r="C366" t="n">
         <v>3</v>
       </c>
       <c r="D366" s="1" t="n">
-        <v>44222.1141908912</v>
+        <v>44224.95196826111</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>mussels</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>홍합</t>
+          <t>제공하다</t>
         </is>
       </c>
       <c r="C367" t="n">
         <v>3</v>
       </c>
-      <c r="D367" s="1" t="n">
-        <v>44222.84692713389</v>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772157</t>
+        </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>phenomenal</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>제공하다</t>
+          <t>경의적인, 경탄이 나오는</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -7166,111 +7164,111 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772157</t>
+          <t>2021-01-26 02:11:09.772289</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>phenomenal</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>경의적인, 경탄이 나오는</t>
+          <t>구현</t>
         </is>
       </c>
       <c r="C369" t="n">
         <v>3</v>
       </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772289</t>
-        </is>
+      <c r="D369" s="1" t="n">
+        <v>44222.84692713084</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>hands-on</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>구현</t>
+          <t>실천의, 직접 해보는</t>
         </is>
       </c>
       <c r="C370" t="n">
         <v>3</v>
       </c>
       <c r="D370" s="1" t="n">
-        <v>44222.84692713084</v>
+        <v>44222.11419089559</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>hands-on</t>
+          <t>prompt</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>실천의, 직접 해보는</t>
+          <t>(컴퓨터 시스템 상에서) ~하라고( 메시지로) 지시하다, 촉구하다</t>
         </is>
       </c>
       <c r="C371" t="n">
         <v>3</v>
       </c>
       <c r="D371" s="1" t="n">
-        <v>44222.11419089559</v>
+        <v>44222.84692713043</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>prompt</t>
+          <t>saving</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>(컴퓨터 시스템 상에서) ~하라고( 메시지로) 지시하다, 촉구하다</t>
+          <t>감액</t>
         </is>
       </c>
       <c r="C372" t="n">
         <v>3</v>
       </c>
       <c r="D372" s="1" t="n">
-        <v>44222.84692713043</v>
+        <v>44224.85289744897</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>saving</t>
+          <t>one another</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>감액</t>
+          <t>서로</t>
         </is>
       </c>
       <c r="C373" t="n">
         <v>3</v>
       </c>
-      <c r="D373" s="1" t="n">
-        <v>44224.85289744897</v>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772329</t>
+        </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>one another</t>
+          <t>inform A of B</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>서로</t>
+          <t>A에게 B에 대해 알리다</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -7278,479 +7276,477 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772329</t>
+          <t>2021-01-26 02:11:09.772002</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>honorarium</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>상당히, 꽤</t>
+          <t>사례비</t>
         </is>
       </c>
       <c r="C375" t="n">
         <v>3</v>
       </c>
       <c r="D375" s="1" t="n">
-        <v>44222.11419089105</v>
+        <v>44224.15166368717</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>honorarium</t>
+          <t>pole</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>사례비</t>
+          <t>기둥</t>
         </is>
       </c>
       <c r="C376" t="n">
         <v>3</v>
       </c>
-      <c r="D376" s="1" t="n">
-        <v>44224.15166368717</v>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772404</t>
+        </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>pole</t>
+          <t>hearty</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>기둥</t>
+          <t>(음식이) 푸짐하고 만족스러운</t>
         </is>
       </c>
       <c r="C377" t="n">
         <v>3</v>
       </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772404</t>
-        </is>
+      <c r="D377" s="1" t="n">
+        <v>44222.84692713589</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>hearty</t>
+          <t>candidacy</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>(음식이) 푸짐하고 만족스러운</t>
+          <t>입후보, 출마</t>
         </is>
       </c>
       <c r="C378" t="n">
         <v>3</v>
       </c>
       <c r="D378" s="1" t="n">
-        <v>44222.84692713589</v>
+        <v>44222.1141908944</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>hold one's own</t>
+          <t>composition</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>(반대나 공격에도 불구하고) 자신을 지켜내다</t>
+          <t>구성(요소)</t>
         </is>
       </c>
       <c r="C379" t="n">
         <v>3</v>
       </c>
       <c r="D379" s="1" t="n">
-        <v>44224.15166368688</v>
+        <v>44226.28725668104</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>composition</t>
+          <t>insist on -ing</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>구성(요소)</t>
+          <t>~할 것을 주장하다</t>
         </is>
       </c>
       <c r="C380" t="n">
         <v>3</v>
       </c>
       <c r="D380" s="1" t="n">
-        <v>44226.28725668104</v>
+        <v>44224.15166368698</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>insist on -ing</t>
+          <t>fiscal year</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>~할 것을 주장하다</t>
+          <t>회계 연도</t>
         </is>
       </c>
       <c r="C381" t="n">
         <v>3</v>
       </c>
       <c r="D381" s="1" t="n">
-        <v>44224.15166368698</v>
+        <v>44222.11419089911</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>valued at</t>
+          <t>deliveration</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>가격이 ~에 상당하는</t>
+          <t>심사숙고</t>
         </is>
       </c>
       <c r="C382" t="n">
         <v>3</v>
       </c>
       <c r="D382" s="1" t="n">
-        <v>44224.95196826031</v>
+        <v>44222.84692713342</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>fiscal year</t>
+          <t>valued at</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>회계 연도</t>
+          <t>가격이 ~에 상당하는</t>
         </is>
       </c>
       <c r="C383" t="n">
         <v>3</v>
       </c>
       <c r="D383" s="1" t="n">
-        <v>44222.11419089911</v>
+        <v>44224.95196826031</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>put on hold</t>
+          <t xml:space="preserve">sizable </t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>보류하다</t>
+          <t>상당한</t>
         </is>
       </c>
       <c r="C384" t="n">
         <v>3</v>
       </c>
-      <c r="D384" s="1" t="n">
-        <v>44224.8528974488</v>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772232</t>
+        </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>plot</t>
+          <t>put on hold</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>(소설, 영화 등의) 구성, 줄거리</t>
+          <t>보류하다</t>
         </is>
       </c>
       <c r="C385" t="n">
         <v>3</v>
       </c>
       <c r="D385" s="1" t="n">
-        <v>44222.11419089288</v>
+        <v>44224.8528974488</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>shred</t>
+          <t>plot</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>조각조각으로 찢다, 끝내버리다</t>
+          <t>(소설, 영화 등의) 구성, 줄거리</t>
         </is>
       </c>
       <c r="C386" t="n">
         <v>3</v>
       </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772021</t>
-        </is>
+      <c r="D386" s="1" t="n">
+        <v>44222.11419089288</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>frustration</t>
+          <t>corn</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>좌절감, 불만</t>
+          <t>옥수수</t>
         </is>
       </c>
       <c r="C387" t="n">
         <v>3</v>
       </c>
       <c r="D387" s="1" t="n">
-        <v>44224.85289744847</v>
+        <v>44232.180149233</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>as a token of</t>
+          <t>be credited with</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>~의 표시로서, ~의 증거로</t>
+          <t>~에 공로가 있다</t>
         </is>
       </c>
       <c r="C388" t="n">
         <v>3</v>
       </c>
       <c r="D388" s="1" t="n">
-        <v>44224.9519682622</v>
+        <v>44224.95196826007</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>implication</t>
+          <t>prop(property)</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>함축, 함의</t>
+          <t>소도구</t>
         </is>
       </c>
       <c r="C389" t="n">
         <v>3</v>
       </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771926</t>
-        </is>
+      <c r="D389" s="1" t="n">
+        <v>44222.1141908952</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>be credited with</t>
+          <t>commentary</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>~에 공로가 있다</t>
+          <t>평가</t>
         </is>
       </c>
       <c r="C390" t="n">
         <v>3</v>
       </c>
       <c r="D390" s="1" t="n">
-        <v>44224.95196826007</v>
+        <v>44226.28725668451</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>prop(property)</t>
+          <t>shred</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>소도구</t>
+          <t>조각조각으로 찢다, 끝내버리다</t>
         </is>
       </c>
       <c r="C391" t="n">
         <v>3</v>
       </c>
-      <c r="D391" s="1" t="n">
-        <v>44222.1141908952</v>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772021</t>
+        </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>rake</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>갈퀴</t>
+          <t>좌절감, 불만</t>
         </is>
       </c>
       <c r="C392" t="n">
         <v>3</v>
       </c>
       <c r="D392" s="1" t="n">
-        <v>44222.11419089029</v>
+        <v>44224.85289744847</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>obstruct</t>
+          <t>be lined up</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>막다</t>
+          <t>정렬되어 있다</t>
         </is>
       </c>
       <c r="C393" t="n">
         <v>3</v>
       </c>
       <c r="D393" s="1" t="n">
-        <v>44222.84692713019</v>
+        <v>44224.95196826228</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>dome</t>
+          <t>dairy farmer</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>둥근 지붕을 달다; 둥근 지붕</t>
+          <t>낙농업자</t>
         </is>
       </c>
       <c r="C394" t="n">
         <v>3</v>
       </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772299</t>
-        </is>
+      <c r="D394" s="1" t="n">
+        <v>44226.2752190368</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>be lined up</t>
+          <t>ojection</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>정렬되어 있다</t>
+          <t>반대</t>
         </is>
       </c>
       <c r="C395" t="n">
         <v>3</v>
       </c>
       <c r="D395" s="1" t="n">
-        <v>44224.95196826228</v>
+        <v>44226.27521903523</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>overlook</t>
+          <t>synthetic</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>간과; ~을 간과하다, 내려보다</t>
+          <t>합성의</t>
         </is>
       </c>
       <c r="C396" t="n">
         <v>3</v>
       </c>
       <c r="D396" s="1" t="n">
-        <v>44222.84692713336</v>
+        <v>44222.84692713212</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>flier</t>
+          <t>crepe</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>광고 전단(= flyer)</t>
+          <t>얇은 팬케이크</t>
         </is>
       </c>
       <c r="C397" t="n">
         <v>3</v>
       </c>
-      <c r="D397" s="1" t="n">
-        <v>44224.95196826182</v>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772147</t>
+        </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>synthetic</t>
+          <t>house</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>합성의</t>
+          <t>(장기적으로) 장소를 제공하다</t>
         </is>
       </c>
       <c r="C398" t="n">
         <v>3</v>
       </c>
       <c r="D398" s="1" t="n">
-        <v>44222.84692713212</v>
+        <v>44224.95196826055</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>crepe</t>
+          <t>as a token of</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>얇은 팬케이크</t>
+          <t>~의 표시로서, ~의 증거로</t>
         </is>
       </c>
       <c r="C399" t="n">
         <v>3</v>
       </c>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772147</t>
-        </is>
+      <c r="D399" s="1" t="n">
+        <v>44224.9519682622</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>regardless of</t>
+          <t>end up -ing</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>~와 상관없이</t>
+          <t>~하게 되다, 결국 ~이 되다</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -7758,275 +7754,279 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772116</t>
+          <t>2021-01-26 02:11:09.772223</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>at the latest</t>
+          <t>verification</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>늦어도</t>
+          <t>확인, 조회</t>
         </is>
       </c>
       <c r="C401" t="n">
         <v>3</v>
       </c>
       <c r="D401" s="1" t="n">
-        <v>44224.15166368772</v>
+        <v>44224.15166368864</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>quotation</t>
+          <t>take over</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>인용</t>
+          <t>인수하다, 이어받다</t>
         </is>
       </c>
       <c r="C402" t="n">
         <v>3</v>
       </c>
       <c r="D402" s="1" t="n">
-        <v>44226.27521903567</v>
+        <v>44226.287256684</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>verification</t>
+          <t>quality assurance</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>확인, 조회</t>
+          <t>품질 보증</t>
         </is>
       </c>
       <c r="C403" t="n">
         <v>3</v>
       </c>
       <c r="D403" s="1" t="n">
-        <v>44224.15166368864</v>
+        <v>44222.11419089433</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>will pay a visit</t>
+          <t>outpace</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>방문할 것이다.</t>
+          <t>~을 능가하다</t>
         </is>
       </c>
       <c r="C404" t="n">
         <v>3</v>
       </c>
-      <c r="D404" s="1" t="n">
-        <v>44222.11419089448</v>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771813</t>
+        </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ramp</t>
+          <t>eatery</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>경사로</t>
+          <t>작은 음식점</t>
         </is>
       </c>
       <c r="C405" t="n">
         <v>3</v>
       </c>
       <c r="D405" s="1" t="n">
-        <v>44224.95196826259</v>
+        <v>44222.84692713509</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>outpace</t>
+          <t>matter</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>~을 능가하다</t>
+          <t>중요하다</t>
         </is>
       </c>
       <c r="C406" t="n">
         <v>3</v>
       </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.771813</t>
-        </is>
+      <c r="D406" s="1" t="n">
+        <v>44226.28725668374</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>eatery</t>
+          <t>rake</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>작은 음식점</t>
+          <t>갈퀴</t>
         </is>
       </c>
       <c r="C407" t="n">
         <v>3</v>
       </c>
       <c r="D407" s="1" t="n">
-        <v>44222.84692713509</v>
+        <v>44222.11419089029</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>adjacent to</t>
+          <t>obstruct</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>~에 인접한</t>
+          <t>막다</t>
         </is>
       </c>
       <c r="C408" t="n">
         <v>3</v>
       </c>
       <c r="D408" s="1" t="n">
-        <v>44224.95196826039</v>
+        <v>44222.84692713019</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>enthusiast</t>
+          <t>make a name</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>열성팬 [열렬한 팬]</t>
+          <t>명성을 얻다</t>
         </is>
       </c>
       <c r="C409" t="n">
         <v>3</v>
       </c>
       <c r="D409" s="1" t="n">
-        <v>44222.84692713221</v>
+        <v>44224.85289744829</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>tremendous</t>
+          <t>violator</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>엄청난, 대단한</t>
+          <t>위반자</t>
         </is>
       </c>
       <c r="C410" t="n">
         <v>3</v>
       </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>2021-01-26 02:11:09.772348</t>
-        </is>
+      <c r="D410" s="1" t="n">
+        <v>44222.11419089128</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>make a name</t>
+          <t>highland</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>명성을 얻다</t>
+          <t>고원</t>
         </is>
       </c>
       <c r="C411" t="n">
         <v>3</v>
       </c>
-      <c r="D411" s="1" t="n">
-        <v>44224.85289744829</v>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772078</t>
+        </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>jointly</t>
+          <t>such</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>공동으로</t>
+          <t>그러한</t>
         </is>
       </c>
       <c r="C412" t="n">
         <v>3</v>
       </c>
       <c r="D412" s="1" t="n">
-        <v>44224.15166368744</v>
+        <v>44232.18014923315</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>help out</t>
+          <t>excuse</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>도와주다</t>
+          <t>~을 용서하다, ~에 대해 변명하다</t>
         </is>
       </c>
       <c r="C413" t="n">
         <v>3</v>
       </c>
-      <c r="D413" s="1" t="n">
-        <v>44226.28725668362</v>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.772040</t>
+        </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>such</t>
+          <t>claim</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>그러한</t>
+          <t>~을 주장하다</t>
         </is>
       </c>
       <c r="C414" t="n">
         <v>3</v>
       </c>
-      <c r="D414" s="1" t="n">
-        <v>44232.18014923315</v>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>2021-01-26 02:11:09.771907</t>
+        </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>excuse</t>
+          <t>awning</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>~을 용서하다, ~에 대해 변명하다</t>
+          <t>차양</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -8034,44 +8034,44 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>2021-01-26 02:11:09.772040</t>
+          <t>2021-01-26 02:11:09.772367</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>in exchange for</t>
+          <t>overlook</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>~을 대신해서</t>
+          <t>간과; ~을 간과하다, 내려보다</t>
         </is>
       </c>
       <c r="C416" t="n">
         <v>3</v>
       </c>
       <c r="D416" s="1" t="n">
-        <v>44222.84692713327</v>
+        <v>44222.84692713336</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>initiative</t>
+          <t>input</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>(목표를 위한 새로운) 계획</t>
+          <t>조언</t>
         </is>
       </c>
       <c r="C417" t="n">
         <v>3</v>
       </c>
       <c r="D417" s="1" t="n">
-        <v>44222.11419089396</v>
+        <v>44222.8469271358</v>
       </c>
     </row>
   </sheetData>
